--- a/Unemployment_europe_optimized.xlsx
+++ b/Unemployment_europe_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q198"/>
+  <dimension ref="A1:Q200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,23 +526,23 @@
         <v>39844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01170964251622131</v>
+        <v>0.01171325775240728</v>
       </c>
       <c r="C2" t="n">
-        <v>8.763790999999999</v>
+        <v>8.763779</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02084541087333491</v>
+        <v>0.02086130791970842</v>
       </c>
       <c r="E2" t="n">
-        <v>8.763790999999999</v>
+        <v>8.763779</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.01554463833458897</v>
+        <v>0.01554499178460667</v>
       </c>
       <c r="H2" t="n">
-        <v>8.3649</v>
+        <v>8.363549000000001</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -563,23 +563,23 @@
         <v>39872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01192654398566262</v>
+        <v>0.0119231778868345</v>
       </c>
       <c r="C3" t="n">
-        <v>9.067857999999999</v>
+        <v>9.065419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01554463833458897</v>
+        <v>0.01554499178460667</v>
       </c>
       <c r="E3" t="n">
-        <v>9.067857999999999</v>
+        <v>9.065419</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.01170964251622131</v>
+        <v>0.01171325775240728</v>
       </c>
       <c r="H3" t="n">
-        <v>8.763790999999999</v>
+        <v>8.763779</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -600,23 +600,23 @@
         <v>39903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006158150125568085</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="C4" t="n">
-        <v>9.353294999999999</v>
+        <v>9.352461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01170964251622131</v>
+        <v>0.01171325775240728</v>
       </c>
       <c r="E4" t="n">
-        <v>9.353294999999999</v>
+        <v>9.352461</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.01192654398566262</v>
+        <v>0.0119231778868345</v>
       </c>
       <c r="H4" t="n">
-        <v>9.067857999999999</v>
+        <v>9.065419</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -637,23 +637,23 @@
         <v>39933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005455606649243272</v>
+        <v>0.00545003256992338</v>
       </c>
       <c r="C5" t="n">
-        <v>9.524025999999999</v>
+        <v>9.524017000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01192654398566262</v>
+        <v>0.0119231778868345</v>
       </c>
       <c r="E5" t="n">
-        <v>9.524025999999999</v>
+        <v>9.524017000000001</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.006158150125568085</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="H5" t="n">
-        <v>9.353294999999999</v>
+        <v>9.352461</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -674,23 +674,23 @@
         <v>39964</v>
       </c>
       <c r="B6" t="n">
-        <v>0.000365203039243589</v>
+        <v>0.0003680509927672659</v>
       </c>
       <c r="C6" t="n">
-        <v>9.635812</v>
+        <v>9.635076</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006158150125568085</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="E6" t="n">
-        <v>9.635812</v>
+        <v>9.635076</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.005455606649243272</v>
+        <v>0.00545003256992338</v>
       </c>
       <c r="H6" t="n">
-        <v>9.524025999999999</v>
+        <v>9.524017000000001</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -711,23 +711,23 @@
         <v>39994</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.001586295284306871</v>
+        <v>-0.001580871515673543</v>
       </c>
       <c r="C7" t="n">
-        <v>9.715655</v>
+        <v>9.715351999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005455606649243272</v>
+        <v>0.00545003256992338</v>
       </c>
       <c r="E7" t="n">
-        <v>9.715655</v>
+        <v>9.715351999999999</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.000365203039243589</v>
+        <v>0.0003680509927672659</v>
       </c>
       <c r="H7" t="n">
-        <v>9.635812</v>
+        <v>9.635076</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,23 +748,23 @@
         <v>40025</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006191402949583313</v>
+        <v>-0.006185298104228742</v>
       </c>
       <c r="C8" t="n">
-        <v>9.812283000000001</v>
+        <v>9.814273999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.000365203039243589</v>
+        <v>0.0003680509927672659</v>
       </c>
       <c r="E8" t="n">
-        <v>9.812283000000001</v>
+        <v>9.814273999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.001586295284306871</v>
+        <v>-0.001580871515673543</v>
       </c>
       <c r="H8" t="n">
-        <v>9.715655</v>
+        <v>9.715351999999999</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -785,23 +785,23 @@
         <v>40056</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.001701488883836255</v>
+        <v>-0.001700694187244167</v>
       </c>
       <c r="C9" t="n">
-        <v>9.876530000000001</v>
+        <v>9.878826999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001586295284306871</v>
+        <v>-0.001580871515673543</v>
       </c>
       <c r="E9" t="n">
-        <v>9.876530000000001</v>
+        <v>9.878826999999999</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.006191402949583313</v>
+        <v>-0.006185298104228742</v>
       </c>
       <c r="H9" t="n">
-        <v>9.812283000000001</v>
+        <v>9.814273999999999</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -822,23 +822,23 @@
         <v>40086</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.003288658245262255</v>
+        <v>-0.0032966196301496</v>
       </c>
       <c r="C10" t="n">
-        <v>10.010917</v>
+        <v>10.01469</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006191402949583313</v>
+        <v>-0.006185298104228742</v>
       </c>
       <c r="E10" t="n">
-        <v>10.010917</v>
+        <v>10.01469</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.001701488883836255</v>
+        <v>-0.001700694187244167</v>
       </c>
       <c r="H10" t="n">
-        <v>9.876530000000001</v>
+        <v>9.878826999999999</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -859,23 +859,23 @@
         <v>40117</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001692650587926003</v>
+        <v>-0.001692329711810991</v>
       </c>
       <c r="C11" t="n">
-        <v>10.093333</v>
+        <v>10.090785</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001701488883836255</v>
+        <v>-0.001700694187244167</v>
       </c>
       <c r="E11" t="n">
-        <v>10.093333</v>
+        <v>10.090785</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-0.003288658245262255</v>
+        <v>-0.0032966196301496</v>
       </c>
       <c r="H11" t="n">
-        <v>10.010917</v>
+        <v>10.01469</v>
       </c>
       <c r="I11" t="n">
         <v>-0.001587301587301587</v>
@@ -898,25 +898,25 @@
         <v>40147</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004515410276167309</v>
+        <v>0.00452530523380279</v>
       </c>
       <c r="C12" t="n">
-        <v>10.158573</v>
+        <v>10.160813</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003288658245262255</v>
+        <v>-0.0032966196301496</v>
       </c>
       <c r="E12" t="n">
-        <v>10.158573</v>
+        <v>10.160813</v>
       </c>
       <c r="F12" t="n">
         <v>-0.001587301587301587</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001692650587926003</v>
+        <v>-0.001692329711810991</v>
       </c>
       <c r="H12" t="n">
-        <v>10.093333</v>
+        <v>10.090785</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -939,25 +939,25 @@
         <v>40178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008841239061126771</v>
+        <v>0.00884213562455205</v>
       </c>
       <c r="C13" t="n">
-        <v>10.149966</v>
+        <v>10.151364</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001692650587926003</v>
+        <v>-0.001692329711810991</v>
       </c>
       <c r="E13" t="n">
-        <v>10.149966</v>
+        <v>10.151364</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004515410276167309</v>
+        <v>0.00452530523380279</v>
       </c>
       <c r="H13" t="n">
-        <v>10.158573</v>
+        <v>10.160813</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>40209</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01106993050061433</v>
+        <v>0.01106684796442714</v>
       </c>
       <c r="C14" t="n">
-        <v>10.257262</v>
+        <v>10.252242</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004515410276167309</v>
+        <v>0.00452530523380279</v>
       </c>
       <c r="E14" t="n">
-        <v>10.257262</v>
+        <v>10.252242</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008841239061126771</v>
+        <v>0.00884213562455205</v>
       </c>
       <c r="H14" t="n">
-        <v>10.149966</v>
+        <v>10.151364</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>40237</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009893034533866363</v>
+        <v>0.009895886230070872</v>
       </c>
       <c r="C15" t="n">
-        <v>10.28828</v>
+        <v>10.286711</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008841239061126771</v>
+        <v>0.00884213562455205</v>
       </c>
       <c r="E15" t="n">
-        <v>10.28828</v>
+        <v>10.286711</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01106993050061433</v>
+        <v>0.01106684796442714</v>
       </c>
       <c r="H15" t="n">
-        <v>10.257262</v>
+        <v>10.252242</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1074,25 +1074,25 @@
         <v>40268</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01442482671688516</v>
+        <v>0.01443003673951271</v>
       </c>
       <c r="C16" t="n">
-        <v>10.27143</v>
+        <v>10.269064</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01106993050061433</v>
+        <v>0.01106684796442714</v>
       </c>
       <c r="E16" t="n">
-        <v>10.27143</v>
+        <v>10.269064</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009893034533866363</v>
+        <v>0.009895886230070872</v>
       </c>
       <c r="H16" t="n">
-        <v>10.28828</v>
+        <v>10.286711</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1123,25 +1123,25 @@
         <v>40298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01627417795526043</v>
+        <v>0.01625931988885743</v>
       </c>
       <c r="C17" t="n">
-        <v>10.362187</v>
+        <v>10.359683</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009893034533866363</v>
+        <v>0.009895886230070872</v>
       </c>
       <c r="E17" t="n">
-        <v>10.362187</v>
+        <v>10.359683</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01442482671688516</v>
+        <v>0.01443003673951271</v>
       </c>
       <c r="H17" t="n">
-        <v>10.27143</v>
+        <v>10.269064</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1174,25 +1174,25 @@
         <v>40329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01620451459949379</v>
+        <v>0.01620790437903263</v>
       </c>
       <c r="C18" t="n">
-        <v>10.358971</v>
+        <v>10.357851</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01442482671688516</v>
+        <v>0.01443003673951271</v>
       </c>
       <c r="E18" t="n">
-        <v>10.358971</v>
+        <v>10.357851</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01627417795526043</v>
+        <v>0.01625931988885743</v>
       </c>
       <c r="H18" t="n">
-        <v>10.362187</v>
+        <v>10.359683</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1227,25 +1227,25 @@
         <v>40359</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01425111858117756</v>
+        <v>0.01425835214461912</v>
       </c>
       <c r="C19" t="n">
-        <v>10.3109</v>
+        <v>10.3148</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01627417795526043</v>
+        <v>0.01625931988885743</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3109</v>
+        <v>10.3148</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01620451459949379</v>
+        <v>0.01620790437903263</v>
       </c>
       <c r="H19" t="n">
-        <v>10.358971</v>
+        <v>10.357851</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1280,25 +1280,25 @@
         <v>40390</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01735107310151118</v>
+        <v>0.01734991591796398</v>
       </c>
       <c r="C20" t="n">
-        <v>10.253493</v>
+        <v>10.250762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01620451459949379</v>
+        <v>0.01620790437903263</v>
       </c>
       <c r="E20" t="n">
-        <v>10.253493</v>
+        <v>10.250762</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01425111858117756</v>
+        <v>0.01425835214461912</v>
       </c>
       <c r="H20" t="n">
-        <v>10.3109</v>
+        <v>10.3148</v>
       </c>
       <c r="I20" t="n">
         <v>0.005376344086021506</v>
@@ -1333,25 +1333,25 @@
         <v>40421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01577127180511795</v>
+        <v>0.01576849511305856</v>
       </c>
       <c r="C21" t="n">
-        <v>10.222197</v>
+        <v>10.22699</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01425111858117756</v>
+        <v>0.01425835214461912</v>
       </c>
       <c r="E21" t="n">
-        <v>10.222197</v>
+        <v>10.22699</v>
       </c>
       <c r="F21" t="n">
         <v>0.005376344086021506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01735107310151118</v>
+        <v>0.01734991591796398</v>
       </c>
       <c r="H21" t="n">
-        <v>10.253493</v>
+        <v>10.250762</v>
       </c>
       <c r="I21" t="n">
         <v>0.007885304659498209</v>
@@ -1386,25 +1386,25 @@
         <v>40451</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0174954930804283</v>
+        <v>0.01749128715427428</v>
       </c>
       <c r="C22" t="n">
-        <v>10.229683</v>
+        <v>10.233528</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01735107310151118</v>
+        <v>0.01734991591796398</v>
       </c>
       <c r="E22" t="n">
-        <v>10.229683</v>
+        <v>10.233528</v>
       </c>
       <c r="F22" t="n">
         <v>0.007885304659498209</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01577127180511795</v>
+        <v>0.01576849511305856</v>
       </c>
       <c r="H22" t="n">
-        <v>10.222197</v>
+        <v>10.22699</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1439,25 +1439,25 @@
         <v>40482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0190197327044519</v>
+        <v>0.01902502890607494</v>
       </c>
       <c r="C23" t="n">
-        <v>10.266541</v>
+        <v>10.263167</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01577127180511795</v>
+        <v>0.01576849511305856</v>
       </c>
       <c r="E23" t="n">
-        <v>10.266541</v>
+        <v>10.263167</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0174954930804283</v>
+        <v>0.01749128715427428</v>
       </c>
       <c r="H23" t="n">
-        <v>10.229683</v>
+        <v>10.233528</v>
       </c>
       <c r="I23" t="n">
         <v>-0.006093189964157706</v>
@@ -1492,25 +1492,25 @@
         <v>40512</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0188783933374177</v>
+        <v>0.01887873128764728</v>
       </c>
       <c r="C24" t="n">
-        <v>10.207456</v>
+        <v>10.211189</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0174954930804283</v>
+        <v>0.01749128715427428</v>
       </c>
       <c r="E24" t="n">
-        <v>10.207456</v>
+        <v>10.211189</v>
       </c>
       <c r="F24" t="n">
         <v>-0.006093189964157706</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0190197327044519</v>
+        <v>0.01902502890607494</v>
       </c>
       <c r="H24" t="n">
-        <v>10.266541</v>
+        <v>10.263167</v>
       </c>
       <c r="I24" t="n">
         <v>-0.007407407407407408</v>
@@ -1545,25 +1545,25 @@
         <v>40543</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02175168396113936</v>
+        <v>0.02175050889742991</v>
       </c>
       <c r="C25" t="n">
-        <v>10.197747</v>
+        <v>10.197986</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0190197327044519</v>
+        <v>0.01902502890607494</v>
       </c>
       <c r="E25" t="n">
-        <v>10.197747</v>
+        <v>10.197986</v>
       </c>
       <c r="F25" t="n">
         <v>-0.007407407407407408</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0188783933374177</v>
+        <v>0.01887873128764728</v>
       </c>
       <c r="H25" t="n">
-        <v>10.207456</v>
+        <v>10.211189</v>
       </c>
       <c r="I25" t="n">
         <v>0.007526881720430108</v>
@@ -1598,25 +1598,25 @@
         <v>40574</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02388918486041547</v>
+        <v>0.02388887660044769</v>
       </c>
       <c r="C26" t="n">
-        <v>10.14068</v>
+        <v>10.134746</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0188783933374177</v>
+        <v>0.01887873128764728</v>
       </c>
       <c r="E26" t="n">
-        <v>10.14068</v>
+        <v>10.134746</v>
       </c>
       <c r="F26" t="n">
         <v>0.007526881720430108</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02175168396113936</v>
+        <v>0.02175050889742991</v>
       </c>
       <c r="H26" t="n">
-        <v>10.197747</v>
+        <v>10.197986</v>
       </c>
       <c r="I26" t="n">
         <v>0.01111111111111111</v>
@@ -1651,25 +1651,25 @@
         <v>40602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0257692514477128</v>
+        <v>0.02577461772846679</v>
       </c>
       <c r="C27" t="n">
-        <v>10.122961</v>
+        <v>10.121928</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02175168396113936</v>
+        <v>0.02175050889742991</v>
       </c>
       <c r="E27" t="n">
-        <v>10.122961</v>
+        <v>10.121928</v>
       </c>
       <c r="F27" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388918486041547</v>
+        <v>0.02388887660044769</v>
       </c>
       <c r="H27" t="n">
-        <v>10.14068</v>
+        <v>10.134746</v>
       </c>
       <c r="I27" t="n">
         <v>0.01111111111111111</v>
@@ -1704,25 +1704,25 @@
         <v>40633</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02588827125814674</v>
+        <v>0.02588778786066293</v>
       </c>
       <c r="C28" t="n">
-        <v>10.102287</v>
+        <v>10.101537</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02388918486041547</v>
+        <v>0.02388887660044769</v>
       </c>
       <c r="E28" t="n">
-        <v>10.102287</v>
+        <v>10.101537</v>
       </c>
       <c r="F28" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0257692514477128</v>
+        <v>0.02577461772846679</v>
       </c>
       <c r="H28" t="n">
-        <v>10.122961</v>
+        <v>10.121928</v>
       </c>
       <c r="I28" t="n">
         <v>0.003584229390681004</v>
@@ -1757,25 +1757,25 @@
         <v>40663</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0262696910820992</v>
+        <v>0.02625902218645582</v>
       </c>
       <c r="C29" t="n">
-        <v>10.024656</v>
+        <v>10.022998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0257692514477128</v>
+        <v>0.02577461772846679</v>
       </c>
       <c r="E29" t="n">
-        <v>10.024656</v>
+        <v>10.022998</v>
       </c>
       <c r="F29" t="n">
         <v>0.003584229390681004</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02588827125814674</v>
+        <v>0.02588778786066293</v>
       </c>
       <c r="H29" t="n">
-        <v>10.102287</v>
+        <v>10.101537</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>40694</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02615819050273593</v>
+        <v>0.02616409071596504</v>
       </c>
       <c r="C30" t="n">
-        <v>10.094876</v>
+        <v>10.095049</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02588827125814674</v>
+        <v>0.02588778786066293</v>
       </c>
       <c r="E30" t="n">
-        <v>10.094876</v>
+        <v>10.095049</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0262696910820992</v>
+        <v>0.02625902218645582</v>
       </c>
       <c r="H30" t="n">
-        <v>10.024656</v>
+        <v>10.022998</v>
       </c>
       <c r="I30" t="n">
         <v>0.003584229390681004</v>
@@ -1863,25 +1863,25 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02560147189266626</v>
+        <v>0.02560227818420202</v>
       </c>
       <c r="C31" t="n">
-        <v>10.118444</v>
+        <v>10.116414</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0262696910820992</v>
+        <v>0.02625902218645582</v>
       </c>
       <c r="E31" t="n">
-        <v>10.118444</v>
+        <v>10.116414</v>
       </c>
       <c r="F31" t="n">
         <v>0.003584229390681004</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02615819050273593</v>
+        <v>0.02616409071596504</v>
       </c>
       <c r="H31" t="n">
-        <v>10.094876</v>
+        <v>10.095049</v>
       </c>
       <c r="I31" t="n">
         <v>0.01111111111111111</v>
@@ -1916,25 +1916,25 @@
         <v>40755</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02644627771244945</v>
+        <v>0.02644931381929272</v>
       </c>
       <c r="C32" t="n">
-        <v>10.237174</v>
+        <v>10.241789</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02615819050273593</v>
+        <v>0.02616409071596504</v>
       </c>
       <c r="E32" t="n">
-        <v>10.237174</v>
+        <v>10.241789</v>
       </c>
       <c r="F32" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02560147189266626</v>
+        <v>0.02560227818420202</v>
       </c>
       <c r="H32" t="n">
-        <v>10.118444</v>
+        <v>10.116414</v>
       </c>
       <c r="I32" t="n">
         <v>-0.007168458781362008</v>
@@ -1969,25 +1969,25 @@
         <v>40786</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0271317073374</v>
+        <v>0.0271235299464978</v>
       </c>
       <c r="C33" t="n">
-        <v>10.342453</v>
+        <v>10.342535</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02560147189266626</v>
+        <v>0.02560227818420202</v>
       </c>
       <c r="E33" t="n">
-        <v>10.342453</v>
+        <v>10.342535</v>
       </c>
       <c r="F33" t="n">
         <v>-0.007168458781362008</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02644627771244945</v>
+        <v>0.02644931381929272</v>
       </c>
       <c r="H33" t="n">
-        <v>10.237174</v>
+        <v>10.241789</v>
       </c>
       <c r="I33" t="n">
         <v>-0.01039426523297491</v>
@@ -2022,25 +2022,25 @@
         <v>40816</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02832353384639319</v>
+        <v>0.02832425860489618</v>
       </c>
       <c r="C34" t="n">
-        <v>10.461258</v>
+        <v>10.460022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02644627771244945</v>
+        <v>0.02644931381929272</v>
       </c>
       <c r="E34" t="n">
-        <v>10.461258</v>
+        <v>10.460022</v>
       </c>
       <c r="F34" t="n">
         <v>-0.01039426523297491</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0271317073374</v>
+        <v>0.0271235299464978</v>
       </c>
       <c r="H34" t="n">
-        <v>10.342453</v>
+        <v>10.342535</v>
       </c>
       <c r="I34" t="n">
         <v>-0.02222222222222222</v>
@@ -2075,25 +2075,25 @@
         <v>40847</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02908775258626939</v>
+        <v>0.02909630726076884</v>
       </c>
       <c r="C35" t="n">
-        <v>10.571475</v>
+        <v>10.575501</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271317073374</v>
+        <v>0.0271235299464978</v>
       </c>
       <c r="E35" t="n">
-        <v>10.571475</v>
+        <v>10.575501</v>
       </c>
       <c r="F35" t="n">
         <v>-0.02222222222222222</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02832353384639319</v>
+        <v>0.02832425860489618</v>
       </c>
       <c r="H35" t="n">
-        <v>10.461258</v>
+        <v>10.460022</v>
       </c>
       <c r="I35" t="n">
         <v>-0.002508960573476703</v>
@@ -2128,25 +2128,25 @@
         <v>40877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02931017188873319</v>
+        <v>0.02930371141450028</v>
       </c>
       <c r="C36" t="n">
-        <v>10.723498</v>
+        <v>10.72319</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02832353384639319</v>
+        <v>0.02832425860489618</v>
       </c>
       <c r="E36" t="n">
-        <v>10.723498</v>
+        <v>10.72319</v>
       </c>
       <c r="F36" t="n">
         <v>-0.002508960573476703</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02908775258626939</v>
+        <v>0.02909630726076884</v>
       </c>
       <c r="H36" t="n">
-        <v>10.571475</v>
+        <v>10.575501</v>
       </c>
       <c r="I36" t="n">
         <v>-0.001111111111111111</v>
@@ -2181,25 +2181,25 @@
         <v>40908</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02687824257403815</v>
+        <v>0.02687389932272222</v>
       </c>
       <c r="C37" t="n">
-        <v>10.821217</v>
+        <v>10.821646</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02908775258626939</v>
+        <v>0.02909630726076884</v>
       </c>
       <c r="E37" t="n">
-        <v>10.821217</v>
+        <v>10.821646</v>
       </c>
       <c r="F37" t="n">
         <v>-0.001111111111111111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02931017188873319</v>
+        <v>0.02930371141450028</v>
       </c>
       <c r="H37" t="n">
-        <v>10.723498</v>
+        <v>10.72319</v>
       </c>
       <c r="I37" t="n">
         <v>0.02473118279569893</v>
@@ -2234,25 +2234,25 @@
         <v>40939</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02644954607692007</v>
+        <v>0.02645271057286802</v>
       </c>
       <c r="C38" t="n">
-        <v>10.874424</v>
+        <v>10.87179</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02931017188873319</v>
+        <v>0.02930371141450028</v>
       </c>
       <c r="E38" t="n">
-        <v>10.874424</v>
+        <v>10.87179</v>
       </c>
       <c r="F38" t="n">
         <v>0.02473118279569893</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02687824257403815</v>
+        <v>0.02687389932272222</v>
       </c>
       <c r="H38" t="n">
-        <v>10.821217</v>
+        <v>10.821646</v>
       </c>
       <c r="I38" t="n">
         <v>0.07060931899641577</v>
@@ -2287,25 +2287,25 @@
         <v>40968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02702162508798001</v>
+        <v>0.02702405672008545</v>
       </c>
       <c r="C39" t="n">
-        <v>11.045711</v>
+        <v>11.04378</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02687824257403815</v>
+        <v>0.02687389932272222</v>
       </c>
       <c r="E39" t="n">
-        <v>11.045711</v>
+        <v>11.04378</v>
       </c>
       <c r="F39" t="n">
         <v>0.07060931899641577</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02644954607692007</v>
+        <v>0.02645271057286802</v>
       </c>
       <c r="H39" t="n">
-        <v>10.874424</v>
+        <v>10.87179</v>
       </c>
       <c r="I39" t="n">
         <v>0.06704980842911877</v>
@@ -2340,25 +2340,25 @@
         <v>40999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02666775997996318</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="C40" t="n">
-        <v>11.221408</v>
+        <v>11.219505</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02644954607692007</v>
+        <v>0.02645271057286802</v>
       </c>
       <c r="E40" t="n">
-        <v>11.221408</v>
+        <v>11.219505</v>
       </c>
       <c r="F40" t="n">
         <v>0.06704980842911877</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02702162508798001</v>
+        <v>0.02702405672008545</v>
       </c>
       <c r="H40" t="n">
-        <v>11.045711</v>
+        <v>11.04378</v>
       </c>
       <c r="I40" t="n">
         <v>0.05734767025089606</v>
@@ -2393,25 +2393,25 @@
         <v>41029</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02567014726457018</v>
+        <v>0.02566257244671721</v>
       </c>
       <c r="C41" t="n">
-        <v>11.330773</v>
+        <v>11.330999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02702162508798001</v>
+        <v>0.02702405672008545</v>
       </c>
       <c r="E41" t="n">
-        <v>11.330773</v>
+        <v>11.330999</v>
       </c>
       <c r="F41" t="n">
         <v>0.05734767025089606</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02666775997996318</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="H41" t="n">
-        <v>11.221408</v>
+        <v>11.219505</v>
       </c>
       <c r="I41" t="n">
         <v>0.03740740740740741</v>
@@ -2446,25 +2446,25 @@
         <v>41060</v>
       </c>
       <c r="B42" t="n">
-        <v>0.0239658885112437</v>
+        <v>0.02396842120417819</v>
       </c>
       <c r="C42" t="n">
-        <v>11.385733</v>
+        <v>11.386215</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02666775997996318</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="E42" t="n">
-        <v>11.385733</v>
+        <v>11.386215</v>
       </c>
       <c r="F42" t="n">
         <v>0.03740740740740741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02567014726457018</v>
+        <v>0.02566257244671721</v>
       </c>
       <c r="H42" t="n">
-        <v>11.330773</v>
+        <v>11.330999</v>
       </c>
       <c r="I42" t="n">
         <v>0.04157706093189965</v>
@@ -2499,25 +2499,25 @@
         <v>41090</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02380273007017486</v>
+        <v>0.0238009388652527</v>
       </c>
       <c r="C43" t="n">
-        <v>11.485904</v>
+        <v>11.486182</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02567014726457018</v>
+        <v>0.02566257244671721</v>
       </c>
       <c r="E43" t="n">
-        <v>11.485904</v>
+        <v>11.486182</v>
       </c>
       <c r="F43" t="n">
         <v>0.04157706093189965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0239658885112437</v>
+        <v>0.02396842120417819</v>
       </c>
       <c r="H43" t="n">
-        <v>11.385733</v>
+        <v>11.386215</v>
       </c>
       <c r="I43" t="n">
         <v>0.06333333333333332</v>
@@ -2552,25 +2552,25 @@
         <v>41121</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02351071829057805</v>
+        <v>0.02351331563861514</v>
       </c>
       <c r="C44" t="n">
-        <v>11.553192</v>
+        <v>11.552608</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0239658885112437</v>
+        <v>0.02396842120417819</v>
       </c>
       <c r="E44" t="n">
-        <v>11.553192</v>
+        <v>11.552608</v>
       </c>
       <c r="F44" t="n">
         <v>0.06333333333333332</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02380273007017486</v>
+        <v>0.0238009388652527</v>
       </c>
       <c r="H44" t="n">
-        <v>11.485904</v>
+        <v>11.486182</v>
       </c>
       <c r="I44" t="n">
         <v>0.06200716845878135</v>
@@ -2605,25 +2605,25 @@
         <v>41152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02534522656250626</v>
+        <v>0.02533778185085911</v>
       </c>
       <c r="C45" t="n">
-        <v>11.594225</v>
+        <v>11.597838</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02380273007017486</v>
+        <v>0.0238009388652527</v>
       </c>
       <c r="E45" t="n">
-        <v>11.594225</v>
+        <v>11.597838</v>
       </c>
       <c r="F45" t="n">
         <v>0.06200716845878135</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02351071829057805</v>
+        <v>0.02351331563861514</v>
       </c>
       <c r="H45" t="n">
-        <v>11.553192</v>
+        <v>11.552608</v>
       </c>
       <c r="I45" t="n">
         <v>0.08637992831541219</v>
@@ -2658,25 +2658,25 @@
         <v>41182</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02583770313095268</v>
+        <v>0.02583948120412849</v>
       </c>
       <c r="C46" t="n">
-        <v>11.716162</v>
+        <v>11.716746</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02351071829057805</v>
+        <v>0.02351331563861514</v>
       </c>
       <c r="E46" t="n">
-        <v>11.716162</v>
+        <v>11.716746</v>
       </c>
       <c r="F46" t="n">
         <v>0.08637992831541219</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02534522656250626</v>
+        <v>0.02533778185085911</v>
       </c>
       <c r="H46" t="n">
-        <v>11.594225</v>
+        <v>11.597838</v>
       </c>
       <c r="I46" t="n">
         <v>0.1040740740740741</v>
@@ -2711,25 +2711,25 @@
         <v>41213</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02478367277359883</v>
+        <v>0.0247916134854913</v>
       </c>
       <c r="C47" t="n">
-        <v>11.865011</v>
+        <v>11.865668</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02534522656250626</v>
+        <v>0.02533778185085911</v>
       </c>
       <c r="E47" t="n">
-        <v>11.865011</v>
+        <v>11.865668</v>
       </c>
       <c r="F47" t="n">
         <v>0.1040740740740741</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02583770313095268</v>
+        <v>0.02583948120412849</v>
       </c>
       <c r="H47" t="n">
-        <v>11.716162</v>
+        <v>11.716746</v>
       </c>
       <c r="I47" t="n">
         <v>0.153763440860215</v>
@@ -2764,25 +2764,25 @@
         <v>41243</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02191095340669413</v>
+        <v>0.0219032714340015</v>
       </c>
       <c r="C48" t="n">
-        <v>11.996046</v>
+        <v>11.998168</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02583770313095268</v>
+        <v>0.02583948120412849</v>
       </c>
       <c r="E48" t="n">
-        <v>11.996046</v>
+        <v>11.998168</v>
       </c>
       <c r="F48" t="n">
         <v>0.153763440860215</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02478367277359883</v>
+        <v>0.0247916134854913</v>
       </c>
       <c r="H48" t="n">
-        <v>11.865011</v>
+        <v>11.865668</v>
       </c>
       <c r="I48" t="n">
         <v>0.1344444444444444</v>
@@ -2817,25 +2817,25 @@
         <v>41274</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02194992303523602</v>
+        <v>0.02194772660731559</v>
       </c>
       <c r="C49" t="n">
-        <v>12.025964</v>
+        <v>12.022808</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02478367277359883</v>
+        <v>0.0247916134854913</v>
       </c>
       <c r="E49" t="n">
-        <v>12.025964</v>
+        <v>12.022808</v>
       </c>
       <c r="F49" t="n">
         <v>0.1344444444444444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02191095340669413</v>
+        <v>0.0219032714340015</v>
       </c>
       <c r="H49" t="n">
-        <v>11.996046</v>
+        <v>11.998168</v>
       </c>
       <c r="I49" t="n">
         <v>0.04982078853046595</v>
@@ -2870,25 +2870,25 @@
         <v>41305</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01973092184882663</v>
+        <v>0.01973425397624595</v>
       </c>
       <c r="C50" t="n">
-        <v>12.22012</v>
+        <v>12.220366</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02191095340669413</v>
+        <v>0.0219032714340015</v>
       </c>
       <c r="E50" t="n">
-        <v>12.22012</v>
+        <v>12.220366</v>
       </c>
       <c r="F50" t="n">
         <v>0.04982078853046595</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02194992303523602</v>
+        <v>0.02194772660731559</v>
       </c>
       <c r="H50" t="n">
-        <v>12.025964</v>
+        <v>12.022808</v>
       </c>
       <c r="I50" t="n">
         <v>-0.006810035842293908</v>
@@ -2923,25 +2923,25 @@
         <v>41333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01820359066254795</v>
+        <v>0.01820406642828587</v>
       </c>
       <c r="C51" t="n">
-        <v>12.232278</v>
+        <v>12.231842</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02194992303523602</v>
+        <v>0.02194772660731559</v>
       </c>
       <c r="E51" t="n">
-        <v>12.232278</v>
+        <v>12.231842</v>
       </c>
       <c r="F51" t="n">
         <v>-0.006810035842293908</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01973092184882663</v>
+        <v>0.01973425397624595</v>
       </c>
       <c r="H51" t="n">
-        <v>12.22012</v>
+        <v>12.220366</v>
       </c>
       <c r="I51" t="n">
         <v>0.02182539682539682</v>
@@ -2976,25 +2976,25 @@
         <v>41364</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01644943176714442</v>
+        <v>0.01645263438946376</v>
       </c>
       <c r="C52" t="n">
-        <v>12.232906</v>
+        <v>12.230044</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01973092184882663</v>
+        <v>0.01973425397624595</v>
       </c>
       <c r="E52" t="n">
-        <v>12.232906</v>
+        <v>12.230044</v>
       </c>
       <c r="F52" t="n">
         <v>0.02182539682539682</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01820359066254795</v>
+        <v>0.01820406642828587</v>
       </c>
       <c r="H52" t="n">
-        <v>12.232278</v>
+        <v>12.231842</v>
       </c>
       <c r="I52" t="n">
         <v>0.1161290322580645</v>
@@ -3029,25 +3029,25 @@
         <v>41394</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0129165156322264</v>
+        <v>0.01291645695857024</v>
       </c>
       <c r="C53" t="n">
-        <v>12.250447</v>
+        <v>12.248155</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01820359066254795</v>
+        <v>0.01820406642828587</v>
       </c>
       <c r="E53" t="n">
-        <v>12.250447</v>
+        <v>12.248155</v>
       </c>
       <c r="F53" t="n">
         <v>0.1161290322580645</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01644943176714442</v>
+        <v>0.01645263438946376</v>
       </c>
       <c r="H53" t="n">
-        <v>12.232906</v>
+        <v>12.230044</v>
       </c>
       <c r="I53" t="n">
         <v>0.1759259259259259</v>
@@ -3082,25 +3082,25 @@
         <v>41425</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01434890488995677</v>
+        <v>0.01434786904245744</v>
       </c>
       <c r="C54" t="n">
-        <v>12.217696</v>
+        <v>12.219358</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01644943176714442</v>
+        <v>0.01645263438946376</v>
       </c>
       <c r="E54" t="n">
-        <v>12.217696</v>
+        <v>12.219358</v>
       </c>
       <c r="F54" t="n">
         <v>0.1759259259259259</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0129165156322264</v>
+        <v>0.01291645695857024</v>
       </c>
       <c r="H54" t="n">
-        <v>12.250447</v>
+        <v>12.248155</v>
       </c>
       <c r="I54" t="n">
         <v>0.2290322580645161</v>
@@ -3135,25 +3135,25 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01581520876742104</v>
+        <v>0.01580832528952492</v>
       </c>
       <c r="C55" t="n">
-        <v>12.163636</v>
+        <v>12.164839</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0129165156322264</v>
+        <v>0.01291645695857024</v>
       </c>
       <c r="E55" t="n">
-        <v>12.163636</v>
+        <v>12.164839</v>
       </c>
       <c r="F55" t="n">
         <v>0.2290322580645161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01434890488995677</v>
+        <v>0.01434786904245744</v>
       </c>
       <c r="H55" t="n">
-        <v>12.217696</v>
+        <v>12.219358</v>
       </c>
       <c r="I55" t="n">
         <v>0.2018518518518518</v>
@@ -3188,25 +3188,25 @@
         <v>41486</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01542854005888206</v>
+        <v>0.01543271694644144</v>
       </c>
       <c r="C56" t="n">
-        <v>12.131845</v>
+        <v>12.132855</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01434890488995677</v>
+        <v>0.01434786904245744</v>
       </c>
       <c r="E56" t="n">
-        <v>12.131845</v>
+        <v>12.132855</v>
       </c>
       <c r="F56" t="n">
         <v>0.2018518518518518</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01581520876742104</v>
+        <v>0.01580832528952492</v>
       </c>
       <c r="H56" t="n">
-        <v>12.163636</v>
+        <v>12.164839</v>
       </c>
       <c r="I56" t="n">
         <v>0.107168458781362</v>
@@ -3241,25 +3241,25 @@
         <v>41517</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01262377178559859</v>
+        <v>0.01262234679842145</v>
       </c>
       <c r="C57" t="n">
-        <v>12.101096</v>
+        <v>12.103364</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01581520876742104</v>
+        <v>0.01580832528952492</v>
       </c>
       <c r="E57" t="n">
-        <v>12.101096</v>
+        <v>12.103364</v>
       </c>
       <c r="F57" t="n">
         <v>0.107168458781362</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01542854005888206</v>
+        <v>0.01543271694644144</v>
       </c>
       <c r="H57" t="n">
-        <v>12.131845</v>
+        <v>12.132855</v>
       </c>
       <c r="I57" t="n">
         <v>0.05376344086021505</v>
@@ -3294,25 +3294,25 @@
         <v>41547</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01056842122799484</v>
+        <v>0.01056995503525293</v>
       </c>
       <c r="C58" t="n">
-        <v>12.14245</v>
+        <v>12.142307</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01542854005888206</v>
+        <v>0.01543271694644144</v>
       </c>
       <c r="E58" t="n">
-        <v>12.14245</v>
+        <v>12.142307</v>
       </c>
       <c r="F58" t="n">
         <v>0.05376344086021505</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01262377178559859</v>
+        <v>0.01262234679842145</v>
       </c>
       <c r="H58" t="n">
-        <v>12.101096</v>
+        <v>12.103364</v>
       </c>
       <c r="I58" t="n">
         <v>0.02777777777777778</v>
@@ -3347,25 +3347,25 @@
         <v>41578</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007357803912470651</v>
+        <v>0.007363598099581203</v>
       </c>
       <c r="C59" t="n">
-        <v>12.07331</v>
+        <v>12.076238</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01262377178559859</v>
+        <v>0.01262234679842145</v>
       </c>
       <c r="E59" t="n">
-        <v>12.07331</v>
+        <v>12.076238</v>
       </c>
       <c r="F59" t="n">
         <v>0.02777777777777778</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01056842122799484</v>
+        <v>0.01056995503525293</v>
       </c>
       <c r="H59" t="n">
-        <v>12.14245</v>
+        <v>12.142307</v>
       </c>
       <c r="I59" t="n">
         <v>0.05878136200716846</v>
@@ -3400,25 +3400,25 @@
         <v>41608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008246479521580419</v>
+        <v>0.008244108547312834</v>
       </c>
       <c r="C60" t="n">
-        <v>12.067815</v>
+        <v>12.064984</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01056842122799484</v>
+        <v>0.01056995503525293</v>
       </c>
       <c r="E60" t="n">
-        <v>12.067815</v>
+        <v>12.064984</v>
       </c>
       <c r="F60" t="n">
         <v>0.05878136200716846</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007357803912470651</v>
+        <v>0.007363598099581203</v>
       </c>
       <c r="H60" t="n">
-        <v>12.07331</v>
+        <v>12.076238</v>
       </c>
       <c r="I60" t="n">
         <v>0.05037037037037037</v>
@@ -3453,25 +3453,25 @@
         <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009205538065060637</v>
+        <v>0.009208350357027051</v>
       </c>
       <c r="C61" t="n">
-        <v>12.004418</v>
+        <v>12.004263</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007357803912470651</v>
+        <v>0.007363598099581203</v>
       </c>
       <c r="E61" t="n">
-        <v>12.004418</v>
+        <v>12.004263</v>
       </c>
       <c r="F61" t="n">
         <v>0.05037037037037037</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008246479521580419</v>
+        <v>0.008244108547312834</v>
       </c>
       <c r="H61" t="n">
-        <v>12.067815</v>
+        <v>12.064984</v>
       </c>
       <c r="I61" t="n">
         <v>0.06057347670250896</v>
@@ -3506,25 +3506,25 @@
         <v>41670</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007652435173820749</v>
+        <v>0.007658742245957306</v>
       </c>
       <c r="C62" t="n">
-        <v>12.050926</v>
+        <v>12.051558</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008246479521580419</v>
+        <v>0.008244108547312834</v>
       </c>
       <c r="E62" t="n">
-        <v>12.050926</v>
+        <v>12.051558</v>
       </c>
       <c r="F62" t="n">
         <v>0.06057347670250896</v>
       </c>
       <c r="G62" t="n">
-        <v>0.009205538065060637</v>
+        <v>0.009208350357027051</v>
       </c>
       <c r="H62" t="n">
-        <v>12.004418</v>
+        <v>12.004263</v>
       </c>
       <c r="I62" t="n">
         <v>0.05125448028673835</v>
@@ -3559,25 +3559,25 @@
         <v>41698</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007073092458333541</v>
+        <v>0.007072917016591518</v>
       </c>
       <c r="C63" t="n">
-        <v>12.017752</v>
+        <v>12.015866</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009205538065060637</v>
+        <v>0.009208350357027051</v>
       </c>
       <c r="E63" t="n">
-        <v>12.017752</v>
+        <v>12.015866</v>
       </c>
       <c r="F63" t="n">
         <v>0.05125448028673835</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007652435173820749</v>
+        <v>0.007658742245957306</v>
       </c>
       <c r="H63" t="n">
-        <v>12.050926</v>
+        <v>12.051558</v>
       </c>
       <c r="I63" t="n">
         <v>0.0123015873015873</v>
@@ -3612,25 +3612,25 @@
         <v>41729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.00539009585608774</v>
+        <v>0.005395615959995048</v>
       </c>
       <c r="C64" t="n">
-        <v>11.941034</v>
+        <v>11.939013</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007652435173820749</v>
+        <v>0.007658742245957306</v>
       </c>
       <c r="E64" t="n">
-        <v>11.941034</v>
+        <v>11.939013</v>
       </c>
       <c r="F64" t="n">
         <v>0.0123015873015873</v>
       </c>
       <c r="G64" t="n">
-        <v>0.007073092458333541</v>
+        <v>0.007072917016591518</v>
       </c>
       <c r="H64" t="n">
-        <v>12.017752</v>
+        <v>12.015866</v>
       </c>
       <c r="I64" t="n">
         <v>-0.02939068100358423</v>
@@ -3665,25 +3665,25 @@
         <v>41759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006599219466755457</v>
+        <v>0.006578711601914478</v>
       </c>
       <c r="C65" t="n">
-        <v>11.826713</v>
+        <v>11.827499</v>
       </c>
       <c r="D65" t="n">
-        <v>0.007073092458333541</v>
+        <v>0.007072917016591518</v>
       </c>
       <c r="E65" t="n">
-        <v>11.826713</v>
+        <v>11.827499</v>
       </c>
       <c r="F65" t="n">
         <v>-0.02939068100358423</v>
       </c>
       <c r="G65" t="n">
-        <v>0.00539009585608774</v>
+        <v>0.005395615959995048</v>
       </c>
       <c r="H65" t="n">
-        <v>11.941034</v>
+        <v>11.939013</v>
       </c>
       <c r="I65" t="n">
         <v>-0.02777777777777778</v>
@@ -3718,25 +3718,25 @@
         <v>41790</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005351832982864124</v>
+        <v>0.005352567556348831</v>
       </c>
       <c r="C66" t="n">
-        <v>11.757254</v>
+        <v>11.756032</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00539009585608774</v>
+        <v>0.005395615959995048</v>
       </c>
       <c r="E66" t="n">
-        <v>11.757254</v>
+        <v>11.756032</v>
       </c>
       <c r="F66" t="n">
         <v>-0.02777777777777778</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006599219466755457</v>
+        <v>0.006578711601914478</v>
       </c>
       <c r="H66" t="n">
-        <v>11.826713</v>
+        <v>11.827499</v>
       </c>
       <c r="I66" t="n">
         <v>0.006810035842293906</v>
@@ -3771,25 +3771,25 @@
         <v>41820</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004734211586994164</v>
+        <v>0.00473316058825457</v>
       </c>
       <c r="C67" t="n">
-        <v>11.601465</v>
+        <v>11.601286</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006599219466755457</v>
+        <v>0.006578711601914478</v>
       </c>
       <c r="E67" t="n">
-        <v>11.601465</v>
+        <v>11.601286</v>
       </c>
       <c r="F67" t="n">
         <v>0.006810035842293906</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005351832982864124</v>
+        <v>0.005352567556348831</v>
       </c>
       <c r="H67" t="n">
-        <v>11.757254</v>
+        <v>11.756032</v>
       </c>
       <c r="I67" t="n">
         <v>0.06111111111111111</v>
@@ -3824,25 +3824,25 @@
         <v>41851</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003116468395480076</v>
+        <v>0.003113421184902876</v>
       </c>
       <c r="C68" t="n">
-        <v>11.667563</v>
+        <v>11.671948</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005351832982864124</v>
+        <v>0.005352567556348831</v>
       </c>
       <c r="E68" t="n">
-        <v>11.667563</v>
+        <v>11.671948</v>
       </c>
       <c r="F68" t="n">
         <v>0.06111111111111111</v>
       </c>
       <c r="G68" t="n">
-        <v>0.004734211586994164</v>
+        <v>0.00473316058825457</v>
       </c>
       <c r="H68" t="n">
-        <v>11.601465</v>
+        <v>11.601286</v>
       </c>
       <c r="I68" t="n">
         <v>0.05842293906810036</v>
@@ -3877,25 +3877,25 @@
         <v>41882</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002950444879707526</v>
+        <v>0.002955851169086365</v>
       </c>
       <c r="C69" t="n">
-        <v>11.555155</v>
+        <v>11.552107</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004734211586994164</v>
+        <v>0.00473316058825457</v>
       </c>
       <c r="E69" t="n">
-        <v>11.555155</v>
+        <v>11.552107</v>
       </c>
       <c r="F69" t="n">
         <v>0.05842293906810036</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003116468395480076</v>
+        <v>0.003113421184902876</v>
       </c>
       <c r="H69" t="n">
-        <v>11.667563</v>
+        <v>11.671948</v>
       </c>
       <c r="I69" t="n">
         <v>0.03225806451612903</v>
@@ -3930,25 +3930,25 @@
         <v>41912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003276824861616845</v>
+        <v>0.003279860437755744</v>
       </c>
       <c r="C70" t="n">
-        <v>11.60773</v>
+        <v>11.609942</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003116468395480076</v>
+        <v>0.003113421184902876</v>
       </c>
       <c r="E70" t="n">
-        <v>11.60773</v>
+        <v>11.609942</v>
       </c>
       <c r="F70" t="n">
         <v>0.03225806451612903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002950444879707526</v>
+        <v>0.002955851169086365</v>
       </c>
       <c r="H70" t="n">
-        <v>11.555155</v>
+        <v>11.552107</v>
       </c>
       <c r="I70" t="n">
         <v>0.01518518518518519</v>
@@ -3983,25 +3983,25 @@
         <v>41943</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003898646282807228</v>
+        <v>0.003901154620505665</v>
       </c>
       <c r="C71" t="n">
-        <v>11.627715</v>
+        <v>11.629899</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002950444879707526</v>
+        <v>0.002955851169086365</v>
       </c>
       <c r="E71" t="n">
-        <v>11.627715</v>
+        <v>11.629899</v>
       </c>
       <c r="F71" t="n">
         <v>0.01518518518518519</v>
       </c>
       <c r="G71" t="n">
-        <v>0.003276824861616845</v>
+        <v>0.003279860437755744</v>
       </c>
       <c r="H71" t="n">
-        <v>11.60773</v>
+        <v>11.609942</v>
       </c>
       <c r="I71" t="n">
         <v>0.05340501792114695</v>
@@ -4036,25 +4036,25 @@
         <v>41973</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003106657028479454</v>
+        <v>0.003104199309980515</v>
       </c>
       <c r="C72" t="n">
-        <v>11.654356</v>
+        <v>11.652742</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003276824861616845</v>
+        <v>0.003279860437755744</v>
       </c>
       <c r="E72" t="n">
-        <v>11.654356</v>
+        <v>11.652742</v>
       </c>
       <c r="F72" t="n">
         <v>0.05340501792114695</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003898646282807228</v>
+        <v>0.003901154620505665</v>
       </c>
       <c r="H72" t="n">
-        <v>11.627715</v>
+        <v>11.629899</v>
       </c>
       <c r="I72" t="n">
         <v>0.04481481481481482</v>
@@ -4089,25 +4089,25 @@
         <v>42004</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.001649201773096465</v>
+        <v>-0.001642300758297743</v>
       </c>
       <c r="C73" t="n">
-        <v>11.47434</v>
+        <v>11.475537</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003898646282807228</v>
+        <v>0.003901154620505665</v>
       </c>
       <c r="E73" t="n">
-        <v>11.47434</v>
+        <v>11.475537</v>
       </c>
       <c r="F73" t="n">
         <v>0.04481481481481482</v>
       </c>
       <c r="G73" t="n">
-        <v>0.003106657028479454</v>
+        <v>0.003104199309980515</v>
       </c>
       <c r="H73" t="n">
-        <v>11.654356</v>
+        <v>11.652742</v>
       </c>
       <c r="I73" t="n">
         <v>-0.006451612903225806</v>
@@ -4142,25 +4142,25 @@
         <v>42035</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.003954290035832919</v>
+        <v>-0.003945054832412254</v>
       </c>
       <c r="C74" t="n">
-        <v>11.389532</v>
+        <v>11.387884</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003106657028479454</v>
+        <v>0.003104199309980515</v>
       </c>
       <c r="E74" t="n">
-        <v>11.389532</v>
+        <v>11.387884</v>
       </c>
       <c r="F74" t="n">
         <v>-0.006451612903225806</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.001649201773096465</v>
+        <v>-0.001642300758297743</v>
       </c>
       <c r="H74" t="n">
-        <v>11.47434</v>
+        <v>11.475537</v>
       </c>
       <c r="I74" t="n">
         <v>-0.06666666666666668</v>
@@ -4195,25 +4195,25 @@
         <v>42063</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.001013156285687877</v>
+        <v>-0.001010653434581954</v>
       </c>
       <c r="C75" t="n">
-        <v>11.335532</v>
+        <v>11.331219</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.001649201773096465</v>
+        <v>-0.001642300758297743</v>
       </c>
       <c r="E75" t="n">
-        <v>11.335532</v>
+        <v>11.331219</v>
       </c>
       <c r="F75" t="n">
         <v>-0.06666666666666668</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.003954290035832919</v>
+        <v>-0.003945054832412254</v>
       </c>
       <c r="H75" t="n">
-        <v>11.389532</v>
+        <v>11.387884</v>
       </c>
       <c r="I75" t="n">
         <v>-0.05436507936507936</v>
@@ -4248,25 +4248,25 @@
         <v>42094</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001135710048420613</v>
+        <v>0.001134183576831482</v>
       </c>
       <c r="C76" t="n">
-        <v>11.322572</v>
+        <v>11.326864</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.003954290035832919</v>
+        <v>-0.003945054832412254</v>
       </c>
       <c r="E76" t="n">
-        <v>11.322572</v>
+        <v>11.326864</v>
       </c>
       <c r="F76" t="n">
         <v>-0.05436507936507936</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001013156285687877</v>
+        <v>-0.001010653434581954</v>
       </c>
       <c r="H76" t="n">
-        <v>11.335532</v>
+        <v>11.331219</v>
       </c>
       <c r="I76" t="n">
         <v>-0.02544802867383512</v>
@@ -4301,25 +4301,25 @@
         <v>42124</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001791627385355099</v>
+        <v>0.001777400547211094</v>
       </c>
       <c r="C77" t="n">
-        <v>11.195514</v>
+        <v>11.191945</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.001013156285687877</v>
+        <v>-0.001010653434581954</v>
       </c>
       <c r="E77" t="n">
-        <v>11.195514</v>
+        <v>11.191945</v>
       </c>
       <c r="F77" t="n">
         <v>-0.02544802867383512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001135710048420613</v>
+        <v>0.001134183576831482</v>
       </c>
       <c r="H77" t="n">
-        <v>11.322572</v>
+        <v>11.326864</v>
       </c>
       <c r="I77" t="n">
         <v>-0.05222222222222222</v>
@@ -4354,25 +4354,25 @@
         <v>42155</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004584856407356952</v>
+        <v>0.004570211571468086</v>
       </c>
       <c r="C78" t="n">
-        <v>11.150363</v>
+        <v>11.149761</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001135710048420613</v>
+        <v>0.001134183576831482</v>
       </c>
       <c r="E78" t="n">
-        <v>11.150363</v>
+        <v>11.149761</v>
       </c>
       <c r="F78" t="n">
         <v>-0.05222222222222222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001791627385355099</v>
+        <v>0.001777400547211094</v>
       </c>
       <c r="H78" t="n">
-        <v>11.195514</v>
+        <v>11.191945</v>
       </c>
       <c r="I78" t="n">
         <v>-0.09247311827956989</v>
@@ -4407,25 +4407,25 @@
         <v>42185</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004221373773093617</v>
+        <v>0.004218032152159878</v>
       </c>
       <c r="C79" t="n">
-        <v>11.069551</v>
+        <v>11.073403</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001791627385355099</v>
+        <v>0.001777400547211094</v>
       </c>
       <c r="E79" t="n">
-        <v>11.069551</v>
+        <v>11.073403</v>
       </c>
       <c r="F79" t="n">
         <v>-0.09247311827956989</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004584856407356952</v>
+        <v>0.004570211571468086</v>
       </c>
       <c r="H79" t="n">
-        <v>11.150363</v>
+        <v>11.149761</v>
       </c>
       <c r="I79" t="n">
         <v>-0.04962962962962963</v>
@@ -4460,25 +4460,25 @@
         <v>42216</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003298194184820247</v>
+        <v>0.003308342883013182</v>
       </c>
       <c r="C80" t="n">
-        <v>10.842504</v>
+        <v>10.841129</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004584856407356952</v>
+        <v>0.004570211571468086</v>
       </c>
       <c r="E80" t="n">
-        <v>10.842504</v>
+        <v>10.841129</v>
       </c>
       <c r="F80" t="n">
         <v>-0.04962962962962963</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004221373773093617</v>
+        <v>0.004218032152159878</v>
       </c>
       <c r="H80" t="n">
-        <v>11.069551</v>
+        <v>11.073403</v>
       </c>
       <c r="I80" t="n">
         <v>0.04551971326164875</v>
@@ -4513,25 +4513,25 @@
         <v>42247</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002114047385280315</v>
+        <v>0.002120130262276199</v>
       </c>
       <c r="C81" t="n">
-        <v>10.756025</v>
+        <v>10.754668</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004221373773093617</v>
+        <v>0.004218032152159878</v>
       </c>
       <c r="E81" t="n">
-        <v>10.756025</v>
+        <v>10.754668</v>
       </c>
       <c r="F81" t="n">
         <v>0.04551971326164875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003298194184820247</v>
+        <v>0.003308342883013182</v>
       </c>
       <c r="H81" t="n">
-        <v>10.842504</v>
+        <v>10.841129</v>
       </c>
       <c r="I81" t="n">
         <v>0.1243727598566308</v>
@@ -4566,25 +4566,25 @@
         <v>42277</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000451761743463841</v>
+        <v>0.000451565282303612</v>
       </c>
       <c r="C82" t="n">
-        <v>10.709507</v>
+        <v>10.712749</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003298194184820247</v>
+        <v>0.003308342883013182</v>
       </c>
       <c r="E82" t="n">
-        <v>10.709507</v>
+        <v>10.712749</v>
       </c>
       <c r="F82" t="n">
         <v>0.1243727598566308</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002114047385280315</v>
+        <v>0.002120130262276199</v>
       </c>
       <c r="H82" t="n">
-        <v>10.756025</v>
+        <v>10.754668</v>
       </c>
       <c r="I82" t="n">
         <v>0.1048148148148148</v>
@@ -4619,25 +4619,25 @@
         <v>42308</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002389513207241123</v>
+        <v>0.002391946195212213</v>
       </c>
       <c r="C83" t="n">
-        <v>10.721972</v>
+        <v>10.72274</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002114047385280315</v>
+        <v>0.002120130262276199</v>
       </c>
       <c r="E83" t="n">
-        <v>10.721972</v>
+        <v>10.72274</v>
       </c>
       <c r="F83" t="n">
         <v>0.1048148148148148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.000451761743463841</v>
+        <v>0.000451565282303612</v>
       </c>
       <c r="H83" t="n">
-        <v>10.709507</v>
+        <v>10.712749</v>
       </c>
       <c r="I83" t="n">
         <v>0.06451612903225806</v>
@@ -4672,25 +4672,25 @@
         <v>42338</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003459265151698254</v>
+        <v>0.003461311498096364</v>
       </c>
       <c r="C84" t="n">
-        <v>10.609837</v>
+        <v>10.607286</v>
       </c>
       <c r="D84" t="n">
-        <v>0.000451761743463841</v>
+        <v>0.000451565282303612</v>
       </c>
       <c r="E84" t="n">
-        <v>10.609837</v>
+        <v>10.607286</v>
       </c>
       <c r="F84" t="n">
         <v>0.06451612903225806</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002389513207241123</v>
+        <v>0.002391946195212213</v>
       </c>
       <c r="H84" t="n">
-        <v>10.721972</v>
+        <v>10.72274</v>
       </c>
       <c r="I84" t="n">
         <v>-0.003703703703703704</v>
@@ -4725,25 +4725,25 @@
         <v>42369</v>
       </c>
       <c r="B85" t="n">
-        <v>0.004249743764002112</v>
+        <v>0.00425820150957712</v>
       </c>
       <c r="C85" t="n">
-        <v>10.572838</v>
+        <v>10.572061</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002389513207241123</v>
+        <v>0.002391946195212213</v>
       </c>
       <c r="E85" t="n">
-        <v>10.572838</v>
+        <v>10.572061</v>
       </c>
       <c r="F85" t="n">
         <v>-0.003703703703703704</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003459265151698254</v>
+        <v>0.003461311498096364</v>
       </c>
       <c r="H85" t="n">
-        <v>10.609837</v>
+        <v>10.607286</v>
       </c>
       <c r="I85" t="n">
         <v>-0.0007168458781362006</v>
@@ -4778,25 +4778,25 @@
         <v>42400</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003244870494236274</v>
+        <v>0.003255692458264292</v>
       </c>
       <c r="C86" t="n">
-        <v>10.478707</v>
+        <v>10.480762</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003459265151698254</v>
+        <v>0.003461311498096364</v>
       </c>
       <c r="E86" t="n">
-        <v>10.478707</v>
+        <v>10.480762</v>
       </c>
       <c r="F86" t="n">
         <v>-0.0007168458781362006</v>
       </c>
       <c r="G86" t="n">
-        <v>0.004249743764002112</v>
+        <v>0.00425820150957712</v>
       </c>
       <c r="H86" t="n">
-        <v>10.572838</v>
+        <v>10.572061</v>
       </c>
       <c r="I86" t="n">
         <v>-0.04408602150537635</v>
@@ -4831,25 +4831,25 @@
         <v>42429</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.001159724817762608</v>
+        <v>-0.001148985554614512</v>
       </c>
       <c r="C87" t="n">
-        <v>10.455174</v>
+        <v>10.453742</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004249743764002112</v>
+        <v>0.00425820150957712</v>
       </c>
       <c r="E87" t="n">
-        <v>10.455174</v>
+        <v>10.453742</v>
       </c>
       <c r="F87" t="n">
         <v>-0.04408602150537635</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003244870494236274</v>
+        <v>0.003255692458264292</v>
       </c>
       <c r="H87" t="n">
-        <v>10.478707</v>
+        <v>10.480762</v>
       </c>
       <c r="I87" t="n">
         <v>-0.01992337164750958</v>
@@ -4884,25 +4884,25 @@
         <v>42460</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0008094443824324671</v>
+        <v>-0.0008060222539487683</v>
       </c>
       <c r="C88" t="n">
-        <v>10.366298</v>
+        <v>10.362693</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003244870494236274</v>
+        <v>0.003255692458264292</v>
       </c>
       <c r="E88" t="n">
-        <v>10.366298</v>
+        <v>10.362693</v>
       </c>
       <c r="F88" t="n">
         <v>-0.01992337164750958</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.001159724817762608</v>
+        <v>-0.001148985554614512</v>
       </c>
       <c r="H88" t="n">
-        <v>10.455174</v>
+        <v>10.453742</v>
       </c>
       <c r="I88" t="n">
         <v>-0.02473118279569893</v>
@@ -4937,25 +4937,25 @@
         <v>42490</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.001795132930251242</v>
+        <v>-0.001846414693185139</v>
       </c>
       <c r="C89" t="n">
-        <v>10.321024</v>
+        <v>10.323498</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.001159724817762608</v>
+        <v>-0.001148985554614512</v>
       </c>
       <c r="E89" t="n">
-        <v>10.321024</v>
+        <v>10.323498</v>
       </c>
       <c r="F89" t="n">
         <v>-0.02473118279569893</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0008094443824324671</v>
+        <v>-0.0008060222539487683</v>
       </c>
       <c r="H89" t="n">
-        <v>10.366298</v>
+        <v>10.362693</v>
       </c>
       <c r="I89" t="n">
         <v>0.0262962962962963</v>
@@ -4990,25 +4990,25 @@
         <v>42521</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001211808731664377</v>
+        <v>-0.001228419069889242</v>
       </c>
       <c r="C90" t="n">
-        <v>10.215253</v>
+        <v>10.212701</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0008094443824324671</v>
+        <v>-0.0008060222539487683</v>
       </c>
       <c r="E90" t="n">
-        <v>10.215253</v>
+        <v>10.212701</v>
       </c>
       <c r="F90" t="n">
         <v>0.0262962962962963</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001795132930251242</v>
+        <v>-0.001846414693185139</v>
       </c>
       <c r="H90" t="n">
-        <v>10.321024</v>
+        <v>10.323498</v>
       </c>
       <c r="I90" t="n">
         <v>0.02043010752688172</v>
@@ -5043,25 +5043,25 @@
         <v>42551</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003878372725729662</v>
+        <v>0.0003940250849785443</v>
       </c>
       <c r="C91" t="n">
-        <v>10.172978</v>
+        <v>10.172241</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001795132930251242</v>
+        <v>-0.001846414693185139</v>
       </c>
       <c r="E91" t="n">
-        <v>10.172978</v>
+        <v>10.172241</v>
       </c>
       <c r="F91" t="n">
         <v>0.02043010752688172</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.001211808731664377</v>
+        <v>-0.001228419069889242</v>
       </c>
       <c r="H91" t="n">
-        <v>10.215253</v>
+        <v>10.212701</v>
       </c>
       <c r="I91" t="n">
         <v>-0.03481481481481482</v>
@@ -5096,25 +5096,25 @@
         <v>42582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001383896570012588</v>
+        <v>0.001393738042876791</v>
       </c>
       <c r="C92" t="n">
-        <v>10.024031</v>
+        <v>10.028853</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.001211808731664377</v>
+        <v>-0.001228419069889242</v>
       </c>
       <c r="E92" t="n">
-        <v>10.024031</v>
+        <v>10.028853</v>
       </c>
       <c r="F92" t="n">
         <v>-0.03481481481481482</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0003878372725729662</v>
+        <v>0.0003940250849785443</v>
       </c>
       <c r="H92" t="n">
-        <v>10.172978</v>
+        <v>10.172241</v>
       </c>
       <c r="I92" t="n">
         <v>-0.07849462365591399</v>
@@ -5149,25 +5149,25 @@
         <v>42613</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002134911156075781</v>
+        <v>0.002150040202717918</v>
       </c>
       <c r="C93" t="n">
-        <v>9.982198</v>
+        <v>9.979889</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003878372725729662</v>
+        <v>0.0003940250849785443</v>
       </c>
       <c r="E93" t="n">
-        <v>9.982198</v>
+        <v>9.979889</v>
       </c>
       <c r="F93" t="n">
         <v>-0.07849462365591399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001383896570012588</v>
+        <v>0.001393738042876791</v>
       </c>
       <c r="H93" t="n">
-        <v>10.024031</v>
+        <v>10.028853</v>
       </c>
       <c r="I93" t="n">
         <v>-0.08637992831541219</v>
@@ -5202,25 +5202,25 @@
         <v>42643</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004012390830844481</v>
+        <v>0.00401053063484369</v>
       </c>
       <c r="C94" t="n">
-        <v>9.933237999999999</v>
+        <v>9.9344</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001383896570012588</v>
+        <v>0.001393738042876791</v>
       </c>
       <c r="E94" t="n">
-        <v>9.933237999999999</v>
+        <v>9.9344</v>
       </c>
       <c r="F94" t="n">
         <v>-0.08637992831541219</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002134911156075781</v>
+        <v>0.002150040202717918</v>
       </c>
       <c r="H94" t="n">
-        <v>9.982198</v>
+        <v>9.979889</v>
       </c>
       <c r="I94" t="n">
         <v>-0.02555555555555556</v>
@@ -5255,25 +5255,25 @@
         <v>42674</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005272550832716938</v>
+        <v>0.005276271643563923</v>
       </c>
       <c r="C95" t="n">
-        <v>9.84944</v>
+        <v>9.852714000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002134911156075781</v>
+        <v>0.002150040202717918</v>
       </c>
       <c r="E95" t="n">
-        <v>9.84944</v>
+        <v>9.852714000000001</v>
       </c>
       <c r="F95" t="n">
         <v>-0.02555555555555556</v>
       </c>
       <c r="G95" t="n">
-        <v>0.004012390830844481</v>
+        <v>0.00401053063484369</v>
       </c>
       <c r="H95" t="n">
-        <v>9.933237999999999</v>
+        <v>9.9344</v>
       </c>
       <c r="I95" t="n">
         <v>0.04695340501792115</v>
@@ -5308,25 +5308,25 @@
         <v>42704</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006033802319699078</v>
+        <v>0.006035885503904659</v>
       </c>
       <c r="C96" t="n">
-        <v>9.880076000000001</v>
+        <v>9.878814999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004012390830844481</v>
+        <v>0.00401053063484369</v>
       </c>
       <c r="E96" t="n">
-        <v>9.880076000000001</v>
+        <v>9.878814999999999</v>
       </c>
       <c r="F96" t="n">
         <v>0.04695340501792115</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005272550832716938</v>
+        <v>0.005276271643563923</v>
       </c>
       <c r="H96" t="n">
-        <v>9.84944</v>
+        <v>9.852714000000001</v>
       </c>
       <c r="I96" t="n">
         <v>0.004444444444444444</v>
@@ -5361,25 +5361,25 @@
         <v>42735</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01115078519086588</v>
+        <v>0.01116013132137006</v>
       </c>
       <c r="C97" t="n">
-        <v>9.755401000000001</v>
+        <v>9.754481</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005272550832716938</v>
+        <v>0.005276271643563923</v>
       </c>
       <c r="E97" t="n">
-        <v>9.755401000000001</v>
+        <v>9.754481</v>
       </c>
       <c r="F97" t="n">
         <v>0.004444444444444444</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006033802319699078</v>
+        <v>0.006035885503904659</v>
       </c>
       <c r="H97" t="n">
-        <v>9.880076000000001</v>
+        <v>9.878814999999999</v>
       </c>
       <c r="I97" t="n">
         <v>-0.07025089605734766</v>
@@ -5414,25 +5414,25 @@
         <v>42766</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01710682883378389</v>
+        <v>0.01711230627251492</v>
       </c>
       <c r="C98" t="n">
-        <v>9.649232</v>
+        <v>9.651138</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006033802319699078</v>
+        <v>0.006035885503904659</v>
       </c>
       <c r="E98" t="n">
-        <v>9.649232</v>
+        <v>9.651138</v>
       </c>
       <c r="F98" t="n">
         <v>-0.07025089605734766</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01115078519086588</v>
+        <v>0.01116013132137006</v>
       </c>
       <c r="H98" t="n">
-        <v>9.755401000000001</v>
+        <v>9.754481</v>
       </c>
       <c r="I98" t="n">
         <v>-0.1329749103942652</v>
@@ -5467,25 +5467,25 @@
         <v>42794</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01948036803256059</v>
+        <v>0.0194907174065051</v>
       </c>
       <c r="C99" t="n">
-        <v>9.551253000000001</v>
+        <v>9.549901999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01115078519086588</v>
+        <v>0.01116013132137006</v>
       </c>
       <c r="E99" t="n">
-        <v>9.551253000000001</v>
+        <v>9.549901999999999</v>
       </c>
       <c r="F99" t="n">
         <v>-0.1329749103942652</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01710682883378389</v>
+        <v>0.01711230627251492</v>
       </c>
       <c r="H99" t="n">
-        <v>9.649232</v>
+        <v>9.651138</v>
       </c>
       <c r="I99" t="n">
         <v>-0.01150793650793651</v>
@@ -5520,25 +5520,25 @@
         <v>42825</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0163314782121855</v>
+        <v>0.01633000173416388</v>
       </c>
       <c r="C100" t="n">
-        <v>9.485690999999999</v>
+        <v>9.479601000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01710682883378389</v>
+        <v>0.01711230627251492</v>
       </c>
       <c r="E100" t="n">
-        <v>9.485690999999999</v>
+        <v>9.479601000000001</v>
       </c>
       <c r="F100" t="n">
         <v>-0.01150793650793651</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01948036803256059</v>
+        <v>0.0194907174065051</v>
       </c>
       <c r="H100" t="n">
-        <v>9.551253000000001</v>
+        <v>9.549901999999999</v>
       </c>
       <c r="I100" t="n">
         <v>0.01827956989247312</v>
@@ -5573,25 +5573,25 @@
         <v>42855</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01804887456023874</v>
+        <v>0.01802350321406099</v>
       </c>
       <c r="C101" t="n">
-        <v>9.29799</v>
+        <v>9.302206999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01948036803256059</v>
+        <v>0.0194907174065051</v>
       </c>
       <c r="E101" t="n">
-        <v>9.29799</v>
+        <v>9.302206999999999</v>
       </c>
       <c r="F101" t="n">
         <v>0.01827956989247312</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0163314782121855</v>
+        <v>0.01633000173416388</v>
       </c>
       <c r="H101" t="n">
-        <v>9.485690999999999</v>
+        <v>9.479601000000001</v>
       </c>
       <c r="I101" t="n">
         <v>0.002592592592592593</v>
@@ -5626,25 +5626,25 @@
         <v>42886</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01429164163906194</v>
+        <v>0.01426694598685874</v>
       </c>
       <c r="C102" t="n">
-        <v>9.268017</v>
+        <v>9.268882</v>
       </c>
       <c r="D102" t="n">
-        <v>0.0163314782121855</v>
+        <v>0.01633000173416388</v>
       </c>
       <c r="E102" t="n">
-        <v>9.268017</v>
+        <v>9.268882</v>
       </c>
       <c r="F102" t="n">
         <v>0.002592592592592593</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01804887456023874</v>
+        <v>0.01802350321406099</v>
       </c>
       <c r="H102" t="n">
-        <v>9.29799</v>
+        <v>9.302206999999999</v>
       </c>
       <c r="I102" t="n">
         <v>-0.103584229390681</v>
@@ -5679,25 +5679,25 @@
         <v>42916</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01200756989714602</v>
+        <v>0.01201132217199508</v>
       </c>
       <c r="C103" t="n">
-        <v>9.113917000000001</v>
+        <v>9.108423</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01804887456023874</v>
+        <v>0.01802350321406099</v>
       </c>
       <c r="E103" t="n">
-        <v>9.113917000000001</v>
+        <v>9.108423</v>
       </c>
       <c r="F103" t="n">
         <v>-0.103584229390681</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01429164163906194</v>
+        <v>0.01426694598685874</v>
       </c>
       <c r="H103" t="n">
-        <v>9.268017</v>
+        <v>9.268882</v>
       </c>
       <c r="I103" t="n">
         <v>-0.1003703703703704</v>
@@ -5732,25 +5732,25 @@
         <v>42947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01250739068228146</v>
+        <v>0.01252552139913821</v>
       </c>
       <c r="C104" t="n">
-        <v>9.083187000000001</v>
+        <v>9.085801</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01429164163906194</v>
+        <v>0.01426694598685874</v>
       </c>
       <c r="E104" t="n">
-        <v>9.083187000000001</v>
+        <v>9.085801</v>
       </c>
       <c r="F104" t="n">
         <v>-0.1003703703703704</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01200756989714602</v>
+        <v>0.01201132217199508</v>
       </c>
       <c r="H104" t="n">
-        <v>9.113917000000001</v>
+        <v>9.108423</v>
       </c>
       <c r="I104" t="n">
         <v>-0.110752688172043</v>
@@ -5785,25 +5785,25 @@
         <v>42978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01438382803963645</v>
+        <v>0.01440201959335052</v>
       </c>
       <c r="C105" t="n">
-        <v>9.016622</v>
+        <v>9.020866</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01200756989714602</v>
+        <v>0.01201132217199508</v>
       </c>
       <c r="E105" t="n">
-        <v>9.016622</v>
+        <v>9.020866</v>
       </c>
       <c r="F105" t="n">
         <v>-0.110752688172043</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01250739068228146</v>
+        <v>0.01252552139913821</v>
       </c>
       <c r="H105" t="n">
-        <v>9.083187000000001</v>
+        <v>9.085801</v>
       </c>
       <c r="I105" t="n">
         <v>-0.05340501792114695</v>
@@ -5838,25 +5838,25 @@
         <v>43008</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01536605078446129</v>
+        <v>0.0153687489080534</v>
       </c>
       <c r="C106" t="n">
-        <v>8.926128</v>
+        <v>8.922632</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01250739068228146</v>
+        <v>0.01252552139913821</v>
       </c>
       <c r="E106" t="n">
-        <v>8.926128</v>
+        <v>8.922632</v>
       </c>
       <c r="F106" t="n">
         <v>-0.05340501792114695</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01438382803963645</v>
+        <v>0.01440201959335052</v>
       </c>
       <c r="H106" t="n">
-        <v>9.016622</v>
+        <v>9.020866</v>
       </c>
       <c r="I106" t="n">
         <v>-0.03592592592592592</v>
@@ -5891,25 +5891,25 @@
         <v>43039</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01371710093891298</v>
+        <v>0.01371645413518863</v>
       </c>
       <c r="C107" t="n">
-        <v>8.817359</v>
+        <v>8.817761000000001</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01438382803963645</v>
+        <v>0.01440201959335052</v>
       </c>
       <c r="E107" t="n">
-        <v>8.817359</v>
+        <v>8.817761000000001</v>
       </c>
       <c r="F107" t="n">
         <v>-0.03592592592592592</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01536605078446129</v>
+        <v>0.0153687489080534</v>
       </c>
       <c r="H107" t="n">
-        <v>8.926128</v>
+        <v>8.922632</v>
       </c>
       <c r="I107" t="n">
         <v>-0.07670250896057347</v>
@@ -5944,25 +5944,25 @@
         <v>43069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01556454949721875</v>
+        <v>0.01557012279068015</v>
       </c>
       <c r="C108" t="n">
-        <v>8.753869999999999</v>
+        <v>8.758535999999999</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01536605078446129</v>
+        <v>0.0153687489080534</v>
       </c>
       <c r="E108" t="n">
-        <v>8.753869999999999</v>
+        <v>8.758535999999999</v>
       </c>
       <c r="F108" t="n">
         <v>-0.07670250896057347</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01371710093891298</v>
+        <v>0.01371645413518863</v>
       </c>
       <c r="H108" t="n">
-        <v>8.817359</v>
+        <v>8.817761000000001</v>
       </c>
       <c r="I108" t="n">
         <v>-0.1874074074074074</v>
@@ -5997,25 +5997,25 @@
         <v>43100</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01352916213349342</v>
+        <v>0.01353611977288338</v>
       </c>
       <c r="C109" t="n">
-        <v>8.726195000000001</v>
+        <v>8.722307000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01371710093891298</v>
+        <v>0.01371645413518863</v>
       </c>
       <c r="E109" t="n">
-        <v>8.726195000000001</v>
+        <v>8.722307000000001</v>
       </c>
       <c r="F109" t="n">
         <v>-0.1874074074074074</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01556454949721875</v>
+        <v>0.01557012279068015</v>
       </c>
       <c r="H109" t="n">
-        <v>8.753869999999999</v>
+        <v>8.758535999999999</v>
       </c>
       <c r="I109" t="n">
         <v>-0.2541218637992831</v>
@@ -6050,25 +6050,25 @@
         <v>43131</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01298373605643821</v>
+        <v>0.01298825090290734</v>
       </c>
       <c r="C110" t="n">
-        <v>8.698100999999999</v>
+        <v>8.699204999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01556454949721875</v>
+        <v>0.01557012279068015</v>
       </c>
       <c r="E110" t="n">
-        <v>8.698100999999999</v>
+        <v>8.699204999999999</v>
       </c>
       <c r="F110" t="n">
         <v>-0.2541218637992831</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01352916213349342</v>
+        <v>0.01353611977288338</v>
       </c>
       <c r="H110" t="n">
-        <v>8.726195000000001</v>
+        <v>8.722307000000001</v>
       </c>
       <c r="I110" t="n">
         <v>-0.2258064516129032</v>
@@ -6103,25 +6103,25 @@
         <v>43159</v>
       </c>
       <c r="B111" t="n">
-        <v>0.0112769117973075</v>
+        <v>0.01129080273256999</v>
       </c>
       <c r="C111" t="n">
-        <v>8.612859</v>
+        <v>8.611452999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01352916213349342</v>
+        <v>0.01353611977288338</v>
       </c>
       <c r="E111" t="n">
-        <v>8.612859</v>
+        <v>8.611452999999999</v>
       </c>
       <c r="F111" t="n">
         <v>-0.2258064516129032</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01298373605643821</v>
+        <v>0.01298825090290734</v>
       </c>
       <c r="H111" t="n">
-        <v>8.698100999999999</v>
+        <v>8.699204999999999</v>
       </c>
       <c r="I111" t="n">
         <v>-0.1976190476190476</v>
@@ -6156,25 +6156,25 @@
         <v>43190</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01369690985470218</v>
+        <v>0.01369990475671834</v>
       </c>
       <c r="C112" t="n">
-        <v>8.548387999999999</v>
+        <v>8.547609</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01298373605643821</v>
+        <v>0.01298825090290734</v>
       </c>
       <c r="E112" t="n">
-        <v>8.548387999999999</v>
+        <v>8.547609</v>
       </c>
       <c r="F112" t="n">
         <v>-0.1976190476190476</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0112769117973075</v>
+        <v>0.01129080273256999</v>
       </c>
       <c r="H112" t="n">
-        <v>8.612859</v>
+        <v>8.611452999999999</v>
       </c>
       <c r="I112" t="n">
         <v>-0.1598566308243728</v>
@@ -6209,25 +6209,25 @@
         <v>43220</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01324069150021057</v>
+        <v>0.0131878437327968</v>
       </c>
       <c r="C113" t="n">
-        <v>8.451957</v>
+        <v>8.451191</v>
       </c>
       <c r="D113" t="n">
-        <v>0.0112769117973075</v>
+        <v>0.01129080273256999</v>
       </c>
       <c r="E113" t="n">
-        <v>8.451957</v>
+        <v>8.451191</v>
       </c>
       <c r="F113" t="n">
         <v>-0.1598566308243728</v>
       </c>
       <c r="G113" t="n">
-        <v>0.01369690985470218</v>
+        <v>0.01369990475671834</v>
       </c>
       <c r="H113" t="n">
-        <v>8.548387999999999</v>
+        <v>8.547609</v>
       </c>
       <c r="I113" t="n">
         <v>-0.1362962962962963</v>
@@ -6262,25 +6262,25 @@
         <v>43251</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01863558424676448</v>
+        <v>0.01862811247559115</v>
       </c>
       <c r="C114" t="n">
-        <v>8.301773000000001</v>
+        <v>8.300848</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01369690985470218</v>
+        <v>0.01369990475671834</v>
       </c>
       <c r="E114" t="n">
-        <v>8.301773000000001</v>
+        <v>8.300848</v>
       </c>
       <c r="F114" t="n">
         <v>-0.1362962962962963</v>
       </c>
       <c r="G114" t="n">
-        <v>0.01324069150021057</v>
+        <v>0.0131878437327968</v>
       </c>
       <c r="H114" t="n">
-        <v>8.451957</v>
+        <v>8.451191</v>
       </c>
       <c r="I114" t="n">
         <v>-0.1283154121863799</v>
@@ -6315,25 +6315,25 @@
         <v>43281</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01994990949324027</v>
+        <v>0.01994895033723854</v>
       </c>
       <c r="C115" t="n">
-        <v>8.232939</v>
+        <v>8.233984</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01324069150021057</v>
+        <v>0.0131878437327968</v>
       </c>
       <c r="E115" t="n">
-        <v>8.232939</v>
+        <v>8.233984</v>
       </c>
       <c r="F115" t="n">
         <v>-0.1283154121863799</v>
       </c>
       <c r="G115" t="n">
-        <v>0.01863558424676448</v>
+        <v>0.01862811247559115</v>
       </c>
       <c r="H115" t="n">
-        <v>8.301773000000001</v>
+        <v>8.300848</v>
       </c>
       <c r="I115" t="n">
         <v>-0.1188888888888889</v>
@@ -6368,25 +6368,25 @@
         <v>43312</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02094243768446002</v>
+        <v>0.02096071264053734</v>
       </c>
       <c r="C116" t="n">
-        <v>8.101186</v>
+        <v>8.104222999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01863558424676448</v>
+        <v>0.01862811247559115</v>
       </c>
       <c r="E116" t="n">
-        <v>8.101186</v>
+        <v>8.104222999999999</v>
       </c>
       <c r="F116" t="n">
         <v>-0.1188888888888889</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01994990949324027</v>
+        <v>0.01994895033723854</v>
       </c>
       <c r="H116" t="n">
-        <v>8.232939</v>
+        <v>8.233984</v>
       </c>
       <c r="I116" t="n">
         <v>-0.1075268817204301</v>
@@ -6421,25 +6421,25 @@
         <v>43343</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02016995600599092</v>
+        <v>0.02018273481828636</v>
       </c>
       <c r="C117" t="n">
-        <v>8.040948</v>
+        <v>8.03619</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01994990949324027</v>
+        <v>0.01994895033723854</v>
       </c>
       <c r="E117" t="n">
-        <v>8.040948</v>
+        <v>8.03619</v>
       </c>
       <c r="F117" t="n">
         <v>-0.1075268817204301</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02094243768446002</v>
+        <v>0.02096071264053734</v>
       </c>
       <c r="H117" t="n">
-        <v>8.101186</v>
+        <v>8.104222999999999</v>
       </c>
       <c r="I117" t="n">
         <v>-0.07598566308243727</v>
@@ -6474,25 +6474,25 @@
         <v>43373</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02077047142519017</v>
+        <v>0.02077080861656899</v>
       </c>
       <c r="C118" t="n">
-        <v>8.017645</v>
+        <v>8.017720000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02094243768446002</v>
+        <v>0.02096071264053734</v>
       </c>
       <c r="E118" t="n">
-        <v>8.017645</v>
+        <v>8.017720000000001</v>
       </c>
       <c r="F118" t="n">
         <v>-0.07598566308243727</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02016995600599092</v>
+        <v>0.02018273481828636</v>
       </c>
       <c r="H118" t="n">
-        <v>8.040948</v>
+        <v>8.03619</v>
       </c>
       <c r="I118" t="n">
         <v>-0.06481481481481481</v>
@@ -6527,25 +6527,25 @@
         <v>43404</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02254901905789097</v>
+        <v>0.02254676249211585</v>
       </c>
       <c r="C119" t="n">
-        <v>8.027678</v>
+        <v>8.032548</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02016995600599092</v>
+        <v>0.02018273481828636</v>
       </c>
       <c r="E119" t="n">
-        <v>8.027678</v>
+        <v>8.032548</v>
       </c>
       <c r="F119" t="n">
         <v>-0.06481481481481481</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02077047142519017</v>
+        <v>0.02077080861656899</v>
       </c>
       <c r="H119" t="n">
-        <v>8.017645</v>
+        <v>8.017720000000001</v>
       </c>
       <c r="I119" t="n">
         <v>-0.06021505376344086</v>
@@ -6580,25 +6580,25 @@
         <v>43434</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01948603186314024</v>
+        <v>0.01948901222956323</v>
       </c>
       <c r="C120" t="n">
-        <v>7.946079</v>
+        <v>7.943954</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02077047142519017</v>
+        <v>0.02077080861656899</v>
       </c>
       <c r="E120" t="n">
-        <v>7.946079</v>
+        <v>7.943954</v>
       </c>
       <c r="F120" t="n">
         <v>-0.06021505376344086</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02254901905789097</v>
+        <v>0.02254676249211585</v>
       </c>
       <c r="H120" t="n">
-        <v>8.027678</v>
+        <v>8.032548</v>
       </c>
       <c r="I120" t="n">
         <v>-0.03555555555555556</v>
@@ -6633,25 +6633,25 @@
         <v>43465</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01548629608164021</v>
+        <v>0.01548687747858413</v>
       </c>
       <c r="C121" t="n">
-        <v>7.8761</v>
+        <v>7.876707</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02254901905789097</v>
+        <v>0.02254676249211585</v>
       </c>
       <c r="E121" t="n">
-        <v>7.8761</v>
+        <v>7.876707</v>
       </c>
       <c r="F121" t="n">
         <v>-0.03555555555555556</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01948603186314024</v>
+        <v>0.01948901222956323</v>
       </c>
       <c r="H121" t="n">
-        <v>7.946079</v>
+        <v>7.943954</v>
       </c>
       <c r="I121" t="n">
         <v>-0.06164874551971326</v>
@@ -6686,25 +6686,25 @@
         <v>43496</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01249611948382867</v>
+        <v>0.01250091300007927</v>
       </c>
       <c r="C122" t="n">
-        <v>7.86364</v>
+        <v>7.863705</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01948603186314024</v>
+        <v>0.01948901222956323</v>
       </c>
       <c r="E122" t="n">
-        <v>7.86364</v>
+        <v>7.863705</v>
       </c>
       <c r="F122" t="n">
         <v>-0.06164874551971326</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01548629608164021</v>
+        <v>0.01548687747858413</v>
       </c>
       <c r="H122" t="n">
-        <v>7.8761</v>
+        <v>7.876707</v>
       </c>
       <c r="I122" t="n">
         <v>-0.05913978494623656</v>
@@ -6739,25 +6739,25 @@
         <v>43524</v>
       </c>
       <c r="B123" t="n">
-        <v>0.01376247288319377</v>
+        <v>0.0137637393404102</v>
       </c>
       <c r="C123" t="n">
-        <v>7.82914</v>
+        <v>7.827024</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01548629608164021</v>
+        <v>0.01548687747858413</v>
       </c>
       <c r="E123" t="n">
-        <v>7.82914</v>
+        <v>7.827024</v>
       </c>
       <c r="F123" t="n">
         <v>-0.05913978494623656</v>
       </c>
       <c r="G123" t="n">
-        <v>0.01249611948382867</v>
+        <v>0.01250091300007927</v>
       </c>
       <c r="H123" t="n">
-        <v>7.86364</v>
+        <v>7.863705</v>
       </c>
       <c r="I123" t="n">
         <v>-0.08690476190476192</v>
@@ -6781,10 +6781,10 @@
         <v>-0.1075268817204301</v>
       </c>
       <c r="P123" t="n">
-        <v>7.851896620592617</v>
+        <v>7.852052603181509</v>
       </c>
       <c r="Q123" t="n">
-        <v>7.821164015350337</v>
+        <v>7.821438272869451</v>
       </c>
     </row>
     <row r="124">
@@ -6792,25 +6792,25 @@
         <v>43555</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01430836549426839</v>
+        <v>0.01430531687492298</v>
       </c>
       <c r="C124" t="n">
-        <v>7.741009</v>
+        <v>7.742499</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01249611948382867</v>
+        <v>0.01250091300007927</v>
       </c>
       <c r="E124" t="n">
-        <v>7.741009</v>
+        <v>7.742499</v>
       </c>
       <c r="F124" t="n">
         <v>-0.08690476190476192</v>
       </c>
       <c r="G124" t="n">
-        <v>0.01376247288319377</v>
+        <v>0.0137637393404102</v>
       </c>
       <c r="H124" t="n">
-        <v>7.82914</v>
+        <v>7.827024</v>
       </c>
       <c r="I124" t="n">
         <v>-0.1132616487455197</v>
@@ -6834,10 +6834,10 @@
         <v>-0.07598566308243727</v>
       </c>
       <c r="P124" t="n">
-        <v>7.816290986251216</v>
+        <v>7.814159882045992</v>
       </c>
       <c r="Q124" t="n">
-        <v>7.776714718747409</v>
+        <v>7.77462345899013</v>
       </c>
     </row>
     <row r="125">
@@ -6845,25 +6845,25 @@
         <v>43585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01603575548954783</v>
+        <v>0.01603055006078069</v>
       </c>
       <c r="C125" t="n">
-        <v>7.72737</v>
+        <v>7.72771</v>
       </c>
       <c r="D125" t="n">
-        <v>0.01376247288319377</v>
+        <v>0.0137637393404102</v>
       </c>
       <c r="E125" t="n">
-        <v>7.72737</v>
+        <v>7.72771</v>
       </c>
       <c r="F125" t="n">
         <v>-0.1132616487455197</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01430836549426839</v>
+        <v>0.01430531687492298</v>
       </c>
       <c r="H125" t="n">
-        <v>7.741009</v>
+        <v>7.742499</v>
       </c>
       <c r="I125" t="n">
         <v>-0.107037037037037</v>
@@ -6887,10 +6887,10 @@
         <v>-0.06481481481481481</v>
       </c>
       <c r="P125" t="n">
-        <v>7.724567397529125</v>
+        <v>7.72621265734541</v>
       </c>
       <c r="Q125" t="n">
-        <v>7.67681221629888</v>
+        <v>7.678481703290828</v>
       </c>
     </row>
     <row r="126">
@@ -6898,25 +6898,25 @@
         <v>43616</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01272028746556142</v>
+        <v>0.01269843754968214</v>
       </c>
       <c r="C126" t="n">
-        <v>7.615121</v>
+        <v>7.614231</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01430836549426839</v>
+        <v>0.01430531687492298</v>
       </c>
       <c r="E126" t="n">
-        <v>7.615121</v>
+        <v>7.614231</v>
       </c>
       <c r="F126" t="n">
         <v>-0.107037037037037</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01603575548954783</v>
+        <v>0.01603055006078069</v>
       </c>
       <c r="H126" t="n">
-        <v>7.72737</v>
+        <v>7.72771</v>
       </c>
       <c r="I126" t="n">
         <v>-0.1315412186379928</v>
@@ -6940,10 +6940,10 @@
         <v>-0.06021505376344086</v>
       </c>
       <c r="P126" t="n">
-        <v>7.710990464881792</v>
+        <v>7.711424846313587</v>
       </c>
       <c r="Q126" t="n">
-        <v>7.667982641085449</v>
+        <v>7.668445462386849</v>
       </c>
     </row>
     <row r="127">
@@ -6951,25 +6951,25 @@
         <v>43646</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0120755718522334</v>
+        <v>0.01206925335847497</v>
       </c>
       <c r="C127" t="n">
-        <v>7.528203</v>
+        <v>7.52735</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01603575548954783</v>
+        <v>0.01603055006078069</v>
       </c>
       <c r="E127" t="n">
-        <v>7.528203</v>
+        <v>7.52735</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01272028746556142</v>
+        <v>0.01269843754968214</v>
       </c>
       <c r="H127" t="n">
-        <v>7.615121</v>
+        <v>7.614231</v>
       </c>
       <c r="I127" t="n">
         <v>-0.04148148148148148</v>
@@ -6993,10 +6993,10 @@
         <v>-0.03555555555555556</v>
       </c>
       <c r="P127" t="n">
-        <v>7.594120263282783</v>
+        <v>7.59326525644401</v>
       </c>
       <c r="Q127" t="n">
-        <v>7.543984734002614</v>
+        <v>7.543122554775377</v>
       </c>
     </row>
     <row r="128">
@@ -7004,25 +7004,25 @@
         <v>43677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01105352981752183</v>
+        <v>0.01108731185061007</v>
       </c>
       <c r="C128" t="n">
-        <v>7.527028</v>
+        <v>7.527973</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01272028746556142</v>
+        <v>0.01269843754968214</v>
       </c>
       <c r="E128" t="n">
-        <v>7.527028</v>
+        <v>7.527973</v>
       </c>
       <c r="F128" t="n">
         <v>-0.04148148148148148</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0120755718522334</v>
+        <v>0.01206925335847497</v>
       </c>
       <c r="H128" t="n">
-        <v>7.528203</v>
+        <v>7.52735</v>
       </c>
       <c r="I128" t="n">
         <v>-0.05555555555555556</v>
@@ -7046,10 +7046,10 @@
         <v>-0.06164874551971326</v>
       </c>
       <c r="P128" t="n">
-        <v>7.503825005789306</v>
+        <v>7.503007196746356</v>
       </c>
       <c r="Q128" t="n">
-        <v>7.489587384121184</v>
+        <v>7.488908522553979</v>
       </c>
     </row>
     <row r="129">
@@ -7057,25 +7057,25 @@
         <v>43708</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01088415271446852</v>
+        <v>0.01088400455900551</v>
       </c>
       <c r="C129" t="n">
-        <v>7.462262</v>
+        <v>7.461263</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0120755718522334</v>
+        <v>0.01206925335847497</v>
       </c>
       <c r="E129" t="n">
-        <v>7.462262</v>
+        <v>7.461263</v>
       </c>
       <c r="F129" t="n">
         <v>-0.05555555555555556</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01105352981752183</v>
+        <v>0.01108731185061007</v>
       </c>
       <c r="H129" t="n">
-        <v>7.527028</v>
+        <v>7.527973</v>
       </c>
       <c r="I129" t="n">
         <v>-0.08602150537634408</v>
@@ -7099,10 +7099,10 @@
         <v>-0.05913978494623656</v>
       </c>
       <c r="P129" t="n">
-        <v>7.503643445404708</v>
+        <v>7.504711071608376</v>
       </c>
       <c r="Q129" t="n">
-        <v>7.462929934039793</v>
+        <v>7.461094967028409</v>
       </c>
     </row>
     <row r="130">
@@ -7110,25 +7110,25 @@
         <v>43738</v>
       </c>
       <c r="B130" t="n">
-        <v>0.008996953548981779</v>
+        <v>0.008998822088595482</v>
       </c>
       <c r="C130" t="n">
-        <v>7.467171</v>
+        <v>7.468528</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01105352981752183</v>
+        <v>0.01108731185061007</v>
       </c>
       <c r="E130" t="n">
-        <v>7.467171</v>
+        <v>7.468528</v>
       </c>
       <c r="F130" t="n">
         <v>-0.08602150537634408</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01088415271446852</v>
+        <v>0.01088400455900551</v>
       </c>
       <c r="H130" t="n">
-        <v>7.462262</v>
+        <v>7.461263</v>
       </c>
       <c r="I130" t="n">
         <v>-0.1240740740740741</v>
@@ -7152,10 +7152,10 @@
         <v>-0.08690476190476192</v>
       </c>
       <c r="P130" t="n">
-        <v>7.436735948949632</v>
+        <v>7.435763054047452</v>
       </c>
       <c r="Q130" t="n">
-        <v>7.415378192245947</v>
+        <v>7.41432467067558</v>
       </c>
     </row>
     <row r="131">
@@ -7163,25 +7163,25 @@
         <v>43769</v>
       </c>
       <c r="B131" t="n">
-        <v>0.007941283095519225</v>
+        <v>0.007939808444484164</v>
       </c>
       <c r="C131" t="n">
-        <v>7.436695</v>
+        <v>7.436429</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01088415271446852</v>
+        <v>0.01088400455900551</v>
       </c>
       <c r="E131" t="n">
-        <v>7.436695</v>
+        <v>7.436429</v>
       </c>
       <c r="F131" t="n">
         <v>-0.1240740740740741</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008996953548981779</v>
+        <v>0.008998822088595482</v>
       </c>
       <c r="H131" t="n">
-        <v>7.467171</v>
+        <v>7.468528</v>
       </c>
       <c r="I131" t="n">
         <v>-0.07060931899641576</v>
@@ -7205,10 +7205,10 @@
         <v>-0.1132616487455197</v>
       </c>
       <c r="P131" t="n">
-        <v>7.442930078631244</v>
+        <v>7.444424338564697</v>
       </c>
       <c r="Q131" t="n">
-        <v>7.429949383249622</v>
+        <v>7.430875349394712</v>
       </c>
     </row>
     <row r="132">
@@ -7216,25 +7216,25 @@
         <v>43799</v>
       </c>
       <c r="B132" t="n">
-        <v>0.009000068478433931</v>
+        <v>0.009003052809377188</v>
       </c>
       <c r="C132" t="n">
-        <v>7.481524</v>
+        <v>7.48215</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008996953548981779</v>
+        <v>0.008998822088595482</v>
       </c>
       <c r="E132" t="n">
-        <v>7.481524</v>
+        <v>7.48215</v>
       </c>
       <c r="F132" t="n">
         <v>-0.07060931899641576</v>
       </c>
       <c r="G132" t="n">
-        <v>0.007941283095519225</v>
+        <v>0.007939808444484164</v>
       </c>
       <c r="H132" t="n">
-        <v>7.436695</v>
+        <v>7.436429</v>
       </c>
       <c r="I132" t="n">
         <v>0.02962962962962963</v>
@@ -7258,10 +7258,10 @@
         <v>-0.107037037037037</v>
       </c>
       <c r="P132" t="n">
-        <v>7.412014854658511</v>
+        <v>7.41180721468946</v>
       </c>
       <c r="Q132" t="n">
-        <v>7.417386040509946</v>
+        <v>7.4170799571937</v>
       </c>
     </row>
     <row r="133">
@@ -7269,25 +7269,25 @@
         <v>43830</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01335354072205686</v>
+        <v>0.01334796541797179</v>
       </c>
       <c r="C133" t="n">
-        <v>7.483537</v>
+        <v>7.485765</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007941283095519225</v>
+        <v>0.007939808444484164</v>
       </c>
       <c r="E133" t="n">
-        <v>7.483537</v>
+        <v>7.485765</v>
       </c>
       <c r="F133" t="n">
         <v>0.02962962962962963</v>
       </c>
       <c r="G133" t="n">
-        <v>0.009000068478433931</v>
+        <v>0.009003052809377188</v>
       </c>
       <c r="H133" t="n">
-        <v>7.481524</v>
+        <v>7.48215</v>
       </c>
       <c r="I133" t="n">
         <v>0.01505376344086022</v>
@@ -7311,10 +7311,10 @@
         <v>-0.1315412186379928</v>
       </c>
       <c r="P133" t="n">
-        <v>7.459778084211969</v>
+        <v>7.460498553606269</v>
       </c>
       <c r="Q133" t="n">
-        <v>7.483757578778794</v>
+        <v>7.485510584260637</v>
       </c>
     </row>
     <row r="134">
@@ -7322,25 +7322,25 @@
         <v>43861</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0134431307266718</v>
+        <v>0.01344169987464117</v>
       </c>
       <c r="C134" t="n">
-        <v>7.485887</v>
+        <v>7.482983</v>
       </c>
       <c r="D134" t="n">
-        <v>0.009000068478433931</v>
+        <v>0.009003052809377188</v>
       </c>
       <c r="E134" t="n">
-        <v>7.485887</v>
+        <v>7.482983</v>
       </c>
       <c r="F134" t="n">
         <v>0.01505376344086022</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01335354072205686</v>
+        <v>0.01334796541797179</v>
       </c>
       <c r="H134" t="n">
-        <v>7.483537</v>
+        <v>7.485765</v>
       </c>
       <c r="I134" t="n">
         <v>-0.01146953405017921</v>
@@ -7364,10 +7364,10 @@
         <v>-0.04148148148148148</v>
       </c>
       <c r="P134" t="n">
-        <v>7.462663363503006</v>
+        <v>7.465048442348627</v>
       </c>
       <c r="Q134" t="n">
-        <v>7.486204391302318</v>
+        <v>7.480991138248559</v>
       </c>
     </row>
     <row r="135">
@@ -7375,25 +7375,25 @@
         <v>43890</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0121145380495884</v>
+        <v>0.01211828948741456</v>
       </c>
       <c r="C135" t="n">
-        <v>7.336548</v>
+        <v>7.334196</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01335354072205686</v>
+        <v>0.01334796541797179</v>
       </c>
       <c r="E135" t="n">
-        <v>7.336548</v>
+        <v>7.334196</v>
       </c>
       <c r="F135" t="n">
         <v>-0.01146953405017921</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0134431307266718</v>
+        <v>0.01344169987464117</v>
       </c>
       <c r="H135" t="n">
-        <v>7.485887</v>
+        <v>7.482983</v>
       </c>
       <c r="I135" t="n">
         <v>-0.05708812260536398</v>
@@ -7417,10 +7417,10 @@
         <v>-0.05555555555555556</v>
       </c>
       <c r="P135" t="n">
-        <v>7.46583704853822</v>
+        <v>7.46287842774278</v>
       </c>
       <c r="Q135" t="n">
-        <v>7.438103573279968</v>
+        <v>7.435222827223574</v>
       </c>
     </row>
     <row r="136">
@@ -7428,25 +7428,25 @@
         <v>43921</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007845697807000285</v>
+        <v>0.007840196820282586</v>
       </c>
       <c r="C136" t="n">
-        <v>7.196694</v>
+        <v>7.19119</v>
       </c>
       <c r="D136" t="n">
-        <v>0.0134431307266718</v>
+        <v>0.01344169987464117</v>
       </c>
       <c r="E136" t="n">
-        <v>7.196694</v>
+        <v>7.19119</v>
       </c>
       <c r="F136" t="n">
         <v>-0.05708812260536398</v>
       </c>
       <c r="G136" t="n">
-        <v>0.0121145380495884</v>
+        <v>0.01211828948741456</v>
       </c>
       <c r="H136" t="n">
-        <v>7.336548</v>
+        <v>7.334196</v>
       </c>
       <c r="I136" t="n">
         <v>-0.01254480286738351</v>
@@ -7470,10 +7470,10 @@
         <v>-0.08602150537634408</v>
       </c>
       <c r="P136" t="n">
-        <v>7.311189496979822</v>
+        <v>7.30879878327209</v>
       </c>
       <c r="Q136" t="n">
-        <v>7.277598221329344</v>
+        <v>7.275296461389605</v>
       </c>
     </row>
     <row r="137">
@@ -7481,25 +7481,25 @@
         <v>43951</v>
       </c>
       <c r="B137" t="n">
-        <v>0.003123309249611239</v>
+        <v>0.00311332442730361</v>
       </c>
       <c r="C137" t="n">
-        <v>7.402111</v>
+        <v>7.399575</v>
       </c>
       <c r="D137" t="n">
-        <v>0.0121145380495884</v>
+        <v>0.01211828948741456</v>
       </c>
       <c r="E137" t="n">
-        <v>7.402111</v>
+        <v>7.399575</v>
       </c>
       <c r="F137" t="n">
         <v>-0.01254480286738351</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007845697807000285</v>
+        <v>0.007840196820282586</v>
       </c>
       <c r="H137" t="n">
-        <v>7.196694</v>
+        <v>7.19119</v>
       </c>
       <c r="I137" t="n">
         <v>0.1051851851851852</v>
@@ -7523,10 +7523,10 @@
         <v>-0.1240740740740741</v>
       </c>
       <c r="P137" t="n">
-        <v>7.166222836551102</v>
+        <v>7.160535328915715</v>
       </c>
       <c r="Q137" t="n">
-        <v>7.201270469773461</v>
+        <v>7.19534323818391</v>
       </c>
     </row>
     <row r="138">
@@ -7534,25 +7534,25 @@
         <v>43982</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0006283715836037373</v>
+        <v>0.0006232767580556242</v>
       </c>
       <c r="C138" t="n">
-        <v>7.649885</v>
+        <v>7.651889</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007845697807000285</v>
+        <v>0.007840196820282586</v>
       </c>
       <c r="E138" t="n">
-        <v>7.649885</v>
+        <v>7.651889</v>
       </c>
       <c r="F138" t="n">
         <v>0.1051851851851852</v>
       </c>
       <c r="G138" t="n">
-        <v>0.003123309249611239</v>
+        <v>0.00311332442730361</v>
       </c>
       <c r="H138" t="n">
-        <v>7.402111</v>
+        <v>7.399575</v>
       </c>
       <c r="I138" t="n">
         <v>0.2519713261648746</v>
@@ -7576,10 +7576,10 @@
         <v>-0.07060931899641576</v>
       </c>
       <c r="P138" t="n">
-        <v>7.381406302206165</v>
+        <v>7.378843934762846</v>
       </c>
       <c r="Q138" t="n">
-        <v>7.469470313840337</v>
+        <v>7.465564266513976</v>
       </c>
     </row>
     <row r="139">
@@ -7587,25 +7587,25 @@
         <v>44012</v>
       </c>
       <c r="B139" t="n">
-        <v>0.002498489594712439</v>
+        <v>0.002494618588447572</v>
       </c>
       <c r="C139" t="n">
-        <v>8.104240000000001</v>
+        <v>8.103548999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>0.003123309249611239</v>
+        <v>0.00311332442730361</v>
       </c>
       <c r="E139" t="n">
-        <v>8.104240000000001</v>
+        <v>8.103548999999999</v>
       </c>
       <c r="F139" t="n">
         <v>0.2519713261648746</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0006283715836037373</v>
+        <v>0.0006232767580556242</v>
       </c>
       <c r="H139" t="n">
-        <v>7.649885</v>
+        <v>7.651889</v>
       </c>
       <c r="I139" t="n">
         <v>0.3466666666666667</v>
@@ -7629,10 +7629,10 @@
         <v>0.02962962962962963</v>
       </c>
       <c r="P139" t="n">
-        <v>7.63837921183046</v>
+        <v>7.640514145422733</v>
       </c>
       <c r="Q139" t="n">
-        <v>7.781596188636469</v>
+        <v>7.785002937366094</v>
       </c>
     </row>
     <row r="140">
@@ -7640,25 +7640,25 @@
         <v>44043</v>
       </c>
       <c r="B140" t="n">
-        <v>0.003168377022529256</v>
+        <v>0.003191725459668504</v>
       </c>
       <c r="C140" t="n">
-        <v>8.509100999999999</v>
+        <v>8.51083</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006283715836037373</v>
+        <v>0.0006232767580556242</v>
       </c>
       <c r="E140" t="n">
-        <v>8.509100999999999</v>
+        <v>8.51083</v>
       </c>
       <c r="F140" t="n">
         <v>0.3466666666666667</v>
       </c>
       <c r="G140" t="n">
-        <v>0.002498489594712439</v>
+        <v>0.002494618588447572</v>
       </c>
       <c r="H140" t="n">
-        <v>8.104240000000001</v>
+        <v>8.103548999999999</v>
       </c>
       <c r="I140" t="n">
         <v>0.2268817204301075</v>
@@ -7682,10 +7682,10 @@
         <v>0.01505376344086022</v>
       </c>
       <c r="P140" t="n">
-        <v>8.10465968816043</v>
+        <v>8.1040027905433</v>
       </c>
       <c r="Q140" t="n">
-        <v>8.363578037517938</v>
+        <v>8.363249055277819</v>
       </c>
     </row>
     <row r="141">
@@ -7693,25 +7693,25 @@
         <v>44074</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.002193878404203708</v>
+        <v>-0.002193942977214647</v>
       </c>
       <c r="C141" t="n">
-        <v>8.646041</v>
+        <v>8.648108000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002498489594712439</v>
+        <v>0.002494618588447572</v>
       </c>
       <c r="E141" t="n">
-        <v>8.646041</v>
+        <v>8.648108000000001</v>
       </c>
       <c r="F141" t="n">
         <v>0.2268817204301075</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003168377022529256</v>
+        <v>0.003191725459668504</v>
       </c>
       <c r="H141" t="n">
-        <v>8.509100999999999</v>
+        <v>8.51083</v>
       </c>
       <c r="I141" t="n">
         <v>0.1200716845878136</v>
@@ -7735,10 +7735,10 @@
         <v>-0.01146953405017921</v>
       </c>
       <c r="P141" t="n">
-        <v>8.515931242907438</v>
+        <v>8.517721625894053</v>
       </c>
       <c r="Q141" t="n">
-        <v>8.63652083061201</v>
+        <v>8.638733821682232</v>
       </c>
     </row>
     <row r="142">
@@ -7746,25 +7746,25 @@
         <v>44104</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003062074261090508</v>
+        <v>-0.003057411274569155</v>
       </c>
       <c r="C142" t="n">
-        <v>8.593951000000001</v>
+        <v>8.594695</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003168377022529256</v>
+        <v>0.003191725459668504</v>
       </c>
       <c r="E142" t="n">
-        <v>8.593951000000001</v>
+        <v>8.594695</v>
       </c>
       <c r="F142" t="n">
         <v>0.1200716845878136</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.002193878404203708</v>
+        <v>-0.002193942977214647</v>
       </c>
       <c r="H142" t="n">
-        <v>8.646041</v>
+        <v>8.648108000000001</v>
       </c>
       <c r="I142" t="n">
         <v>0.03888888888888889</v>
@@ -7788,10 +7788,10 @@
         <v>-0.05708812260536398</v>
       </c>
       <c r="P142" t="n">
-        <v>8.654179273488278</v>
+        <v>8.656303392023968</v>
       </c>
       <c r="Q142" t="n">
-        <v>8.664035403936708</v>
+        <v>8.666192720868425</v>
       </c>
     </row>
     <row r="143">
@@ -7799,25 +7799,25 @@
         <v>44135</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.002626557734575208</v>
+        <v>-0.002625624358457479</v>
       </c>
       <c r="C143" t="n">
-        <v>8.400551</v>
+        <v>8.401794000000001</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.002193878404203708</v>
+        <v>-0.002193942977214647</v>
       </c>
       <c r="E143" t="n">
-        <v>8.400551</v>
+        <v>8.401794000000001</v>
       </c>
       <c r="F143" t="n">
         <v>0.03888888888888889</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.003062074261090508</v>
+        <v>-0.003057411274569155</v>
       </c>
       <c r="H143" t="n">
-        <v>8.593951000000001</v>
+        <v>8.594695</v>
       </c>
       <c r="I143" t="n">
         <v>0.1161290322580645</v>
@@ -7841,10 +7841,10 @@
         <v>-0.01254480286738351</v>
       </c>
       <c r="P143" t="n">
-        <v>8.601509213609466</v>
+        <v>8.602300189482394</v>
       </c>
       <c r="Q143" t="n">
-        <v>8.636698392040044</v>
+        <v>8.637601590849282</v>
       </c>
     </row>
     <row r="144">
@@ -7852,25 +7852,25 @@
         <v>44165</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.002465341142935173</v>
+        <v>-0.002463076628248295</v>
       </c>
       <c r="C144" t="n">
-        <v>8.212787000000001</v>
+        <v>8.216822000000001</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.003062074261090508</v>
+        <v>-0.003057411274569155</v>
       </c>
       <c r="E144" t="n">
-        <v>8.212787000000001</v>
+        <v>8.216822000000001</v>
       </c>
       <c r="F144" t="n">
         <v>0.1161290322580645</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.002626557734575208</v>
+        <v>-0.002625624358457479</v>
       </c>
       <c r="H144" t="n">
-        <v>8.400551</v>
+        <v>8.401794000000001</v>
       </c>
       <c r="I144" t="n">
         <v>0.1214814814814815</v>
@@ -7894,10 +7894,10 @@
         <v>0.1051851851851852</v>
       </c>
       <c r="P144" t="n">
-        <v>8.406016981984553</v>
+        <v>8.407318586734799</v>
       </c>
       <c r="Q144" t="n">
-        <v>8.456317189711445</v>
+        <v>8.457376490234992</v>
       </c>
     </row>
     <row r="145">
@@ -7905,25 +7905,25 @@
         <v>44196</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.00255774347837967</v>
+        <v>-0.002570751160822837</v>
       </c>
       <c r="C145" t="n">
-        <v>8.215256999999999</v>
+        <v>8.215932</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.002626557734575208</v>
+        <v>-0.002625624358457479</v>
       </c>
       <c r="E145" t="n">
-        <v>8.215256999999999</v>
+        <v>8.215932</v>
       </c>
       <c r="F145" t="n">
         <v>0.1214814814814815</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.002465341142935173</v>
+        <v>-0.002463076628248295</v>
       </c>
       <c r="H145" t="n">
-        <v>8.212787000000001</v>
+        <v>8.216822000000001</v>
       </c>
       <c r="I145" t="n">
         <v>0.09677419354838709</v>
@@ -7947,10 +7947,10 @@
         <v>0.2519713261648746</v>
       </c>
       <c r="P145" t="n">
-        <v>8.215734699498537</v>
+        <v>8.219874409668611</v>
       </c>
       <c r="Q145" t="n">
-        <v>8.205935819379286</v>
+        <v>8.210016860139032</v>
       </c>
     </row>
     <row r="146">
@@ -7958,25 +7958,25 @@
         <v>44227</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007320398059515121</v>
+        <v>0.007291669838421555</v>
       </c>
       <c r="C146" t="n">
-        <v>8.260482</v>
+        <v>8.260751000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.002465341142935173</v>
+        <v>-0.002463076628248295</v>
       </c>
       <c r="E146" t="n">
-        <v>8.260482</v>
+        <v>8.260751000000001</v>
       </c>
       <c r="F146" t="n">
         <v>0.09677419354838709</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.00255774347837967</v>
+        <v>-0.002570751160822837</v>
       </c>
       <c r="H146" t="n">
-        <v>8.215256999999999</v>
+        <v>8.215932</v>
       </c>
       <c r="I146" t="n">
         <v>0.02939068100358423</v>
@@ -8000,10 +8000,10 @@
         <v>0.3466666666666667</v>
       </c>
       <c r="P146" t="n">
-        <v>8.218191007696769</v>
+        <v>8.21891961979796</v>
       </c>
       <c r="Q146" t="n">
-        <v>8.262944166911911</v>
+        <v>8.263785047820381</v>
       </c>
     </row>
     <row r="147">
@@ -8011,25 +8011,25 @@
         <v>44255</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007836170139779775</v>
+        <v>0.007832573499801931</v>
       </c>
       <c r="C147" t="n">
-        <v>8.257548999999999</v>
+        <v>8.25437</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.00255774347837967</v>
+        <v>-0.002570751160822837</v>
       </c>
       <c r="E147" t="n">
-        <v>8.257548999999999</v>
+        <v>8.25437</v>
       </c>
       <c r="F147" t="n">
         <v>0.02939068100358423</v>
       </c>
       <c r="G147" t="n">
-        <v>0.007320398059515121</v>
+        <v>0.007291669838421555</v>
       </c>
       <c r="H147" t="n">
-        <v>8.260482</v>
+        <v>8.260751000000001</v>
       </c>
       <c r="I147" t="n">
         <v>0.04920634920634921</v>
@@ -8053,10 +8053,10 @@
         <v>0.2268817204301075</v>
       </c>
       <c r="P147" t="n">
-        <v>8.264008884413462</v>
+        <v>8.264323543625373</v>
       </c>
       <c r="Q147" t="n">
-        <v>8.255312951004315</v>
+        <v>8.254715026243439</v>
       </c>
     </row>
     <row r="148">
@@ -8064,25 +8064,25 @@
         <v>44286</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01259074843019281</v>
+        <v>0.01258837404473656</v>
       </c>
       <c r="C148" t="n">
-        <v>8.217354</v>
+        <v>8.215612999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007320398059515121</v>
+        <v>0.007291669838421555</v>
       </c>
       <c r="E148" t="n">
-        <v>8.217354</v>
+        <v>8.215612999999999</v>
       </c>
       <c r="F148" t="n">
         <v>0.04920634920634921</v>
       </c>
       <c r="G148" t="n">
-        <v>0.007836170139779775</v>
+        <v>0.007832573499801931</v>
       </c>
       <c r="H148" t="n">
-        <v>8.257548999999999</v>
+        <v>8.25437</v>
       </c>
       <c r="I148" t="n">
         <v>0.07025089605734768</v>
@@ -8106,10 +8106,10 @@
         <v>0.1200716845878136</v>
       </c>
       <c r="P148" t="n">
-        <v>8.260980205620843</v>
+        <v>8.257799748569816</v>
       </c>
       <c r="Q148" t="n">
-        <v>8.289474104390555</v>
+        <v>8.286427267979493</v>
       </c>
     </row>
     <row r="149">
@@ -8117,25 +8117,25 @@
         <v>44316</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01580066870791885</v>
+        <v>0.01584437624302559</v>
       </c>
       <c r="C149" t="n">
-        <v>8.273908</v>
+        <v>8.277016</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007836170139779775</v>
+        <v>0.007832573499801931</v>
       </c>
       <c r="E149" t="n">
-        <v>8.273908</v>
+        <v>8.277016</v>
       </c>
       <c r="F149" t="n">
         <v>0.07025089605734768</v>
       </c>
       <c r="G149" t="n">
-        <v>0.01259074843019281</v>
+        <v>0.01258837404473656</v>
       </c>
       <c r="H149" t="n">
-        <v>8.217354</v>
+        <v>8.215612999999999</v>
       </c>
       <c r="I149" t="n">
         <v>0.1148148148148148</v>
@@ -8159,10 +8159,10 @@
         <v>0.03888888888888889</v>
       </c>
       <c r="P149" t="n">
-        <v>8.220189450207304</v>
+        <v>8.218465405963086</v>
       </c>
       <c r="Q149" t="n">
-        <v>8.271341713535666</v>
+        <v>8.277354601566133</v>
       </c>
     </row>
     <row r="150">
@@ -8170,25 +8170,25 @@
         <v>44347</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01935592876490233</v>
+        <v>0.01933586820732991</v>
       </c>
       <c r="C150" t="n">
-        <v>8.098227</v>
+        <v>8.098411</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01259074843019281</v>
+        <v>0.01258837404473656</v>
       </c>
       <c r="E150" t="n">
-        <v>8.098227</v>
+        <v>8.098411</v>
       </c>
       <c r="F150" t="n">
         <v>0.1148148148148148</v>
       </c>
       <c r="G150" t="n">
-        <v>0.01580066870791885</v>
+        <v>0.01584437624302559</v>
       </c>
       <c r="H150" t="n">
-        <v>8.273908</v>
+        <v>8.277016</v>
       </c>
       <c r="I150" t="n">
         <v>0.1240143369175627</v>
@@ -8212,10 +8212,10 @@
         <v>0.1161290322580645</v>
       </c>
       <c r="P150" t="n">
-        <v>8.277454454316647</v>
+        <v>8.280642776163093</v>
       </c>
       <c r="Q150" t="n">
-        <v>8.301635126923331</v>
+        <v>8.3047761751151</v>
       </c>
     </row>
     <row r="151">
@@ -8223,25 +8223,25 @@
         <v>44377</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01989956026626771</v>
+        <v>0.01990762671315505</v>
       </c>
       <c r="C151" t="n">
-        <v>7.889104</v>
+        <v>7.888889</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01580066870791885</v>
+        <v>0.01584437624302559</v>
       </c>
       <c r="E151" t="n">
-        <v>7.889104</v>
+        <v>7.888889</v>
       </c>
       <c r="F151" t="n">
         <v>0.1240143369175627</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01935592876490233</v>
+        <v>0.01933586820732991</v>
       </c>
       <c r="H151" t="n">
-        <v>8.098227</v>
+        <v>8.098411</v>
       </c>
       <c r="I151" t="n">
         <v>0.05481481481481481</v>
@@ -8265,10 +8265,10 @@
         <v>0.1214814814814815</v>
       </c>
       <c r="P151" t="n">
-        <v>8.099356241268344</v>
+        <v>8.099589889920464</v>
       </c>
       <c r="Q151" t="n">
-        <v>8.106263713257105</v>
+        <v>8.106421690459968</v>
       </c>
     </row>
     <row r="152">
@@ -8276,25 +8276,25 @@
         <v>44408</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02360246751095829</v>
+        <v>0.02361099226105257</v>
       </c>
       <c r="C152" t="n">
-        <v>7.686603</v>
+        <v>7.68307</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01935592876490233</v>
+        <v>0.01933586820732991</v>
       </c>
       <c r="E152" t="n">
-        <v>7.686603</v>
+        <v>7.68307</v>
       </c>
       <c r="F152" t="n">
         <v>0.05481481481481481</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01989956026626771</v>
+        <v>0.01990762671315505</v>
       </c>
       <c r="H152" t="n">
-        <v>7.889104</v>
+        <v>7.888889</v>
       </c>
       <c r="I152" t="n">
         <v>0.01971326164874552</v>
@@ -8318,10 +8318,10 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="P152" t="n">
-        <v>7.886823745598255</v>
+        <v>7.886655935431981</v>
       </c>
       <c r="Q152" t="n">
-        <v>7.825094965744344</v>
+        <v>7.82487063291709</v>
       </c>
     </row>
     <row r="153">
@@ -8329,25 +8329,25 @@
         <v>44439</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03119944001643038</v>
+        <v>0.03118573676132996</v>
       </c>
       <c r="C153" t="n">
-        <v>7.580185</v>
+        <v>7.5823</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01989956026626771</v>
+        <v>0.01990762671315505</v>
       </c>
       <c r="E153" t="n">
-        <v>7.580185</v>
+        <v>7.5823</v>
       </c>
       <c r="F153" t="n">
         <v>0.01971326164874552</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02360246751095829</v>
+        <v>0.02361099226105257</v>
       </c>
       <c r="H153" t="n">
-        <v>7.686603</v>
+        <v>7.68307</v>
       </c>
       <c r="I153" t="n">
         <v>-0.02544802867383512</v>
@@ -8371,10 +8371,10 @@
         <v>0.02939068100358423</v>
       </c>
       <c r="P153" t="n">
-        <v>7.68041433268759</v>
+        <v>7.676862559165258</v>
       </c>
       <c r="Q153" t="n">
-        <v>7.658215276376456</v>
+        <v>7.654622824419129</v>
       </c>
     </row>
     <row r="154">
@@ -8382,25 +8382,25 @@
         <v>44469</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03416798239225205</v>
+        <v>0.03417343211670421</v>
       </c>
       <c r="C154" t="n">
-        <v>7.428958</v>
+        <v>7.428698</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02360246751095829</v>
+        <v>0.02361099226105257</v>
       </c>
       <c r="E154" t="n">
-        <v>7.428958</v>
+        <v>7.428698</v>
       </c>
       <c r="F154" t="n">
         <v>-0.02544802867383512</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03119944001643038</v>
+        <v>0.03118573676132996</v>
       </c>
       <c r="H154" t="n">
-        <v>7.580185</v>
+        <v>7.5823</v>
       </c>
       <c r="I154" t="n">
         <v>-0.02925925925925926</v>
@@ -8424,10 +8424,10 @@
         <v>0.04920634920634921</v>
       </c>
       <c r="P154" t="n">
-        <v>7.571752987308488</v>
+        <v>7.57397499247995</v>
       </c>
       <c r="Q154" t="n">
-        <v>7.529612527490007</v>
+        <v>7.531783765598431</v>
       </c>
     </row>
     <row r="155">
@@ -8435,25 +8435,25 @@
         <v>44500</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04053708049325255</v>
+        <v>0.04053251615305786</v>
       </c>
       <c r="C155" t="n">
-        <v>7.301841</v>
+        <v>7.302886</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03119944001643038</v>
+        <v>0.03118573676132996</v>
       </c>
       <c r="E155" t="n">
-        <v>7.301841</v>
+        <v>7.302886</v>
       </c>
       <c r="F155" t="n">
         <v>-0.02925925925925926</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03416798239225205</v>
+        <v>0.03417343211670421</v>
       </c>
       <c r="H155" t="n">
-        <v>7.428958</v>
+        <v>7.428698</v>
       </c>
       <c r="I155" t="n">
         <v>-0.103584229390681</v>
@@ -8477,10 +8477,10 @@
         <v>0.07025089605734768</v>
       </c>
       <c r="P155" t="n">
-        <v>7.417052433775209</v>
+        <v>7.416847145983767</v>
       </c>
       <c r="Q155" t="n">
-        <v>7.358661218511187</v>
+        <v>7.35827996631322</v>
       </c>
     </row>
     <row r="156">
@@ -8488,25 +8488,25 @@
         <v>44530</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04671784421920577</v>
+        <v>0.04671354138146988</v>
       </c>
       <c r="C156" t="n">
-        <v>7.172888</v>
+        <v>7.172415</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03416798239225205</v>
+        <v>0.03417343211670421</v>
       </c>
       <c r="E156" t="n">
-        <v>7.172888</v>
+        <v>7.172415</v>
       </c>
       <c r="F156" t="n">
         <v>-0.103584229390681</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04053708049325255</v>
+        <v>0.04053251615305786</v>
       </c>
       <c r="H156" t="n">
-        <v>7.301841</v>
+        <v>7.302886</v>
       </c>
       <c r="I156" t="n">
         <v>-0.1522222222222222</v>
@@ -8530,10 +8530,10 @@
         <v>0.1148148148148148</v>
       </c>
       <c r="P156" t="n">
-        <v>7.286842160307705</v>
+        <v>7.287978664633284</v>
       </c>
       <c r="Q156" t="n">
-        <v>7.206079439914425</v>
+        <v>7.207055384771023</v>
       </c>
     </row>
     <row r="157">
@@ -8541,25 +8541,25 @@
         <v>44561</v>
       </c>
       <c r="B157" t="n">
-        <v>0.04885280273421522</v>
+        <v>0.04883913469898093</v>
       </c>
       <c r="C157" t="n">
-        <v>7.072066</v>
+        <v>7.076453</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04053708049325255</v>
+        <v>0.04053251615305786</v>
       </c>
       <c r="E157" t="n">
-        <v>7.072066</v>
+        <v>7.076453</v>
       </c>
       <c r="F157" t="n">
         <v>-0.1522222222222222</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04671784421920577</v>
+        <v>0.04671354138146988</v>
       </c>
       <c r="H157" t="n">
-        <v>7.172888</v>
+        <v>7.172415</v>
       </c>
       <c r="I157" t="n">
         <v>-0.1437275985663083</v>
@@ -8583,10 +8583,10 @@
         <v>0.1240143369175627</v>
       </c>
       <c r="P157" t="n">
-        <v>7.154577533181723</v>
+        <v>7.154154734637843</v>
       </c>
       <c r="Q157" t="n">
-        <v>7.074261365103535</v>
+        <v>7.077548417212366</v>
       </c>
     </row>
     <row r="158">
@@ -8594,25 +8594,25 @@
         <v>44592</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04964448399852905</v>
+        <v>0.04961524244454107</v>
       </c>
       <c r="C158" t="n">
-        <v>6.959984</v>
+        <v>6.958588</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04671784421920577</v>
+        <v>0.04671354138146988</v>
       </c>
       <c r="E158" t="n">
-        <v>6.959984</v>
+        <v>6.958588</v>
       </c>
       <c r="F158" t="n">
         <v>-0.1437275985663083</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04885280273421522</v>
+        <v>0.04883913469898093</v>
       </c>
       <c r="H158" t="n">
-        <v>7.072066</v>
+        <v>7.076453</v>
       </c>
       <c r="I158" t="n">
         <v>-0.1315412186379928</v>
@@ -8636,10 +8636,10 @@
         <v>0.05481481481481481</v>
       </c>
       <c r="P158" t="n">
-        <v>7.051167056144825</v>
+        <v>7.055755170465948</v>
       </c>
       <c r="Q158" t="n">
-        <v>6.979376973931078</v>
+        <v>6.983797256630409</v>
       </c>
     </row>
     <row r="159">
@@ -8647,25 +8647,25 @@
         <v>44620</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05658337994236273</v>
+        <v>0.05659238233316888</v>
       </c>
       <c r="C159" t="n">
-        <v>6.884277</v>
+        <v>6.883125</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04885280273421522</v>
+        <v>0.04883913469898093</v>
       </c>
       <c r="E159" t="n">
-        <v>6.884277</v>
+        <v>6.883125</v>
       </c>
       <c r="F159" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04964448399852905</v>
+        <v>0.04961524244454107</v>
       </c>
       <c r="H159" t="n">
-        <v>6.959984</v>
+        <v>6.958588</v>
       </c>
       <c r="I159" t="n">
         <v>-0.1571428571428572</v>
@@ -8689,10 +8689,10 @@
         <v>0.01971326164874552</v>
       </c>
       <c r="P159" t="n">
-        <v>6.936074573229176</v>
+        <v>6.934697912206321</v>
       </c>
       <c r="Q159" t="n">
-        <v>6.884857863115324</v>
+        <v>6.883311412234886</v>
       </c>
     </row>
     <row r="160">
@@ -8700,25 +8700,25 @@
         <v>44651</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07204216195909563</v>
+        <v>0.07202977555136858</v>
       </c>
       <c r="C160" t="n">
-        <v>6.859697</v>
+        <v>6.858373</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04964448399852905</v>
+        <v>0.04961524244454107</v>
       </c>
       <c r="E160" t="n">
-        <v>6.859697</v>
+        <v>6.858373</v>
       </c>
       <c r="F160" t="n">
         <v>-0.1571428571428572</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05658337994236273</v>
+        <v>0.05659238233316888</v>
       </c>
       <c r="H160" t="n">
-        <v>6.884277</v>
+        <v>6.883125</v>
       </c>
       <c r="I160" t="n">
         <v>-0.1301075268817204</v>
@@ -8742,10 +8742,10 @@
         <v>-0.02544802867383512</v>
       </c>
       <c r="P160" t="n">
-        <v>6.858516986099232</v>
+        <v>6.857391695066542</v>
       </c>
       <c r="Q160" t="n">
-        <v>6.836482273820025</v>
+        <v>6.835329993262127</v>
       </c>
     </row>
     <row r="161">
@@ -8753,25 +8753,25 @@
         <v>44681</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07199833993587212</v>
+        <v>0.07200638805065029</v>
       </c>
       <c r="C161" t="n">
-        <v>6.809022</v>
+        <v>6.8135</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05658337994236273</v>
+        <v>0.05659238233316888</v>
       </c>
       <c r="E161" t="n">
-        <v>6.809022</v>
+        <v>6.8135</v>
       </c>
       <c r="F161" t="n">
         <v>-0.1301075268817204</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07204216195909563</v>
+        <v>0.07202977555136858</v>
       </c>
       <c r="H161" t="n">
-        <v>6.859697</v>
+        <v>6.858373</v>
       </c>
       <c r="I161" t="n">
         <v>-0.09555555555555556</v>
@@ -8795,10 +8795,10 @@
         <v>-0.02925925925925926</v>
       </c>
       <c r="P161" t="n">
-        <v>6.833830824353532</v>
+        <v>6.832527285421325</v>
       </c>
       <c r="Q161" t="n">
-        <v>6.809120791023852</v>
+        <v>6.813954739744656</v>
       </c>
     </row>
     <row r="162">
@@ -8806,25 +8806,25 @@
         <v>44712</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07778630971570166</v>
+        <v>0.07779653782282558</v>
       </c>
       <c r="C162" t="n">
-        <v>6.776984</v>
+        <v>6.77716</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07204216195909563</v>
+        <v>0.07202977555136858</v>
       </c>
       <c r="E162" t="n">
-        <v>6.776984</v>
+        <v>6.77716</v>
       </c>
       <c r="F162" t="n">
         <v>-0.09555555555555556</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07199833993587212</v>
+        <v>0.07200638805065029</v>
       </c>
       <c r="H162" t="n">
-        <v>6.809022</v>
+        <v>6.8135</v>
       </c>
       <c r="I162" t="n">
         <v>-0.06487455197132616</v>
@@ -8848,10 +8848,10 @@
         <v>-0.103584229390681</v>
       </c>
       <c r="P162" t="n">
-        <v>6.782180259796253</v>
+        <v>6.786873012163505</v>
       </c>
       <c r="Q162" t="n">
-        <v>6.779244012725496</v>
+        <v>6.777712887977643</v>
       </c>
     </row>
     <row r="163">
@@ -8859,25 +8859,25 @@
         <v>44742</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08268838521538235</v>
+        <v>0.08271378172545685</v>
       </c>
       <c r="C163" t="n">
-        <v>6.780983</v>
+        <v>6.7826</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07199833993587212</v>
+        <v>0.07200638805065029</v>
       </c>
       <c r="E163" t="n">
-        <v>6.780983</v>
+        <v>6.7826</v>
       </c>
       <c r="F163" t="n">
         <v>-0.06487455197132616</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07778630971570166</v>
+        <v>0.07779653782282558</v>
       </c>
       <c r="H163" t="n">
-        <v>6.776984</v>
+        <v>6.77716</v>
       </c>
       <c r="I163" t="n">
         <v>-0.102962962962963</v>
@@ -8901,10 +8901,10 @@
         <v>-0.1522222222222222</v>
       </c>
       <c r="P163" t="n">
-        <v>6.749811794327375</v>
+        <v>6.750054932425609</v>
       </c>
       <c r="Q163" t="n">
-        <v>6.730880467828852</v>
+        <v>6.731120234810803</v>
       </c>
     </row>
     <row r="164">
@@ -8912,25 +8912,25 @@
         <v>44773</v>
       </c>
       <c r="B164" t="n">
-        <v>0.08415129786475006</v>
+        <v>0.08415357046637517</v>
       </c>
       <c r="C164" t="n">
-        <v>6.719052</v>
+        <v>6.717961</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07778630971570166</v>
+        <v>0.07779653782282558</v>
       </c>
       <c r="E164" t="n">
-        <v>6.719052</v>
+        <v>6.717961</v>
       </c>
       <c r="F164" t="n">
         <v>-0.102962962962963</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08268838521538235</v>
+        <v>0.08271378172545685</v>
       </c>
       <c r="H164" t="n">
-        <v>6.780983</v>
+        <v>6.7826</v>
       </c>
       <c r="I164" t="n">
         <v>-0.1064516129032258</v>
@@ -8954,10 +8954,10 @@
         <v>-0.1437275985663083</v>
       </c>
       <c r="P164" t="n">
-        <v>6.754677989325138</v>
+        <v>6.756407243440398</v>
       </c>
       <c r="Q164" t="n">
-        <v>6.717751567783163</v>
+        <v>6.718112496270557</v>
       </c>
     </row>
     <row r="165">
@@ -8965,25 +8965,25 @@
         <v>44804</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0870258910869941</v>
+        <v>0.08702419388357363</v>
       </c>
       <c r="C165" t="n">
-        <v>6.76146</v>
+        <v>6.761161</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08268838521538235</v>
+        <v>0.08271378172545685</v>
       </c>
       <c r="E165" t="n">
-        <v>6.76146</v>
+        <v>6.761161</v>
       </c>
       <c r="F165" t="n">
         <v>-0.1064516129032258</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08415129786475006</v>
+        <v>0.08415357046637517</v>
       </c>
       <c r="H165" t="n">
-        <v>6.719052</v>
+        <v>6.717961</v>
       </c>
       <c r="I165" t="n">
         <v>-0.09426523297491039</v>
@@ -9007,10 +9007,10 @@
         <v>-0.1315412186379928</v>
       </c>
       <c r="P165" t="n">
-        <v>6.691443783963798</v>
+        <v>6.690376287885956</v>
       </c>
       <c r="Q165" t="n">
-        <v>6.691056564153385</v>
+        <v>6.690011635524849</v>
       </c>
     </row>
     <row r="166">
@@ -9018,25 +9018,25 @@
         <v>44834</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0947471194804077</v>
+        <v>0.09474907775974639</v>
       </c>
       <c r="C166" t="n">
-        <v>6.747225</v>
+        <v>6.750137</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08415129786475006</v>
+        <v>0.08415357046637517</v>
       </c>
       <c r="E166" t="n">
-        <v>6.747225</v>
+        <v>6.750137</v>
       </c>
       <c r="F166" t="n">
         <v>-0.09426523297491039</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0870258910869941</v>
+        <v>0.08702419388357363</v>
       </c>
       <c r="H166" t="n">
-        <v>6.76146</v>
+        <v>6.761161</v>
       </c>
       <c r="I166" t="n">
         <v>-0.09185185185185185</v>
@@ -9060,10 +9060,10 @@
         <v>-0.1571428571428572</v>
       </c>
       <c r="P166" t="n">
-        <v>6.735935168278739</v>
+        <v>6.735684713243768</v>
       </c>
       <c r="Q166" t="n">
-        <v>6.717490250848003</v>
+        <v>6.717237466423851</v>
       </c>
     </row>
     <row r="167">
@@ -9071,25 +9071,25 @@
         <v>44865</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1009901371539481</v>
+        <v>0.1009867351504381</v>
       </c>
       <c r="C167" t="n">
-        <v>6.70841</v>
+        <v>6.707418</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0870258910869941</v>
+        <v>0.08702419388357363</v>
       </c>
       <c r="E167" t="n">
-        <v>6.70841</v>
+        <v>6.707418</v>
       </c>
       <c r="F167" t="n">
         <v>-0.09185185185185185</v>
       </c>
       <c r="G167" t="n">
-        <v>0.0947471194804077</v>
+        <v>0.09474907775974639</v>
       </c>
       <c r="H167" t="n">
-        <v>6.747225</v>
+        <v>6.750137</v>
       </c>
       <c r="I167" t="n">
         <v>-0.1362007168458781</v>
@@ -9113,10 +9113,10 @@
         <v>-0.1301075268817204</v>
       </c>
       <c r="P167" t="n">
-        <v>6.721909118203073</v>
+        <v>6.724967083045342</v>
       </c>
       <c r="Q167" t="n">
-        <v>6.703877218157312</v>
+        <v>6.706916016096969</v>
       </c>
     </row>
     <row r="168">
@@ -9124,25 +9124,25 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0959969930039577</v>
+        <v>0.09598532660569425</v>
       </c>
       <c r="C168" t="n">
-        <v>6.728908</v>
+        <v>6.730804</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0947471194804077</v>
+        <v>0.09474907775974639</v>
       </c>
       <c r="E168" t="n">
-        <v>6.728908</v>
+        <v>6.730804</v>
       </c>
       <c r="F168" t="n">
         <v>-0.1362007168458781</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1009901371539481</v>
+        <v>0.1009867351504381</v>
       </c>
       <c r="H168" t="n">
-        <v>6.70841</v>
+        <v>6.707418</v>
       </c>
       <c r="I168" t="n">
         <v>-0.1259259259259259</v>
@@ -9166,10 +9166,10 @@
         <v>-0.09555555555555556</v>
       </c>
       <c r="P168" t="n">
-        <v>6.682548667172727</v>
+        <v>6.681582074486966</v>
       </c>
       <c r="Q168" t="n">
-        <v>6.66544944841226</v>
+        <v>6.66443072559412</v>
       </c>
     </row>
     <row r="169">
@@ -9177,25 +9177,25 @@
         <v>44926</v>
       </c>
       <c r="B169" t="n">
-        <v>0.088275993356282</v>
+        <v>0.0882586542212529</v>
       </c>
       <c r="C169" t="n">
-        <v>6.748092</v>
+        <v>6.751438</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1009901371539481</v>
+        <v>0.1009867351504381</v>
       </c>
       <c r="E169" t="n">
-        <v>6.748092</v>
+        <v>6.751438</v>
       </c>
       <c r="F169" t="n">
         <v>-0.1259259259259259</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0959969930039577</v>
+        <v>0.09598532660569425</v>
       </c>
       <c r="H169" t="n">
-        <v>6.728908</v>
+        <v>6.730804</v>
       </c>
       <c r="I169" t="n">
         <v>-0.1387096774193548</v>
@@ -9219,10 +9219,10 @@
         <v>-0.06487455197132616</v>
       </c>
       <c r="P169" t="n">
-        <v>6.704296108535723</v>
+        <v>6.706302971704044</v>
       </c>
       <c r="Q169" t="n">
-        <v>6.688164650257706</v>
+        <v>6.690142604435835</v>
       </c>
     </row>
     <row r="170">
@@ -9230,25 +9230,25 @@
         <v>44957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08376923833981209</v>
+        <v>0.08375141007007869</v>
       </c>
       <c r="C170" t="n">
-        <v>6.689085</v>
+        <v>6.690558</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0959969930039577</v>
+        <v>0.09598532660569425</v>
       </c>
       <c r="E170" t="n">
-        <v>6.689085</v>
+        <v>6.690558</v>
       </c>
       <c r="F170" t="n">
         <v>-0.1387096774193548</v>
       </c>
       <c r="G170" t="n">
-        <v>0.088275993356282</v>
+        <v>0.0882586542212529</v>
       </c>
       <c r="H170" t="n">
-        <v>6.748092</v>
+        <v>6.751438</v>
       </c>
       <c r="I170" t="n">
         <v>-0.08888888888888889</v>
@@ -9272,10 +9272,10 @@
         <v>-0.102962962962963</v>
       </c>
       <c r="P170" t="n">
-        <v>6.724617306329992</v>
+        <v>6.728111356767497</v>
       </c>
       <c r="Q170" t="n">
-        <v>6.688757857662025</v>
+        <v>6.690996354403989</v>
       </c>
     </row>
     <row r="171">
@@ -9283,25 +9283,25 @@
         <v>44985</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08189100402030114</v>
+        <v>0.08179272021796269</v>
       </c>
       <c r="C171" t="n">
-        <v>6.62665</v>
+        <v>6.629463</v>
       </c>
       <c r="D171" t="n">
-        <v>0.088275993356282</v>
+        <v>0.0882586542212529</v>
       </c>
       <c r="E171" t="n">
-        <v>6.62665</v>
+        <v>6.629463</v>
       </c>
       <c r="F171" t="n">
         <v>-0.08888888888888889</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08376923833981209</v>
+        <v>0.08375141007007869</v>
       </c>
       <c r="H171" t="n">
-        <v>6.689085</v>
+        <v>6.690558</v>
       </c>
       <c r="I171" t="n">
         <v>-0.07063492063492063</v>
@@ -9325,10 +9325,10 @@
         <v>-0.1064516129032258</v>
       </c>
       <c r="P171" t="n">
-        <v>6.664491803661068</v>
+        <v>6.666059700000791</v>
       </c>
       <c r="Q171" t="n">
-        <v>6.631871948308759</v>
+        <v>6.633404543325794</v>
       </c>
     </row>
     <row r="172">
@@ -9336,25 +9336,25 @@
         <v>45016</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06683242690044811</v>
+        <v>0.06682164732135387</v>
       </c>
       <c r="C172" t="n">
-        <v>6.58133</v>
+        <v>6.579774</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08376923833981209</v>
+        <v>0.08375141007007869</v>
       </c>
       <c r="E172" t="n">
-        <v>6.58133</v>
+        <v>6.579774</v>
       </c>
       <c r="F172" t="n">
         <v>-0.07063492063492063</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08189100402030114</v>
+        <v>0.08179272021796269</v>
       </c>
       <c r="H172" t="n">
-        <v>6.62665</v>
+        <v>6.629463</v>
       </c>
       <c r="I172" t="n">
         <v>-0.05842293906810036</v>
@@ -9378,10 +9378,10 @@
         <v>-0.09426523297491039</v>
       </c>
       <c r="P172" t="n">
-        <v>6.600847041046286</v>
+        <v>6.603793486617469</v>
       </c>
       <c r="Q172" t="n">
-        <v>6.581307105814127</v>
+        <v>6.579814988270077</v>
       </c>
     </row>
     <row r="173">
@@ -9389,25 +9389,25 @@
         <v>45046</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06754067226132499</v>
+        <v>0.067437315196063</v>
       </c>
       <c r="C173" t="n">
-        <v>6.544327</v>
+        <v>6.54845</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08189100402030114</v>
+        <v>0.08179272021796269</v>
       </c>
       <c r="E173" t="n">
-        <v>6.544327</v>
+        <v>6.54845</v>
       </c>
       <c r="F173" t="n">
         <v>-0.05842293906810036</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06683242690044811</v>
+        <v>0.06682164732135387</v>
       </c>
       <c r="H173" t="n">
-        <v>6.58133</v>
+        <v>6.579774</v>
       </c>
       <c r="I173" t="n">
         <v>-0.05</v>
@@ -9431,10 +9431,10 @@
         <v>-0.09185185185185185</v>
       </c>
       <c r="P173" t="n">
-        <v>6.554824367381079</v>
+        <v>6.553273676499039</v>
       </c>
       <c r="Q173" t="n">
-        <v>6.542300280362432</v>
+        <v>6.547772252116168</v>
       </c>
     </row>
     <row r="174">
@@ -9442,25 +9442,25 @@
         <v>45077</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05927548709142094</v>
+        <v>0.05929168283875086</v>
       </c>
       <c r="C174" t="n">
-        <v>6.519446</v>
+        <v>6.519224</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06683242690044811</v>
+        <v>0.06682164732135387</v>
       </c>
       <c r="E174" t="n">
-        <v>6.519446</v>
+        <v>6.519224</v>
       </c>
       <c r="F174" t="n">
         <v>-0.05</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06754067226132499</v>
+        <v>0.067437315196063</v>
       </c>
       <c r="H174" t="n">
-        <v>6.544327</v>
+        <v>6.54845</v>
       </c>
       <c r="I174" t="n">
         <v>-0.04301075268817204</v>
@@ -9484,10 +9484,10 @@
         <v>-0.1362007168458781</v>
       </c>
       <c r="P174" t="n">
-        <v>6.51737283132735</v>
+        <v>6.52166621099029</v>
       </c>
       <c r="Q174" t="n">
-        <v>6.519129771526852</v>
+        <v>6.519355700041858</v>
       </c>
     </row>
     <row r="175">
@@ -9495,25 +9495,25 @@
         <v>45107</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0536238890448697</v>
+        <v>0.05366834014242894</v>
       </c>
       <c r="C175" t="n">
-        <v>6.489678</v>
+        <v>6.482514</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06754067226132499</v>
+        <v>0.067437315196063</v>
       </c>
       <c r="E175" t="n">
-        <v>6.489678</v>
+        <v>6.482514</v>
       </c>
       <c r="F175" t="n">
         <v>-0.04301075268817204</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05927548709142094</v>
+        <v>0.05929168283875086</v>
       </c>
       <c r="H175" t="n">
-        <v>6.519446</v>
+        <v>6.519224</v>
       </c>
       <c r="I175" t="n">
         <v>-0.02444444444444444</v>
@@ -9537,10 +9537,10 @@
         <v>-0.1259259259259259</v>
       </c>
       <c r="P175" t="n">
-        <v>6.492404095731035</v>
+        <v>6.492223978899203</v>
       </c>
       <c r="Q175" t="n">
-        <v>6.493079488208426</v>
+        <v>6.483562339188578</v>
       </c>
     </row>
     <row r="176">
@@ -9548,25 +9548,25 @@
         <v>45138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05011246072763242</v>
+        <v>0.05012315871106932</v>
       </c>
       <c r="C176" t="n">
-        <v>6.588096</v>
+        <v>6.587265</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05927548709142094</v>
+        <v>0.05929168283875086</v>
       </c>
       <c r="E176" t="n">
-        <v>6.588096</v>
+        <v>6.587265</v>
       </c>
       <c r="F176" t="n">
         <v>-0.02444444444444444</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0536238890448697</v>
+        <v>0.05366834014242894</v>
       </c>
       <c r="H176" t="n">
-        <v>6.489678</v>
+        <v>6.482514</v>
       </c>
       <c r="I176" t="n">
         <v>-0.03046594982078853</v>
@@ -9590,10 +9590,10 @@
         <v>-0.1387096774193548</v>
       </c>
       <c r="P176" t="n">
-        <v>6.462410022959178</v>
+        <v>6.455087757037965</v>
       </c>
       <c r="Q176" t="n">
-        <v>6.474509062993513</v>
+        <v>6.46728165186074</v>
       </c>
     </row>
     <row r="177">
@@ -9601,25 +9601,25 @@
         <v>45169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04953407451172698</v>
+        <v>0.04953341353737439</v>
       </c>
       <c r="C177" t="n">
-        <v>6.566296</v>
+        <v>6.566095</v>
       </c>
       <c r="D177" t="n">
-        <v>0.0536238890448697</v>
+        <v>0.05366834014242894</v>
       </c>
       <c r="E177" t="n">
-        <v>6.566296</v>
+        <v>6.566095</v>
       </c>
       <c r="F177" t="n">
         <v>-0.03046594982078853</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05011246072763242</v>
+        <v>0.05012315871106932</v>
       </c>
       <c r="H177" t="n">
-        <v>6.588096</v>
+        <v>6.587265</v>
       </c>
       <c r="I177" t="n">
         <v>-0.04372759856630824</v>
@@ -9643,10 +9643,10 @@
         <v>-0.08888888888888889</v>
       </c>
       <c r="P177" t="n">
-        <v>6.564170425244217</v>
+        <v>6.563369661604525</v>
       </c>
       <c r="Q177" t="n">
-        <v>6.566102957740466</v>
+        <v>6.56591002235607</v>
       </c>
     </row>
     <row r="178">
@@ -9654,25 +9654,25 @@
         <v>45199</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04185176678177438</v>
+        <v>0.04185428774626931</v>
       </c>
       <c r="C178" t="n">
-        <v>6.60899</v>
+        <v>6.610459</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05011246072763242</v>
+        <v>0.05012315871106932</v>
       </c>
       <c r="E178" t="n">
-        <v>6.60899</v>
+        <v>6.610459</v>
       </c>
       <c r="F178" t="n">
         <v>-0.04372759856630824</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04953407451172698</v>
+        <v>0.04953341353737439</v>
       </c>
       <c r="H178" t="n">
-        <v>6.566296</v>
+        <v>6.566095</v>
       </c>
       <c r="I178" t="n">
         <v>-0.04703703703703704</v>
@@ -9696,10 +9696,10 @@
         <v>-0.07063492063492063</v>
       </c>
       <c r="P178" t="n">
-        <v>6.542312105215884</v>
+        <v>6.5421574295417</v>
       </c>
       <c r="Q178" t="n">
-        <v>6.546629544835275</v>
+        <v>6.546475858214982</v>
       </c>
     </row>
     <row r="179">
@@ -9707,25 +9707,25 @@
         <v>45230</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02803163103993711</v>
+        <v>0.02803465218996326</v>
       </c>
       <c r="C179" t="n">
-        <v>6.626563</v>
+        <v>6.625786</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04953407451172698</v>
+        <v>0.04953341353737439</v>
       </c>
       <c r="E179" t="n">
-        <v>6.626563</v>
+        <v>6.625786</v>
       </c>
       <c r="F179" t="n">
         <v>-0.04703703703703704</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04185176678177438</v>
+        <v>0.04185428774626931</v>
       </c>
       <c r="H179" t="n">
-        <v>6.60899</v>
+        <v>6.610459</v>
       </c>
       <c r="I179" t="n">
         <v>-0.04372759856630824</v>
@@ -9749,10 +9749,10 @@
         <v>-0.05842293906810036</v>
       </c>
       <c r="P179" t="n">
-        <v>6.58659889712533</v>
+        <v>6.588154978627749</v>
       </c>
       <c r="Q179" t="n">
-        <v>6.586958023196663</v>
+        <v>6.588521715733481</v>
       </c>
     </row>
     <row r="180">
@@ -9760,25 +9760,25 @@
         <v>45260</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02434312169709951</v>
+        <v>0.02432653006354979</v>
       </c>
       <c r="C180" t="n">
-        <v>6.55829</v>
+        <v>6.56203</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04185176678177438</v>
+        <v>0.04185428774626931</v>
       </c>
       <c r="E180" t="n">
-        <v>6.55829</v>
+        <v>6.56203</v>
       </c>
       <c r="F180" t="n">
         <v>-0.04372759856630824</v>
       </c>
       <c r="G180" t="n">
-        <v>0.02803163103993711</v>
+        <v>0.02803465218996326</v>
       </c>
       <c r="H180" t="n">
-        <v>6.626563</v>
+        <v>6.625786</v>
       </c>
       <c r="I180" t="n">
         <v>-0.03703703703703704</v>
@@ -9802,10 +9802,10 @@
         <v>-0.05</v>
       </c>
       <c r="P180" t="n">
-        <v>6.605052914811943</v>
+        <v>6.604305764621986</v>
       </c>
       <c r="Q180" t="n">
-        <v>6.590049697462111</v>
+        <v>6.589292157280938</v>
       </c>
     </row>
     <row r="181">
@@ -9813,25 +9813,25 @@
         <v>45291</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02894977518056407</v>
+        <v>0.02893471837493244</v>
       </c>
       <c r="C181" t="n">
-        <v>6.519283</v>
+        <v>6.527727</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02803163103993711</v>
+        <v>0.02803465218996326</v>
       </c>
       <c r="E181" t="n">
-        <v>6.519283</v>
+        <v>6.527727</v>
       </c>
       <c r="F181" t="n">
         <v>-0.03703703703703704</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02434312169709951</v>
+        <v>0.02432653006354979</v>
       </c>
       <c r="H181" t="n">
-        <v>6.55829</v>
+        <v>6.56203</v>
       </c>
       <c r="I181" t="n">
         <v>-0.05878136200716846</v>
@@ -9855,10 +9855,10 @@
         <v>-0.04301075268817204</v>
       </c>
       <c r="P181" t="n">
-        <v>6.535559997514347</v>
+        <v>6.539439651083937</v>
       </c>
       <c r="Q181" t="n">
-        <v>6.520930292746852</v>
+        <v>6.527954464933483</v>
       </c>
     </row>
     <row r="182">
@@ -9866,25 +9866,25 @@
         <v>45322</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02712199233021906</v>
+        <v>0.02711398001039633</v>
       </c>
       <c r="C182" t="n">
-        <v>6.551097</v>
+        <v>6.553582</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02434312169709951</v>
+        <v>0.02432653006354979</v>
       </c>
       <c r="E182" t="n">
-        <v>6.551097</v>
+        <v>6.553582</v>
       </c>
       <c r="F182" t="n">
         <v>-0.05878136200716846</v>
       </c>
       <c r="G182" t="n">
-        <v>0.02894977518056407</v>
+        <v>0.02893471837493244</v>
       </c>
       <c r="H182" t="n">
-        <v>6.519283</v>
+        <v>6.527727</v>
       </c>
       <c r="I182" t="n">
         <v>-0.06272401433691756</v>
@@ -9908,10 +9908,10 @@
         <v>-0.02444444444444444</v>
       </c>
       <c r="P182" t="n">
-        <v>6.496053007358314</v>
+        <v>6.504751134458369</v>
       </c>
       <c r="Q182" t="n">
-        <v>6.495307672638228</v>
+        <v>6.503937860940412</v>
       </c>
     </row>
     <row r="183">
@@ -9919,25 +9919,25 @@
         <v>45351</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02521118643832487</v>
+        <v>0.02523930144066355</v>
       </c>
       <c r="C183" t="n">
-        <v>6.54748</v>
+        <v>6.552401</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02894977518056407</v>
+        <v>0.02893471837493244</v>
       </c>
       <c r="E183" t="n">
-        <v>6.54748</v>
+        <v>6.552401</v>
       </c>
       <c r="F183" t="n">
         <v>-0.06272401433691756</v>
       </c>
       <c r="G183" t="n">
-        <v>0.02712199233021906</v>
+        <v>0.02711398001039633</v>
       </c>
       <c r="H183" t="n">
-        <v>6.551097</v>
+        <v>6.553582</v>
       </c>
       <c r="I183" t="n">
         <v>-0.08237547892720307</v>
@@ -9961,10 +9961,10 @@
         <v>-0.03046594982078853</v>
       </c>
       <c r="P183" t="n">
-        <v>6.529097654337929</v>
+        <v>6.531683254929421</v>
       </c>
       <c r="Q183" t="n">
-        <v>6.535035351991109</v>
+        <v>6.537627394699336</v>
       </c>
     </row>
     <row r="184">
@@ -9972,25 +9972,25 @@
         <v>45382</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02401937790772024</v>
+        <v>0.02400800972139283</v>
       </c>
       <c r="C184" t="n">
-        <v>6.464135</v>
+        <v>6.466306</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02712199233021906</v>
+        <v>0.02711398001039633</v>
       </c>
       <c r="E184" t="n">
-        <v>6.464135</v>
+        <v>6.466306</v>
       </c>
       <c r="F184" t="n">
         <v>-0.08237547892720307</v>
       </c>
       <c r="G184" t="n">
-        <v>0.02521118643832487</v>
+        <v>0.02523930144066355</v>
       </c>
       <c r="H184" t="n">
-        <v>6.54748</v>
+        <v>6.552401</v>
       </c>
       <c r="I184" t="n">
         <v>-0.06236559139784946</v>
@@ -10014,10 +10014,10 @@
         <v>-0.04372759856630824</v>
       </c>
       <c r="P184" t="n">
-        <v>6.525818971488674</v>
+        <v>6.53089515636368</v>
       </c>
       <c r="Q184" t="n">
-        <v>6.497973487488141</v>
+        <v>6.502951540188795</v>
       </c>
     </row>
     <row r="185">
@@ -10025,25 +10025,25 @@
         <v>45412</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02344582813925822</v>
+        <v>0.02350794193439221</v>
       </c>
       <c r="C185" t="n">
-        <v>6.439832</v>
+        <v>6.444818</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02521118643832487</v>
+        <v>0.02523930144066355</v>
       </c>
       <c r="E185" t="n">
-        <v>6.439832</v>
+        <v>6.444818</v>
       </c>
       <c r="F185" t="n">
         <v>-0.06236559139784946</v>
       </c>
       <c r="G185" t="n">
-        <v>0.02401937790772024</v>
+        <v>0.02400800972139283</v>
       </c>
       <c r="H185" t="n">
-        <v>6.464135</v>
+        <v>6.466306</v>
       </c>
       <c r="I185" t="n">
         <v>-0.07962962962962963</v>
@@ -10067,10 +10067,10 @@
         <v>-0.04703703703703704</v>
       </c>
       <c r="P185" t="n">
-        <v>6.440939140554511</v>
+        <v>6.443202925612074</v>
       </c>
       <c r="Q185" t="n">
-        <v>6.440657803928134</v>
+        <v>6.442902005663933</v>
       </c>
     </row>
     <row r="186">
@@ -10078,25 +10078,25 @@
         <v>45443</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02528427324802784</v>
+        <v>0.02543159781594007</v>
       </c>
       <c r="C186" t="n">
-        <v>6.452113</v>
+        <v>6.422348</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02401937790772024</v>
+        <v>0.02400800972139283</v>
       </c>
       <c r="E186" t="n">
-        <v>6.452113</v>
+        <v>6.422348</v>
       </c>
       <c r="F186" t="n">
         <v>-0.07962962962962963</v>
       </c>
       <c r="G186" t="n">
-        <v>0.02344582813925822</v>
+        <v>0.02350794193439221</v>
       </c>
       <c r="H186" t="n">
-        <v>6.439832</v>
+        <v>6.444818</v>
       </c>
       <c r="I186" t="n">
         <v>-0.08888888888888889</v>
@@ -10120,10 +10120,10 @@
         <v>-0.04372759856630824</v>
       </c>
       <c r="P186" t="n">
-        <v>6.416506849862462</v>
+        <v>6.421651461364284</v>
       </c>
       <c r="Q186" t="n">
-        <v>6.410357130794662</v>
+        <v>6.415458529238877</v>
       </c>
     </row>
     <row r="187">
@@ -10131,25 +10131,25 @@
         <v>45473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02470515558837505</v>
+        <v>0.0247527332351769</v>
       </c>
       <c r="C187" t="n">
-        <v>6.433656</v>
+        <v>6.417635</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02344582813925822</v>
+        <v>0.02350794193439221</v>
       </c>
       <c r="E187" t="n">
-        <v>6.433656</v>
+        <v>6.417635</v>
       </c>
       <c r="F187" t="n">
         <v>-0.08888888888888889</v>
       </c>
       <c r="G187" t="n">
-        <v>0.02528427324802784</v>
+        <v>0.02543159781594007</v>
       </c>
       <c r="H187" t="n">
-        <v>6.452113</v>
+        <v>6.422348</v>
       </c>
       <c r="I187" t="n">
         <v>-0.06259259259259259</v>
@@ -10173,10 +10173,10 @@
         <v>-0.03703703703703704</v>
       </c>
       <c r="P187" t="n">
-        <v>6.429523223514864</v>
+        <v>6.399095900900006</v>
       </c>
       <c r="Q187" t="n">
-        <v>6.418508552841792</v>
+        <v>6.388194034755315</v>
       </c>
     </row>
     <row r="188">
@@ -10184,25 +10184,25 @@
         <v>45504</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02499928280773123</v>
+        <v>0.02498927770572745</v>
       </c>
       <c r="C188" t="n">
-        <v>6.394084</v>
+        <v>6.383401</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02528427324802784</v>
+        <v>0.02543159781594007</v>
       </c>
       <c r="E188" t="n">
-        <v>6.394084</v>
+        <v>6.383401</v>
       </c>
       <c r="F188" t="n">
         <v>-0.06259259259259259</v>
       </c>
       <c r="G188" t="n">
-        <v>0.02470515558837505</v>
+        <v>0.0247527332351769</v>
       </c>
       <c r="H188" t="n">
-        <v>6.433656</v>
+        <v>6.417635</v>
       </c>
       <c r="I188" t="n">
         <v>-0.04336917562724014</v>
@@ -10226,10 +10226,10 @@
         <v>-0.05878136200716846</v>
       </c>
       <c r="P188" t="n">
-        <v>6.411065085581906</v>
+        <v>6.394714560807598</v>
       </c>
       <c r="Q188" t="n">
-        <v>6.397266537904782</v>
+        <v>6.383570912154247</v>
       </c>
     </row>
     <row r="189">
@@ -10237,25 +10237,25 @@
         <v>45535</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02066520637715641</v>
+        <v>0.02066570365424703</v>
       </c>
       <c r="C189" t="n">
-        <v>6.321086</v>
+        <v>6.316793</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02470515558837505</v>
+        <v>0.0247527332351769</v>
       </c>
       <c r="E189" t="n">
-        <v>6.321086</v>
+        <v>6.316793</v>
       </c>
       <c r="F189" t="n">
         <v>-0.04336917562724014</v>
       </c>
       <c r="G189" t="n">
-        <v>0.02499928280773123</v>
+        <v>0.02498927770572745</v>
       </c>
       <c r="H189" t="n">
-        <v>6.394084</v>
+        <v>6.383401</v>
       </c>
       <c r="I189" t="n">
         <v>-0.01612903225806452</v>
@@ -10279,10 +10279,10 @@
         <v>-0.06272401433691756</v>
       </c>
       <c r="P189" t="n">
-        <v>6.371007136654781</v>
+        <v>6.3601198088597</v>
       </c>
       <c r="Q189" t="n">
-        <v>6.357119815591709</v>
+        <v>6.346210668409418</v>
       </c>
     </row>
     <row r="190">
@@ -10290,25 +10290,25 @@
         <v>45565</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01712221904170708</v>
+        <v>0.01712308219350778</v>
       </c>
       <c r="C190" t="n">
-        <v>6.307481</v>
+        <v>6.309784</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02499928280773123</v>
+        <v>0.02498927770572745</v>
       </c>
       <c r="E190" t="n">
-        <v>6.307481</v>
+        <v>6.309784</v>
       </c>
       <c r="F190" t="n">
         <v>-0.01612903225806452</v>
       </c>
       <c r="G190" t="n">
-        <v>0.02066520637715641</v>
+        <v>0.02066570365424703</v>
       </c>
       <c r="H190" t="n">
-        <v>6.321086</v>
+        <v>6.316793</v>
       </c>
       <c r="I190" t="n">
         <v>-0.05222222222222222</v>
@@ -10332,10 +10332,10 @@
         <v>-0.08237547892720307</v>
       </c>
       <c r="P190" t="n">
-        <v>6.296750536147844</v>
+        <v>6.292400050846664</v>
       </c>
       <c r="Q190" t="n">
-        <v>6.300589383950108</v>
+        <v>6.310795715416124</v>
       </c>
     </row>
     <row r="191">
@@ -10343,25 +10343,25 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01983575200542376</v>
+        <v>0.01983368945506392</v>
       </c>
       <c r="C191" t="n">
-        <v>6.239929</v>
+        <v>6.247032</v>
       </c>
       <c r="D191" t="n">
-        <v>0.02066520637715641</v>
+        <v>0.02066570365424703</v>
       </c>
       <c r="E191" t="n">
-        <v>6.239929</v>
+        <v>6.247032</v>
       </c>
       <c r="F191" t="n">
         <v>-0.05222222222222222</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01712221904170708</v>
+        <v>0.01712308219350778</v>
       </c>
       <c r="H191" t="n">
-        <v>6.307481</v>
+        <v>6.309784</v>
       </c>
       <c r="I191" t="n">
         <v>-0.07204301075268818</v>
@@ -10385,10 +10385,10 @@
         <v>-0.06236559139784946</v>
       </c>
       <c r="P191" t="n">
-        <v>6.283286610460245</v>
+        <v>6.285688130656149</v>
       </c>
       <c r="Q191" t="n">
-        <v>6.269383606703797</v>
+        <v>6.271748873554777</v>
       </c>
     </row>
     <row r="192">
@@ -10396,25 +10396,25 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02244136676410324</v>
+        <v>0.02242474548233186</v>
       </c>
       <c r="C192" t="n">
-        <v>6.18822</v>
+        <v>6.204548</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01712221904170708</v>
+        <v>0.01712308219350778</v>
       </c>
       <c r="E192" t="n">
-        <v>6.18822</v>
+        <v>6.204548</v>
       </c>
       <c r="F192" t="n">
         <v>-0.07204301075268818</v>
       </c>
       <c r="G192" t="n">
-        <v>0.01983575200542376</v>
+        <v>0.01983368945506392</v>
       </c>
       <c r="H192" t="n">
-        <v>6.239929</v>
+        <v>6.247032</v>
       </c>
       <c r="I192" t="n">
         <v>-0.07111111111111111</v>
@@ -10438,10 +10438,10 @@
         <v>-0.07962962962962963</v>
       </c>
       <c r="P192" t="n">
-        <v>6.214608749490999</v>
+        <v>6.221924258732683</v>
       </c>
       <c r="Q192" t="n">
-        <v>6.201242103421341</v>
+        <v>6.208477049000202</v>
       </c>
     </row>
     <row r="193">
@@ -10449,25 +10449,25 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02429501382092969</v>
+        <v>0.02427983053557714</v>
       </c>
       <c r="C193" t="n">
-        <v>6.238522</v>
+        <v>6.25734</v>
       </c>
       <c r="D193" t="n">
-        <v>0.01983575200542376</v>
+        <v>0.01983368945506392</v>
       </c>
       <c r="E193" t="n">
-        <v>6.238522</v>
+        <v>6.25734</v>
       </c>
       <c r="F193" t="n">
         <v>-0.07111111111111111</v>
       </c>
       <c r="G193" t="n">
-        <v>0.02244136676410324</v>
+        <v>0.02242474548233186</v>
       </c>
       <c r="H193" t="n">
-        <v>6.18822</v>
+        <v>6.204548</v>
       </c>
       <c r="I193" t="n">
         <v>-0.07491039426523298</v>
@@ -10491,10 +10491,10 @@
         <v>-0.08888888888888889</v>
       </c>
       <c r="P193" t="n">
-        <v>6.162151602786308</v>
+        <v>6.178911754765085</v>
       </c>
       <c r="Q193" t="n">
-        <v>6.16789058000679</v>
+        <v>6.184566046948468</v>
       </c>
     </row>
     <row r="194">
@@ -10502,25 +10502,25 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02454480329519892</v>
+        <v>0.02453896758531737</v>
       </c>
       <c r="C194" t="n">
-        <v>6.278771</v>
+        <v>6.31373</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02244136676410324</v>
+        <v>0.02242474548233186</v>
       </c>
       <c r="E194" t="n">
-        <v>6.278771</v>
+        <v>6.31373</v>
       </c>
       <c r="F194" t="n">
         <v>-0.07491039426523298</v>
       </c>
       <c r="G194" t="n">
-        <v>0.02429501382092969</v>
+        <v>0.02427983053557714</v>
       </c>
       <c r="H194" t="n">
-        <v>6.238522</v>
+        <v>6.25734</v>
       </c>
       <c r="I194" t="n">
         <v>-0.0910394265232975</v>
@@ -10544,10 +10544,10 @@
         <v>-0.06259259259259259</v>
       </c>
       <c r="P194" t="n">
-        <v>6.214130073236822</v>
+        <v>6.233413857213173</v>
       </c>
       <c r="Q194" t="n">
-        <v>6.212732557521497</v>
+        <v>6.231899993402215</v>
       </c>
     </row>
     <row r="195">
@@ -10555,25 +10555,25 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02268296041953466</v>
+        <v>0.02270510173520535</v>
       </c>
       <c r="C195" t="n">
-        <v>6.267918</v>
+        <v>6.309195</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02429501382092969</v>
+        <v>0.02427983053557714</v>
       </c>
       <c r="E195" t="n">
-        <v>6.267918</v>
+        <v>6.309195</v>
       </c>
       <c r="F195" t="n">
         <v>-0.0910394265232975</v>
       </c>
       <c r="G195" t="n">
-        <v>0.02454480329519892</v>
+        <v>0.02453896758531737</v>
       </c>
       <c r="H195" t="n">
-        <v>6.278771</v>
+        <v>6.31373</v>
       </c>
       <c r="I195" t="n">
         <v>-0.07738095238095237</v>
@@ -10597,10 +10597,10 @@
         <v>-0.04336917562724014</v>
       </c>
       <c r="P195" t="n">
-        <v>6.255724933931663</v>
+        <v>6.291480735627426</v>
       </c>
       <c r="Q195" t="n">
-        <v>6.249683987493327</v>
+        <v>6.285201516130047</v>
       </c>
     </row>
     <row r="196">
@@ -10608,25 +10608,25 @@
         <v>45747</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02142881055793033</v>
+        <v>0.02154516241887006</v>
       </c>
       <c r="C196" t="n">
-        <v>6.313519</v>
+        <v>6.377829</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02454480329519892</v>
+        <v>0.02453896758531737</v>
       </c>
       <c r="E196" t="n">
-        <v>6.313519</v>
+        <v>6.377829</v>
       </c>
       <c r="F196" t="n">
         <v>-0.07738095238095237</v>
       </c>
       <c r="G196" t="n">
-        <v>0.02268296041953466</v>
+        <v>0.02270510173520535</v>
       </c>
       <c r="H196" t="n">
-        <v>6.267918</v>
+        <v>6.309195</v>
       </c>
       <c r="I196" t="n">
         <v>-0.0827956989247312</v>
@@ -10650,10 +10650,10 @@
         <v>-0.01612903225806452</v>
       </c>
       <c r="P196" t="n">
-        <v>6.245040905508587</v>
+        <v>6.287233446086901</v>
       </c>
       <c r="Q196" t="n">
-        <v>6.259870625667109</v>
+        <v>6.301814056938468</v>
       </c>
     </row>
     <row r="197">
@@ -10661,25 +10661,25 @@
         <v>45777</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02128486868366952</v>
+        <v>0.02113449834018866</v>
       </c>
       <c r="C197" t="n">
-        <v>6.198329</v>
+        <v>6.24951</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02268296041953466</v>
+        <v>0.02270510173520535</v>
       </c>
       <c r="E197" t="n">
-        <v>6.198329</v>
+        <v>6.24951</v>
       </c>
       <c r="F197" t="n">
         <v>-0.0827956989247312</v>
       </c>
       <c r="G197" t="n">
-        <v>0.02142881055793033</v>
+        <v>0.02154516241887006</v>
       </c>
       <c r="H197" t="n">
-        <v>6.313519</v>
+        <v>6.377829</v>
       </c>
       <c r="I197" t="n">
         <v>-0.04185185185185185</v>
@@ -10703,32 +10703,40 @@
         <v>-0.05222222222222222</v>
       </c>
       <c r="P197" t="n">
-        <v>6.292004424858918</v>
+        <v>6.357653363926445</v>
       </c>
       <c r="Q197" t="n">
-        <v>6.272462046051228</v>
+        <v>6.337611746368872</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
         <v>45808</v>
       </c>
-      <c r="B198" t="inlineStr"/>
-      <c r="C198" t="inlineStr"/>
+      <c r="B198" t="n">
+        <v>0.01868735027450175</v>
+      </c>
+      <c r="C198" t="n">
+        <v>6.275222</v>
+      </c>
       <c r="D198" t="n">
-        <v>0.02142881055793033</v>
-      </c>
-      <c r="E198" t="inlineStr"/>
+        <v>0.02154516241887006</v>
+      </c>
+      <c r="E198" t="n">
+        <v>6.275222</v>
+      </c>
       <c r="F198" t="n">
         <v>-0.04185185185185185</v>
       </c>
       <c r="G198" t="n">
-        <v>0.02128486868366952</v>
+        <v>0.02113449834018866</v>
       </c>
       <c r="H198" t="n">
-        <v>6.198329</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>6.24951</v>
+      </c>
+      <c r="I198" t="n">
+        <v>-0.06344086021505375</v>
+      </c>
       <c r="J198" t="n">
         <v>-0.0827956989247312</v>
       </c>
@@ -10748,11 +10756,99 @@
         <v>-0.07204301075268818</v>
       </c>
       <c r="P198" t="n">
-        <v>6.174765255064201</v>
+        <v>6.22707066670447</v>
       </c>
       <c r="Q198" t="n">
-        <v>6.169339259047086</v>
-      </c>
+        <v>6.241420434912537</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.01967408728367559</v>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="n">
+        <v>0.02113449834018866</v>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="n">
+        <v>-0.06344086021505375</v>
+      </c>
+      <c r="G199" t="n">
+        <v>0.01868735027450175</v>
+      </c>
+      <c r="H199" t="n">
+        <v>6.275222</v>
+      </c>
+      <c r="I199" t="n">
+        <v>-0.07333333333333333</v>
+      </c>
+      <c r="J199" t="n">
+        <v>-0.04185185185185185</v>
+      </c>
+      <c r="K199" t="n">
+        <v>-0.0827956989247312</v>
+      </c>
+      <c r="L199" t="n">
+        <v>-0.07738095238095237</v>
+      </c>
+      <c r="M199" t="n">
+        <v>-0.0910394265232975</v>
+      </c>
+      <c r="N199" t="n">
+        <v>-0.07491039426523298</v>
+      </c>
+      <c r="O199" t="n">
+        <v>-0.07111111111111111</v>
+      </c>
+      <c r="P199" t="n">
+        <v>6.25369579075046</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>6.241944625759683</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B200" t="inlineStr"/>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="n">
+        <v>0.01868735027450175</v>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="n">
+        <v>-0.07333333333333333</v>
+      </c>
+      <c r="G200" t="n">
+        <v>0.01967408728367559</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>-0.06344086021505375</v>
+      </c>
+      <c r="K200" t="n">
+        <v>-0.04185185185185185</v>
+      </c>
+      <c r="L200" t="n">
+        <v>-0.0827956989247312</v>
+      </c>
+      <c r="M200" t="n">
+        <v>-0.07738095238095237</v>
+      </c>
+      <c r="N200" t="n">
+        <v>-0.0910394265232975</v>
+      </c>
+      <c r="O200" t="n">
+        <v>-0.07491039426523298</v>
+      </c>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unemployment_europe_optimized.xlsx
+++ b/Unemployment_europe_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:Q203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,23 +526,23 @@
         <v>39844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01171325775240728</v>
+        <v>0.01171143133479635</v>
       </c>
       <c r="C2" t="n">
-        <v>8.763779</v>
+        <v>8.764289</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02086130791970842</v>
+        <v>0.0208471246778954</v>
       </c>
       <c r="E2" t="n">
-        <v>8.763779</v>
+        <v>8.764289</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.01554499178460667</v>
+        <v>0.01554643845067272</v>
       </c>
       <c r="H2" t="n">
-        <v>8.363549000000001</v>
+        <v>8.366698</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -563,23 +563,23 @@
         <v>39872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0119231778868345</v>
+        <v>0.01192840462015798</v>
       </c>
       <c r="C3" t="n">
-        <v>9.065419</v>
+        <v>9.064427</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01554499178460667</v>
+        <v>0.01554643845067272</v>
       </c>
       <c r="E3" t="n">
-        <v>9.065419</v>
+        <v>9.064427</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.01171325775240728</v>
+        <v>0.01171143133479635</v>
       </c>
       <c r="H3" t="n">
-        <v>8.763779</v>
+        <v>8.764289</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -600,23 +600,23 @@
         <v>39903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.006145556792586326</v>
+        <v>0.00613839843330144</v>
       </c>
       <c r="C4" t="n">
-        <v>9.352461</v>
+        <v>9.352717</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01171325775240728</v>
+        <v>0.01171143133479635</v>
       </c>
       <c r="E4" t="n">
-        <v>9.352461</v>
+        <v>9.352717</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.0119231778868345</v>
+        <v>0.01192840462015798</v>
       </c>
       <c r="H4" t="n">
-        <v>9.065419</v>
+        <v>9.064427</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -637,23 +637,23 @@
         <v>39933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.00545003256992338</v>
+        <v>0.005457274900861009</v>
       </c>
       <c r="C5" t="n">
-        <v>9.524017000000001</v>
+        <v>9.522683000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0119231778868345</v>
+        <v>0.01192840462015798</v>
       </c>
       <c r="E5" t="n">
-        <v>9.524017000000001</v>
+        <v>9.522683000000001</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.006145556792586326</v>
+        <v>0.00613839843330144</v>
       </c>
       <c r="H5" t="n">
-        <v>9.352461</v>
+        <v>9.352717</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -674,23 +674,23 @@
         <v>39964</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003680509927672659</v>
+        <v>0.0003672799605709542</v>
       </c>
       <c r="C6" t="n">
-        <v>9.635076</v>
+        <v>9.633267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.006145556792586326</v>
+        <v>0.00613839843330144</v>
       </c>
       <c r="E6" t="n">
-        <v>9.635076</v>
+        <v>9.633267</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.00545003256992338</v>
+        <v>0.005457274900861009</v>
       </c>
       <c r="H6" t="n">
-        <v>9.524017000000001</v>
+        <v>9.522683000000001</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -711,23 +711,23 @@
         <v>39994</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.001580871515673543</v>
+        <v>-0.00158444800632207</v>
       </c>
       <c r="C7" t="n">
-        <v>9.715351999999999</v>
+        <v>9.712776</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00545003256992338</v>
+        <v>0.005457274900861009</v>
       </c>
       <c r="E7" t="n">
-        <v>9.715351999999999</v>
+        <v>9.712776</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.0003680509927672659</v>
+        <v>0.0003672799605709542</v>
       </c>
       <c r="H7" t="n">
-        <v>9.635076</v>
+        <v>9.633267</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,23 +748,23 @@
         <v>40025</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006185298104228742</v>
+        <v>-0.006189784594825554</v>
       </c>
       <c r="C8" t="n">
         <v>9.814273999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003680509927672659</v>
+        <v>0.0003672799605709542</v>
       </c>
       <c r="E8" t="n">
         <v>9.814273999999999</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.001580871515673543</v>
+        <v>-0.00158444800632207</v>
       </c>
       <c r="H8" t="n">
-        <v>9.715351999999999</v>
+        <v>9.712776</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -785,20 +785,20 @@
         <v>40056</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.001700694187244167</v>
+        <v>-0.001699426518179337</v>
       </c>
       <c r="C9" t="n">
-        <v>9.878826999999999</v>
+        <v>9.878919</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.001580871515673543</v>
+        <v>-0.00158444800632207</v>
       </c>
       <c r="E9" t="n">
-        <v>9.878826999999999</v>
+        <v>9.878919</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.006185298104228742</v>
+        <v>-0.006189784594825554</v>
       </c>
       <c r="H9" t="n">
         <v>9.814273999999999</v>
@@ -822,23 +822,23 @@
         <v>40086</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.0032966196301496</v>
+        <v>-0.003287467395320043</v>
       </c>
       <c r="C10" t="n">
-        <v>10.01469</v>
+        <v>10.015294</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006185298104228742</v>
+        <v>-0.006189784594825554</v>
       </c>
       <c r="E10" t="n">
-        <v>10.01469</v>
+        <v>10.015294</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.001700694187244167</v>
+        <v>-0.001699426518179337</v>
       </c>
       <c r="H10" t="n">
-        <v>9.878826999999999</v>
+        <v>9.878919</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -859,23 +859,23 @@
         <v>40117</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001692329711810991</v>
+        <v>-0.001692217473184598</v>
       </c>
       <c r="C11" t="n">
-        <v>10.090785</v>
+        <v>10.089291</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001700694187244167</v>
+        <v>-0.001699426518179337</v>
       </c>
       <c r="E11" t="n">
-        <v>10.090785</v>
+        <v>10.089291</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-0.0032966196301496</v>
+        <v>-0.003287467395320043</v>
       </c>
       <c r="H11" t="n">
-        <v>10.01469</v>
+        <v>10.015294</v>
       </c>
       <c r="I11" t="n">
         <v>-0.001587301587301587</v>
@@ -898,25 +898,25 @@
         <v>40147</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00452530523380279</v>
+        <v>0.004516071339551786</v>
       </c>
       <c r="C12" t="n">
-        <v>10.160813</v>
+        <v>10.161313</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0032966196301496</v>
+        <v>-0.003287467395320043</v>
       </c>
       <c r="E12" t="n">
-        <v>10.160813</v>
+        <v>10.161313</v>
       </c>
       <c r="F12" t="n">
         <v>-0.001587301587301587</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001692329711810991</v>
+        <v>-0.001692217473184598</v>
       </c>
       <c r="H12" t="n">
-        <v>10.090785</v>
+        <v>10.089291</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -939,25 +939,25 @@
         <v>40178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00884213562455205</v>
+        <v>0.008841684252558935</v>
       </c>
       <c r="C13" t="n">
-        <v>10.151364</v>
+        <v>10.154087</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001692329711810991</v>
+        <v>-0.001692217473184598</v>
       </c>
       <c r="E13" t="n">
-        <v>10.151364</v>
+        <v>10.154087</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.00452530523380279</v>
+        <v>0.004516071339551786</v>
       </c>
       <c r="H13" t="n">
-        <v>10.160813</v>
+        <v>10.161313</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>40209</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01106684796442714</v>
+        <v>0.01107037832058655</v>
       </c>
       <c r="C14" t="n">
-        <v>10.252242</v>
+        <v>10.256235</v>
       </c>
       <c r="D14" t="n">
-        <v>0.00452530523380279</v>
+        <v>0.004516071339551786</v>
       </c>
       <c r="E14" t="n">
-        <v>10.252242</v>
+        <v>10.256235</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.00884213562455205</v>
+        <v>0.008841684252558935</v>
       </c>
       <c r="H14" t="n">
-        <v>10.151364</v>
+        <v>10.154087</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>40237</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009895886230070872</v>
+        <v>0.009892367536026292</v>
       </c>
       <c r="C15" t="n">
-        <v>10.286711</v>
+        <v>10.290367</v>
       </c>
       <c r="D15" t="n">
-        <v>0.00884213562455205</v>
+        <v>0.008841684252558935</v>
       </c>
       <c r="E15" t="n">
-        <v>10.286711</v>
+        <v>10.290367</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01106684796442714</v>
+        <v>0.01107037832058655</v>
       </c>
       <c r="H15" t="n">
-        <v>10.252242</v>
+        <v>10.256235</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1074,25 +1074,25 @@
         <v>40268</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01443003673951271</v>
+        <v>0.0144215167549433</v>
       </c>
       <c r="C16" t="n">
-        <v>10.269064</v>
+        <v>10.269478</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01106684796442714</v>
+        <v>0.01107037832058655</v>
       </c>
       <c r="E16" t="n">
-        <v>10.269064</v>
+        <v>10.269478</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009895886230070872</v>
+        <v>0.009892367536026292</v>
       </c>
       <c r="H16" t="n">
-        <v>10.286711</v>
+        <v>10.290367</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1123,25 +1123,25 @@
         <v>40298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01625931988885743</v>
+        <v>0.01627423443708498</v>
       </c>
       <c r="C17" t="n">
-        <v>10.359683</v>
+        <v>10.359366</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009895886230070872</v>
+        <v>0.009892367536026292</v>
       </c>
       <c r="E17" t="n">
-        <v>10.359683</v>
+        <v>10.359366</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01443003673951271</v>
+        <v>0.0144215167549433</v>
       </c>
       <c r="H17" t="n">
-        <v>10.269064</v>
+        <v>10.269478</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1174,25 +1174,25 @@
         <v>40329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01620790437903263</v>
+        <v>0.01620463439353781</v>
       </c>
       <c r="C18" t="n">
-        <v>10.357851</v>
+        <v>10.357245</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01443003673951271</v>
+        <v>0.0144215167549433</v>
       </c>
       <c r="E18" t="n">
-        <v>10.357851</v>
+        <v>10.357245</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01625931988885743</v>
+        <v>0.01627423443708498</v>
       </c>
       <c r="H18" t="n">
-        <v>10.359683</v>
+        <v>10.359366</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1227,25 +1227,25 @@
         <v>40359</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01425835214461912</v>
+        <v>0.01425146090448681</v>
       </c>
       <c r="C19" t="n">
-        <v>10.3148</v>
+        <v>10.314432</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01625931988885743</v>
+        <v>0.01627423443708498</v>
       </c>
       <c r="E19" t="n">
-        <v>10.3148</v>
+        <v>10.314432</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01620790437903263</v>
+        <v>0.01620463439353781</v>
       </c>
       <c r="H19" t="n">
-        <v>10.357851</v>
+        <v>10.357245</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1280,25 +1280,25 @@
         <v>40390</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01734991591796398</v>
+        <v>0.01735141931976525</v>
       </c>
       <c r="C20" t="n">
-        <v>10.250762</v>
+        <v>10.253614</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01620790437903263</v>
+        <v>0.01620463439353781</v>
       </c>
       <c r="E20" t="n">
-        <v>10.250762</v>
+        <v>10.253614</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01425835214461912</v>
+        <v>0.01425146090448681</v>
       </c>
       <c r="H20" t="n">
-        <v>10.3148</v>
+        <v>10.314432</v>
       </c>
       <c r="I20" t="n">
         <v>0.005376344086021506</v>
@@ -1333,25 +1333,25 @@
         <v>40421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01576849511305856</v>
+        <v>0.01577172605189325</v>
       </c>
       <c r="C21" t="n">
-        <v>10.22699</v>
+        <v>10.229494</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01425835214461912</v>
+        <v>0.01425146090448681</v>
       </c>
       <c r="E21" t="n">
-        <v>10.22699</v>
+        <v>10.229494</v>
       </c>
       <c r="F21" t="n">
         <v>0.005376344086021506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01734991591796398</v>
+        <v>0.01735141931976525</v>
       </c>
       <c r="H21" t="n">
-        <v>10.250762</v>
+        <v>10.253614</v>
       </c>
       <c r="I21" t="n">
         <v>0.007885304659498209</v>
@@ -1386,25 +1386,25 @@
         <v>40451</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01749128715427428</v>
+        <v>0.0174957260794697</v>
       </c>
       <c r="C22" t="n">
-        <v>10.233528</v>
+        <v>10.231424</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01734991591796398</v>
+        <v>0.01735141931976525</v>
       </c>
       <c r="E22" t="n">
-        <v>10.233528</v>
+        <v>10.231424</v>
       </c>
       <c r="F22" t="n">
         <v>0.007885304659498209</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01576849511305856</v>
+        <v>0.01577172605189325</v>
       </c>
       <c r="H22" t="n">
-        <v>10.22699</v>
+        <v>10.229494</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1439,25 +1439,25 @@
         <v>40482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01902502890607494</v>
+        <v>0.01902028758192653</v>
       </c>
       <c r="C23" t="n">
-        <v>10.263167</v>
+        <v>10.257245</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01576849511305856</v>
+        <v>0.01577172605189325</v>
       </c>
       <c r="E23" t="n">
-        <v>10.263167</v>
+        <v>10.257245</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01749128715427428</v>
+        <v>0.0174957260794697</v>
       </c>
       <c r="H23" t="n">
-        <v>10.233528</v>
+        <v>10.231424</v>
       </c>
       <c r="I23" t="n">
         <v>-0.006093189964157706</v>
@@ -1492,25 +1492,25 @@
         <v>40512</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01887873128764728</v>
+        <v>0.01887916441100757</v>
       </c>
       <c r="C24" t="n">
-        <v>10.211189</v>
+        <v>10.207501</v>
       </c>
       <c r="D24" t="n">
-        <v>0.01749128715427428</v>
+        <v>0.0174957260794697</v>
       </c>
       <c r="E24" t="n">
-        <v>10.211189</v>
+        <v>10.207501</v>
       </c>
       <c r="F24" t="n">
         <v>-0.006093189964157706</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01902502890607494</v>
+        <v>0.01902028758192653</v>
       </c>
       <c r="H24" t="n">
-        <v>10.263167</v>
+        <v>10.257245</v>
       </c>
       <c r="I24" t="n">
         <v>-0.007407407407407408</v>
@@ -1545,25 +1545,25 @@
         <v>40543</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02175050889742991</v>
+        <v>0.02175191293874779</v>
       </c>
       <c r="C25" t="n">
-        <v>10.197986</v>
+        <v>10.196399</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01902502890607494</v>
+        <v>0.01902028758192653</v>
       </c>
       <c r="E25" t="n">
-        <v>10.197986</v>
+        <v>10.196399</v>
       </c>
       <c r="F25" t="n">
         <v>-0.007407407407407408</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01887873128764728</v>
+        <v>0.01887916441100757</v>
       </c>
       <c r="H25" t="n">
-        <v>10.211189</v>
+        <v>10.207501</v>
       </c>
       <c r="I25" t="n">
         <v>0.007526881720430108</v>
@@ -1598,25 +1598,25 @@
         <v>40574</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02388887660044769</v>
+        <v>0.02388962843849196</v>
       </c>
       <c r="C26" t="n">
-        <v>10.134746</v>
+        <v>10.135919</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01887873128764728</v>
+        <v>0.01887916441100757</v>
       </c>
       <c r="E26" t="n">
-        <v>10.134746</v>
+        <v>10.135919</v>
       </c>
       <c r="F26" t="n">
         <v>0.007526881720430108</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02175050889742991</v>
+        <v>0.02175191293874779</v>
       </c>
       <c r="H26" t="n">
-        <v>10.197986</v>
+        <v>10.196399</v>
       </c>
       <c r="I26" t="n">
         <v>0.01111111111111111</v>
@@ -1651,25 +1651,25 @@
         <v>40602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02577461772846679</v>
+        <v>0.0257686961964616</v>
       </c>
       <c r="C27" t="n">
-        <v>10.121928</v>
+        <v>10.117688</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02175050889742991</v>
+        <v>0.02175191293874779</v>
       </c>
       <c r="E27" t="n">
-        <v>10.121928</v>
+        <v>10.117688</v>
       </c>
       <c r="F27" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388887660044769</v>
+        <v>0.02388962843849196</v>
       </c>
       <c r="H27" t="n">
-        <v>10.134746</v>
+        <v>10.135919</v>
       </c>
       <c r="I27" t="n">
         <v>0.01111111111111111</v>
@@ -1704,25 +1704,25 @@
         <v>40633</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02588778786066293</v>
+        <v>0.02588507203414636</v>
       </c>
       <c r="C28" t="n">
-        <v>10.101537</v>
+        <v>10.09712</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02388887660044769</v>
+        <v>0.02388962843849196</v>
       </c>
       <c r="E28" t="n">
-        <v>10.101537</v>
+        <v>10.09712</v>
       </c>
       <c r="F28" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02577461772846679</v>
+        <v>0.0257686961964616</v>
       </c>
       <c r="H28" t="n">
-        <v>10.121928</v>
+        <v>10.117688</v>
       </c>
       <c r="I28" t="n">
         <v>0.003584229390681004</v>
@@ -1757,25 +1757,25 @@
         <v>40663</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02625902218645582</v>
+        <v>0.02626978033739746</v>
       </c>
       <c r="C29" t="n">
-        <v>10.022998</v>
+        <v>10.020325</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02577461772846679</v>
+        <v>0.0257686961964616</v>
       </c>
       <c r="E29" t="n">
-        <v>10.022998</v>
+        <v>10.020325</v>
       </c>
       <c r="F29" t="n">
         <v>0.003584229390681004</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02588778786066293</v>
+        <v>0.02588507203414636</v>
       </c>
       <c r="H29" t="n">
-        <v>10.101537</v>
+        <v>10.09712</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>40694</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02616409071596504</v>
+        <v>0.02615831188127338</v>
       </c>
       <c r="C30" t="n">
-        <v>10.095049</v>
+        <v>10.098788</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02588778786066293</v>
+        <v>0.02588507203414636</v>
       </c>
       <c r="E30" t="n">
-        <v>10.095049</v>
+        <v>10.098788</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02625902218645582</v>
+        <v>0.02626978033739746</v>
       </c>
       <c r="H30" t="n">
-        <v>10.022998</v>
+        <v>10.020325</v>
       </c>
       <c r="I30" t="n">
         <v>0.003584229390681004</v>
@@ -1863,25 +1863,25 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02560227818420202</v>
+        <v>0.02560160375707365</v>
       </c>
       <c r="C31" t="n">
-        <v>10.116414</v>
+        <v>10.121102</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02625902218645582</v>
+        <v>0.02626978033739746</v>
       </c>
       <c r="E31" t="n">
-        <v>10.116414</v>
+        <v>10.121102</v>
       </c>
       <c r="F31" t="n">
         <v>0.003584229390681004</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02616409071596504</v>
+        <v>0.02615831188127338</v>
       </c>
       <c r="H31" t="n">
-        <v>10.095049</v>
+        <v>10.098788</v>
       </c>
       <c r="I31" t="n">
         <v>0.01111111111111111</v>
@@ -1916,25 +1916,25 @@
         <v>40755</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02644931381929272</v>
+        <v>0.02644661912114987</v>
       </c>
       <c r="C32" t="n">
-        <v>10.241789</v>
+        <v>10.247604</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02616409071596504</v>
+        <v>0.02615831188127338</v>
       </c>
       <c r="E32" t="n">
-        <v>10.241789</v>
+        <v>10.247604</v>
       </c>
       <c r="F32" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02560227818420202</v>
+        <v>0.02560160375707365</v>
       </c>
       <c r="H32" t="n">
-        <v>10.116414</v>
+        <v>10.121102</v>
       </c>
       <c r="I32" t="n">
         <v>-0.007168458781362008</v>
@@ -1969,25 +1969,25 @@
         <v>40786</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0271235299464978</v>
+        <v>0.02713205180579514</v>
       </c>
       <c r="C33" t="n">
-        <v>10.342535</v>
+        <v>10.344168</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02560227818420202</v>
+        <v>0.02560160375707365</v>
       </c>
       <c r="E33" t="n">
-        <v>10.342535</v>
+        <v>10.344168</v>
       </c>
       <c r="F33" t="n">
         <v>-0.007168458781362008</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02644931381929272</v>
+        <v>0.02644661912114987</v>
       </c>
       <c r="H33" t="n">
-        <v>10.241789</v>
+        <v>10.247604</v>
       </c>
       <c r="I33" t="n">
         <v>-0.01039426523297491</v>
@@ -2022,25 +2022,25 @@
         <v>40816</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02832425860489618</v>
+        <v>0.02832355776291884</v>
       </c>
       <c r="C34" t="n">
-        <v>10.460022</v>
+        <v>10.455974</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02644931381929272</v>
+        <v>0.02644661912114987</v>
       </c>
       <c r="E34" t="n">
-        <v>10.460022</v>
+        <v>10.455974</v>
       </c>
       <c r="F34" t="n">
         <v>-0.01039426523297491</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0271235299464978</v>
+        <v>0.02713205180579514</v>
       </c>
       <c r="H34" t="n">
-        <v>10.342535</v>
+        <v>10.344168</v>
       </c>
       <c r="I34" t="n">
         <v>-0.02222222222222222</v>
@@ -2075,25 +2075,25 @@
         <v>40847</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02909630726076884</v>
+        <v>0.02908787171296368</v>
       </c>
       <c r="C35" t="n">
-        <v>10.575501</v>
+        <v>10.569223</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0271235299464978</v>
+        <v>0.02713205180579514</v>
       </c>
       <c r="E35" t="n">
-        <v>10.575501</v>
+        <v>10.569223</v>
       </c>
       <c r="F35" t="n">
         <v>-0.02222222222222222</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02832425860489618</v>
+        <v>0.02832355776291884</v>
       </c>
       <c r="H35" t="n">
-        <v>10.460022</v>
+        <v>10.455974</v>
       </c>
       <c r="I35" t="n">
         <v>-0.002508960573476703</v>
@@ -2128,25 +2128,25 @@
         <v>40877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02930371141450028</v>
+        <v>0.02931080881801584</v>
       </c>
       <c r="C36" t="n">
-        <v>10.72319</v>
+        <v>10.716838</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02832425860489618</v>
+        <v>0.02832355776291884</v>
       </c>
       <c r="E36" t="n">
-        <v>10.72319</v>
+        <v>10.716838</v>
       </c>
       <c r="F36" t="n">
         <v>-0.002508960573476703</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02909630726076884</v>
+        <v>0.02908787171296368</v>
       </c>
       <c r="H36" t="n">
-        <v>10.575501</v>
+        <v>10.569223</v>
       </c>
       <c r="I36" t="n">
         <v>-0.001111111111111111</v>
@@ -2181,25 +2181,25 @@
         <v>40908</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02687389932272222</v>
+        <v>0.02687898108342868</v>
       </c>
       <c r="C37" t="n">
-        <v>10.821646</v>
+        <v>10.820602</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02909630726076884</v>
+        <v>0.02908787171296368</v>
       </c>
       <c r="E37" t="n">
-        <v>10.821646</v>
+        <v>10.820602</v>
       </c>
       <c r="F37" t="n">
         <v>-0.001111111111111111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02930371141450028</v>
+        <v>0.02931080881801584</v>
       </c>
       <c r="H37" t="n">
-        <v>10.72319</v>
+        <v>10.716838</v>
       </c>
       <c r="I37" t="n">
         <v>0.02473118279569893</v>
@@ -2234,25 +2234,25 @@
         <v>40939</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02645271057286802</v>
+        <v>0.0264504842877118</v>
       </c>
       <c r="C38" t="n">
-        <v>10.87179</v>
+        <v>10.8689</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02930371141450028</v>
+        <v>0.02931080881801584</v>
       </c>
       <c r="E38" t="n">
-        <v>10.87179</v>
+        <v>10.8689</v>
       </c>
       <c r="F38" t="n">
         <v>0.02473118279569893</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02687389932272222</v>
+        <v>0.02687898108342868</v>
       </c>
       <c r="H38" t="n">
-        <v>10.821646</v>
+        <v>10.820602</v>
       </c>
       <c r="I38" t="n">
         <v>0.07060931899641577</v>
@@ -2287,25 +2287,25 @@
         <v>40968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02702405672008545</v>
+        <v>0.02702130283994553</v>
       </c>
       <c r="C39" t="n">
-        <v>11.04378</v>
+        <v>11.042943</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02687389932272222</v>
+        <v>0.02687898108342868</v>
       </c>
       <c r="E39" t="n">
-        <v>11.04378</v>
+        <v>11.042943</v>
       </c>
       <c r="F39" t="n">
         <v>0.07060931899641577</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02645271057286802</v>
+        <v>0.0264504842877118</v>
       </c>
       <c r="H39" t="n">
-        <v>10.87179</v>
+        <v>10.8689</v>
       </c>
       <c r="I39" t="n">
         <v>0.06704980842911877</v>
@@ -2340,25 +2340,25 @@
         <v>40999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02667117796331997</v>
+        <v>0.02666718431185799</v>
       </c>
       <c r="C40" t="n">
-        <v>11.219505</v>
+        <v>11.214111</v>
       </c>
       <c r="D40" t="n">
-        <v>0.02645271057286802</v>
+        <v>0.0264504842877118</v>
       </c>
       <c r="E40" t="n">
-        <v>11.219505</v>
+        <v>11.214111</v>
       </c>
       <c r="F40" t="n">
         <v>0.06704980842911877</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02702405672008545</v>
+        <v>0.02702130283994553</v>
       </c>
       <c r="H40" t="n">
-        <v>11.04378</v>
+        <v>11.042943</v>
       </c>
       <c r="I40" t="n">
         <v>0.05734767025089606</v>
@@ -2393,25 +2393,25 @@
         <v>41029</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02566257244671721</v>
+        <v>0.02567053864410074</v>
       </c>
       <c r="C41" t="n">
-        <v>11.330999</v>
+        <v>11.328679</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02702405672008545</v>
+        <v>0.02702130283994553</v>
       </c>
       <c r="E41" t="n">
-        <v>11.330999</v>
+        <v>11.328679</v>
       </c>
       <c r="F41" t="n">
         <v>0.05734767025089606</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02667117796331997</v>
+        <v>0.02666718431185799</v>
       </c>
       <c r="H41" t="n">
-        <v>11.219505</v>
+        <v>11.214111</v>
       </c>
       <c r="I41" t="n">
         <v>0.03740740740740741</v>
@@ -2446,25 +2446,25 @@
         <v>41060</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02396842120417819</v>
+        <v>0.02396457172338273</v>
       </c>
       <c r="C42" t="n">
-        <v>11.386215</v>
+        <v>11.387366</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02667117796331997</v>
+        <v>0.02666718431185799</v>
       </c>
       <c r="E42" t="n">
-        <v>11.386215</v>
+        <v>11.387366</v>
       </c>
       <c r="F42" t="n">
         <v>0.03740740740740741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02566257244671721</v>
+        <v>0.02567053864410074</v>
       </c>
       <c r="H42" t="n">
-        <v>11.330999</v>
+        <v>11.328679</v>
       </c>
       <c r="I42" t="n">
         <v>0.04157706093189965</v>
@@ -2499,25 +2499,25 @@
         <v>41090</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0238009388652527</v>
+        <v>0.02380193425407562</v>
       </c>
       <c r="C43" t="n">
-        <v>11.486182</v>
+        <v>11.489078</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02566257244671721</v>
+        <v>0.02567053864410074</v>
       </c>
       <c r="E43" t="n">
-        <v>11.486182</v>
+        <v>11.489078</v>
       </c>
       <c r="F43" t="n">
         <v>0.04157706093189965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02396842120417819</v>
+        <v>0.02396457172338273</v>
       </c>
       <c r="H43" t="n">
-        <v>11.386215</v>
+        <v>11.387366</v>
       </c>
       <c r="I43" t="n">
         <v>0.06333333333333332</v>
@@ -2552,25 +2552,25 @@
         <v>41121</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02351331563861514</v>
+        <v>0.02351032711130596</v>
       </c>
       <c r="C44" t="n">
-        <v>11.552608</v>
+        <v>11.555468</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02396842120417819</v>
+        <v>0.02396457172338273</v>
       </c>
       <c r="E44" t="n">
-        <v>11.552608</v>
+        <v>11.555468</v>
       </c>
       <c r="F44" t="n">
         <v>0.06333333333333332</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0238009388652527</v>
+        <v>0.02380193425407562</v>
       </c>
       <c r="H44" t="n">
-        <v>11.486182</v>
+        <v>11.489078</v>
       </c>
       <c r="I44" t="n">
         <v>0.06200716845878135</v>
@@ -2605,25 +2605,25 @@
         <v>41152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02533778185085911</v>
+        <v>0.02534545083332596</v>
       </c>
       <c r="C45" t="n">
-        <v>11.597838</v>
+        <v>11.598273</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0238009388652527</v>
+        <v>0.02380193425407562</v>
       </c>
       <c r="E45" t="n">
-        <v>11.597838</v>
+        <v>11.598273</v>
       </c>
       <c r="F45" t="n">
         <v>0.06200716845878135</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02351331563861514</v>
+        <v>0.02351032711130596</v>
       </c>
       <c r="H45" t="n">
-        <v>11.552608</v>
+        <v>11.555468</v>
       </c>
       <c r="I45" t="n">
         <v>0.08637992831541219</v>
@@ -2658,25 +2658,25 @@
         <v>41182</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02583948120412849</v>
+        <v>0.02583782577395954</v>
       </c>
       <c r="C46" t="n">
-        <v>11.716746</v>
+        <v>11.713828</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02351331563861514</v>
+        <v>0.02351032711130596</v>
       </c>
       <c r="E46" t="n">
-        <v>11.716746</v>
+        <v>11.713828</v>
       </c>
       <c r="F46" t="n">
         <v>0.08637992831541219</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02533778185085911</v>
+        <v>0.02534545083332596</v>
       </c>
       <c r="H46" t="n">
-        <v>11.597838</v>
+        <v>11.598273</v>
       </c>
       <c r="I46" t="n">
         <v>0.1040740740740741</v>
@@ -2711,25 +2711,25 @@
         <v>41213</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0247916134854913</v>
+        <v>0.02478388547049803</v>
       </c>
       <c r="C47" t="n">
-        <v>11.865668</v>
+        <v>11.862486</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02533778185085911</v>
+        <v>0.02534545083332596</v>
       </c>
       <c r="E47" t="n">
-        <v>11.865668</v>
+        <v>11.862486</v>
       </c>
       <c r="F47" t="n">
         <v>0.1040740740740741</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02583948120412849</v>
+        <v>0.02583782577395954</v>
       </c>
       <c r="H47" t="n">
-        <v>11.716746</v>
+        <v>11.713828</v>
       </c>
       <c r="I47" t="n">
         <v>0.153763440860215</v>
@@ -2764,25 +2764,25 @@
         <v>41243</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0219032714340015</v>
+        <v>0.02191226861016826</v>
       </c>
       <c r="C48" t="n">
-        <v>11.998168</v>
+        <v>11.996823</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02583948120412849</v>
+        <v>0.02583782577395954</v>
       </c>
       <c r="E48" t="n">
-        <v>11.998168</v>
+        <v>11.996823</v>
       </c>
       <c r="F48" t="n">
         <v>0.153763440860215</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0247916134854913</v>
+        <v>0.02478388547049803</v>
       </c>
       <c r="H48" t="n">
-        <v>11.865668</v>
+        <v>11.862486</v>
       </c>
       <c r="I48" t="n">
         <v>0.1344444444444444</v>
@@ -2817,25 +2817,25 @@
         <v>41274</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02194772660731559</v>
+        <v>0.02195133591094045</v>
       </c>
       <c r="C49" t="n">
-        <v>12.022808</v>
+        <v>12.02295</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0247916134854913</v>
+        <v>0.02478388547049803</v>
       </c>
       <c r="E49" t="n">
-        <v>12.022808</v>
+        <v>12.02295</v>
       </c>
       <c r="F49" t="n">
         <v>0.1344444444444444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0219032714340015</v>
+        <v>0.02191226861016826</v>
       </c>
       <c r="H49" t="n">
-        <v>11.998168</v>
+        <v>11.996823</v>
       </c>
       <c r="I49" t="n">
         <v>0.04982078853046595</v>
@@ -2870,25 +2870,25 @@
         <v>41305</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01973425397624595</v>
+        <v>0.01973232586390239</v>
       </c>
       <c r="C50" t="n">
-        <v>12.220366</v>
+        <v>12.222966</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0219032714340015</v>
+        <v>0.02191226861016826</v>
       </c>
       <c r="E50" t="n">
-        <v>12.220366</v>
+        <v>12.222966</v>
       </c>
       <c r="F50" t="n">
         <v>0.04982078853046595</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02194772660731559</v>
+        <v>0.02195133591094045</v>
       </c>
       <c r="H50" t="n">
-        <v>12.022808</v>
+        <v>12.02295</v>
       </c>
       <c r="I50" t="n">
         <v>-0.006810035842293908</v>
@@ -2923,25 +2923,25 @@
         <v>41333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01820406642828587</v>
+        <v>0.01820378870334505</v>
       </c>
       <c r="C51" t="n">
-        <v>12.231842</v>
+        <v>12.227779</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02194772660731559</v>
+        <v>0.02195133591094045</v>
       </c>
       <c r="E51" t="n">
-        <v>12.231842</v>
+        <v>12.227779</v>
       </c>
       <c r="F51" t="n">
         <v>-0.006810035842293908</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01973425397624595</v>
+        <v>0.01973232586390239</v>
       </c>
       <c r="H51" t="n">
-        <v>12.220366</v>
+        <v>12.222966</v>
       </c>
       <c r="I51" t="n">
         <v>0.02182539682539682</v>
@@ -2976,25 +2976,25 @@
         <v>41364</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01645263438946376</v>
+        <v>0.01644976737589943</v>
       </c>
       <c r="C52" t="n">
-        <v>12.230044</v>
+        <v>12.228941</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01973425397624595</v>
+        <v>0.01973232586390239</v>
       </c>
       <c r="E52" t="n">
-        <v>12.230044</v>
+        <v>12.228941</v>
       </c>
       <c r="F52" t="n">
         <v>0.02182539682539682</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01820406642828587</v>
+        <v>0.01820378870334505</v>
       </c>
       <c r="H52" t="n">
-        <v>12.231842</v>
+        <v>12.227779</v>
       </c>
       <c r="I52" t="n">
         <v>0.1161290322580645</v>
@@ -3029,25 +3029,25 @@
         <v>41394</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01291645695857024</v>
+        <v>0.01291352898738829</v>
       </c>
       <c r="C53" t="n">
-        <v>12.248155</v>
+        <v>12.24359</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01820406642828587</v>
+        <v>0.01820378870334505</v>
       </c>
       <c r="E53" t="n">
-        <v>12.248155</v>
+        <v>12.24359</v>
       </c>
       <c r="F53" t="n">
         <v>0.1161290322580645</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01645263438946376</v>
+        <v>0.01644976737589943</v>
       </c>
       <c r="H53" t="n">
-        <v>12.230044</v>
+        <v>12.228941</v>
       </c>
       <c r="I53" t="n">
         <v>0.1759259259259259</v>
@@ -3082,25 +3082,25 @@
         <v>41425</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01434786904245744</v>
+        <v>0.01434661296767725</v>
       </c>
       <c r="C54" t="n">
-        <v>12.219358</v>
+        <v>12.221077</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01645263438946376</v>
+        <v>0.01644976737589943</v>
       </c>
       <c r="E54" t="n">
-        <v>12.219358</v>
+        <v>12.221077</v>
       </c>
       <c r="F54" t="n">
         <v>0.1759259259259259</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01291645695857024</v>
+        <v>0.01291352898738829</v>
       </c>
       <c r="H54" t="n">
-        <v>12.248155</v>
+        <v>12.24359</v>
       </c>
       <c r="I54" t="n">
         <v>0.2290322580645161</v>
@@ -3135,25 +3135,25 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01580832528952492</v>
+        <v>0.01581392767446044</v>
       </c>
       <c r="C55" t="n">
-        <v>12.164839</v>
+        <v>12.169476</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01291645695857024</v>
+        <v>0.01291352898738829</v>
       </c>
       <c r="E55" t="n">
-        <v>12.164839</v>
+        <v>12.169476</v>
       </c>
       <c r="F55" t="n">
         <v>0.2290322580645161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01434786904245744</v>
+        <v>0.01434661296767725</v>
       </c>
       <c r="H55" t="n">
-        <v>12.219358</v>
+        <v>12.221077</v>
       </c>
       <c r="I55" t="n">
         <v>0.2018518518518518</v>
@@ -3188,25 +3188,25 @@
         <v>41486</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01543271694644144</v>
+        <v>0.01542795435959032</v>
       </c>
       <c r="C56" t="n">
-        <v>12.132855</v>
+        <v>12.138822</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01434786904245744</v>
+        <v>0.01434661296767725</v>
       </c>
       <c r="E56" t="n">
-        <v>12.132855</v>
+        <v>12.138822</v>
       </c>
       <c r="F56" t="n">
         <v>0.2018518518518518</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01580832528952492</v>
+        <v>0.01581392767446044</v>
       </c>
       <c r="H56" t="n">
-        <v>12.164839</v>
+        <v>12.169476</v>
       </c>
       <c r="I56" t="n">
         <v>0.107168458781362</v>
@@ -3241,25 +3241,25 @@
         <v>41517</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01262234679842145</v>
+        <v>0.01262377943974258</v>
       </c>
       <c r="C57" t="n">
-        <v>12.103364</v>
+        <v>12.104303</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01580832528952492</v>
+        <v>0.01581392767446044</v>
       </c>
       <c r="E57" t="n">
-        <v>12.103364</v>
+        <v>12.104303</v>
       </c>
       <c r="F57" t="n">
         <v>0.107168458781362</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01543271694644144</v>
+        <v>0.01542795435959032</v>
       </c>
       <c r="H57" t="n">
-        <v>12.132855</v>
+        <v>12.138822</v>
       </c>
       <c r="I57" t="n">
         <v>0.05376344086021505</v>
@@ -3294,25 +3294,25 @@
         <v>41547</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01056995503525293</v>
+        <v>0.01056842869058894</v>
       </c>
       <c r="C58" t="n">
-        <v>12.142307</v>
+        <v>12.138883</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01543271694644144</v>
+        <v>0.01542795435959032</v>
       </c>
       <c r="E58" t="n">
-        <v>12.142307</v>
+        <v>12.138883</v>
       </c>
       <c r="F58" t="n">
         <v>0.05376344086021505</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01262234679842145</v>
+        <v>0.01262377943974258</v>
       </c>
       <c r="H58" t="n">
-        <v>12.103364</v>
+        <v>12.104303</v>
       </c>
       <c r="I58" t="n">
         <v>0.02777777777777778</v>
@@ -3347,25 +3347,25 @@
         <v>41578</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007363598099581203</v>
+        <v>0.007359212730245979</v>
       </c>
       <c r="C59" t="n">
-        <v>12.076238</v>
+        <v>12.071479</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01262234679842145</v>
+        <v>0.01262377943974258</v>
       </c>
       <c r="E59" t="n">
-        <v>12.076238</v>
+        <v>12.071479</v>
       </c>
       <c r="F59" t="n">
         <v>0.02777777777777778</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01056995503525293</v>
+        <v>0.01056842869058894</v>
       </c>
       <c r="H59" t="n">
-        <v>12.142307</v>
+        <v>12.138883</v>
       </c>
       <c r="I59" t="n">
         <v>0.05878136200716846</v>
@@ -3400,25 +3400,25 @@
         <v>41608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008244108547312834</v>
+        <v>0.008249483160511772</v>
       </c>
       <c r="C60" t="n">
-        <v>12.064984</v>
+        <v>12.061815</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01056995503525293</v>
+        <v>0.01056842869058894</v>
       </c>
       <c r="E60" t="n">
-        <v>12.064984</v>
+        <v>12.061815</v>
       </c>
       <c r="F60" t="n">
         <v>0.05878136200716846</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007363598099581203</v>
+        <v>0.007359212730245979</v>
       </c>
       <c r="H60" t="n">
-        <v>12.076238</v>
+        <v>12.071479</v>
       </c>
       <c r="I60" t="n">
         <v>0.05037037037037037</v>
@@ -3453,25 +3453,25 @@
         <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009208350357027051</v>
+        <v>0.009208632916839044</v>
       </c>
       <c r="C61" t="n">
-        <v>12.004263</v>
+        <v>12.004283</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007363598099581203</v>
+        <v>0.007359212730245979</v>
       </c>
       <c r="E61" t="n">
-        <v>12.004263</v>
+        <v>12.004283</v>
       </c>
       <c r="F61" t="n">
         <v>0.05037037037037037</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008244108547312834</v>
+        <v>0.008249483160511772</v>
       </c>
       <c r="H61" t="n">
-        <v>12.064984</v>
+        <v>12.061815</v>
       </c>
       <c r="I61" t="n">
         <v>0.06057347670250896</v>
@@ -3506,25 +3506,25 @@
         <v>41670</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007658742245957306</v>
+        <v>0.007655728312166765</v>
       </c>
       <c r="C62" t="n">
-        <v>12.051558</v>
+        <v>12.049587</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008244108547312834</v>
+        <v>0.008249483160511772</v>
       </c>
       <c r="E62" t="n">
-        <v>12.051558</v>
+        <v>12.049587</v>
       </c>
       <c r="F62" t="n">
         <v>0.06057347670250896</v>
       </c>
       <c r="G62" t="n">
-        <v>0.009208350357027051</v>
+        <v>0.009208632916839044</v>
       </c>
       <c r="H62" t="n">
-        <v>12.004263</v>
+        <v>12.004283</v>
       </c>
       <c r="I62" t="n">
         <v>0.05125448028673835</v>
@@ -3559,25 +3559,25 @@
         <v>41698</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007072917016591518</v>
+        <v>0.007077096106172576</v>
       </c>
       <c r="C63" t="n">
-        <v>12.015866</v>
+        <v>12.012688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009208350357027051</v>
+        <v>0.009208632916839044</v>
       </c>
       <c r="E63" t="n">
-        <v>12.015866</v>
+        <v>12.012688</v>
       </c>
       <c r="F63" t="n">
         <v>0.05125448028673835</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007658742245957306</v>
+        <v>0.007655728312166765</v>
       </c>
       <c r="H63" t="n">
-        <v>12.051558</v>
+        <v>12.049587</v>
       </c>
       <c r="I63" t="n">
         <v>0.0123015873015873</v>
@@ -3612,25 +3612,25 @@
         <v>41729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005395615959995048</v>
+        <v>0.005395214748153521</v>
       </c>
       <c r="C64" t="n">
-        <v>11.939013</v>
+        <v>11.93722</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007658742245957306</v>
+        <v>0.007655728312166765</v>
       </c>
       <c r="E64" t="n">
-        <v>11.939013</v>
+        <v>11.93722</v>
       </c>
       <c r="F64" t="n">
         <v>0.0123015873015873</v>
       </c>
       <c r="G64" t="n">
-        <v>0.007072917016591518</v>
+        <v>0.007077096106172576</v>
       </c>
       <c r="H64" t="n">
-        <v>12.015866</v>
+        <v>12.012688</v>
       </c>
       <c r="I64" t="n">
         <v>-0.02939068100358423</v>
@@ -3665,25 +3665,25 @@
         <v>41759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006578711601914478</v>
+        <v>0.006572916470583223</v>
       </c>
       <c r="C65" t="n">
-        <v>11.827499</v>
+        <v>11.82438</v>
       </c>
       <c r="D65" t="n">
-        <v>0.007072917016591518</v>
+        <v>0.007077096106172576</v>
       </c>
       <c r="E65" t="n">
-        <v>11.827499</v>
+        <v>11.82438</v>
       </c>
       <c r="F65" t="n">
         <v>-0.02939068100358423</v>
       </c>
       <c r="G65" t="n">
-        <v>0.005395615959995048</v>
+        <v>0.005395214748153521</v>
       </c>
       <c r="H65" t="n">
-        <v>11.939013</v>
+        <v>11.93722</v>
       </c>
       <c r="I65" t="n">
         <v>-0.02777777777777778</v>
@@ -3718,25 +3718,25 @@
         <v>41790</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005352567556348831</v>
+        <v>0.005353759805035274</v>
       </c>
       <c r="C66" t="n">
-        <v>11.756032</v>
+        <v>11.757662</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005395615959995048</v>
+        <v>0.005395214748153521</v>
       </c>
       <c r="E66" t="n">
-        <v>11.756032</v>
+        <v>11.757662</v>
       </c>
       <c r="F66" t="n">
         <v>-0.02777777777777778</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006578711601914478</v>
+        <v>0.006572916470583223</v>
       </c>
       <c r="H66" t="n">
-        <v>11.827499</v>
+        <v>11.82438</v>
       </c>
       <c r="I66" t="n">
         <v>0.006810035842293906</v>
@@ -3771,25 +3771,25 @@
         <v>41820</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00473316058825457</v>
+        <v>0.004734826857082375</v>
       </c>
       <c r="C67" t="n">
-        <v>11.601286</v>
+        <v>11.604628</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006578711601914478</v>
+        <v>0.006572916470583223</v>
       </c>
       <c r="E67" t="n">
-        <v>11.601286</v>
+        <v>11.604628</v>
       </c>
       <c r="F67" t="n">
         <v>0.006810035842293906</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005352567556348831</v>
+        <v>0.005353759805035274</v>
       </c>
       <c r="H67" t="n">
-        <v>11.756032</v>
+        <v>11.757662</v>
       </c>
       <c r="I67" t="n">
         <v>0.06111111111111111</v>
@@ -3824,25 +3824,25 @@
         <v>41851</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003113421184902876</v>
+        <v>0.003116473710662149</v>
       </c>
       <c r="C68" t="n">
-        <v>11.671948</v>
+        <v>11.68038</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005352567556348831</v>
+        <v>0.005353759805035274</v>
       </c>
       <c r="E68" t="n">
-        <v>11.671948</v>
+        <v>11.68038</v>
       </c>
       <c r="F68" t="n">
         <v>0.06111111111111111</v>
       </c>
       <c r="G68" t="n">
-        <v>0.00473316058825457</v>
+        <v>0.004734826857082375</v>
       </c>
       <c r="H68" t="n">
-        <v>11.601286</v>
+        <v>11.604628</v>
       </c>
       <c r="I68" t="n">
         <v>0.05842293906810036</v>
@@ -3877,25 +3877,25 @@
         <v>41882</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002955851169086365</v>
+        <v>0.002951047388312311</v>
       </c>
       <c r="C69" t="n">
-        <v>11.552107</v>
+        <v>11.560279</v>
       </c>
       <c r="D69" t="n">
-        <v>0.00473316058825457</v>
+        <v>0.004734826857082375</v>
       </c>
       <c r="E69" t="n">
-        <v>11.552107</v>
+        <v>11.560279</v>
       </c>
       <c r="F69" t="n">
         <v>0.05842293906810036</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003113421184902876</v>
+        <v>0.003116473710662149</v>
       </c>
       <c r="H69" t="n">
-        <v>11.671948</v>
+        <v>11.68038</v>
       </c>
       <c r="I69" t="n">
         <v>0.03225806451612903</v>
@@ -3930,25 +3930,25 @@
         <v>41912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003279860437755744</v>
+        <v>0.00327842738527373</v>
       </c>
       <c r="C70" t="n">
-        <v>11.609942</v>
+        <v>11.610955</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003113421184902876</v>
+        <v>0.003116473710662149</v>
       </c>
       <c r="E70" t="n">
-        <v>11.609942</v>
+        <v>11.610955</v>
       </c>
       <c r="F70" t="n">
         <v>0.03225806451612903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002955851169086365</v>
+        <v>0.002951047388312311</v>
       </c>
       <c r="H70" t="n">
-        <v>11.552107</v>
+        <v>11.560279</v>
       </c>
       <c r="I70" t="n">
         <v>0.01518518518518519</v>
@@ -3983,25 +3983,25 @@
         <v>41943</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003901154620505665</v>
+        <v>0.003900644238591155</v>
       </c>
       <c r="C71" t="n">
-        <v>11.629899</v>
+        <v>11.629404</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002955851169086365</v>
+        <v>0.002951047388312311</v>
       </c>
       <c r="E71" t="n">
-        <v>11.629899</v>
+        <v>11.629404</v>
       </c>
       <c r="F71" t="n">
         <v>0.01518518518518519</v>
       </c>
       <c r="G71" t="n">
-        <v>0.003279860437755744</v>
+        <v>0.00327842738527373</v>
       </c>
       <c r="H71" t="n">
-        <v>11.609942</v>
+        <v>11.610955</v>
       </c>
       <c r="I71" t="n">
         <v>0.05340501792114695</v>
@@ -4036,25 +4036,25 @@
         <v>41973</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003104199309980515</v>
+        <v>0.003109949832142966</v>
       </c>
       <c r="C72" t="n">
-        <v>11.652742</v>
+        <v>11.648729</v>
       </c>
       <c r="D72" t="n">
-        <v>0.003279860437755744</v>
+        <v>0.00327842738527373</v>
       </c>
       <c r="E72" t="n">
-        <v>11.652742</v>
+        <v>11.648729</v>
       </c>
       <c r="F72" t="n">
         <v>0.05340501792114695</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003901154620505665</v>
+        <v>0.003900644238591155</v>
       </c>
       <c r="H72" t="n">
-        <v>11.629899</v>
+        <v>11.629404</v>
       </c>
       <c r="I72" t="n">
         <v>0.04481481481481482</v>
@@ -4089,25 +4089,25 @@
         <v>42004</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.001642300758297743</v>
+        <v>-0.001644973917580117</v>
       </c>
       <c r="C73" t="n">
-        <v>11.475537</v>
+        <v>11.47573</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003901154620505665</v>
+        <v>0.003900644238591155</v>
       </c>
       <c r="E73" t="n">
-        <v>11.475537</v>
+        <v>11.47573</v>
       </c>
       <c r="F73" t="n">
         <v>0.04481481481481482</v>
       </c>
       <c r="G73" t="n">
-        <v>0.003104199309980515</v>
+        <v>0.003109949832142966</v>
       </c>
       <c r="H73" t="n">
-        <v>11.652742</v>
+        <v>11.648729</v>
       </c>
       <c r="I73" t="n">
         <v>-0.006451612903225806</v>
@@ -4142,25 +4142,25 @@
         <v>42035</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.003945054832412254</v>
+        <v>-0.003951552313949946</v>
       </c>
       <c r="C74" t="n">
-        <v>11.387884</v>
+        <v>11.380965</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003104199309980515</v>
+        <v>0.003109949832142966</v>
       </c>
       <c r="E74" t="n">
-        <v>11.387884</v>
+        <v>11.380965</v>
       </c>
       <c r="F74" t="n">
         <v>-0.006451612903225806</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.001642300758297743</v>
+        <v>-0.001644973917580117</v>
       </c>
       <c r="H74" t="n">
-        <v>11.475537</v>
+        <v>11.47573</v>
       </c>
       <c r="I74" t="n">
         <v>-0.06666666666666668</v>
@@ -4195,25 +4195,25 @@
         <v>42063</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.001010653434581954</v>
+        <v>-0.001009642597659344</v>
       </c>
       <c r="C75" t="n">
-        <v>11.331219</v>
+        <v>11.322755</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.001642300758297743</v>
+        <v>-0.001644973917580117</v>
       </c>
       <c r="E75" t="n">
-        <v>11.331219</v>
+        <v>11.322755</v>
       </c>
       <c r="F75" t="n">
         <v>-0.06666666666666668</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.003945054832412254</v>
+        <v>-0.003951552313949946</v>
       </c>
       <c r="H75" t="n">
-        <v>11.387884</v>
+        <v>11.380965</v>
       </c>
       <c r="I75" t="n">
         <v>-0.05436507936507936</v>
@@ -4248,25 +4248,25 @@
         <v>42094</v>
       </c>
       <c r="B76" t="n">
-        <v>0.001134183576831482</v>
+        <v>0.0011421110226566</v>
       </c>
       <c r="C76" t="n">
-        <v>11.326864</v>
+        <v>11.320633</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.003945054832412254</v>
+        <v>-0.003951552313949946</v>
       </c>
       <c r="E76" t="n">
-        <v>11.326864</v>
+        <v>11.320633</v>
       </c>
       <c r="F76" t="n">
         <v>-0.05436507936507936</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001010653434581954</v>
+        <v>-0.001009642597659344</v>
       </c>
       <c r="H76" t="n">
-        <v>11.331219</v>
+        <v>11.322755</v>
       </c>
       <c r="I76" t="n">
         <v>-0.02544802867383512</v>
@@ -4301,25 +4301,25 @@
         <v>42124</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001777400547211094</v>
+        <v>0.001770788622566855</v>
       </c>
       <c r="C77" t="n">
-        <v>11.191945</v>
+        <v>11.19181</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.001010653434581954</v>
+        <v>-0.001009642597659344</v>
       </c>
       <c r="E77" t="n">
-        <v>11.191945</v>
+        <v>11.19181</v>
       </c>
       <c r="F77" t="n">
         <v>-0.02544802867383512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.001134183576831482</v>
+        <v>0.0011421110226566</v>
       </c>
       <c r="H77" t="n">
-        <v>11.326864</v>
+        <v>11.320633</v>
       </c>
       <c r="I77" t="n">
         <v>-0.05222222222222222</v>
@@ -4354,25 +4354,25 @@
         <v>42155</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004570211571468086</v>
+        <v>0.004574987025232069</v>
       </c>
       <c r="C78" t="n">
-        <v>11.149761</v>
+        <v>11.152024</v>
       </c>
       <c r="D78" t="n">
-        <v>0.001134183576831482</v>
+        <v>0.0011421110226566</v>
       </c>
       <c r="E78" t="n">
-        <v>11.149761</v>
+        <v>11.152024</v>
       </c>
       <c r="F78" t="n">
         <v>-0.05222222222222222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001777400547211094</v>
+        <v>0.001770788622566855</v>
       </c>
       <c r="H78" t="n">
-        <v>11.191945</v>
+        <v>11.19181</v>
       </c>
       <c r="I78" t="n">
         <v>-0.09247311827956989</v>
@@ -4407,25 +4407,25 @@
         <v>42185</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004218032152159878</v>
+        <v>0.004222082124011983</v>
       </c>
       <c r="C79" t="n">
-        <v>11.073403</v>
+        <v>11.080755</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001777400547211094</v>
+        <v>0.001770788622566855</v>
       </c>
       <c r="E79" t="n">
-        <v>11.073403</v>
+        <v>11.080755</v>
       </c>
       <c r="F79" t="n">
         <v>-0.09247311827956989</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004570211571468086</v>
+        <v>0.004574987025232069</v>
       </c>
       <c r="H79" t="n">
-        <v>11.149761</v>
+        <v>11.152024</v>
       </c>
       <c r="I79" t="n">
         <v>-0.04962962962962963</v>
@@ -4460,25 +4460,25 @@
         <v>42216</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003308342883013182</v>
+        <v>0.003305388123106212</v>
       </c>
       <c r="C80" t="n">
-        <v>10.841129</v>
+        <v>10.847217</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004570211571468086</v>
+        <v>0.004574987025232069</v>
       </c>
       <c r="E80" t="n">
-        <v>10.841129</v>
+        <v>10.847217</v>
       </c>
       <c r="F80" t="n">
         <v>-0.04962962962962963</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004218032152159878</v>
+        <v>0.004222082124011983</v>
       </c>
       <c r="H80" t="n">
-        <v>11.073403</v>
+        <v>11.080755</v>
       </c>
       <c r="I80" t="n">
         <v>0.04551971326164875</v>
@@ -4513,25 +4513,25 @@
         <v>42247</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002120130262276199</v>
+        <v>0.002113248098643439</v>
       </c>
       <c r="C81" t="n">
-        <v>10.754668</v>
+        <v>10.762351</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004218032152159878</v>
+        <v>0.004222082124011983</v>
       </c>
       <c r="E81" t="n">
-        <v>10.754668</v>
+        <v>10.762351</v>
       </c>
       <c r="F81" t="n">
         <v>0.04551971326164875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003308342883013182</v>
+        <v>0.003305388123106212</v>
       </c>
       <c r="H81" t="n">
-        <v>10.841129</v>
+        <v>10.847217</v>
       </c>
       <c r="I81" t="n">
         <v>0.1243727598566308</v>
@@ -4566,25 +4566,25 @@
         <v>42277</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000451565282303612</v>
+        <v>0.0004514614302895126</v>
       </c>
       <c r="C82" t="n">
-        <v>10.712749</v>
+        <v>10.712201</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003308342883013182</v>
+        <v>0.003305388123106212</v>
       </c>
       <c r="E82" t="n">
-        <v>10.712749</v>
+        <v>10.712201</v>
       </c>
       <c r="F82" t="n">
         <v>0.1243727598566308</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002120130262276199</v>
+        <v>0.002113248098643439</v>
       </c>
       <c r="H82" t="n">
-        <v>10.754668</v>
+        <v>10.762351</v>
       </c>
       <c r="I82" t="n">
         <v>0.1048148148148148</v>
@@ -4619,25 +4619,25 @@
         <v>42308</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002391946195212213</v>
+        <v>0.002394600109921541</v>
       </c>
       <c r="C83" t="n">
-        <v>10.72274</v>
+        <v>10.721732</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002120130262276199</v>
+        <v>0.002113248098643439</v>
       </c>
       <c r="E83" t="n">
-        <v>10.72274</v>
+        <v>10.721732</v>
       </c>
       <c r="F83" t="n">
         <v>0.1048148148148148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.000451565282303612</v>
+        <v>0.0004514614302895126</v>
       </c>
       <c r="H83" t="n">
-        <v>10.712749</v>
+        <v>10.712201</v>
       </c>
       <c r="I83" t="n">
         <v>0.06451612903225806</v>
@@ -4672,25 +4672,25 @@
         <v>42338</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003461311498096364</v>
+        <v>0.003465029875681758</v>
       </c>
       <c r="C84" t="n">
-        <v>10.607286</v>
+        <v>10.60625</v>
       </c>
       <c r="D84" t="n">
-        <v>0.000451565282303612</v>
+        <v>0.0004514614302895126</v>
       </c>
       <c r="E84" t="n">
-        <v>10.607286</v>
+        <v>10.60625</v>
       </c>
       <c r="F84" t="n">
         <v>0.06451612903225806</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002391946195212213</v>
+        <v>0.002394600109921541</v>
       </c>
       <c r="H84" t="n">
-        <v>10.72274</v>
+        <v>10.721732</v>
       </c>
       <c r="I84" t="n">
         <v>-0.003703703703703704</v>
@@ -4725,25 +4725,25 @@
         <v>42369</v>
       </c>
       <c r="B85" t="n">
-        <v>0.00425820150957712</v>
+        <v>0.004255108615013548</v>
       </c>
       <c r="C85" t="n">
-        <v>10.572061</v>
+        <v>10.574028</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002391946195212213</v>
+        <v>0.002394600109921541</v>
       </c>
       <c r="E85" t="n">
-        <v>10.572061</v>
+        <v>10.574028</v>
       </c>
       <c r="F85" t="n">
         <v>-0.003703703703703704</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003461311498096364</v>
+        <v>0.003465029875681758</v>
       </c>
       <c r="H85" t="n">
-        <v>10.607286</v>
+        <v>10.60625</v>
       </c>
       <c r="I85" t="n">
         <v>-0.0007168458781362006</v>
@@ -4778,25 +4778,25 @@
         <v>42400</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003255692458264292</v>
+        <v>0.003251565225252051</v>
       </c>
       <c r="C86" t="n">
-        <v>10.480762</v>
+        <v>10.474343</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003461311498096364</v>
+        <v>0.003465029875681758</v>
       </c>
       <c r="E86" t="n">
-        <v>10.480762</v>
+        <v>10.474343</v>
       </c>
       <c r="F86" t="n">
         <v>-0.0007168458781362006</v>
       </c>
       <c r="G86" t="n">
-        <v>0.00425820150957712</v>
+        <v>0.004255108615013548</v>
       </c>
       <c r="H86" t="n">
-        <v>10.572061</v>
+        <v>10.574028</v>
       </c>
       <c r="I86" t="n">
         <v>-0.04408602150537635</v>
@@ -4831,25 +4831,25 @@
         <v>42429</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.001148985554614512</v>
+        <v>-0.0011484731727327</v>
       </c>
       <c r="C87" t="n">
-        <v>10.453742</v>
+        <v>10.448239</v>
       </c>
       <c r="D87" t="n">
-        <v>0.00425820150957712</v>
+        <v>0.004255108615013548</v>
       </c>
       <c r="E87" t="n">
-        <v>10.453742</v>
+        <v>10.448239</v>
       </c>
       <c r="F87" t="n">
         <v>-0.04408602150537635</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003255692458264292</v>
+        <v>0.003251565225252051</v>
       </c>
       <c r="H87" t="n">
-        <v>10.480762</v>
+        <v>10.474343</v>
       </c>
       <c r="I87" t="n">
         <v>-0.01992337164750958</v>
@@ -4884,25 +4884,25 @@
         <v>42460</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0008060222539487683</v>
+        <v>-0.0007997213215356069</v>
       </c>
       <c r="C88" t="n">
-        <v>10.362693</v>
+        <v>10.357409</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003255692458264292</v>
+        <v>0.003251565225252051</v>
       </c>
       <c r="E88" t="n">
-        <v>10.362693</v>
+        <v>10.357409</v>
       </c>
       <c r="F88" t="n">
         <v>-0.01992337164750958</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.001148985554614512</v>
+        <v>-0.0011484731727327</v>
       </c>
       <c r="H88" t="n">
-        <v>10.453742</v>
+        <v>10.448239</v>
       </c>
       <c r="I88" t="n">
         <v>-0.02473118279569893</v>
@@ -4937,25 +4937,25 @@
         <v>42490</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.001846414693185139</v>
+        <v>-0.001851121356386543</v>
       </c>
       <c r="C89" t="n">
-        <v>10.323498</v>
+        <v>10.323592</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.001148985554614512</v>
+        <v>-0.0011484731727327</v>
       </c>
       <c r="E89" t="n">
-        <v>10.323498</v>
+        <v>10.323592</v>
       </c>
       <c r="F89" t="n">
         <v>-0.02473118279569893</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0008060222539487683</v>
+        <v>-0.0007997213215356069</v>
       </c>
       <c r="H89" t="n">
-        <v>10.362693</v>
+        <v>10.357409</v>
       </c>
       <c r="I89" t="n">
         <v>0.0262962962962963</v>
@@ -4990,25 +4990,25 @@
         <v>42521</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001228419069889242</v>
+        <v>-0.001219716620807887</v>
       </c>
       <c r="C90" t="n">
-        <v>10.212701</v>
+        <v>10.218456</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0008060222539487683</v>
+        <v>-0.0007997213215356069</v>
       </c>
       <c r="E90" t="n">
-        <v>10.212701</v>
+        <v>10.218456</v>
       </c>
       <c r="F90" t="n">
         <v>0.0262962962962963</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001846414693185139</v>
+        <v>-0.001851121356386543</v>
       </c>
       <c r="H90" t="n">
-        <v>10.323498</v>
+        <v>10.323592</v>
       </c>
       <c r="I90" t="n">
         <v>0.02043010752688172</v>
@@ -5043,25 +5043,25 @@
         <v>42551</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003940250849785443</v>
+        <v>0.0003869405615839483</v>
       </c>
       <c r="C91" t="n">
-        <v>10.172241</v>
+        <v>10.179387</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001846414693185139</v>
+        <v>-0.001851121356386543</v>
       </c>
       <c r="E91" t="n">
-        <v>10.172241</v>
+        <v>10.179387</v>
       </c>
       <c r="F91" t="n">
         <v>0.02043010752688172</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.001228419069889242</v>
+        <v>-0.001219716620807887</v>
       </c>
       <c r="H91" t="n">
-        <v>10.212701</v>
+        <v>10.218456</v>
       </c>
       <c r="I91" t="n">
         <v>-0.03481481481481482</v>
@@ -5096,25 +5096,25 @@
         <v>42582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001393738042876791</v>
+        <v>0.001390867917245409</v>
       </c>
       <c r="C92" t="n">
-        <v>10.028853</v>
+        <v>10.035217</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.001228419069889242</v>
+        <v>-0.001219716620807887</v>
       </c>
       <c r="E92" t="n">
-        <v>10.028853</v>
+        <v>10.035217</v>
       </c>
       <c r="F92" t="n">
         <v>-0.03481481481481482</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0003940250849785443</v>
+        <v>0.0003869405615839483</v>
       </c>
       <c r="H92" t="n">
-        <v>10.172241</v>
+        <v>10.179387</v>
       </c>
       <c r="I92" t="n">
         <v>-0.07849462365591399</v>
@@ -5149,25 +5149,25 @@
         <v>42613</v>
       </c>
       <c r="B93" t="n">
-        <v>0.002150040202717918</v>
+        <v>0.00213670741938099</v>
       </c>
       <c r="C93" t="n">
-        <v>9.979889</v>
+        <v>9.983022999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003940250849785443</v>
+        <v>0.0003869405615839483</v>
       </c>
       <c r="E93" t="n">
-        <v>9.979889</v>
+        <v>9.983022999999999</v>
       </c>
       <c r="F93" t="n">
         <v>-0.07849462365591399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001393738042876791</v>
+        <v>0.001390867917245409</v>
       </c>
       <c r="H93" t="n">
-        <v>10.028853</v>
+        <v>10.035217</v>
       </c>
       <c r="I93" t="n">
         <v>-0.08637992831541219</v>
@@ -5202,25 +5202,25 @@
         <v>42643</v>
       </c>
       <c r="B94" t="n">
-        <v>0.00401053063484369</v>
+        <v>0.004017068141258129</v>
       </c>
       <c r="C94" t="n">
-        <v>9.9344</v>
+        <v>9.932297</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001393738042876791</v>
+        <v>0.001390867917245409</v>
       </c>
       <c r="E94" t="n">
-        <v>9.9344</v>
+        <v>9.932297</v>
       </c>
       <c r="F94" t="n">
         <v>-0.08637992831541219</v>
       </c>
       <c r="G94" t="n">
-        <v>0.002150040202717918</v>
+        <v>0.00213670741938099</v>
       </c>
       <c r="H94" t="n">
-        <v>9.979889</v>
+        <v>9.983022999999999</v>
       </c>
       <c r="I94" t="n">
         <v>-0.02555555555555556</v>
@@ -5255,25 +5255,25 @@
         <v>42674</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005276271643563923</v>
+        <v>0.005279462939219215</v>
       </c>
       <c r="C95" t="n">
-        <v>9.852714000000001</v>
+        <v>9.848820999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>0.002150040202717918</v>
+        <v>0.00213670741938099</v>
       </c>
       <c r="E95" t="n">
-        <v>9.852714000000001</v>
+        <v>9.848820999999999</v>
       </c>
       <c r="F95" t="n">
         <v>-0.02555555555555556</v>
       </c>
       <c r="G95" t="n">
-        <v>0.00401053063484369</v>
+        <v>0.004017068141258129</v>
       </c>
       <c r="H95" t="n">
-        <v>9.9344</v>
+        <v>9.932297</v>
       </c>
       <c r="I95" t="n">
         <v>0.04695340501792115</v>
@@ -5308,25 +5308,25 @@
         <v>42704</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006035885503904659</v>
+        <v>0.006038782977345392</v>
       </c>
       <c r="C96" t="n">
-        <v>9.878814999999999</v>
+        <v>9.875275</v>
       </c>
       <c r="D96" t="n">
-        <v>0.00401053063484369</v>
+        <v>0.004017068141258129</v>
       </c>
       <c r="E96" t="n">
-        <v>9.878814999999999</v>
+        <v>9.875275</v>
       </c>
       <c r="F96" t="n">
         <v>0.04695340501792115</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005276271643563923</v>
+        <v>0.005279462939219215</v>
       </c>
       <c r="H96" t="n">
-        <v>9.852714000000001</v>
+        <v>9.848820999999999</v>
       </c>
       <c r="I96" t="n">
         <v>0.004444444444444444</v>
@@ -5361,25 +5361,25 @@
         <v>42735</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01116013132137006</v>
+        <v>0.01115626619809085</v>
       </c>
       <c r="C97" t="n">
-        <v>9.754481</v>
+        <v>9.749655000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005276271643563923</v>
+        <v>0.005279462939219215</v>
       </c>
       <c r="E97" t="n">
-        <v>9.754481</v>
+        <v>9.749655000000001</v>
       </c>
       <c r="F97" t="n">
         <v>0.004444444444444444</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006035885503904659</v>
+        <v>0.006038782977345392</v>
       </c>
       <c r="H97" t="n">
-        <v>9.878814999999999</v>
+        <v>9.875275</v>
       </c>
       <c r="I97" t="n">
         <v>-0.07025089605734766</v>
@@ -5414,25 +5414,25 @@
         <v>42766</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01711230627251492</v>
+        <v>0.01711249667221182</v>
       </c>
       <c r="C98" t="n">
-        <v>9.651138</v>
+        <v>9.646739999999999</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006035885503904659</v>
+        <v>0.006038782977345392</v>
       </c>
       <c r="E98" t="n">
-        <v>9.651138</v>
+        <v>9.646739999999999</v>
       </c>
       <c r="F98" t="n">
         <v>-0.07025089605734766</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01116013132137006</v>
+        <v>0.01115626619809085</v>
       </c>
       <c r="H98" t="n">
-        <v>9.754481</v>
+        <v>9.749655000000001</v>
       </c>
       <c r="I98" t="n">
         <v>-0.1329749103942652</v>
@@ -5467,25 +5467,25 @@
         <v>42794</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0194907174065051</v>
+        <v>0.01948767661287398</v>
       </c>
       <c r="C99" t="n">
-        <v>9.549901999999999</v>
+        <v>9.543462999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01116013132137006</v>
+        <v>0.01115626619809085</v>
       </c>
       <c r="E99" t="n">
-        <v>9.549901999999999</v>
+        <v>9.543462999999999</v>
       </c>
       <c r="F99" t="n">
         <v>-0.1329749103942652</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01711230627251492</v>
+        <v>0.01711249667221182</v>
       </c>
       <c r="H99" t="n">
-        <v>9.651138</v>
+        <v>9.646739999999999</v>
       </c>
       <c r="I99" t="n">
         <v>-0.01150793650793651</v>
@@ -5520,25 +5520,25 @@
         <v>42825</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01633000173416388</v>
+        <v>0.01633451196065305</v>
       </c>
       <c r="C100" t="n">
-        <v>9.479601000000001</v>
+        <v>9.4786</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01711230627251492</v>
+        <v>0.01711249667221182</v>
       </c>
       <c r="E100" t="n">
-        <v>9.479601000000001</v>
+        <v>9.4786</v>
       </c>
       <c r="F100" t="n">
         <v>-0.01150793650793651</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0194907174065051</v>
+        <v>0.01948767661287398</v>
       </c>
       <c r="H100" t="n">
-        <v>9.549901999999999</v>
+        <v>9.543462999999999</v>
       </c>
       <c r="I100" t="n">
         <v>0.01827956989247312</v>
@@ -5573,25 +5573,25 @@
         <v>42855</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01802350321406099</v>
+        <v>0.01802623104759959</v>
       </c>
       <c r="C101" t="n">
-        <v>9.302206999999999</v>
+        <v>9.303618</v>
       </c>
       <c r="D101" t="n">
-        <v>0.0194907174065051</v>
+        <v>0.01948767661287398</v>
       </c>
       <c r="E101" t="n">
-        <v>9.302206999999999</v>
+        <v>9.303618</v>
       </c>
       <c r="F101" t="n">
         <v>0.01827956989247312</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01633000173416388</v>
+        <v>0.01633451196065305</v>
       </c>
       <c r="H101" t="n">
-        <v>9.479601000000001</v>
+        <v>9.4786</v>
       </c>
       <c r="I101" t="n">
         <v>0.002592592592592593</v>
@@ -5626,25 +5626,25 @@
         <v>42886</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01426694598685874</v>
+        <v>0.01427577154244553</v>
       </c>
       <c r="C102" t="n">
-        <v>9.268882</v>
+        <v>9.276884000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01633000173416388</v>
+        <v>0.01633451196065305</v>
       </c>
       <c r="E102" t="n">
-        <v>9.268882</v>
+        <v>9.276884000000001</v>
       </c>
       <c r="F102" t="n">
         <v>0.002592592592592593</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01802350321406099</v>
+        <v>0.01802623104759959</v>
       </c>
       <c r="H102" t="n">
-        <v>9.302206999999999</v>
+        <v>9.303618</v>
       </c>
       <c r="I102" t="n">
         <v>-0.103584229390681</v>
@@ -5679,25 +5679,25 @@
         <v>42916</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01201132217199508</v>
+        <v>0.01200494086157633</v>
       </c>
       <c r="C103" t="n">
-        <v>9.108423</v>
+        <v>9.119872000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01802350321406099</v>
+        <v>0.01802623104759959</v>
       </c>
       <c r="E103" t="n">
-        <v>9.108423</v>
+        <v>9.119872000000001</v>
       </c>
       <c r="F103" t="n">
         <v>-0.103584229390681</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01426694598685874</v>
+        <v>0.01427577154244553</v>
       </c>
       <c r="H103" t="n">
-        <v>9.268882</v>
+        <v>9.276884000000001</v>
       </c>
       <c r="I103" t="n">
         <v>-0.1003703703703704</v>
@@ -5732,25 +5732,25 @@
         <v>42947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01252552139913821</v>
+        <v>0.01251777090522843</v>
       </c>
       <c r="C104" t="n">
-        <v>9.085801</v>
+        <v>9.094455999999999</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01426694598685874</v>
+        <v>0.01427577154244553</v>
       </c>
       <c r="E104" t="n">
-        <v>9.085801</v>
+        <v>9.094455999999999</v>
       </c>
       <c r="F104" t="n">
         <v>-0.1003703703703704</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01201132217199508</v>
+        <v>0.01200494086157633</v>
       </c>
       <c r="H104" t="n">
-        <v>9.108423</v>
+        <v>9.119872000000001</v>
       </c>
       <c r="I104" t="n">
         <v>-0.110752688172043</v>
@@ -5785,25 +5785,25 @@
         <v>42978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01440201959335052</v>
+        <v>0.01439236359028495</v>
       </c>
       <c r="C105" t="n">
-        <v>9.020866</v>
+        <v>9.027207000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01201132217199508</v>
+        <v>0.01200494086157633</v>
       </c>
       <c r="E105" t="n">
-        <v>9.020866</v>
+        <v>9.027207000000001</v>
       </c>
       <c r="F105" t="n">
         <v>-0.110752688172043</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01252552139913821</v>
+        <v>0.01251777090522843</v>
       </c>
       <c r="H105" t="n">
-        <v>9.085801</v>
+        <v>9.094455999999999</v>
       </c>
       <c r="I105" t="n">
         <v>-0.05340501792114695</v>
@@ -5838,25 +5838,25 @@
         <v>43008</v>
       </c>
       <c r="B106" t="n">
-        <v>0.0153687489080534</v>
+        <v>0.01537342207657844</v>
       </c>
       <c r="C106" t="n">
-        <v>8.922632</v>
+        <v>8.921080999999999</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01252552139913821</v>
+        <v>0.01251777090522843</v>
       </c>
       <c r="E106" t="n">
-        <v>8.922632</v>
+        <v>8.921080999999999</v>
       </c>
       <c r="F106" t="n">
         <v>-0.05340501792114695</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01440201959335052</v>
+        <v>0.01439236359028495</v>
       </c>
       <c r="H106" t="n">
-        <v>9.020866</v>
+        <v>9.027207000000001</v>
       </c>
       <c r="I106" t="n">
         <v>-0.03592592592592592</v>
@@ -5891,25 +5891,25 @@
         <v>43039</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01371645413518863</v>
+        <v>0.01372306863190964</v>
       </c>
       <c r="C107" t="n">
-        <v>8.817761000000001</v>
+        <v>8.816445</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01440201959335052</v>
+        <v>0.01439236359028495</v>
       </c>
       <c r="E107" t="n">
-        <v>8.817761000000001</v>
+        <v>8.816445</v>
       </c>
       <c r="F107" t="n">
         <v>-0.03592592592592592</v>
       </c>
       <c r="G107" t="n">
-        <v>0.0153687489080534</v>
+        <v>0.01537342207657844</v>
       </c>
       <c r="H107" t="n">
-        <v>8.922632</v>
+        <v>8.921080999999999</v>
       </c>
       <c r="I107" t="n">
         <v>-0.07670250896057347</v>
@@ -5944,25 +5944,25 @@
         <v>43069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01557012279068015</v>
+        <v>0.01556895479400033</v>
       </c>
       <c r="C108" t="n">
-        <v>8.758535999999999</v>
+        <v>8.754446</v>
       </c>
       <c r="D108" t="n">
-        <v>0.0153687489080534</v>
+        <v>0.01537342207657844</v>
       </c>
       <c r="E108" t="n">
-        <v>8.758535999999999</v>
+        <v>8.754446</v>
       </c>
       <c r="F108" t="n">
         <v>-0.07670250896057347</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01371645413518863</v>
+        <v>0.01372306863190964</v>
       </c>
       <c r="H108" t="n">
-        <v>8.817761000000001</v>
+        <v>8.816445</v>
       </c>
       <c r="I108" t="n">
         <v>-0.1874074074074074</v>
@@ -5997,25 +5997,25 @@
         <v>43100</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01353611977288338</v>
+        <v>0.01353133650411387</v>
       </c>
       <c r="C109" t="n">
-        <v>8.722307000000001</v>
+        <v>8.717273</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01371645413518863</v>
+        <v>0.01372306863190964</v>
       </c>
       <c r="E109" t="n">
-        <v>8.722307000000001</v>
+        <v>8.717273</v>
       </c>
       <c r="F109" t="n">
         <v>-0.1874074074074074</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01557012279068015</v>
+        <v>0.01556895479400033</v>
       </c>
       <c r="H109" t="n">
-        <v>8.758535999999999</v>
+        <v>8.754446</v>
       </c>
       <c r="I109" t="n">
         <v>-0.2541218637992831</v>
@@ -6050,25 +6050,25 @@
         <v>43131</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01298825090290734</v>
+        <v>0.01298902191729479</v>
       </c>
       <c r="C110" t="n">
-        <v>8.699204999999999</v>
+        <v>8.691851</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01557012279068015</v>
+        <v>0.01556895479400033</v>
       </c>
       <c r="E110" t="n">
-        <v>8.699204999999999</v>
+        <v>8.691851</v>
       </c>
       <c r="F110" t="n">
         <v>-0.2541218637992831</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01353611977288338</v>
+        <v>0.01353133650411387</v>
       </c>
       <c r="H110" t="n">
-        <v>8.722307000000001</v>
+        <v>8.717273</v>
       </c>
       <c r="I110" t="n">
         <v>-0.2258064516129032</v>
@@ -6103,25 +6103,25 @@
         <v>43159</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01129080273256999</v>
+        <v>0.01128488850162501</v>
       </c>
       <c r="C111" t="n">
-        <v>8.611452999999999</v>
+        <v>8.601516999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01353611977288338</v>
+        <v>0.01353133650411387</v>
       </c>
       <c r="E111" t="n">
-        <v>8.611452999999999</v>
+        <v>8.601516999999999</v>
       </c>
       <c r="F111" t="n">
         <v>-0.2258064516129032</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01298825090290734</v>
+        <v>0.01298902191729479</v>
       </c>
       <c r="H111" t="n">
-        <v>8.699204999999999</v>
+        <v>8.691851</v>
       </c>
       <c r="I111" t="n">
         <v>-0.1976190476190476</v>
@@ -6156,25 +6156,25 @@
         <v>43190</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01369990475671834</v>
+        <v>0.01370087935758146</v>
       </c>
       <c r="C112" t="n">
-        <v>8.547609</v>
+        <v>8.543922</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01298825090290734</v>
+        <v>0.01298902191729479</v>
       </c>
       <c r="E112" t="n">
-        <v>8.547609</v>
+        <v>8.543922</v>
       </c>
       <c r="F112" t="n">
         <v>-0.1976190476190476</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01129080273256999</v>
+        <v>0.01128488850162501</v>
       </c>
       <c r="H112" t="n">
-        <v>8.611452999999999</v>
+        <v>8.601516999999999</v>
       </c>
       <c r="I112" t="n">
         <v>-0.1598566308243728</v>
@@ -6209,25 +6209,25 @@
         <v>43220</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0131878437327968</v>
+        <v>0.01320737561341012</v>
       </c>
       <c r="C113" t="n">
-        <v>8.451191</v>
+        <v>8.449683</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01129080273256999</v>
+        <v>0.01128488850162501</v>
       </c>
       <c r="E113" t="n">
-        <v>8.451191</v>
+        <v>8.449683</v>
       </c>
       <c r="F113" t="n">
         <v>-0.1598566308243728</v>
       </c>
       <c r="G113" t="n">
-        <v>0.01369990475671834</v>
+        <v>0.01370087935758146</v>
       </c>
       <c r="H113" t="n">
-        <v>8.547609</v>
+        <v>8.543922</v>
       </c>
       <c r="I113" t="n">
         <v>-0.1362962962962963</v>
@@ -6262,25 +6262,25 @@
         <v>43251</v>
       </c>
       <c r="B114" t="n">
-        <v>0.01862811247559115</v>
+        <v>0.0186337325263608</v>
       </c>
       <c r="C114" t="n">
-        <v>8.300848</v>
+        <v>8.307713</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01369990475671834</v>
+        <v>0.01370087935758146</v>
       </c>
       <c r="E114" t="n">
-        <v>8.300848</v>
+        <v>8.307713</v>
       </c>
       <c r="F114" t="n">
         <v>-0.1362962962962963</v>
       </c>
       <c r="G114" t="n">
-        <v>0.0131878437327968</v>
+        <v>0.01320737561341012</v>
       </c>
       <c r="H114" t="n">
-        <v>8.451191</v>
+        <v>8.449683</v>
       </c>
       <c r="I114" t="n">
         <v>-0.1283154121863799</v>
@@ -6315,25 +6315,25 @@
         <v>43281</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01994895033723854</v>
+        <v>0.01994788804494974</v>
       </c>
       <c r="C115" t="n">
-        <v>8.233984</v>
+        <v>8.242457</v>
       </c>
       <c r="D115" t="n">
-        <v>0.0131878437327968</v>
+        <v>0.01320737561341012</v>
       </c>
       <c r="E115" t="n">
-        <v>8.233984</v>
+        <v>8.242457</v>
       </c>
       <c r="F115" t="n">
         <v>-0.1283154121863799</v>
       </c>
       <c r="G115" t="n">
-        <v>0.01862811247559115</v>
+        <v>0.0186337325263608</v>
       </c>
       <c r="H115" t="n">
-        <v>8.300848</v>
+        <v>8.307713</v>
       </c>
       <c r="I115" t="n">
         <v>-0.1188888888888889</v>
@@ -6368,25 +6368,25 @@
         <v>43312</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02096071264053734</v>
+        <v>0.02094736368274219</v>
       </c>
       <c r="C116" t="n">
-        <v>8.104222999999999</v>
+        <v>8.109772</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01862811247559115</v>
+        <v>0.0186337325263608</v>
       </c>
       <c r="E116" t="n">
-        <v>8.104222999999999</v>
+        <v>8.109772</v>
       </c>
       <c r="F116" t="n">
         <v>-0.1188888888888889</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01994895033723854</v>
+        <v>0.01994788804494974</v>
       </c>
       <c r="H116" t="n">
-        <v>8.233984</v>
+        <v>8.242457</v>
       </c>
       <c r="I116" t="n">
         <v>-0.1075268817204301</v>
@@ -6421,25 +6421,25 @@
         <v>43343</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02018273481828636</v>
+        <v>0.02017544797872262</v>
       </c>
       <c r="C117" t="n">
-        <v>8.03619</v>
+        <v>8.041744</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01994895033723854</v>
+        <v>0.01994788804494974</v>
       </c>
       <c r="E117" t="n">
-        <v>8.03619</v>
+        <v>8.041744</v>
       </c>
       <c r="F117" t="n">
         <v>-0.1075268817204301</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02096071264053734</v>
+        <v>0.02094736368274219</v>
       </c>
       <c r="H117" t="n">
-        <v>8.104222999999999</v>
+        <v>8.109772</v>
       </c>
       <c r="I117" t="n">
         <v>-0.07598566308243727</v>
@@ -6474,25 +6474,25 @@
         <v>43373</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02077080861656899</v>
+        <v>0.02077539722479038</v>
       </c>
       <c r="C118" t="n">
-        <v>8.017720000000001</v>
+        <v>8.015822</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02096071264053734</v>
+        <v>0.02094736368274219</v>
       </c>
       <c r="E118" t="n">
-        <v>8.017720000000001</v>
+        <v>8.015822</v>
       </c>
       <c r="F118" t="n">
         <v>-0.07598566308243727</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02018273481828636</v>
+        <v>0.02017544797872262</v>
       </c>
       <c r="H118" t="n">
-        <v>8.03619</v>
+        <v>8.041744</v>
       </c>
       <c r="I118" t="n">
         <v>-0.06481481481481481</v>
@@ -6527,25 +6527,25 @@
         <v>43404</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02254676249211585</v>
+        <v>0.02254816371162871</v>
       </c>
       <c r="C119" t="n">
-        <v>8.032548</v>
+        <v>8.032821</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02018273481828636</v>
+        <v>0.02017544797872262</v>
       </c>
       <c r="E119" t="n">
-        <v>8.032548</v>
+        <v>8.032821</v>
       </c>
       <c r="F119" t="n">
         <v>-0.06481481481481481</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02077080861656899</v>
+        <v>0.02077539722479038</v>
       </c>
       <c r="H119" t="n">
-        <v>8.017720000000001</v>
+        <v>8.015822</v>
       </c>
       <c r="I119" t="n">
         <v>-0.06021505376344086</v>
@@ -6580,25 +6580,25 @@
         <v>43434</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01948901222956323</v>
+        <v>0.01948549478446981</v>
       </c>
       <c r="C120" t="n">
-        <v>7.943954</v>
+        <v>7.943298</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02077080861656899</v>
+        <v>0.02077539722479038</v>
       </c>
       <c r="E120" t="n">
-        <v>7.943954</v>
+        <v>7.943298</v>
       </c>
       <c r="F120" t="n">
         <v>-0.06021505376344086</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02254676249211585</v>
+        <v>0.02254816371162871</v>
       </c>
       <c r="H120" t="n">
-        <v>8.032548</v>
+        <v>8.032821</v>
       </c>
       <c r="I120" t="n">
         <v>-0.03555555555555556</v>
@@ -6633,25 +6633,25 @@
         <v>43465</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01548687747858413</v>
+        <v>0.01548528580343955</v>
       </c>
       <c r="C121" t="n">
-        <v>7.876707</v>
+        <v>7.873843</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02254676249211585</v>
+        <v>0.02254816371162871</v>
       </c>
       <c r="E121" t="n">
-        <v>7.876707</v>
+        <v>7.873843</v>
       </c>
       <c r="F121" t="n">
         <v>-0.03555555555555556</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01948901222956323</v>
+        <v>0.01948549478446981</v>
       </c>
       <c r="H121" t="n">
-        <v>7.943954</v>
+        <v>7.943298</v>
       </c>
       <c r="I121" t="n">
         <v>-0.06164874551971326</v>
@@ -6686,25 +6686,25 @@
         <v>43496</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01250091300007927</v>
+        <v>0.01249464812804124</v>
       </c>
       <c r="C122" t="n">
-        <v>7.863705</v>
+        <v>7.86023</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01948901222956323</v>
+        <v>0.01948549478446981</v>
       </c>
       <c r="E122" t="n">
-        <v>7.863705</v>
+        <v>7.86023</v>
       </c>
       <c r="F122" t="n">
         <v>-0.06164874551971326</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01548687747858413</v>
+        <v>0.01548528580343955</v>
       </c>
       <c r="H122" t="n">
-        <v>7.876707</v>
+        <v>7.873843</v>
       </c>
       <c r="I122" t="n">
         <v>-0.05913978494623656</v>
@@ -6739,25 +6739,25 @@
         <v>43524</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0137637393404102</v>
+        <v>0.0137593137367924</v>
       </c>
       <c r="C123" t="n">
-        <v>7.827024</v>
+        <v>7.821937</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01548687747858413</v>
+        <v>0.01548528580343955</v>
       </c>
       <c r="E123" t="n">
-        <v>7.827024</v>
+        <v>7.821937</v>
       </c>
       <c r="F123" t="n">
         <v>-0.05913978494623656</v>
       </c>
       <c r="G123" t="n">
-        <v>0.01250091300007927</v>
+        <v>0.01249464812804124</v>
       </c>
       <c r="H123" t="n">
-        <v>7.863705</v>
+        <v>7.86023</v>
       </c>
       <c r="I123" t="n">
         <v>-0.08690476190476192</v>
@@ -6781,10 +6781,10 @@
         <v>-0.1075268817204301</v>
       </c>
       <c r="P123" t="n">
-        <v>7.852052603181509</v>
+        <v>7.848228619864061</v>
       </c>
       <c r="Q123" t="n">
-        <v>7.821438272869451</v>
+        <v>7.817867203856625</v>
       </c>
     </row>
     <row r="124">
@@ -6792,25 +6792,25 @@
         <v>43555</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01430531687492298</v>
+        <v>0.01430760530313258</v>
       </c>
       <c r="C124" t="n">
-        <v>7.742499</v>
+        <v>7.741132</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01250091300007927</v>
+        <v>0.01249464812804124</v>
       </c>
       <c r="E124" t="n">
-        <v>7.742499</v>
+        <v>7.741132</v>
       </c>
       <c r="F124" t="n">
         <v>-0.08690476190476192</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0137637393404102</v>
+        <v>0.0137593137367924</v>
       </c>
       <c r="H124" t="n">
-        <v>7.827024</v>
+        <v>7.821937</v>
       </c>
       <c r="I124" t="n">
         <v>-0.1132616487455197</v>
@@ -6834,10 +6834,10 @@
         <v>-0.07598566308243727</v>
       </c>
       <c r="P124" t="n">
-        <v>7.814159882045992</v>
+        <v>7.808655687327477</v>
       </c>
       <c r="Q124" t="n">
-        <v>7.77462345899013</v>
+        <v>7.76931994962762</v>
       </c>
     </row>
     <row r="125">
@@ -6845,25 +6845,25 @@
         <v>43585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01603055006078069</v>
+        <v>0.01606006947105598</v>
       </c>
       <c r="C125" t="n">
-        <v>7.72771</v>
+        <v>7.72654</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0137637393404102</v>
+        <v>0.0137593137367924</v>
       </c>
       <c r="E125" t="n">
-        <v>7.72771</v>
+        <v>7.72654</v>
       </c>
       <c r="F125" t="n">
         <v>-0.1132616487455197</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01430531687492298</v>
+        <v>0.01430760530313258</v>
       </c>
       <c r="H125" t="n">
-        <v>7.742499</v>
+        <v>7.741132</v>
       </c>
       <c r="I125" t="n">
         <v>-0.107037037037037</v>
@@ -6887,10 +6887,10 @@
         <v>-0.06481481481481481</v>
       </c>
       <c r="P125" t="n">
-        <v>7.72621265734541</v>
+        <v>7.724605206119145</v>
       </c>
       <c r="Q125" t="n">
-        <v>7.678481703290828</v>
+        <v>7.677070855120668</v>
       </c>
     </row>
     <row r="126">
@@ -6898,25 +6898,25 @@
         <v>43616</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01269843754968214</v>
+        <v>0.01269957209845796</v>
       </c>
       <c r="C126" t="n">
-        <v>7.614231</v>
+        <v>7.619759</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01430531687492298</v>
+        <v>0.01430760530313258</v>
       </c>
       <c r="E126" t="n">
-        <v>7.614231</v>
+        <v>7.619759</v>
       </c>
       <c r="F126" t="n">
         <v>-0.107037037037037</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01603055006078069</v>
+        <v>0.01606006947105598</v>
       </c>
       <c r="H126" t="n">
-        <v>7.72771</v>
+        <v>7.72654</v>
       </c>
       <c r="I126" t="n">
         <v>-0.1315412186379928</v>
@@ -6940,10 +6940,10 @@
         <v>-0.06021505376344086</v>
       </c>
       <c r="P126" t="n">
-        <v>7.711424846313587</v>
+        <v>7.710033141741571</v>
       </c>
       <c r="Q126" t="n">
-        <v>7.668445462386849</v>
+        <v>7.667255086209536</v>
       </c>
     </row>
     <row r="127">
@@ -6951,25 +6951,25 @@
         <v>43646</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01206925335847497</v>
+        <v>0.01207565878850048</v>
       </c>
       <c r="C127" t="n">
-        <v>7.52735</v>
+        <v>7.530926</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01603055006078069</v>
+        <v>0.01606006947105598</v>
       </c>
       <c r="E127" t="n">
-        <v>7.52735</v>
+        <v>7.530926</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01269843754968214</v>
+        <v>0.01269957209845796</v>
       </c>
       <c r="H127" t="n">
-        <v>7.614231</v>
+        <v>7.619759</v>
       </c>
       <c r="I127" t="n">
         <v>-0.04148148148148148</v>
@@ -6993,10 +6993,10 @@
         <v>-0.03555555555555556</v>
       </c>
       <c r="P127" t="n">
-        <v>7.59326525644401</v>
+        <v>7.598896309723944</v>
       </c>
       <c r="Q127" t="n">
-        <v>7.543122554775377</v>
+        <v>7.54893118678155</v>
       </c>
     </row>
     <row r="128">
@@ -7004,25 +7004,25 @@
         <v>43677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01108731185061007</v>
+        <v>0.01106609778073508</v>
       </c>
       <c r="C128" t="n">
-        <v>7.527973</v>
+        <v>7.531724</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01269843754968214</v>
+        <v>0.01269957209845796</v>
       </c>
       <c r="E128" t="n">
-        <v>7.527973</v>
+        <v>7.531724</v>
       </c>
       <c r="F128" t="n">
         <v>-0.04148148148148148</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01206925335847497</v>
+        <v>0.01207565878850048</v>
       </c>
       <c r="H128" t="n">
-        <v>7.52735</v>
+        <v>7.530926</v>
       </c>
       <c r="I128" t="n">
         <v>-0.05555555555555556</v>
@@ -7046,10 +7046,10 @@
         <v>-0.06164874551971326</v>
       </c>
       <c r="P128" t="n">
-        <v>7.503007196746356</v>
+        <v>7.506594538825405</v>
       </c>
       <c r="Q128" t="n">
-        <v>7.488908522553979</v>
+        <v>7.492824388173744</v>
       </c>
     </row>
     <row r="129">
@@ -7057,25 +7057,25 @@
         <v>43708</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01088400455900551</v>
+        <v>0.01088408534105501</v>
       </c>
       <c r="C129" t="n">
-        <v>7.461263</v>
+        <v>7.461469</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01206925335847497</v>
+        <v>0.01207565878850048</v>
       </c>
       <c r="E129" t="n">
-        <v>7.461263</v>
+        <v>7.461469</v>
       </c>
       <c r="F129" t="n">
         <v>-0.05555555555555556</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01108731185061007</v>
+        <v>0.01106609778073508</v>
       </c>
       <c r="H129" t="n">
-        <v>7.527973</v>
+        <v>7.531724</v>
       </c>
       <c r="I129" t="n">
         <v>-0.08602150537634408</v>
@@ -7099,10 +7099,10 @@
         <v>-0.05913978494623656</v>
       </c>
       <c r="P129" t="n">
-        <v>7.504711071608376</v>
+        <v>7.508479525427925</v>
       </c>
       <c r="Q129" t="n">
-        <v>7.461094967028409</v>
+        <v>7.464692241907473</v>
       </c>
     </row>
     <row r="130">
@@ -7110,25 +7110,25 @@
         <v>43738</v>
       </c>
       <c r="B130" t="n">
-        <v>0.008998822088595482</v>
+        <v>0.008992703697465743</v>
       </c>
       <c r="C130" t="n">
-        <v>7.468528</v>
+        <v>7.465112</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01108731185061007</v>
+        <v>0.01106609778073508</v>
       </c>
       <c r="E130" t="n">
-        <v>7.468528</v>
+        <v>7.465112</v>
       </c>
       <c r="F130" t="n">
         <v>-0.08602150537634408</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01088400455900551</v>
+        <v>0.01088408534105501</v>
       </c>
       <c r="H130" t="n">
-        <v>7.461263</v>
+        <v>7.461469</v>
       </c>
       <c r="I130" t="n">
         <v>-0.1240740740740741</v>
@@ -7152,10 +7152,10 @@
         <v>-0.08690476190476192</v>
       </c>
       <c r="P130" t="n">
-        <v>7.435763054047452</v>
+        <v>7.435816077535367</v>
       </c>
       <c r="Q130" t="n">
-        <v>7.41432467067558</v>
+        <v>7.414026677984557</v>
       </c>
     </row>
     <row r="131">
@@ -7163,25 +7163,25 @@
         <v>43769</v>
       </c>
       <c r="B131" t="n">
-        <v>0.007939808444484164</v>
+        <v>0.00793532315686285</v>
       </c>
       <c r="C131" t="n">
-        <v>7.436429</v>
+        <v>7.435742</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01088400455900551</v>
+        <v>0.01088408534105501</v>
       </c>
       <c r="E131" t="n">
-        <v>7.436429</v>
+        <v>7.435742</v>
       </c>
       <c r="F131" t="n">
         <v>-0.1240740740740741</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008998822088595482</v>
+        <v>0.008992703697465743</v>
       </c>
       <c r="H131" t="n">
-        <v>7.468528</v>
+        <v>7.465112</v>
       </c>
       <c r="I131" t="n">
         <v>-0.07060931899641576</v>
@@ -7205,10 +7205,10 @@
         <v>-0.1132616487455197</v>
       </c>
       <c r="P131" t="n">
-        <v>7.444424338564697</v>
+        <v>7.440690370159365</v>
       </c>
       <c r="Q131" t="n">
-        <v>7.430875349394712</v>
+        <v>7.42768962264143</v>
       </c>
     </row>
     <row r="132">
@@ -7216,25 +7216,25 @@
         <v>43799</v>
       </c>
       <c r="B132" t="n">
-        <v>0.009003052809377188</v>
+        <v>0.008997304167578157</v>
       </c>
       <c r="C132" t="n">
-        <v>7.48215</v>
+        <v>7.481122</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008998822088595482</v>
+        <v>0.008992703697465743</v>
       </c>
       <c r="E132" t="n">
-        <v>7.48215</v>
+        <v>7.481122</v>
       </c>
       <c r="F132" t="n">
         <v>-0.07060931899641576</v>
       </c>
       <c r="G132" t="n">
-        <v>0.007939808444484164</v>
+        <v>0.00793532315686285</v>
       </c>
       <c r="H132" t="n">
-        <v>7.436429</v>
+        <v>7.435742</v>
       </c>
       <c r="I132" t="n">
         <v>0.02962962962962963</v>
@@ -7258,10 +7258,10 @@
         <v>-0.107037037037037</v>
       </c>
       <c r="P132" t="n">
-        <v>7.41180721468946</v>
+        <v>7.41093762850978</v>
       </c>
       <c r="Q132" t="n">
-        <v>7.4170799571937</v>
+        <v>7.415478378266476</v>
       </c>
     </row>
     <row r="133">
@@ -7269,25 +7269,25 @@
         <v>43830</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01334796541797179</v>
+        <v>0.01334823644486871</v>
       </c>
       <c r="C133" t="n">
-        <v>7.485765</v>
+        <v>7.489195</v>
       </c>
       <c r="D133" t="n">
-        <v>0.007939808444484164</v>
+        <v>0.00793532315686285</v>
       </c>
       <c r="E133" t="n">
-        <v>7.485765</v>
+        <v>7.489195</v>
       </c>
       <c r="F133" t="n">
         <v>0.02962962962962963</v>
       </c>
       <c r="G133" t="n">
-        <v>0.009003052809377188</v>
+        <v>0.008997304167578157</v>
       </c>
       <c r="H133" t="n">
-        <v>7.48215</v>
+        <v>7.481122</v>
       </c>
       <c r="I133" t="n">
         <v>0.01505376344086022</v>
@@ -7311,10 +7311,10 @@
         <v>-0.1315412186379928</v>
       </c>
       <c r="P133" t="n">
-        <v>7.460498553606269</v>
+        <v>7.459284192409145</v>
       </c>
       <c r="Q133" t="n">
-        <v>7.485510584260637</v>
+        <v>7.484708377195207</v>
       </c>
     </row>
     <row r="134">
@@ -7322,25 +7322,25 @@
         <v>43861</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01344169987464117</v>
+        <v>0.01343882531179563</v>
       </c>
       <c r="C134" t="n">
-        <v>7.482983</v>
+        <v>7.491136</v>
       </c>
       <c r="D134" t="n">
-        <v>0.009003052809377188</v>
+        <v>0.008997304167578157</v>
       </c>
       <c r="E134" t="n">
-        <v>7.482983</v>
+        <v>7.491136</v>
       </c>
       <c r="F134" t="n">
         <v>0.01505376344086022</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01334796541797179</v>
+        <v>0.01334823644486871</v>
       </c>
       <c r="H134" t="n">
-        <v>7.485765</v>
+        <v>7.489195</v>
       </c>
       <c r="I134" t="n">
         <v>-0.01146953405017921</v>
@@ -7364,10 +7364,10 @@
         <v>-0.04148148148148148</v>
       </c>
       <c r="P134" t="n">
-        <v>7.465048442348627</v>
+        <v>7.468484774412283</v>
       </c>
       <c r="Q134" t="n">
-        <v>7.480991138248559</v>
+        <v>7.49198420410664</v>
       </c>
     </row>
     <row r="135">
@@ -7375,25 +7375,25 @@
         <v>43890</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01211828948741456</v>
+        <v>0.01211985218791778</v>
       </c>
       <c r="C135" t="n">
-        <v>7.334196</v>
+        <v>7.346877</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01334796541797179</v>
+        <v>0.01334823644486871</v>
       </c>
       <c r="E135" t="n">
-        <v>7.334196</v>
+        <v>7.346877</v>
       </c>
       <c r="F135" t="n">
         <v>-0.01146953405017921</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01344169987464117</v>
+        <v>0.01343882531179563</v>
       </c>
       <c r="H135" t="n">
-        <v>7.482983</v>
+        <v>7.491136</v>
       </c>
       <c r="I135" t="n">
         <v>-0.05708812260536398</v>
@@ -7417,10 +7417,10 @@
         <v>-0.05555555555555556</v>
       </c>
       <c r="P135" t="n">
-        <v>7.46287842774278</v>
+        <v>7.471224878153185</v>
       </c>
       <c r="Q135" t="n">
-        <v>7.435222827223574</v>
+        <v>7.443780755023678</v>
       </c>
     </row>
     <row r="136">
@@ -7428,25 +7428,25 @@
         <v>43921</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007840196820282586</v>
+        <v>0.007849489005206323</v>
       </c>
       <c r="C136" t="n">
-        <v>7.19119</v>
+        <v>7.202631</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01344169987464117</v>
+        <v>0.01343882531179563</v>
       </c>
       <c r="E136" t="n">
-        <v>7.19119</v>
+        <v>7.202631</v>
       </c>
       <c r="F136" t="n">
         <v>-0.05708812260536398</v>
       </c>
       <c r="G136" t="n">
-        <v>0.01211828948741456</v>
+        <v>0.01211985218791778</v>
       </c>
       <c r="H136" t="n">
-        <v>7.334196</v>
+        <v>7.346877</v>
       </c>
       <c r="I136" t="n">
         <v>-0.01254480286738351</v>
@@ -7470,10 +7470,10 @@
         <v>-0.08602150537634408</v>
       </c>
       <c r="P136" t="n">
-        <v>7.30879878327209</v>
+        <v>7.321879764636471</v>
       </c>
       <c r="Q136" t="n">
-        <v>7.275296461389605</v>
+        <v>7.28889091066135</v>
       </c>
     </row>
     <row r="137">
@@ -7481,25 +7481,25 @@
         <v>43951</v>
       </c>
       <c r="B137" t="n">
-        <v>0.00311332442730361</v>
+        <v>0.003144320706068626</v>
       </c>
       <c r="C137" t="n">
-        <v>7.399575</v>
+        <v>7.403408</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01211828948741456</v>
+        <v>0.01211985218791778</v>
       </c>
       <c r="E137" t="n">
-        <v>7.399575</v>
+        <v>7.403408</v>
       </c>
       <c r="F137" t="n">
         <v>-0.01254480286738351</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007840196820282586</v>
+        <v>0.007849489005206323</v>
       </c>
       <c r="H137" t="n">
-        <v>7.19119</v>
+        <v>7.202631</v>
       </c>
       <c r="I137" t="n">
         <v>0.1051851851851852</v>
@@ -7523,10 +7523,10 @@
         <v>-0.1240740740740741</v>
       </c>
       <c r="P137" t="n">
-        <v>7.160535328915715</v>
+        <v>7.172347651774718</v>
       </c>
       <c r="Q137" t="n">
-        <v>7.19534323818391</v>
+        <v>7.206351200024891</v>
       </c>
     </row>
     <row r="138">
@@ -7534,25 +7534,25 @@
         <v>43982</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0006232767580556242</v>
+        <v>0.0006327966860641965</v>
       </c>
       <c r="C138" t="n">
-        <v>7.651889</v>
+        <v>7.649445</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007840196820282586</v>
+        <v>0.007849489005206323</v>
       </c>
       <c r="E138" t="n">
-        <v>7.651889</v>
+        <v>7.649445</v>
       </c>
       <c r="F138" t="n">
         <v>0.1051851851851852</v>
       </c>
       <c r="G138" t="n">
-        <v>0.00311332442730361</v>
+        <v>0.003144320706068626</v>
       </c>
       <c r="H138" t="n">
-        <v>7.399575</v>
+        <v>7.403408</v>
       </c>
       <c r="I138" t="n">
         <v>0.2519713261648746</v>
@@ -7576,10 +7576,10 @@
         <v>-0.07060931899641576</v>
       </c>
       <c r="P138" t="n">
-        <v>7.378843934762846</v>
+        <v>7.382669370160462</v>
       </c>
       <c r="Q138" t="n">
-        <v>7.465564266513976</v>
+        <v>7.471006349699798</v>
       </c>
     </row>
     <row r="139">
@@ -7587,25 +7587,25 @@
         <v>44012</v>
       </c>
       <c r="B139" t="n">
-        <v>0.002494618588447572</v>
+        <v>0.002506882801180943</v>
       </c>
       <c r="C139" t="n">
-        <v>8.103548999999999</v>
+        <v>8.098506</v>
       </c>
       <c r="D139" t="n">
-        <v>0.00311332442730361</v>
+        <v>0.003144320706068626</v>
       </c>
       <c r="E139" t="n">
-        <v>8.103548999999999</v>
+        <v>8.098506</v>
       </c>
       <c r="F139" t="n">
         <v>0.2519713261648746</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0006232767580556242</v>
+        <v>0.0006327966860641965</v>
       </c>
       <c r="H139" t="n">
-        <v>7.651889</v>
+        <v>7.649445</v>
       </c>
       <c r="I139" t="n">
         <v>0.3466666666666667</v>
@@ -7629,10 +7629,10 @@
         <v>0.02962962962962963</v>
       </c>
       <c r="P139" t="n">
-        <v>7.640514145422733</v>
+        <v>7.637852712804315</v>
       </c>
       <c r="Q139" t="n">
-        <v>7.785002937366094</v>
+        <v>7.78246627391721</v>
       </c>
     </row>
     <row r="140">
@@ -7640,25 +7640,25 @@
         <v>44043</v>
       </c>
       <c r="B140" t="n">
-        <v>0.003191725459668504</v>
+        <v>0.003138686925554524</v>
       </c>
       <c r="C140" t="n">
-        <v>8.51083</v>
+        <v>8.505535</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006232767580556242</v>
+        <v>0.0006327966860641965</v>
       </c>
       <c r="E140" t="n">
-        <v>8.51083</v>
+        <v>8.505535</v>
       </c>
       <c r="F140" t="n">
         <v>0.3466666666666667</v>
       </c>
       <c r="G140" t="n">
-        <v>0.002494618588447572</v>
+        <v>0.002506882801180943</v>
       </c>
       <c r="H140" t="n">
-        <v>8.103548999999999</v>
+        <v>8.098506</v>
       </c>
       <c r="I140" t="n">
         <v>0.2268817204301075</v>
@@ -7682,10 +7682,10 @@
         <v>0.01505376344086022</v>
       </c>
       <c r="P140" t="n">
-        <v>8.1040027905433</v>
+        <v>8.098747044254688</v>
       </c>
       <c r="Q140" t="n">
-        <v>8.363249055277819</v>
+        <v>8.357475793774535</v>
       </c>
     </row>
     <row r="141">
@@ -7693,25 +7693,25 @@
         <v>44074</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.002193942977214647</v>
+        <v>-0.002190599346955757</v>
       </c>
       <c r="C141" t="n">
-        <v>8.648108000000001</v>
+        <v>8.638667</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002494618588447572</v>
+        <v>0.002506882801180943</v>
       </c>
       <c r="E141" t="n">
-        <v>8.648108000000001</v>
+        <v>8.638667</v>
       </c>
       <c r="F141" t="n">
         <v>0.2268817204301075</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003191725459668504</v>
+        <v>0.003138686925554524</v>
       </c>
       <c r="H141" t="n">
-        <v>8.51083</v>
+        <v>8.505535</v>
       </c>
       <c r="I141" t="n">
         <v>0.1200716845878136</v>
@@ -7735,10 +7735,10 @@
         <v>-0.01146953405017921</v>
       </c>
       <c r="P141" t="n">
-        <v>8.517721625894053</v>
+        <v>8.512275489624983</v>
       </c>
       <c r="Q141" t="n">
-        <v>8.638733821682232</v>
+        <v>8.632901173749758</v>
       </c>
     </row>
     <row r="142">
@@ -7746,25 +7746,25 @@
         <v>44104</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003057411274569155</v>
+        <v>-0.003065088291824836</v>
       </c>
       <c r="C142" t="n">
-        <v>8.594695</v>
+        <v>8.581725</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003191725459668504</v>
+        <v>0.003138686925554524</v>
       </c>
       <c r="E142" t="n">
-        <v>8.594695</v>
+        <v>8.581725</v>
       </c>
       <c r="F142" t="n">
         <v>0.1200716845878136</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.002193942977214647</v>
+        <v>-0.002190599346955757</v>
       </c>
       <c r="H142" t="n">
-        <v>8.648108000000001</v>
+        <v>8.638667</v>
       </c>
       <c r="I142" t="n">
         <v>0.03888888888888889</v>
@@ -7788,10 +7788,10 @@
         <v>-0.05708812260536398</v>
       </c>
       <c r="P142" t="n">
-        <v>8.656303392023968</v>
+        <v>8.646690670604606</v>
       </c>
       <c r="Q142" t="n">
-        <v>8.666192720868425</v>
+        <v>8.656678736891811</v>
       </c>
     </row>
     <row r="143">
@@ -7799,25 +7799,25 @@
         <v>44135</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.002625624358457479</v>
+        <v>-0.002635575414069891</v>
       </c>
       <c r="C143" t="n">
-        <v>8.401794000000001</v>
+        <v>8.390981999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.002193942977214647</v>
+        <v>-0.002190599346955757</v>
       </c>
       <c r="E143" t="n">
-        <v>8.401794000000001</v>
+        <v>8.390981999999999</v>
       </c>
       <c r="F143" t="n">
         <v>0.03888888888888889</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.003057411274569155</v>
+        <v>-0.003065088291824836</v>
       </c>
       <c r="H143" t="n">
-        <v>8.594695</v>
+        <v>8.581725</v>
       </c>
       <c r="I143" t="n">
         <v>0.1161290322580645</v>
@@ -7841,10 +7841,10 @@
         <v>-0.01254480286738351</v>
       </c>
       <c r="P143" t="n">
-        <v>8.602300189482394</v>
+        <v>8.589116939123478</v>
       </c>
       <c r="Q143" t="n">
-        <v>8.637601590849282</v>
+        <v>8.624387087337228</v>
       </c>
     </row>
     <row r="144">
@@ -7852,25 +7852,25 @@
         <v>44165</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.002463076628248295</v>
+        <v>-0.002467101783488523</v>
       </c>
       <c r="C144" t="n">
-        <v>8.216822000000001</v>
+        <v>8.210466</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.003057411274569155</v>
+        <v>-0.003065088291824836</v>
       </c>
       <c r="E144" t="n">
-        <v>8.216822000000001</v>
+        <v>8.210466</v>
       </c>
       <c r="F144" t="n">
         <v>0.1161290322580645</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.002625624358457479</v>
+        <v>-0.002635575414069891</v>
       </c>
       <c r="H144" t="n">
-        <v>8.401794000000001</v>
+        <v>8.390981999999999</v>
       </c>
       <c r="I144" t="n">
         <v>0.1214814814814815</v>
@@ -7894,10 +7894,10 @@
         <v>0.1051851851851852</v>
       </c>
       <c r="P144" t="n">
-        <v>8.407318586734799</v>
+        <v>8.396273700926022</v>
       </c>
       <c r="Q144" t="n">
-        <v>8.457376490234992</v>
+        <v>8.446367344604969</v>
       </c>
     </row>
     <row r="145">
@@ -7905,25 +7905,25 @@
         <v>44196</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.002570751160822837</v>
+        <v>-0.002568067166149213</v>
       </c>
       <c r="C145" t="n">
-        <v>8.215932</v>
+        <v>8.217079</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.002625624358457479</v>
+        <v>-0.002635575414069891</v>
       </c>
       <c r="E145" t="n">
-        <v>8.215932</v>
+        <v>8.217079</v>
       </c>
       <c r="F145" t="n">
         <v>0.1214814814814815</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.002463076628248295</v>
+        <v>-0.002467101783488523</v>
       </c>
       <c r="H145" t="n">
-        <v>8.216822000000001</v>
+        <v>8.210466</v>
       </c>
       <c r="I145" t="n">
         <v>0.09677419354838709</v>
@@ -7947,10 +7947,10 @@
         <v>0.2519713261648746</v>
       </c>
       <c r="P145" t="n">
-        <v>8.219874409668611</v>
+        <v>8.213309331634068</v>
       </c>
       <c r="Q145" t="n">
-        <v>8.210016860139032</v>
+        <v>8.222222713954574</v>
       </c>
     </row>
     <row r="146">
@@ -7958,25 +7958,25 @@
         <v>44227</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007291669838421555</v>
+        <v>0.007291443887150528</v>
       </c>
       <c r="C146" t="n">
-        <v>8.260751000000001</v>
+        <v>8.267657</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.002463076628248295</v>
+        <v>-0.002467101783488523</v>
       </c>
       <c r="E146" t="n">
-        <v>8.260751000000001</v>
+        <v>8.267657</v>
       </c>
       <c r="F146" t="n">
         <v>0.09677419354838709</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.002570751160822837</v>
+        <v>-0.002568067166149213</v>
       </c>
       <c r="H146" t="n">
-        <v>8.215932</v>
+        <v>8.217079</v>
       </c>
       <c r="I146" t="n">
         <v>0.02939068100358423</v>
@@ -8000,10 +8000,10 @@
         <v>0.3466666666666667</v>
       </c>
       <c r="P146" t="n">
-        <v>8.21891961979796</v>
+        <v>8.219971720815659</v>
       </c>
       <c r="Q146" t="n">
-        <v>8.263785047820381</v>
+        <v>8.264255928170616</v>
       </c>
     </row>
     <row r="147">
@@ -8011,25 +8011,25 @@
         <v>44255</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007832573499801931</v>
+        <v>0.007846236367272219</v>
       </c>
       <c r="C147" t="n">
-        <v>8.25437</v>
+        <v>8.265941</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.002570751160822837</v>
+        <v>-0.002568067166149213</v>
       </c>
       <c r="E147" t="n">
-        <v>8.25437</v>
+        <v>8.265941</v>
       </c>
       <c r="F147" t="n">
         <v>0.02939068100358423</v>
       </c>
       <c r="G147" t="n">
-        <v>0.007291669838421555</v>
+        <v>0.007291443887150528</v>
       </c>
       <c r="H147" t="n">
-        <v>8.260751000000001</v>
+        <v>8.267657</v>
       </c>
       <c r="I147" t="n">
         <v>0.04920634920634921</v>
@@ -8053,10 +8053,10 @@
         <v>0.2268817204301075</v>
       </c>
       <c r="P147" t="n">
-        <v>8.264323543625373</v>
+        <v>8.271217863692071</v>
       </c>
       <c r="Q147" t="n">
-        <v>8.254715026243439</v>
+        <v>8.269096312194884</v>
       </c>
     </row>
     <row r="148">
@@ -8064,25 +8064,25 @@
         <v>44286</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01258837404473656</v>
+        <v>0.01260652450605981</v>
       </c>
       <c r="C148" t="n">
-        <v>8.215612999999999</v>
+        <v>8.226264</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007291669838421555</v>
+        <v>0.007291443887150528</v>
       </c>
       <c r="E148" t="n">
-        <v>8.215612999999999</v>
+        <v>8.226264</v>
       </c>
       <c r="F148" t="n">
         <v>0.04920634920634921</v>
       </c>
       <c r="G148" t="n">
-        <v>0.007832573499801931</v>
+        <v>0.007846236367272219</v>
       </c>
       <c r="H148" t="n">
-        <v>8.25437</v>
+        <v>8.265941</v>
       </c>
       <c r="I148" t="n">
         <v>0.07025089605734768</v>
@@ -8106,10 +8106,10 @@
         <v>0.1200716845878136</v>
       </c>
       <c r="P148" t="n">
-        <v>8.257799748569816</v>
+        <v>8.269422457598347</v>
       </c>
       <c r="Q148" t="n">
-        <v>8.286427267979493</v>
+        <v>8.298198358001191</v>
       </c>
     </row>
     <row r="149">
@@ -8117,25 +8117,25 @@
         <v>44316</v>
       </c>
       <c r="B149" t="n">
-        <v>0.01584437624302559</v>
+        <v>0.0158805418122423</v>
       </c>
       <c r="C149" t="n">
-        <v>8.277016</v>
+        <v>8.276883</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007832573499801931</v>
+        <v>0.007846236367272219</v>
       </c>
       <c r="E149" t="n">
-        <v>8.277016</v>
+        <v>8.276883</v>
       </c>
       <c r="F149" t="n">
         <v>0.07025089605734768</v>
       </c>
       <c r="G149" t="n">
-        <v>0.01258837404473656</v>
+        <v>0.01260652450605981</v>
       </c>
       <c r="H149" t="n">
-        <v>8.215612999999999</v>
+        <v>8.226264</v>
       </c>
       <c r="I149" t="n">
         <v>0.1148148148148148</v>
@@ -8159,10 +8159,10 @@
         <v>0.03888888888888889</v>
       </c>
       <c r="P149" t="n">
-        <v>8.218465405963086</v>
+        <v>8.229160335275083</v>
       </c>
       <c r="Q149" t="n">
-        <v>8.277354601566133</v>
+        <v>8.277201461302704</v>
       </c>
     </row>
     <row r="150">
@@ -8170,25 +8170,25 @@
         <v>44347</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01933586820732991</v>
+        <v>0.01934704529113951</v>
       </c>
       <c r="C150" t="n">
-        <v>8.098411</v>
+        <v>8.094704</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01258837404473656</v>
+        <v>0.01260652450605981</v>
       </c>
       <c r="E150" t="n">
-        <v>8.098411</v>
+        <v>8.094704</v>
       </c>
       <c r="F150" t="n">
         <v>0.1148148148148148</v>
       </c>
       <c r="G150" t="n">
-        <v>0.01584437624302559</v>
+        <v>0.0158805418122423</v>
       </c>
       <c r="H150" t="n">
-        <v>8.277016</v>
+        <v>8.276883</v>
       </c>
       <c r="I150" t="n">
         <v>0.1240143369175627</v>
@@ -8212,10 +8212,10 @@
         <v>0.1161290322580645</v>
       </c>
       <c r="P150" t="n">
-        <v>8.280642776163093</v>
+        <v>8.280406451392466</v>
       </c>
       <c r="Q150" t="n">
-        <v>8.3047761751151</v>
+        <v>8.304559354001647</v>
       </c>
     </row>
     <row r="151">
@@ -8223,25 +8223,25 @@
         <v>44377</v>
       </c>
       <c r="B151" t="n">
-        <v>0.01990762671315505</v>
+        <v>0.0199224871374879</v>
       </c>
       <c r="C151" t="n">
-        <v>7.888889</v>
+        <v>7.884398</v>
       </c>
       <c r="D151" t="n">
-        <v>0.01584437624302559</v>
+        <v>0.0158805418122423</v>
       </c>
       <c r="E151" t="n">
-        <v>7.888889</v>
+        <v>7.884398</v>
       </c>
       <c r="F151" t="n">
         <v>0.1240143369175627</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01933586820732991</v>
+        <v>0.01934704529113951</v>
       </c>
       <c r="H151" t="n">
-        <v>8.098411</v>
+        <v>8.094704</v>
       </c>
       <c r="I151" t="n">
         <v>0.05481481481481481</v>
@@ -8265,10 +8265,10 @@
         <v>0.1214814814814815</v>
       </c>
       <c r="P151" t="n">
-        <v>8.099589889920464</v>
+        <v>8.095719513280761</v>
       </c>
       <c r="Q151" t="n">
-        <v>8.106421690459968</v>
+        <v>8.102558065019711</v>
       </c>
     </row>
     <row r="152">
@@ -8276,25 +8276,25 @@
         <v>44408</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02361099226105257</v>
+        <v>0.02358522923783113</v>
       </c>
       <c r="C152" t="n">
-        <v>7.68307</v>
+        <v>7.685049</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01933586820732991</v>
+        <v>0.01934704529113951</v>
       </c>
       <c r="E152" t="n">
-        <v>7.68307</v>
+        <v>7.685049</v>
       </c>
       <c r="F152" t="n">
         <v>0.05481481481481481</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01990762671315505</v>
+        <v>0.0199224871374879</v>
       </c>
       <c r="H152" t="n">
-        <v>7.888889</v>
+        <v>7.884398</v>
       </c>
       <c r="I152" t="n">
         <v>0.01971326164874552</v>
@@ -8318,10 +8318,10 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="P152" t="n">
-        <v>7.886655935431981</v>
+        <v>7.881965890605679</v>
       </c>
       <c r="Q152" t="n">
-        <v>7.82487063291709</v>
+        <v>7.820323623461871</v>
       </c>
     </row>
     <row r="153">
@@ -8329,25 +8329,25 @@
         <v>44439</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03118573676132996</v>
+        <v>0.03119082850725174</v>
       </c>
       <c r="C153" t="n">
-        <v>7.5823</v>
+        <v>7.579334</v>
       </c>
       <c r="D153" t="n">
-        <v>0.01990762671315505</v>
+        <v>0.0199224871374879</v>
       </c>
       <c r="E153" t="n">
-        <v>7.5823</v>
+        <v>7.579334</v>
       </c>
       <c r="F153" t="n">
         <v>0.01971326164874552</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02361099226105257</v>
+        <v>0.02358522923783113</v>
       </c>
       <c r="H153" t="n">
-        <v>7.68307</v>
+        <v>7.685049</v>
       </c>
       <c r="I153" t="n">
         <v>-0.02544802867383512</v>
@@ -8371,10 +8371,10 @@
         <v>0.02939068100358423</v>
       </c>
       <c r="P153" t="n">
-        <v>7.676862559165258</v>
+        <v>7.678752950065049</v>
       </c>
       <c r="Q153" t="n">
-        <v>7.654622824419129</v>
+        <v>7.656556104888003</v>
       </c>
     </row>
     <row r="154">
@@ -8382,25 +8382,25 @@
         <v>44469</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03417343211670421</v>
+        <v>0.03414890734514753</v>
       </c>
       <c r="C154" t="n">
-        <v>7.428698</v>
+        <v>7.425482</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02361099226105257</v>
+        <v>0.02358522923783113</v>
       </c>
       <c r="E154" t="n">
-        <v>7.428698</v>
+        <v>7.425482</v>
       </c>
       <c r="F154" t="n">
         <v>-0.02544802867383512</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03118573676132996</v>
+        <v>0.03119082850725174</v>
       </c>
       <c r="H154" t="n">
-        <v>7.5823</v>
+        <v>7.579334</v>
       </c>
       <c r="I154" t="n">
         <v>-0.02925925925925926</v>
@@ -8424,10 +8424,10 @@
         <v>0.04920634920634921</v>
       </c>
       <c r="P154" t="n">
-        <v>7.57397499247995</v>
+        <v>7.570806359211348</v>
       </c>
       <c r="Q154" t="n">
-        <v>7.531783765598431</v>
+        <v>7.528753413875444</v>
       </c>
     </row>
     <row r="155">
@@ -8435,25 +8435,25 @@
         <v>44500</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04053251615305786</v>
+        <v>0.04052084984599258</v>
       </c>
       <c r="C155" t="n">
-        <v>7.302886</v>
+        <v>7.299897</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03118573676132996</v>
+        <v>0.03119082850725174</v>
       </c>
       <c r="E155" t="n">
-        <v>7.302886</v>
+        <v>7.299897</v>
       </c>
       <c r="F155" t="n">
         <v>-0.02925925925925926</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03417343211670421</v>
+        <v>0.03414890734514753</v>
       </c>
       <c r="H155" t="n">
-        <v>7.428698</v>
+        <v>7.425482</v>
       </c>
       <c r="I155" t="n">
         <v>-0.103584229390681</v>
@@ -8477,10 +8477,10 @@
         <v>0.07025089605734768</v>
       </c>
       <c r="P155" t="n">
-        <v>7.416847145983767</v>
+        <v>7.413408964968168</v>
       </c>
       <c r="Q155" t="n">
-        <v>7.35827996631322</v>
+        <v>7.354966650275395</v>
       </c>
     </row>
     <row r="156">
@@ -8488,25 +8488,25 @@
         <v>44530</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04671354138146988</v>
+        <v>0.04671230678382532</v>
       </c>
       <c r="C156" t="n">
-        <v>7.172415</v>
+        <v>7.175353</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03417343211670421</v>
+        <v>0.03414890734514753</v>
       </c>
       <c r="E156" t="n">
-        <v>7.172415</v>
+        <v>7.175353</v>
       </c>
       <c r="F156" t="n">
         <v>-0.103584229390681</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04053251615305786</v>
+        <v>0.04052084984599258</v>
       </c>
       <c r="H156" t="n">
-        <v>7.302886</v>
+        <v>7.299897</v>
       </c>
       <c r="I156" t="n">
         <v>-0.1522222222222222</v>
@@ -8530,10 +8530,10 @@
         <v>0.1148148148148148</v>
       </c>
       <c r="P156" t="n">
-        <v>7.287978664633284</v>
+        <v>7.284763943498307</v>
       </c>
       <c r="Q156" t="n">
-        <v>7.207055384771023</v>
+        <v>7.204160480969248</v>
       </c>
     </row>
     <row r="157">
@@ -8541,25 +8541,25 @@
         <v>44561</v>
       </c>
       <c r="B157" t="n">
-        <v>0.04883913469898093</v>
+        <v>0.04883498248357121</v>
       </c>
       <c r="C157" t="n">
-        <v>7.076453</v>
+        <v>7.077813</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04053251615305786</v>
+        <v>0.04052084984599258</v>
       </c>
       <c r="E157" t="n">
-        <v>7.076453</v>
+        <v>7.077813</v>
       </c>
       <c r="F157" t="n">
         <v>-0.1522222222222222</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04671354138146988</v>
+        <v>0.04671230678382532</v>
       </c>
       <c r="H157" t="n">
-        <v>7.172415</v>
+        <v>7.175353</v>
       </c>
       <c r="I157" t="n">
         <v>-0.1437275985663083</v>
@@ -8583,10 +8583,10 @@
         <v>0.1240143369175627</v>
       </c>
       <c r="P157" t="n">
-        <v>7.154154734637843</v>
+        <v>7.157032623095349</v>
       </c>
       <c r="Q157" t="n">
-        <v>7.077548417212366</v>
+        <v>7.076545083420623</v>
       </c>
     </row>
     <row r="158">
@@ -8594,25 +8594,25 @@
         <v>44592</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04961524244454107</v>
+        <v>0.04961706330289406</v>
       </c>
       <c r="C158" t="n">
-        <v>6.958588</v>
+        <v>6.963018</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04671354138146988</v>
+        <v>0.04671230678382532</v>
       </c>
       <c r="E158" t="n">
-        <v>6.958588</v>
+        <v>6.963018</v>
       </c>
       <c r="F158" t="n">
         <v>-0.1437275985663083</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04883913469898093</v>
+        <v>0.04883498248357121</v>
       </c>
       <c r="H158" t="n">
-        <v>7.076453</v>
+        <v>7.077813</v>
       </c>
       <c r="I158" t="n">
         <v>-0.1315412186379928</v>
@@ -8636,10 +8636,10 @@
         <v>0.05481481481481481</v>
       </c>
       <c r="P158" t="n">
-        <v>7.055755170465948</v>
+        <v>7.057007808131537</v>
       </c>
       <c r="Q158" t="n">
-        <v>6.983797256630409</v>
+        <v>6.985224911869349</v>
       </c>
     </row>
     <row r="159">
@@ -8647,25 +8647,25 @@
         <v>44620</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05659238233316888</v>
+        <v>0.05660500122175716</v>
       </c>
       <c r="C159" t="n">
-        <v>6.883125</v>
+        <v>6.88644</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04883913469898093</v>
+        <v>0.04883498248357121</v>
       </c>
       <c r="E159" t="n">
-        <v>6.883125</v>
+        <v>6.88644</v>
       </c>
       <c r="F159" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04961524244454107</v>
+        <v>0.04961706330289406</v>
       </c>
       <c r="H159" t="n">
-        <v>6.958588</v>
+        <v>6.963018</v>
       </c>
       <c r="I159" t="n">
         <v>-0.1571428571428572</v>
@@ -8689,10 +8689,10 @@
         <v>0.01971326164874552</v>
       </c>
       <c r="P159" t="n">
-        <v>6.934697912206321</v>
+        <v>6.939120143488274</v>
       </c>
       <c r="Q159" t="n">
-        <v>6.883311412234886</v>
+        <v>6.886708972333413</v>
       </c>
     </row>
     <row r="160">
@@ -8700,25 +8700,25 @@
         <v>44651</v>
       </c>
       <c r="B160" t="n">
-        <v>0.07202977555136858</v>
+        <v>0.0720494046585296</v>
       </c>
       <c r="C160" t="n">
-        <v>6.858373</v>
+        <v>6.862808</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04961524244454107</v>
+        <v>0.04961706330289406</v>
       </c>
       <c r="E160" t="n">
-        <v>6.858373</v>
+        <v>6.862808</v>
       </c>
       <c r="F160" t="n">
         <v>-0.1571428571428572</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05659238233316888</v>
+        <v>0.05660500122175716</v>
       </c>
       <c r="H160" t="n">
-        <v>6.883125</v>
+        <v>6.88644</v>
       </c>
       <c r="I160" t="n">
         <v>-0.1301075268817204</v>
@@ -8742,10 +8742,10 @@
         <v>-0.02544802867383512</v>
       </c>
       <c r="P160" t="n">
-        <v>6.857391695066542</v>
+        <v>6.860663382621047</v>
       </c>
       <c r="Q160" t="n">
-        <v>6.835329993262127</v>
+        <v>6.838667080058705</v>
       </c>
     </row>
     <row r="161">
@@ -8753,25 +8753,25 @@
         <v>44681</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07200638805065029</v>
+        <v>0.07202535709213631</v>
       </c>
       <c r="C161" t="n">
-        <v>6.8135</v>
+        <v>6.808802</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05659238233316888</v>
+        <v>0.05660500122175716</v>
       </c>
       <c r="E161" t="n">
-        <v>6.8135</v>
+        <v>6.808802</v>
       </c>
       <c r="F161" t="n">
         <v>-0.1301075268817204</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07202977555136858</v>
+        <v>0.0720494046585296</v>
       </c>
       <c r="H161" t="n">
-        <v>6.858373</v>
+        <v>6.862808</v>
       </c>
       <c r="I161" t="n">
         <v>-0.09555555555555556</v>
@@ -8795,10 +8795,10 @@
         <v>-0.02925925925925926</v>
       </c>
       <c r="P161" t="n">
-        <v>6.832527285421325</v>
+        <v>6.836957268127987</v>
       </c>
       <c r="Q161" t="n">
-        <v>6.813954739744656</v>
+        <v>6.812323585173463</v>
       </c>
     </row>
     <row r="162">
@@ -8806,25 +8806,25 @@
         <v>44712</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07779653782282558</v>
+        <v>0.07783343333241888</v>
       </c>
       <c r="C162" t="n">
-        <v>6.77716</v>
+        <v>6.773719</v>
       </c>
       <c r="D162" t="n">
-        <v>0.07202977555136858</v>
+        <v>0.0720494046585296</v>
       </c>
       <c r="E162" t="n">
-        <v>6.77716</v>
+        <v>6.773719</v>
       </c>
       <c r="F162" t="n">
         <v>-0.09555555555555556</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07200638805065029</v>
+        <v>0.07202535709213631</v>
       </c>
       <c r="H162" t="n">
-        <v>6.8135</v>
+        <v>6.808802</v>
       </c>
       <c r="I162" t="n">
         <v>-0.06487455197132616</v>
@@ -8848,10 +8848,10 @@
         <v>-0.103584229390681</v>
       </c>
       <c r="P162" t="n">
-        <v>6.786873012163505</v>
+        <v>6.781863970568685</v>
       </c>
       <c r="Q162" t="n">
-        <v>6.777712887977643</v>
+        <v>6.773983634028118</v>
       </c>
     </row>
     <row r="163">
@@ -8859,25 +8859,25 @@
         <v>44742</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08271378172545685</v>
+        <v>0.08276488442850827</v>
       </c>
       <c r="C163" t="n">
-        <v>6.7826</v>
+        <v>6.779945</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07200638805065029</v>
+        <v>0.07202535709213631</v>
       </c>
       <c r="E163" t="n">
-        <v>6.7826</v>
+        <v>6.779945</v>
       </c>
       <c r="F163" t="n">
         <v>-0.06487455197132616</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07779653782282558</v>
+        <v>0.07783343333241888</v>
       </c>
       <c r="H163" t="n">
-        <v>6.77716</v>
+        <v>6.773719</v>
       </c>
       <c r="I163" t="n">
         <v>-0.102962962962963</v>
@@ -8901,10 +8901,10 @@
         <v>-0.1522222222222222</v>
       </c>
       <c r="P163" t="n">
-        <v>6.750054932425609</v>
+        <v>6.746350008878137</v>
       </c>
       <c r="Q163" t="n">
-        <v>6.731120234810803</v>
+        <v>6.727499192667151</v>
       </c>
     </row>
     <row r="164">
@@ -8912,25 +8912,25 @@
         <v>44773</v>
       </c>
       <c r="B164" t="n">
-        <v>0.08415357046637517</v>
+        <v>0.08408021963901469</v>
       </c>
       <c r="C164" t="n">
-        <v>6.717961</v>
+        <v>6.721006</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07779653782282558</v>
+        <v>0.07783343333241888</v>
       </c>
       <c r="E164" t="n">
-        <v>6.717961</v>
+        <v>6.721006</v>
       </c>
       <c r="F164" t="n">
         <v>-0.102962962962963</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08271378172545685</v>
+        <v>0.08276488442850827</v>
       </c>
       <c r="H164" t="n">
-        <v>6.7826</v>
+        <v>6.779945</v>
       </c>
       <c r="I164" t="n">
         <v>-0.1064516129032258</v>
@@ -8954,10 +8954,10 @@
         <v>-0.1437275985663083</v>
       </c>
       <c r="P164" t="n">
-        <v>6.756407243440398</v>
+        <v>6.753523584044225</v>
       </c>
       <c r="Q164" t="n">
-        <v>6.718112496270557</v>
+        <v>6.716460309986873</v>
       </c>
     </row>
     <row r="165">
@@ -8965,25 +8965,25 @@
         <v>44804</v>
       </c>
       <c r="B165" t="n">
-        <v>0.08702419388357363</v>
+        <v>0.0869984515237423</v>
       </c>
       <c r="C165" t="n">
-        <v>6.761161</v>
+        <v>6.759684</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08271378172545685</v>
+        <v>0.08276488442850827</v>
       </c>
       <c r="E165" t="n">
-        <v>6.761161</v>
+        <v>6.759684</v>
       </c>
       <c r="F165" t="n">
         <v>-0.1064516129032258</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08415357046637517</v>
+        <v>0.08408021963901469</v>
       </c>
       <c r="H165" t="n">
-        <v>6.717961</v>
+        <v>6.721006</v>
       </c>
       <c r="I165" t="n">
         <v>-0.09426523297491039</v>
@@ -9007,10 +9007,10 @@
         <v>-0.1315412186379928</v>
       </c>
       <c r="P165" t="n">
-        <v>6.690376287885956</v>
+        <v>6.693379455159</v>
       </c>
       <c r="Q165" t="n">
-        <v>6.690011635524849</v>
+        <v>6.692974425716997</v>
       </c>
     </row>
     <row r="166">
@@ -9018,25 +9018,25 @@
         <v>44834</v>
       </c>
       <c r="B166" t="n">
-        <v>0.09474907775974639</v>
+        <v>0.09471895883142878</v>
       </c>
       <c r="C166" t="n">
-        <v>6.750137</v>
+        <v>6.751289</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08415357046637517</v>
+        <v>0.08408021963901469</v>
       </c>
       <c r="E166" t="n">
-        <v>6.750137</v>
+        <v>6.751289</v>
       </c>
       <c r="F166" t="n">
         <v>-0.09426523297491039</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08702419388357363</v>
+        <v>0.0869984515237423</v>
       </c>
       <c r="H166" t="n">
-        <v>6.761161</v>
+        <v>6.759684</v>
       </c>
       <c r="I166" t="n">
         <v>-0.09185185185185185</v>
@@ -9060,10 +9060,10 @@
         <v>-0.1571428571428572</v>
       </c>
       <c r="P166" t="n">
-        <v>6.735684713243768</v>
+        <v>6.734022662445636</v>
       </c>
       <c r="Q166" t="n">
-        <v>6.717237466423851</v>
+        <v>6.71564417629248</v>
       </c>
     </row>
     <row r="167">
@@ -9071,25 +9071,25 @@
         <v>44865</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1009867351504381</v>
+        <v>0.1009654501718789</v>
       </c>
       <c r="C167" t="n">
-        <v>6.707418</v>
+        <v>6.708636</v>
       </c>
       <c r="D167" t="n">
-        <v>0.08702419388357363</v>
+        <v>0.0869984515237423</v>
       </c>
       <c r="E167" t="n">
-        <v>6.707418</v>
+        <v>6.708636</v>
       </c>
       <c r="F167" t="n">
         <v>-0.09185185185185185</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09474907775974639</v>
+        <v>0.09471895883142878</v>
       </c>
       <c r="H167" t="n">
-        <v>6.750137</v>
+        <v>6.751289</v>
       </c>
       <c r="I167" t="n">
         <v>-0.1362007168458781</v>
@@ -9113,10 +9113,10 @@
         <v>-0.1301075268817204</v>
       </c>
       <c r="P167" t="n">
-        <v>6.724967083045342</v>
+        <v>6.726019238663105</v>
       </c>
       <c r="Q167" t="n">
-        <v>6.706916016096969</v>
+        <v>6.708048878291244</v>
       </c>
     </row>
     <row r="168">
@@ -9124,25 +9124,25 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>0.09598532660569425</v>
+        <v>0.09598315818005165</v>
       </c>
       <c r="C168" t="n">
-        <v>6.730804</v>
+        <v>6.734657</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09474907775974639</v>
+        <v>0.09471895883142878</v>
       </c>
       <c r="E168" t="n">
-        <v>6.730804</v>
+        <v>6.734657</v>
       </c>
       <c r="F168" t="n">
         <v>-0.1362007168458781</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1009867351504381</v>
+        <v>0.1009654501718789</v>
       </c>
       <c r="H168" t="n">
-        <v>6.707418</v>
+        <v>6.708636</v>
       </c>
       <c r="I168" t="n">
         <v>-0.1259259259259259</v>
@@ -9166,10 +9166,10 @@
         <v>-0.09555555555555556</v>
       </c>
       <c r="P168" t="n">
-        <v>6.681582074486966</v>
+        <v>6.682703455870289</v>
       </c>
       <c r="Q168" t="n">
-        <v>6.66443072559412</v>
+        <v>6.665636474239319</v>
       </c>
     </row>
     <row r="169">
@@ -9177,25 +9177,25 @@
         <v>44926</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0882586542212529</v>
+        <v>0.08825947452935079</v>
       </c>
       <c r="C169" t="n">
-        <v>6.751438</v>
+        <v>6.75</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1009867351504381</v>
+        <v>0.1009654501718789</v>
       </c>
       <c r="E169" t="n">
-        <v>6.751438</v>
+        <v>6.75</v>
       </c>
       <c r="F169" t="n">
         <v>-0.1259259259259259</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09598532660569425</v>
+        <v>0.09598315818005165</v>
       </c>
       <c r="H169" t="n">
-        <v>6.730804</v>
+        <v>6.734657</v>
       </c>
       <c r="I169" t="n">
         <v>-0.1387096774193548</v>
@@ -9219,10 +9219,10 @@
         <v>-0.06487455197132616</v>
       </c>
       <c r="P169" t="n">
-        <v>6.706302971704044</v>
+        <v>6.710140285452701</v>
       </c>
       <c r="Q169" t="n">
-        <v>6.690142604435835</v>
+        <v>6.69408571487662</v>
       </c>
     </row>
     <row r="170">
@@ -9230,25 +9230,25 @@
         <v>44957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08375141007007869</v>
+        <v>0.08365335749222869</v>
       </c>
       <c r="C170" t="n">
-        <v>6.690558</v>
+        <v>6.68913</v>
       </c>
       <c r="D170" t="n">
-        <v>0.09598532660569425</v>
+        <v>0.09598315818005165</v>
       </c>
       <c r="E170" t="n">
-        <v>6.690558</v>
+        <v>6.68913</v>
       </c>
       <c r="F170" t="n">
         <v>-0.1387096774193548</v>
       </c>
       <c r="G170" t="n">
-        <v>0.0882586542212529</v>
+        <v>0.08825947452935079</v>
       </c>
       <c r="H170" t="n">
-        <v>6.751438</v>
+        <v>6.75</v>
       </c>
       <c r="I170" t="n">
         <v>-0.08888888888888889</v>
@@ -9272,10 +9272,10 @@
         <v>-0.102962962962963</v>
       </c>
       <c r="P170" t="n">
-        <v>6.728111356767497</v>
+        <v>6.726505730327162</v>
       </c>
       <c r="Q170" t="n">
-        <v>6.690996354403989</v>
+        <v>6.689583443821309</v>
       </c>
     </row>
     <row r="171">
@@ -9283,25 +9283,25 @@
         <v>44985</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08179272021796269</v>
+        <v>0.08181270668248253</v>
       </c>
       <c r="C171" t="n">
-        <v>6.629463</v>
+        <v>6.628843</v>
       </c>
       <c r="D171" t="n">
-        <v>0.0882586542212529</v>
+        <v>0.08825947452935079</v>
       </c>
       <c r="E171" t="n">
-        <v>6.629463</v>
+        <v>6.628843</v>
       </c>
       <c r="F171" t="n">
         <v>-0.08888888888888889</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08375141007007869</v>
+        <v>0.08365335749222869</v>
       </c>
       <c r="H171" t="n">
-        <v>6.690558</v>
+        <v>6.68913</v>
       </c>
       <c r="I171" t="n">
         <v>-0.07063492063492063</v>
@@ -9325,10 +9325,10 @@
         <v>-0.1064516129032258</v>
       </c>
       <c r="P171" t="n">
-        <v>6.666059700000791</v>
+        <v>6.664464428827848</v>
       </c>
       <c r="Q171" t="n">
-        <v>6.633404543325794</v>
+        <v>6.63194063820362</v>
       </c>
     </row>
     <row r="172">
@@ -9336,25 +9336,25 @@
         <v>45016</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06682164732135387</v>
+        <v>0.06684618426497213</v>
       </c>
       <c r="C172" t="n">
-        <v>6.579774</v>
+        <v>6.579824</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08375141007007869</v>
+        <v>0.08365335749222869</v>
       </c>
       <c r="E172" t="n">
-        <v>6.579774</v>
+        <v>6.579824</v>
       </c>
       <c r="F172" t="n">
         <v>-0.07063492063492063</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08179272021796269</v>
+        <v>0.08181270668248253</v>
       </c>
       <c r="H172" t="n">
-        <v>6.629463</v>
+        <v>6.628843</v>
       </c>
       <c r="I172" t="n">
         <v>-0.05842293906810036</v>
@@ -9378,10 +9378,10 @@
         <v>-0.09426523297491039</v>
       </c>
       <c r="P172" t="n">
-        <v>6.603793486617469</v>
+        <v>6.603029758383578</v>
       </c>
       <c r="Q172" t="n">
-        <v>6.579814988270077</v>
+        <v>6.579162854678824</v>
       </c>
     </row>
     <row r="173">
@@ -9389,25 +9389,25 @@
         <v>45046</v>
       </c>
       <c r="B173" t="n">
-        <v>0.067437315196063</v>
+        <v>0.06743934661774187</v>
       </c>
       <c r="C173" t="n">
-        <v>6.54845</v>
+        <v>6.542188</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08179272021796269</v>
+        <v>0.08181270668248253</v>
       </c>
       <c r="E173" t="n">
-        <v>6.54845</v>
+        <v>6.542188</v>
       </c>
       <c r="F173" t="n">
         <v>-0.05842293906810036</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06682164732135387</v>
+        <v>0.06684618426497213</v>
       </c>
       <c r="H173" t="n">
-        <v>6.579774</v>
+        <v>6.579824</v>
       </c>
       <c r="I173" t="n">
         <v>-0.05</v>
@@ -9431,10 +9431,10 @@
         <v>-0.09185185185185185</v>
       </c>
       <c r="P173" t="n">
-        <v>6.553273676499039</v>
+        <v>6.55320050120845</v>
       </c>
       <c r="Q173" t="n">
-        <v>6.547772252116168</v>
+        <v>6.540709965424933</v>
       </c>
     </row>
     <row r="174">
@@ -9442,25 +9442,25 @@
         <v>45077</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05929168283875086</v>
+        <v>0.05934288172263535</v>
       </c>
       <c r="C174" t="n">
-        <v>6.519224</v>
+        <v>6.513704</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06682164732135387</v>
+        <v>0.06684618426497213</v>
       </c>
       <c r="E174" t="n">
-        <v>6.519224</v>
+        <v>6.513704</v>
       </c>
       <c r="F174" t="n">
         <v>-0.05</v>
       </c>
       <c r="G174" t="n">
-        <v>0.067437315196063</v>
+        <v>0.06743934661774187</v>
       </c>
       <c r="H174" t="n">
-        <v>6.54845</v>
+        <v>6.542188</v>
       </c>
       <c r="I174" t="n">
         <v>-0.04301075268817204</v>
@@ -9484,10 +9484,10 @@
         <v>-0.1362007168458781</v>
       </c>
       <c r="P174" t="n">
-        <v>6.52166621099029</v>
+        <v>6.51509885603652</v>
       </c>
       <c r="Q174" t="n">
-        <v>6.519355700041858</v>
+        <v>6.514246446253887</v>
       </c>
     </row>
     <row r="175">
@@ -9495,25 +9495,25 @@
         <v>45107</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05366834014242894</v>
+        <v>0.05371118342005765</v>
       </c>
       <c r="C175" t="n">
-        <v>6.482514</v>
+        <v>6.479064</v>
       </c>
       <c r="D175" t="n">
-        <v>0.067437315196063</v>
+        <v>0.06743934661774187</v>
       </c>
       <c r="E175" t="n">
-        <v>6.482514</v>
+        <v>6.479064</v>
       </c>
       <c r="F175" t="n">
         <v>-0.04301075268817204</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05929168283875086</v>
+        <v>0.05934288172263535</v>
       </c>
       <c r="H175" t="n">
-        <v>6.519224</v>
+        <v>6.513704</v>
       </c>
       <c r="I175" t="n">
         <v>-0.02444444444444444</v>
@@ -9537,10 +9537,10 @@
         <v>-0.1259259259259259</v>
       </c>
       <c r="P175" t="n">
-        <v>6.492223978899203</v>
+        <v>6.486425024928821</v>
       </c>
       <c r="Q175" t="n">
-        <v>6.483562339188578</v>
+        <v>6.479576502957237</v>
       </c>
     </row>
     <row r="176">
@@ -9548,25 +9548,25 @@
         <v>45138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05012315871106932</v>
+        <v>0.05011585127239826</v>
       </c>
       <c r="C176" t="n">
-        <v>6.587265</v>
+        <v>6.591712</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05929168283875086</v>
+        <v>0.05934288172263535</v>
       </c>
       <c r="E176" t="n">
-        <v>6.587265</v>
+        <v>6.591712</v>
       </c>
       <c r="F176" t="n">
         <v>-0.02444444444444444</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05366834014242894</v>
+        <v>0.05371118342005765</v>
       </c>
       <c r="H176" t="n">
-        <v>6.482514</v>
+        <v>6.479064</v>
       </c>
       <c r="I176" t="n">
         <v>-0.03046594982078853</v>
@@ -9590,10 +9590,10 @@
         <v>-0.1387096774193548</v>
       </c>
       <c r="P176" t="n">
-        <v>6.455087757037965</v>
+        <v>6.451422035170424</v>
       </c>
       <c r="Q176" t="n">
-        <v>6.46728165186074</v>
+        <v>6.463629113278619</v>
       </c>
     </row>
     <row r="177">
@@ -9601,25 +9601,25 @@
         <v>45169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04953341353737439</v>
+        <v>0.04949698989823936</v>
       </c>
       <c r="C177" t="n">
-        <v>6.566095</v>
+        <v>6.570877</v>
       </c>
       <c r="D177" t="n">
-        <v>0.05366834014242894</v>
+        <v>0.05371118342005765</v>
       </c>
       <c r="E177" t="n">
-        <v>6.566095</v>
+        <v>6.570877</v>
       </c>
       <c r="F177" t="n">
         <v>-0.03046594982078853</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05012315871106932</v>
+        <v>0.05011585127239826</v>
       </c>
       <c r="H177" t="n">
-        <v>6.587265</v>
+        <v>6.591712</v>
       </c>
       <c r="I177" t="n">
         <v>-0.04372759856630824</v>
@@ -9643,10 +9643,10 @@
         <v>-0.08888888888888889</v>
       </c>
       <c r="P177" t="n">
-        <v>6.563369661604525</v>
+        <v>6.5678312783759</v>
       </c>
       <c r="Q177" t="n">
-        <v>6.56591002235607</v>
+        <v>6.570321759862047</v>
       </c>
     </row>
     <row r="178">
@@ -9654,25 +9654,25 @@
         <v>45199</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04185428774626931</v>
+        <v>0.04181480875543109</v>
       </c>
       <c r="C178" t="n">
-        <v>6.610459</v>
+        <v>6.618531</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05012315871106932</v>
+        <v>0.05011585127239826</v>
       </c>
       <c r="E178" t="n">
-        <v>6.610459</v>
+        <v>6.618531</v>
       </c>
       <c r="F178" t="n">
         <v>-0.04372759856630824</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04953341353737439</v>
+        <v>0.04949698989823936</v>
       </c>
       <c r="H178" t="n">
-        <v>6.566095</v>
+        <v>6.570877</v>
       </c>
       <c r="I178" t="n">
         <v>-0.04703703703703704</v>
@@ -9696,10 +9696,10 @@
         <v>-0.07063492063492063</v>
       </c>
       <c r="P178" t="n">
-        <v>6.5421574295417</v>
+        <v>6.54696225356418</v>
       </c>
       <c r="Q178" t="n">
-        <v>6.546475858214982</v>
+        <v>6.55109221383069</v>
       </c>
     </row>
     <row r="179">
@@ -9707,25 +9707,25 @@
         <v>45230</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02803465218996326</v>
+        <v>0.02800847702203058</v>
       </c>
       <c r="C179" t="n">
-        <v>6.625786</v>
+        <v>6.635965</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04953341353737439</v>
+        <v>0.04949698989823936</v>
       </c>
       <c r="E179" t="n">
-        <v>6.625786</v>
+        <v>6.635965</v>
       </c>
       <c r="F179" t="n">
         <v>-0.04703703703703704</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04185428774626931</v>
+        <v>0.04181480875543109</v>
       </c>
       <c r="H179" t="n">
-        <v>6.610459</v>
+        <v>6.618531</v>
       </c>
       <c r="I179" t="n">
         <v>-0.04372759856630824</v>
@@ -9749,10 +9749,10 @@
         <v>-0.05842293906810036</v>
       </c>
       <c r="P179" t="n">
-        <v>6.588154978627749</v>
+        <v>6.596329102833841</v>
       </c>
       <c r="Q179" t="n">
-        <v>6.588521715733481</v>
+        <v>6.596531938590124</v>
       </c>
     </row>
     <row r="180">
@@ -9760,25 +9760,25 @@
         <v>45260</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02432653006354979</v>
+        <v>0.02432744988160085</v>
       </c>
       <c r="C180" t="n">
-        <v>6.56203</v>
+        <v>6.56937</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04185428774626931</v>
+        <v>0.04181480875543109</v>
       </c>
       <c r="E180" t="n">
-        <v>6.56203</v>
+        <v>6.56937</v>
       </c>
       <c r="F180" t="n">
         <v>-0.04372759856630824</v>
       </c>
       <c r="G180" t="n">
-        <v>0.02803465218996326</v>
+        <v>0.02800847702203058</v>
       </c>
       <c r="H180" t="n">
-        <v>6.625786</v>
+        <v>6.635965</v>
       </c>
       <c r="I180" t="n">
         <v>-0.03703703703703704</v>
@@ -9802,10 +9802,10 @@
         <v>-0.05</v>
       </c>
       <c r="P180" t="n">
-        <v>6.604305764621986</v>
+        <v>6.614632711775068</v>
       </c>
       <c r="Q180" t="n">
-        <v>6.589292157280938</v>
+        <v>6.599689249659741</v>
       </c>
     </row>
     <row r="181">
@@ -9813,25 +9813,25 @@
         <v>45291</v>
       </c>
       <c r="B181" t="n">
-        <v>0.02893471837493244</v>
+        <v>0.0289411000246842</v>
       </c>
       <c r="C181" t="n">
-        <v>6.527727</v>
+        <v>6.52785</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02803465218996326</v>
+        <v>0.02800847702203058</v>
       </c>
       <c r="E181" t="n">
-        <v>6.527727</v>
+        <v>6.52785</v>
       </c>
       <c r="F181" t="n">
         <v>-0.03703703703703704</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02432653006354979</v>
+        <v>0.02432744988160085</v>
       </c>
       <c r="H181" t="n">
-        <v>6.56203</v>
+        <v>6.56937</v>
       </c>
       <c r="I181" t="n">
         <v>-0.05878136200716846</v>
@@ -9855,10 +9855,10 @@
         <v>-0.04301075268817204</v>
       </c>
       <c r="P181" t="n">
-        <v>6.539439651083937</v>
+        <v>6.546861353354478</v>
       </c>
       <c r="Q181" t="n">
-        <v>6.527954464933483</v>
+        <v>6.528159307930572</v>
       </c>
     </row>
     <row r="182">
@@ -9866,25 +9866,25 @@
         <v>45322</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02711398001039633</v>
+        <v>0.02714323358125181</v>
       </c>
       <c r="C182" t="n">
-        <v>6.553582</v>
+        <v>6.549942</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02432653006354979</v>
+        <v>0.02432744988160085</v>
       </c>
       <c r="E182" t="n">
-        <v>6.553582</v>
+        <v>6.549942</v>
       </c>
       <c r="F182" t="n">
         <v>-0.05878136200716846</v>
       </c>
       <c r="G182" t="n">
-        <v>0.02893471837493244</v>
+        <v>0.0289411000246842</v>
       </c>
       <c r="H182" t="n">
-        <v>6.527727</v>
+        <v>6.52785</v>
       </c>
       <c r="I182" t="n">
         <v>-0.06272401433691756</v>
@@ -9908,10 +9908,10 @@
         <v>-0.02444444444444444</v>
       </c>
       <c r="P182" t="n">
-        <v>6.504751134458369</v>
+        <v>6.504778678142083</v>
       </c>
       <c r="Q182" t="n">
-        <v>6.503937860940412</v>
+        <v>6.503941126109815</v>
       </c>
     </row>
     <row r="183">
@@ -9919,25 +9919,25 @@
         <v>45351</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02523930144066355</v>
+        <v>0.02525809793594647</v>
       </c>
       <c r="C183" t="n">
-        <v>6.552401</v>
+        <v>6.54624</v>
       </c>
       <c r="D183" t="n">
-        <v>0.02893471837493244</v>
+        <v>0.0289411000246842</v>
       </c>
       <c r="E183" t="n">
-        <v>6.552401</v>
+        <v>6.54624</v>
       </c>
       <c r="F183" t="n">
         <v>-0.06272401433691756</v>
       </c>
       <c r="G183" t="n">
-        <v>0.02711398001039633</v>
+        <v>0.02714323358125181</v>
       </c>
       <c r="H183" t="n">
-        <v>6.553582</v>
+        <v>6.549942</v>
       </c>
       <c r="I183" t="n">
         <v>-0.08237547892720307</v>
@@ -9961,10 +9961,10 @@
         <v>-0.03046594982078853</v>
       </c>
       <c r="P183" t="n">
-        <v>6.531683254929421</v>
+        <v>6.527860628237198</v>
       </c>
       <c r="Q183" t="n">
-        <v>6.537627394699336</v>
+        <v>6.533769242854896</v>
       </c>
     </row>
     <row r="184">
@@ -9972,25 +9972,25 @@
         <v>45382</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02400800972139283</v>
+        <v>0.02402944823209463</v>
       </c>
       <c r="C184" t="n">
-        <v>6.466306</v>
+        <v>6.460073</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02711398001039633</v>
+        <v>0.02714323358125181</v>
       </c>
       <c r="E184" t="n">
-        <v>6.466306</v>
+        <v>6.460073</v>
       </c>
       <c r="F184" t="n">
         <v>-0.08237547892720307</v>
       </c>
       <c r="G184" t="n">
-        <v>0.02523930144066355</v>
+        <v>0.02525809793594647</v>
       </c>
       <c r="H184" t="n">
-        <v>6.552401</v>
+        <v>6.54624</v>
       </c>
       <c r="I184" t="n">
         <v>-0.06236559139784946</v>
@@ -10014,10 +10014,10 @@
         <v>-0.04372759856630824</v>
       </c>
       <c r="P184" t="n">
-        <v>6.53089515636368</v>
+        <v>6.524496886438821</v>
       </c>
       <c r="Q184" t="n">
-        <v>6.502951540188795</v>
+        <v>6.496722875178818</v>
       </c>
     </row>
     <row r="185">
@@ -10025,25 +10025,25 @@
         <v>45412</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02350794193439221</v>
+        <v>0.02349666007117168</v>
       </c>
       <c r="C185" t="n">
-        <v>6.444818</v>
+        <v>6.429943</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02523930144066355</v>
+        <v>0.02525809793594647</v>
       </c>
       <c r="E185" t="n">
-        <v>6.444818</v>
+        <v>6.429943</v>
       </c>
       <c r="F185" t="n">
         <v>-0.06236559139784946</v>
       </c>
       <c r="G185" t="n">
-        <v>0.02400800972139283</v>
+        <v>0.02402944823209463</v>
       </c>
       <c r="H185" t="n">
-        <v>6.466306</v>
+        <v>6.460073</v>
       </c>
       <c r="I185" t="n">
         <v>-0.07962962962962963</v>
@@ -10067,10 +10067,10 @@
         <v>-0.04703703703703704</v>
       </c>
       <c r="P185" t="n">
-        <v>6.443202925612074</v>
+        <v>6.436726296121282</v>
       </c>
       <c r="Q185" t="n">
-        <v>6.442902005663933</v>
+        <v>6.429914037452186</v>
       </c>
     </row>
     <row r="186">
@@ -10078,25 +10078,25 @@
         <v>45443</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02543159781594007</v>
+        <v>0.02549795980241853</v>
       </c>
       <c r="C186" t="n">
-        <v>6.422348</v>
+        <v>6.406699</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02400800972139283</v>
+        <v>0.02402944823209463</v>
       </c>
       <c r="E186" t="n">
-        <v>6.422348</v>
+        <v>6.406699</v>
       </c>
       <c r="F186" t="n">
         <v>-0.07962962962962963</v>
       </c>
       <c r="G186" t="n">
-        <v>0.02350794193439221</v>
+        <v>0.02349666007117168</v>
       </c>
       <c r="H186" t="n">
-        <v>6.444818</v>
+        <v>6.429943</v>
       </c>
       <c r="I186" t="n">
         <v>-0.08888888888888889</v>
@@ -10120,10 +10120,10 @@
         <v>-0.04372759856630824</v>
       </c>
       <c r="P186" t="n">
-        <v>6.421651461364284</v>
+        <v>6.406329260457229</v>
       </c>
       <c r="Q186" t="n">
-        <v>6.415458529238877</v>
+        <v>6.400285179454328</v>
       </c>
     </row>
     <row r="187">
@@ -10131,25 +10131,25 @@
         <v>45473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0247527332351769</v>
+        <v>0.02478831214225696</v>
       </c>
       <c r="C187" t="n">
-        <v>6.417635</v>
+        <v>6.399597</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02350794193439221</v>
+        <v>0.02349666007117168</v>
       </c>
       <c r="E187" t="n">
-        <v>6.417635</v>
+        <v>6.399597</v>
       </c>
       <c r="F187" t="n">
         <v>-0.08888888888888889</v>
       </c>
       <c r="G187" t="n">
-        <v>0.02543159781594007</v>
+        <v>0.02549795980241853</v>
       </c>
       <c r="H187" t="n">
-        <v>6.422348</v>
+        <v>6.406699</v>
       </c>
       <c r="I187" t="n">
         <v>-0.06259259259259259</v>
@@ -10173,10 +10173,10 @@
         <v>-0.03703703703703704</v>
       </c>
       <c r="P187" t="n">
-        <v>6.399095900900006</v>
+        <v>6.382987787080918</v>
       </c>
       <c r="Q187" t="n">
-        <v>6.388194034755315</v>
+        <v>6.372222295461173</v>
       </c>
     </row>
     <row r="188">
@@ -10184,25 +10184,25 @@
         <v>45504</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02498927770572745</v>
+        <v>0.02474399201726207</v>
       </c>
       <c r="C188" t="n">
-        <v>6.383401</v>
+        <v>6.39693</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02543159781594007</v>
+        <v>0.02549795980241853</v>
       </c>
       <c r="E188" t="n">
-        <v>6.383401</v>
+        <v>6.39693</v>
       </c>
       <c r="F188" t="n">
         <v>-0.06259259259259259</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0247527332351769</v>
+        <v>0.02478831214225696</v>
       </c>
       <c r="H188" t="n">
-        <v>6.417635</v>
+        <v>6.399597</v>
       </c>
       <c r="I188" t="n">
         <v>-0.04336917562724014</v>
@@ -10226,10 +10226,10 @@
         <v>-0.05878136200716846</v>
       </c>
       <c r="P188" t="n">
-        <v>6.394714560807598</v>
+        <v>6.37617219768113</v>
       </c>
       <c r="Q188" t="n">
-        <v>6.383570912154247</v>
+        <v>6.401211405918655</v>
       </c>
     </row>
     <row r="189">
@@ -10237,25 +10237,25 @@
         <v>45535</v>
       </c>
       <c r="B189" t="n">
-        <v>0.02066570365424703</v>
+        <v>0.0206293957257877</v>
       </c>
       <c r="C189" t="n">
-        <v>6.316793</v>
+        <v>6.331176</v>
       </c>
       <c r="D189" t="n">
-        <v>0.0247527332351769</v>
+        <v>0.02478831214225696</v>
       </c>
       <c r="E189" t="n">
-        <v>6.316793</v>
+        <v>6.331176</v>
       </c>
       <c r="F189" t="n">
         <v>-0.04336917562724014</v>
       </c>
       <c r="G189" t="n">
-        <v>0.02498927770572745</v>
+        <v>0.02474399201726207</v>
       </c>
       <c r="H189" t="n">
-        <v>6.383401</v>
+        <v>6.39693</v>
       </c>
       <c r="I189" t="n">
         <v>-0.01612903225806452</v>
@@ -10279,10 +10279,10 @@
         <v>-0.06272401433691756</v>
       </c>
       <c r="P189" t="n">
-        <v>6.3601198088597</v>
+        <v>6.373884748785501</v>
       </c>
       <c r="Q189" t="n">
-        <v>6.346210668409418</v>
+        <v>6.360058600086548</v>
       </c>
     </row>
     <row r="190">
@@ -10290,25 +10290,25 @@
         <v>45565</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01712308219350778</v>
+        <v>0.01709736358990366</v>
       </c>
       <c r="C190" t="n">
-        <v>6.309784</v>
+        <v>6.320052</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02498927770572745</v>
+        <v>0.02474399201726207</v>
       </c>
       <c r="E190" t="n">
-        <v>6.309784</v>
+        <v>6.320052</v>
       </c>
       <c r="F190" t="n">
         <v>-0.01612903225806452</v>
       </c>
       <c r="G190" t="n">
-        <v>0.02066570365424703</v>
+        <v>0.0206293957257877</v>
       </c>
       <c r="H190" t="n">
-        <v>6.316793</v>
+        <v>6.331176</v>
       </c>
       <c r="I190" t="n">
         <v>-0.05222222222222222</v>
@@ -10332,10 +10332,10 @@
         <v>-0.08237547892720307</v>
       </c>
       <c r="P190" t="n">
-        <v>6.292400050846664</v>
+        <v>6.307042723262012</v>
       </c>
       <c r="Q190" t="n">
-        <v>6.310795715416124</v>
+        <v>6.325323199855599</v>
       </c>
     </row>
     <row r="191">
@@ -10343,25 +10343,25 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>0.01983368945506392</v>
+        <v>0.0198189209894073</v>
       </c>
       <c r="C191" t="n">
-        <v>6.247032</v>
+        <v>6.260785</v>
       </c>
       <c r="D191" t="n">
-        <v>0.02066570365424703</v>
+        <v>0.0206293957257877</v>
       </c>
       <c r="E191" t="n">
-        <v>6.247032</v>
+        <v>6.260785</v>
       </c>
       <c r="F191" t="n">
         <v>-0.05222222222222222</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01712308219350778</v>
+        <v>0.01709736358990366</v>
       </c>
       <c r="H191" t="n">
-        <v>6.309784</v>
+        <v>6.320052</v>
       </c>
       <c r="I191" t="n">
         <v>-0.07204301075268818</v>
@@ -10385,10 +10385,10 @@
         <v>-0.06236559139784946</v>
       </c>
       <c r="P191" t="n">
-        <v>6.285688130656149</v>
+        <v>6.296113249598712</v>
       </c>
       <c r="Q191" t="n">
-        <v>6.271748873554777</v>
+        <v>6.282157005516861</v>
       </c>
     </row>
     <row r="192">
@@ -10396,25 +10396,25 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02242474548233186</v>
+        <v>0.02243158738712658</v>
       </c>
       <c r="C192" t="n">
-        <v>6.204548</v>
+        <v>6.218895</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01712308219350778</v>
+        <v>0.01709736358990366</v>
       </c>
       <c r="E192" t="n">
-        <v>6.204548</v>
+        <v>6.218895</v>
       </c>
       <c r="F192" t="n">
         <v>-0.07204301075268818</v>
       </c>
       <c r="G192" t="n">
-        <v>0.01983368945506392</v>
+        <v>0.0198189209894073</v>
       </c>
       <c r="H192" t="n">
-        <v>6.247032</v>
+        <v>6.260785</v>
       </c>
       <c r="I192" t="n">
         <v>-0.07111111111111111</v>
@@ -10438,10 +10438,10 @@
         <v>-0.07962962962962963</v>
       </c>
       <c r="P192" t="n">
-        <v>6.221924258732683</v>
+        <v>6.235918113247399</v>
       </c>
       <c r="Q192" t="n">
-        <v>6.208477049000202</v>
+        <v>6.222418749856771</v>
       </c>
     </row>
     <row r="193">
@@ -10449,25 +10449,25 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.02427983053557714</v>
+        <v>0.0242948180476299</v>
       </c>
       <c r="C193" t="n">
-        <v>6.25734</v>
+        <v>6.264913</v>
       </c>
       <c r="D193" t="n">
-        <v>0.01983368945506392</v>
+        <v>0.0198189209894073</v>
       </c>
       <c r="E193" t="n">
-        <v>6.25734</v>
+        <v>6.264913</v>
       </c>
       <c r="F193" t="n">
         <v>-0.07111111111111111</v>
       </c>
       <c r="G193" t="n">
-        <v>0.02242474548233186</v>
+        <v>0.02243158738712658</v>
       </c>
       <c r="H193" t="n">
-        <v>6.204548</v>
+        <v>6.218895</v>
       </c>
       <c r="I193" t="n">
         <v>-0.07491039426523298</v>
@@ -10491,10 +10491,10 @@
         <v>-0.08888888888888889</v>
       </c>
       <c r="P193" t="n">
-        <v>6.178911754765085</v>
+        <v>6.193512874251249</v>
       </c>
       <c r="Q193" t="n">
-        <v>6.184566046948468</v>
+        <v>6.19917177029484</v>
       </c>
     </row>
     <row r="194">
@@ -10502,25 +10502,25 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02453896758531737</v>
+        <v>0.02466817192499793</v>
       </c>
       <c r="C194" t="n">
-        <v>6.31373</v>
+        <v>6.314188</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02242474548233186</v>
+        <v>0.02243158738712658</v>
       </c>
       <c r="E194" t="n">
-        <v>6.31373</v>
+        <v>6.314188</v>
       </c>
       <c r="F194" t="n">
         <v>-0.07491039426523298</v>
       </c>
       <c r="G194" t="n">
-        <v>0.02427983053557714</v>
+        <v>0.0242948180476299</v>
       </c>
       <c r="H194" t="n">
-        <v>6.25734</v>
+        <v>6.264913</v>
       </c>
       <c r="I194" t="n">
         <v>-0.0910394265232975</v>
@@ -10544,10 +10544,10 @@
         <v>-0.06259259259259259</v>
       </c>
       <c r="P194" t="n">
-        <v>6.233413857213173</v>
+        <v>6.24106967904414</v>
       </c>
       <c r="Q194" t="n">
-        <v>6.231899993402215</v>
+        <v>6.239448974201944</v>
       </c>
     </row>
     <row r="195">
@@ -10555,25 +10555,25 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02270510173520535</v>
+        <v>0.02273024587889072</v>
       </c>
       <c r="C195" t="n">
-        <v>6.309195</v>
+        <v>6.310802</v>
       </c>
       <c r="D195" t="n">
-        <v>0.02427983053557714</v>
+        <v>0.0242948180476299</v>
       </c>
       <c r="E195" t="n">
-        <v>6.309195</v>
+        <v>6.310802</v>
       </c>
       <c r="F195" t="n">
         <v>-0.0910394265232975</v>
       </c>
       <c r="G195" t="n">
-        <v>0.02453896758531737</v>
+        <v>0.02466817192499793</v>
       </c>
       <c r="H195" t="n">
-        <v>6.31373</v>
+        <v>6.314188</v>
       </c>
       <c r="I195" t="n">
         <v>-0.07738095238095237</v>
@@ -10597,10 +10597,10 @@
         <v>-0.04336917562724014</v>
       </c>
       <c r="P195" t="n">
-        <v>6.291480735627426</v>
+        <v>6.291859917224985</v>
       </c>
       <c r="Q195" t="n">
-        <v>6.285201516130047</v>
+        <v>6.285621033255934</v>
       </c>
     </row>
     <row r="196">
@@ -10608,25 +10608,25 @@
         <v>45747</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02154516241887006</v>
+        <v>0.02156473579725304</v>
       </c>
       <c r="C196" t="n">
-        <v>6.377829</v>
+        <v>6.386192</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02453896758531737</v>
+        <v>0.02466817192499793</v>
       </c>
       <c r="E196" t="n">
-        <v>6.377829</v>
+        <v>6.386192</v>
       </c>
       <c r="F196" t="n">
         <v>-0.07738095238095237</v>
       </c>
       <c r="G196" t="n">
-        <v>0.02270510173520535</v>
+        <v>0.02273024587889072</v>
       </c>
       <c r="H196" t="n">
-        <v>6.309195</v>
+        <v>6.310802</v>
       </c>
       <c r="I196" t="n">
         <v>-0.0827956989247312</v>
@@ -10650,10 +10650,10 @@
         <v>-0.01612903225806452</v>
       </c>
       <c r="P196" t="n">
-        <v>6.287233446086901</v>
+        <v>6.288787389501814</v>
       </c>
       <c r="Q196" t="n">
-        <v>6.301814056938468</v>
+        <v>6.303371439920266</v>
       </c>
     </row>
     <row r="197">
@@ -10661,25 +10661,25 @@
         <v>45777</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02113449834018866</v>
+        <v>0.02113664843687157</v>
       </c>
       <c r="C197" t="n">
-        <v>6.24951</v>
+        <v>6.318358</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02270510173520535</v>
+        <v>0.02273024587889072</v>
       </c>
       <c r="E197" t="n">
-        <v>6.24951</v>
+        <v>6.318358</v>
       </c>
       <c r="F197" t="n">
         <v>-0.0827956989247312</v>
       </c>
       <c r="G197" t="n">
-        <v>0.02154516241887006</v>
+        <v>0.02156473579725304</v>
       </c>
       <c r="H197" t="n">
-        <v>6.377829</v>
+        <v>6.386192</v>
       </c>
       <c r="I197" t="n">
         <v>-0.04185185185185185</v>
@@ -10703,10 +10703,10 @@
         <v>-0.05222222222222222</v>
       </c>
       <c r="P197" t="n">
-        <v>6.357653363926445</v>
+        <v>6.36610198720235</v>
       </c>
       <c r="Q197" t="n">
-        <v>6.337611746368872</v>
+        <v>6.346041192715973</v>
       </c>
     </row>
     <row r="198">
@@ -10714,25 +10714,25 @@
         <v>45808</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01868735027450175</v>
+        <v>0.01870583309510199</v>
       </c>
       <c r="C198" t="n">
-        <v>6.275222</v>
+        <v>6.366002</v>
       </c>
       <c r="D198" t="n">
-        <v>0.02154516241887006</v>
+        <v>0.02156473579725304</v>
       </c>
       <c r="E198" t="n">
-        <v>6.275222</v>
+        <v>6.366002</v>
       </c>
       <c r="F198" t="n">
         <v>-0.04185185185185185</v>
       </c>
       <c r="G198" t="n">
-        <v>0.02113449834018866</v>
+        <v>0.02113664843687157</v>
       </c>
       <c r="H198" t="n">
-        <v>6.24951</v>
+        <v>6.318358</v>
       </c>
       <c r="I198" t="n">
         <v>-0.06344086021505375</v>
@@ -10756,10 +10756,10 @@
         <v>-0.07204301075268818</v>
       </c>
       <c r="P198" t="n">
-        <v>6.22707066670447</v>
+        <v>6.297243553281449</v>
       </c>
       <c r="Q198" t="n">
-        <v>6.241420434912537</v>
+        <v>6.31108017770256</v>
       </c>
     </row>
     <row r="199">
@@ -10767,24 +10767,28 @@
         <v>45838</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01967408728367559</v>
-      </c>
-      <c r="C199" t="inlineStr"/>
+        <v>0.01979564770349462</v>
+      </c>
+      <c r="C199" t="n">
+        <v>6.33645</v>
+      </c>
       <c r="D199" t="n">
-        <v>0.02113449834018866</v>
-      </c>
-      <c r="E199" t="inlineStr"/>
+        <v>0.02113664843687157</v>
+      </c>
+      <c r="E199" t="n">
+        <v>6.33645</v>
+      </c>
       <c r="F199" t="n">
         <v>-0.06344086021505375</v>
       </c>
       <c r="G199" t="n">
-        <v>0.01868735027450175</v>
+        <v>0.01870583309510199</v>
       </c>
       <c r="H199" t="n">
-        <v>6.275222</v>
+        <v>6.366002</v>
       </c>
       <c r="I199" t="n">
-        <v>-0.07333333333333333</v>
+        <v>-0.06333333333333332</v>
       </c>
       <c r="J199" t="n">
         <v>-0.04185185185185185</v>
@@ -10805,30 +10809,40 @@
         <v>-0.07111111111111111</v>
       </c>
       <c r="P199" t="n">
-        <v>6.25369579075046</v>
+        <v>6.346180308767696</v>
       </c>
       <c r="Q199" t="n">
-        <v>6.241944625759683</v>
+        <v>6.336767450543245</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
         <v>45869</v>
       </c>
-      <c r="B200" t="inlineStr"/>
-      <c r="C200" t="inlineStr"/>
+      <c r="B200" t="n">
+        <v>0.02035859126065098</v>
+      </c>
+      <c r="C200" t="n">
+        <v>6.248858</v>
+      </c>
       <c r="D200" t="n">
-        <v>0.01868735027450175</v>
-      </c>
-      <c r="E200" t="inlineStr"/>
+        <v>0.01870583309510199</v>
+      </c>
+      <c r="E200" t="n">
+        <v>6.248858</v>
+      </c>
       <c r="F200" t="n">
-        <v>-0.07333333333333333</v>
+        <v>-0.06333333333333332</v>
       </c>
       <c r="G200" t="n">
-        <v>0.01967408728367559</v>
-      </c>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
+        <v>0.01979564770349462</v>
+      </c>
+      <c r="H200" t="n">
+        <v>6.33645</v>
+      </c>
+      <c r="I200" t="n">
+        <v>-0.06021505376344086</v>
+      </c>
       <c r="J200" t="n">
         <v>-0.06344086021505375</v>
       </c>
@@ -10847,8 +10861,153 @@
       <c r="O200" t="n">
         <v>-0.07491039426523298</v>
       </c>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
+      <c r="P200" t="n">
+        <v>6.316370881302427</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>6.296843339421272</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.02066013950474943</v>
+      </c>
+      <c r="C201" t="n">
+        <v>6.25288</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0.01979564770349462</v>
+      </c>
+      <c r="E201" t="n">
+        <v>6.25288</v>
+      </c>
+      <c r="F201" t="n">
+        <v>-0.06021505376344086</v>
+      </c>
+      <c r="G201" t="n">
+        <v>0.02035859126065098</v>
+      </c>
+      <c r="H201" t="n">
+        <v>6.248858</v>
+      </c>
+      <c r="I201" t="n">
+        <v>-0.03154121863799283</v>
+      </c>
+      <c r="J201" t="n">
+        <v>-0.06333333333333332</v>
+      </c>
+      <c r="K201" t="n">
+        <v>-0.06344086021505375</v>
+      </c>
+      <c r="L201" t="n">
+        <v>-0.04185185185185185</v>
+      </c>
+      <c r="M201" t="n">
+        <v>-0.0827956989247312</v>
+      </c>
+      <c r="N201" t="n">
+        <v>-0.07738095238095237</v>
+      </c>
+      <c r="O201" t="n">
+        <v>-0.0910394265232975</v>
+      </c>
+      <c r="P201" t="n">
+        <v>6.22738517536982</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>6.247092324654383</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>45930</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.02225768709807419</v>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="n">
+        <v>0.02035859126065098</v>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="n">
+        <v>-0.03154121863799283</v>
+      </c>
+      <c r="G202" t="n">
+        <v>0.02066013950474943</v>
+      </c>
+      <c r="H202" t="n">
+        <v>6.25288</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0.03111111111111111</v>
+      </c>
+      <c r="J202" t="n">
+        <v>-0.06021505376344086</v>
+      </c>
+      <c r="K202" t="n">
+        <v>-0.06333333333333332</v>
+      </c>
+      <c r="L202" t="n">
+        <v>-0.06344086021505375</v>
+      </c>
+      <c r="M202" t="n">
+        <v>-0.04185185185185185</v>
+      </c>
+      <c r="N202" t="n">
+        <v>-0.0827956989247312</v>
+      </c>
+      <c r="O202" t="n">
+        <v>-0.07738095238095237</v>
+      </c>
+      <c r="P202" t="n">
+        <v>6.231833877569863</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>6.243272600590083</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>45961</v>
+      </c>
+      <c r="B203" t="inlineStr"/>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="n">
+        <v>0.02066013950474943</v>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="n">
+        <v>0.03111111111111111</v>
+      </c>
+      <c r="G203" t="n">
+        <v>0.02225768709807419</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>-0.03154121863799283</v>
+      </c>
+      <c r="K203" t="n">
+        <v>-0.06021505376344086</v>
+      </c>
+      <c r="L203" t="n">
+        <v>-0.06333333333333332</v>
+      </c>
+      <c r="M203" t="n">
+        <v>-0.06344086021505375</v>
+      </c>
+      <c r="N203" t="n">
+        <v>-0.04185185185185185</v>
+      </c>
+      <c r="O203" t="n">
+        <v>-0.0827956989247312</v>
+      </c>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Unemployment_europe_optimized.xlsx
+++ b/Unemployment_europe_optimized.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q203"/>
+  <dimension ref="A1:Q204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -526,23 +526,23 @@
         <v>39844</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01171143133479635</v>
+        <v>0.01171314691709746</v>
       </c>
       <c r="C2" t="n">
-        <v>8.764289</v>
+        <v>8.763353</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0208471246778954</v>
+        <v>0.02086063436209606</v>
       </c>
       <c r="E2" t="n">
-        <v>8.764289</v>
+        <v>8.763353</v>
       </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>0.01554643845067272</v>
+        <v>0.01554455162325041</v>
       </c>
       <c r="H2" t="n">
-        <v>8.366698</v>
+        <v>8.364596000000001</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -563,23 +563,23 @@
         <v>39872</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01192840462015798</v>
+        <v>0.01192328988421654</v>
       </c>
       <c r="C3" t="n">
-        <v>9.064427</v>
+        <v>9.065103000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01554643845067272</v>
+        <v>0.01554455162325041</v>
       </c>
       <c r="E3" t="n">
-        <v>9.064427</v>
+        <v>9.065103000000001</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>0.01171143133479635</v>
+        <v>0.01171314691709746</v>
       </c>
       <c r="H3" t="n">
-        <v>8.764289</v>
+        <v>8.763353</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -600,23 +600,23 @@
         <v>39903</v>
       </c>
       <c r="B4" t="n">
-        <v>0.00613839843330144</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="C4" t="n">
-        <v>9.352717</v>
+        <v>9.352830000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01171143133479635</v>
+        <v>0.01171314691709746</v>
       </c>
       <c r="E4" t="n">
-        <v>9.352717</v>
+        <v>9.352830000000001</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>0.01192840462015798</v>
+        <v>0.01192328988421654</v>
       </c>
       <c r="H4" t="n">
-        <v>9.064427</v>
+        <v>9.065103000000001</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -637,23 +637,23 @@
         <v>39933</v>
       </c>
       <c r="B5" t="n">
-        <v>0.005457274900861009</v>
+        <v>0.005450353420584086</v>
       </c>
       <c r="C5" t="n">
-        <v>9.522683000000001</v>
+        <v>9.523436999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01192840462015798</v>
+        <v>0.01192328988421654</v>
       </c>
       <c r="E5" t="n">
-        <v>9.522683000000001</v>
+        <v>9.523436999999999</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>0.00613839843330144</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="H5" t="n">
-        <v>9.352717</v>
+        <v>9.352830000000001</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -674,23 +674,23 @@
         <v>39964</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003672799605709542</v>
+        <v>0.0003681600905229843</v>
       </c>
       <c r="C6" t="n">
-        <v>9.633267</v>
+        <v>9.634247</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00613839843330144</v>
+        <v>0.006145556792586326</v>
       </c>
       <c r="E6" t="n">
-        <v>9.633267</v>
+        <v>9.634247</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="n">
-        <v>0.005457274900861009</v>
+        <v>0.005450353420584086</v>
       </c>
       <c r="H6" t="n">
-        <v>9.522683000000001</v>
+        <v>9.523436999999999</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -711,23 +711,23 @@
         <v>39994</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.00158444800632207</v>
+        <v>-0.001580760481207477</v>
       </c>
       <c r="C7" t="n">
-        <v>9.712776</v>
+        <v>9.714198</v>
       </c>
       <c r="D7" t="n">
-        <v>0.005457274900861009</v>
+        <v>0.005450353420584086</v>
       </c>
       <c r="E7" t="n">
-        <v>9.712776</v>
+        <v>9.714198</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="n">
-        <v>0.0003672799605709542</v>
+        <v>0.0003681600905229843</v>
       </c>
       <c r="H7" t="n">
-        <v>9.633267</v>
+        <v>9.634247</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -748,23 +748,23 @@
         <v>40025</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.006189784594825554</v>
+        <v>-0.00618442829250121</v>
       </c>
       <c r="C8" t="n">
-        <v>9.814273999999999</v>
+        <v>9.815184</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0003672799605709542</v>
+        <v>0.0003681600905229843</v>
       </c>
       <c r="E8" t="n">
-        <v>9.814273999999999</v>
+        <v>9.815184</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="n">
-        <v>-0.00158444800632207</v>
+        <v>-0.001580760481207477</v>
       </c>
       <c r="H8" t="n">
-        <v>9.712776</v>
+        <v>9.714198</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -785,23 +785,23 @@
         <v>40056</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.001699426518179337</v>
+        <v>-0.001699283073599567</v>
       </c>
       <c r="C9" t="n">
-        <v>9.878919</v>
+        <v>9.879878</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.00158444800632207</v>
+        <v>-0.001580760481207477</v>
       </c>
       <c r="E9" t="n">
-        <v>9.878919</v>
+        <v>9.879878</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>-0.006189784594825554</v>
+        <v>-0.00618442829250121</v>
       </c>
       <c r="H9" t="n">
-        <v>9.814273999999999</v>
+        <v>9.815184</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -822,23 +822,23 @@
         <v>40086</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.003287467395320043</v>
+        <v>-0.003297269701566741</v>
       </c>
       <c r="C10" t="n">
-        <v>10.015294</v>
+        <v>10.016077</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.006189784594825554</v>
+        <v>-0.00618442829250121</v>
       </c>
       <c r="E10" t="n">
-        <v>10.015294</v>
+        <v>10.016077</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="n">
-        <v>-0.001699426518179337</v>
+        <v>-0.001699283073599567</v>
       </c>
       <c r="H10" t="n">
-        <v>9.878919</v>
+        <v>9.879878</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -859,23 +859,23 @@
         <v>40117</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.001692217473184598</v>
+        <v>-0.001693310024998063</v>
       </c>
       <c r="C11" t="n">
-        <v>10.089291</v>
+        <v>10.089081</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.001699426518179337</v>
+        <v>-0.001699283073599567</v>
       </c>
       <c r="E11" t="n">
-        <v>10.089291</v>
+        <v>10.089081</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>-0.003287467395320043</v>
+        <v>-0.003297269701566741</v>
       </c>
       <c r="H11" t="n">
-        <v>10.015294</v>
+        <v>10.016077</v>
       </c>
       <c r="I11" t="n">
         <v>-0.001587301587301587</v>
@@ -898,25 +898,25 @@
         <v>40147</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004516071339551786</v>
+        <v>0.004524108573590979</v>
       </c>
       <c r="C12" t="n">
-        <v>10.161313</v>
+        <v>10.159819</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.003287467395320043</v>
+        <v>-0.003297269701566741</v>
       </c>
       <c r="E12" t="n">
-        <v>10.161313</v>
+        <v>10.159819</v>
       </c>
       <c r="F12" t="n">
         <v>-0.001587301587301587</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.001692217473184598</v>
+        <v>-0.001693310024998063</v>
       </c>
       <c r="H12" t="n">
-        <v>10.089291</v>
+        <v>10.089081</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -939,25 +939,25 @@
         <v>40178</v>
       </c>
       <c r="B13" t="n">
-        <v>0.008841684252558935</v>
+        <v>0.008841269349860958</v>
       </c>
       <c r="C13" t="n">
-        <v>10.154087</v>
+        <v>10.152165</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.001692217473184598</v>
+        <v>-0.001693310024998063</v>
       </c>
       <c r="E13" t="n">
-        <v>10.154087</v>
+        <v>10.152165</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.004516071339551786</v>
+        <v>0.004524108573590979</v>
       </c>
       <c r="H13" t="n">
-        <v>10.161313</v>
+        <v>10.159819</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>40209</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01107037832058655</v>
+        <v>0.01106663128637031</v>
       </c>
       <c r="C14" t="n">
-        <v>10.256235</v>
+        <v>10.253826</v>
       </c>
       <c r="D14" t="n">
-        <v>0.004516071339551786</v>
+        <v>0.004524108573590979</v>
       </c>
       <c r="E14" t="n">
-        <v>10.256235</v>
+        <v>10.253826</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.008841684252558935</v>
+        <v>0.008841269349860958</v>
       </c>
       <c r="H14" t="n">
-        <v>10.154087</v>
+        <v>10.152165</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1027,25 +1027,25 @@
         <v>40237</v>
       </c>
       <c r="B15" t="n">
-        <v>0.009892367536026292</v>
+        <v>0.009896103900239872</v>
       </c>
       <c r="C15" t="n">
-        <v>10.290367</v>
+        <v>10.290122</v>
       </c>
       <c r="D15" t="n">
-        <v>0.008841684252558935</v>
+        <v>0.008841269349860958</v>
       </c>
       <c r="E15" t="n">
-        <v>10.290367</v>
+        <v>10.290122</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01107037832058655</v>
+        <v>0.01106663128637031</v>
       </c>
       <c r="H15" t="n">
-        <v>10.256235</v>
+        <v>10.253826</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1074,25 +1074,25 @@
         <v>40268</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0144215167549433</v>
+        <v>0.01443046844672313</v>
       </c>
       <c r="C16" t="n">
-        <v>10.269478</v>
+        <v>10.270656</v>
       </c>
       <c r="D16" t="n">
-        <v>0.01107037832058655</v>
+        <v>0.01106663128637031</v>
       </c>
       <c r="E16" t="n">
-        <v>10.269478</v>
+        <v>10.270656</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.009892367536026292</v>
+        <v>0.009896103900239872</v>
       </c>
       <c r="H16" t="n">
-        <v>10.290367</v>
+        <v>10.290122</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1123,25 +1123,25 @@
         <v>40298</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01627423443708498</v>
+        <v>0.01625950859130754</v>
       </c>
       <c r="C17" t="n">
-        <v>10.359366</v>
+        <v>10.361895</v>
       </c>
       <c r="D17" t="n">
-        <v>0.009892367536026292</v>
+        <v>0.009896103900239872</v>
       </c>
       <c r="E17" t="n">
-        <v>10.359366</v>
+        <v>10.361895</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0144215167549433</v>
+        <v>0.01443046844672313</v>
       </c>
       <c r="H17" t="n">
-        <v>10.269478</v>
+        <v>10.270656</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1174,25 +1174,25 @@
         <v>40329</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01620463439353781</v>
+        <v>0.01620800309818105</v>
       </c>
       <c r="C18" t="n">
-        <v>10.357245</v>
+        <v>10.358712</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0144215167549433</v>
+        <v>0.01443046844672313</v>
       </c>
       <c r="E18" t="n">
-        <v>10.357245</v>
+        <v>10.358712</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01627423443708498</v>
+        <v>0.01625950859130754</v>
       </c>
       <c r="H18" t="n">
-        <v>10.359366</v>
+        <v>10.361895</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1227,25 +1227,25 @@
         <v>40359</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01425146090448681</v>
+        <v>0.01425843951582095</v>
       </c>
       <c r="C19" t="n">
-        <v>10.314432</v>
+        <v>10.316457</v>
       </c>
       <c r="D19" t="n">
-        <v>0.01627423443708498</v>
+        <v>0.01625950859130754</v>
       </c>
       <c r="E19" t="n">
-        <v>10.314432</v>
+        <v>10.316457</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01620463439353781</v>
+        <v>0.01620800309818105</v>
       </c>
       <c r="H19" t="n">
-        <v>10.357245</v>
+        <v>10.358712</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1280,25 +1280,25 @@
         <v>40390</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01735141931976525</v>
+        <v>0.01735012482526255</v>
       </c>
       <c r="C20" t="n">
-        <v>10.253614</v>
+        <v>10.25381</v>
       </c>
       <c r="D20" t="n">
-        <v>0.01620463439353781</v>
+        <v>0.01620800309818105</v>
       </c>
       <c r="E20" t="n">
-        <v>10.253614</v>
+        <v>10.25381</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01425146090448681</v>
+        <v>0.01425843951582095</v>
       </c>
       <c r="H20" t="n">
-        <v>10.314432</v>
+        <v>10.316457</v>
       </c>
       <c r="I20" t="n">
         <v>0.005376344086021506</v>
@@ -1333,25 +1333,25 @@
         <v>40421</v>
       </c>
       <c r="B21" t="n">
-        <v>0.01577172605189325</v>
+        <v>0.01576947668588424</v>
       </c>
       <c r="C21" t="n">
-        <v>10.229494</v>
+        <v>10.229262</v>
       </c>
       <c r="D21" t="n">
-        <v>0.01425146090448681</v>
+        <v>0.01425843951582095</v>
       </c>
       <c r="E21" t="n">
-        <v>10.229494</v>
+        <v>10.229262</v>
       </c>
       <c r="F21" t="n">
         <v>0.005376344086021506</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01735141931976525</v>
+        <v>0.01735012482526255</v>
       </c>
       <c r="H21" t="n">
-        <v>10.253614</v>
+        <v>10.25381</v>
       </c>
       <c r="I21" t="n">
         <v>0.007885304659498209</v>
@@ -1386,25 +1386,25 @@
         <v>40451</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0174957260794697</v>
+        <v>0.0174916007599224</v>
       </c>
       <c r="C22" t="n">
-        <v>10.231424</v>
+        <v>10.231622</v>
       </c>
       <c r="D22" t="n">
-        <v>0.01735141931976525</v>
+        <v>0.01735012482526255</v>
       </c>
       <c r="E22" t="n">
-        <v>10.231424</v>
+        <v>10.231622</v>
       </c>
       <c r="F22" t="n">
         <v>0.007885304659498209</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01577172605189325</v>
+        <v>0.01576947668588424</v>
       </c>
       <c r="H22" t="n">
-        <v>10.229494</v>
+        <v>10.229262</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -1439,25 +1439,25 @@
         <v>40482</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01902028758192653</v>
+        <v>0.01902622296113243</v>
       </c>
       <c r="C23" t="n">
-        <v>10.257245</v>
+        <v>10.260825</v>
       </c>
       <c r="D23" t="n">
-        <v>0.01577172605189325</v>
+        <v>0.01576947668588424</v>
       </c>
       <c r="E23" t="n">
-        <v>10.257245</v>
+        <v>10.260825</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0174957260794697</v>
+        <v>0.0174916007599224</v>
       </c>
       <c r="H23" t="n">
-        <v>10.231424</v>
+        <v>10.231622</v>
       </c>
       <c r="I23" t="n">
         <v>-0.006093189964157706</v>
@@ -1492,25 +1492,25 @@
         <v>40512</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01887916441100757</v>
+        <v>0.01887469630898142</v>
       </c>
       <c r="C24" t="n">
-        <v>10.207501</v>
+        <v>10.207567</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0174957260794697</v>
+        <v>0.0174916007599224</v>
       </c>
       <c r="E24" t="n">
-        <v>10.207501</v>
+        <v>10.207567</v>
       </c>
       <c r="F24" t="n">
         <v>-0.006093189964157706</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01902028758192653</v>
+        <v>0.01902622296113243</v>
       </c>
       <c r="H24" t="n">
-        <v>10.257245</v>
+        <v>10.260825</v>
       </c>
       <c r="I24" t="n">
         <v>-0.007407407407407408</v>
@@ -1545,25 +1545,25 @@
         <v>40543</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02175191293874779</v>
+        <v>0.02175202293071354</v>
       </c>
       <c r="C25" t="n">
-        <v>10.196399</v>
+        <v>10.195228</v>
       </c>
       <c r="D25" t="n">
-        <v>0.01902028758192653</v>
+        <v>0.01902622296113243</v>
       </c>
       <c r="E25" t="n">
-        <v>10.196399</v>
+        <v>10.195228</v>
       </c>
       <c r="F25" t="n">
         <v>-0.007407407407407408</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01887916441100757</v>
+        <v>0.01887469630898142</v>
       </c>
       <c r="H25" t="n">
-        <v>10.207501</v>
+        <v>10.207567</v>
       </c>
       <c r="I25" t="n">
         <v>0.007526881720430108</v>
@@ -1598,25 +1598,25 @@
         <v>40574</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02388962843849196</v>
+        <v>0.0238894106232177</v>
       </c>
       <c r="C26" t="n">
-        <v>10.135919</v>
+        <v>10.132805</v>
       </c>
       <c r="D26" t="n">
-        <v>0.01887916441100757</v>
+        <v>0.01887469630898142</v>
       </c>
       <c r="E26" t="n">
-        <v>10.135919</v>
+        <v>10.132805</v>
       </c>
       <c r="F26" t="n">
         <v>0.007526881720430108</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02175191293874779</v>
+        <v>0.02175202293071354</v>
       </c>
       <c r="H26" t="n">
-        <v>10.196399</v>
+        <v>10.195228</v>
       </c>
       <c r="I26" t="n">
         <v>0.01111111111111111</v>
@@ -1651,25 +1651,25 @@
         <v>40602</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0257686961964616</v>
+        <v>0.02577461497282929</v>
       </c>
       <c r="C27" t="n">
-        <v>10.117688</v>
+        <v>10.120775</v>
       </c>
       <c r="D27" t="n">
-        <v>0.02175191293874779</v>
+        <v>0.02175202293071354</v>
       </c>
       <c r="E27" t="n">
-        <v>10.117688</v>
+        <v>10.120775</v>
       </c>
       <c r="F27" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02388962843849196</v>
+        <v>0.0238894106232177</v>
       </c>
       <c r="H27" t="n">
-        <v>10.135919</v>
+        <v>10.132805</v>
       </c>
       <c r="I27" t="n">
         <v>0.01111111111111111</v>
@@ -1704,25 +1704,25 @@
         <v>40633</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02588507203414636</v>
+        <v>0.0258873561534525</v>
       </c>
       <c r="C28" t="n">
-        <v>10.09712</v>
+        <v>10.100835</v>
       </c>
       <c r="D28" t="n">
-        <v>0.02388962843849196</v>
+        <v>0.0238894106232177</v>
       </c>
       <c r="E28" t="n">
-        <v>10.09712</v>
+        <v>10.100835</v>
       </c>
       <c r="F28" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0257686961964616</v>
+        <v>0.02577461497282929</v>
       </c>
       <c r="H28" t="n">
-        <v>10.117688</v>
+        <v>10.120775</v>
       </c>
       <c r="I28" t="n">
         <v>0.003584229390681004</v>
@@ -1757,25 +1757,25 @@
         <v>40663</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02626978033739746</v>
+        <v>0.02625876521116055</v>
       </c>
       <c r="C29" t="n">
-        <v>10.020325</v>
+        <v>10.019607</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0257686961964616</v>
+        <v>0.02577461497282929</v>
       </c>
       <c r="E29" t="n">
-        <v>10.020325</v>
+        <v>10.019607</v>
       </c>
       <c r="F29" t="n">
         <v>0.003584229390681004</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02588507203414636</v>
+        <v>0.0258873561534525</v>
       </c>
       <c r="H29" t="n">
-        <v>10.09712</v>
+        <v>10.100835</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>40694</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02615831188127338</v>
+        <v>0.02616407405866727</v>
       </c>
       <c r="C30" t="n">
-        <v>10.098788</v>
+        <v>10.09395</v>
       </c>
       <c r="D30" t="n">
-        <v>0.02588507203414636</v>
+        <v>0.0258873561534525</v>
       </c>
       <c r="E30" t="n">
-        <v>10.098788</v>
+        <v>10.09395</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02626978033739746</v>
+        <v>0.02625876521116055</v>
       </c>
       <c r="H30" t="n">
-        <v>10.020325</v>
+        <v>10.019607</v>
       </c>
       <c r="I30" t="n">
         <v>0.003584229390681004</v>
@@ -1863,25 +1863,25 @@
         <v>40724</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02560160375707365</v>
+        <v>0.02560234487870616</v>
       </c>
       <c r="C31" t="n">
-        <v>10.121102</v>
+        <v>10.113707</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02626978033739746</v>
+        <v>0.02625876521116055</v>
       </c>
       <c r="E31" t="n">
-        <v>10.121102</v>
+        <v>10.113707</v>
       </c>
       <c r="F31" t="n">
         <v>0.003584229390681004</v>
       </c>
       <c r="G31" t="n">
-        <v>0.02615831188127338</v>
+        <v>0.02616407405866727</v>
       </c>
       <c r="H31" t="n">
-        <v>10.098788</v>
+        <v>10.09395</v>
       </c>
       <c r="I31" t="n">
         <v>0.01111111111111111</v>
@@ -1916,25 +1916,25 @@
         <v>40755</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02644661912114987</v>
+        <v>0.02644971769776649</v>
       </c>
       <c r="C32" t="n">
-        <v>10.247604</v>
+        <v>10.240409</v>
       </c>
       <c r="D32" t="n">
-        <v>0.02615831188127338</v>
+        <v>0.02616407405866727</v>
       </c>
       <c r="E32" t="n">
-        <v>10.247604</v>
+        <v>10.240409</v>
       </c>
       <c r="F32" t="n">
         <v>0.01111111111111111</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02560160375707365</v>
+        <v>0.02560234487870616</v>
       </c>
       <c r="H32" t="n">
-        <v>10.121102</v>
+        <v>10.113707</v>
       </c>
       <c r="I32" t="n">
         <v>-0.007168458781362008</v>
@@ -1969,25 +1969,25 @@
         <v>40786</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02713205180579514</v>
+        <v>0.02712457584602035</v>
       </c>
       <c r="C33" t="n">
-        <v>10.344168</v>
+        <v>10.340228</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02560160375707365</v>
+        <v>0.02560234487870616</v>
       </c>
       <c r="E33" t="n">
-        <v>10.344168</v>
+        <v>10.340228</v>
       </c>
       <c r="F33" t="n">
         <v>-0.007168458781362008</v>
       </c>
       <c r="G33" t="n">
-        <v>0.02644661912114987</v>
+        <v>0.02644971769776649</v>
       </c>
       <c r="H33" t="n">
-        <v>10.247604</v>
+        <v>10.240409</v>
       </c>
       <c r="I33" t="n">
         <v>-0.01039426523297491</v>
@@ -2022,25 +2022,25 @@
         <v>40816</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02832355776291884</v>
+        <v>0.02832454986957345</v>
       </c>
       <c r="C34" t="n">
-        <v>10.455974</v>
+        <v>10.456918</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02644661912114987</v>
+        <v>0.02644971769776649</v>
       </c>
       <c r="E34" t="n">
-        <v>10.455974</v>
+        <v>10.456918</v>
       </c>
       <c r="F34" t="n">
         <v>-0.01039426523297491</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02713205180579514</v>
+        <v>0.02712457584602035</v>
       </c>
       <c r="H34" t="n">
-        <v>10.344168</v>
+        <v>10.340228</v>
       </c>
       <c r="I34" t="n">
         <v>-0.02222222222222222</v>
@@ -2075,25 +2075,25 @@
         <v>40847</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02908787171296368</v>
+        <v>0.02909733919251867</v>
       </c>
       <c r="C35" t="n">
-        <v>10.569223</v>
+        <v>10.571218</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02713205180579514</v>
+        <v>0.02712457584602035</v>
       </c>
       <c r="E35" t="n">
-        <v>10.569223</v>
+        <v>10.571218</v>
       </c>
       <c r="F35" t="n">
         <v>-0.02222222222222222</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02832355776291884</v>
+        <v>0.02832454986957345</v>
       </c>
       <c r="H35" t="n">
-        <v>10.455974</v>
+        <v>10.456918</v>
       </c>
       <c r="I35" t="n">
         <v>-0.002508960573476703</v>
@@ -2128,25 +2128,25 @@
         <v>40877</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02931080881801584</v>
+        <v>0.02929960919743646</v>
       </c>
       <c r="C36" t="n">
-        <v>10.716838</v>
+        <v>10.720167</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02832355776291884</v>
+        <v>0.02832454986957345</v>
       </c>
       <c r="E36" t="n">
-        <v>10.716838</v>
+        <v>10.720167</v>
       </c>
       <c r="F36" t="n">
         <v>-0.002508960573476703</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02908787171296368</v>
+        <v>0.02909733919251867</v>
       </c>
       <c r="H36" t="n">
-        <v>10.569223</v>
+        <v>10.571218</v>
       </c>
       <c r="I36" t="n">
         <v>-0.001111111111111111</v>
@@ -2181,25 +2181,25 @@
         <v>40908</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687513274048214</v>
       </c>
       <c r="C37" t="n">
-        <v>10.820602</v>
+        <v>10.820819</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02908787171296368</v>
+        <v>0.02909733919251867</v>
       </c>
       <c r="E37" t="n">
-        <v>10.820602</v>
+        <v>10.820819</v>
       </c>
       <c r="F37" t="n">
         <v>-0.001111111111111111</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02931080881801584</v>
+        <v>0.02929960919743646</v>
       </c>
       <c r="H37" t="n">
-        <v>10.716838</v>
+        <v>10.720167</v>
       </c>
       <c r="I37" t="n">
         <v>0.02473118279569893</v>
@@ -2234,25 +2234,25 @@
         <v>40939</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0264504842877118</v>
+        <v>0.02645332040830173</v>
       </c>
       <c r="C38" t="n">
-        <v>10.8689</v>
+        <v>10.871904</v>
       </c>
       <c r="D38" t="n">
-        <v>0.02931080881801584</v>
+        <v>0.02929960919743646</v>
       </c>
       <c r="E38" t="n">
-        <v>10.8689</v>
+        <v>10.871904</v>
       </c>
       <c r="F38" t="n">
         <v>0.02473118279569893</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687513274048214</v>
       </c>
       <c r="H38" t="n">
-        <v>10.820602</v>
+        <v>10.820819</v>
       </c>
       <c r="I38" t="n">
         <v>0.07060931899641577</v>
@@ -2287,25 +2287,25 @@
         <v>40968</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02702130283994553</v>
+        <v>0.0270242593600738</v>
       </c>
       <c r="C39" t="n">
-        <v>11.042943</v>
+        <v>11.043723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.02687898108342868</v>
+        <v>0.02687513274048214</v>
       </c>
       <c r="E39" t="n">
-        <v>11.042943</v>
+        <v>11.043723</v>
       </c>
       <c r="F39" t="n">
         <v>0.07060931899641577</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0264504842877118</v>
+        <v>0.02645332040830173</v>
       </c>
       <c r="H39" t="n">
-        <v>10.8689</v>
+        <v>10.871904</v>
       </c>
       <c r="I39" t="n">
         <v>0.06704980842911877</v>
@@ -2340,25 +2340,25 @@
         <v>40999</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02666718431185799</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="C40" t="n">
-        <v>11.214111</v>
+        <v>11.219679</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0264504842877118</v>
+        <v>0.02645332040830173</v>
       </c>
       <c r="E40" t="n">
-        <v>11.214111</v>
+        <v>11.219679</v>
       </c>
       <c r="F40" t="n">
         <v>0.06704980842911877</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02702130283994553</v>
+        <v>0.0270242593600738</v>
       </c>
       <c r="H40" t="n">
-        <v>11.042943</v>
+        <v>11.043723</v>
       </c>
       <c r="I40" t="n">
         <v>0.05734767025089606</v>
@@ -2393,25 +2393,25 @@
         <v>41029</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02567053864410074</v>
+        <v>0.02566212408697499</v>
       </c>
       <c r="C41" t="n">
-        <v>11.328679</v>
+        <v>11.331351</v>
       </c>
       <c r="D41" t="n">
-        <v>0.02702130283994553</v>
+        <v>0.0270242593600738</v>
       </c>
       <c r="E41" t="n">
-        <v>11.328679</v>
+        <v>11.331351</v>
       </c>
       <c r="F41" t="n">
         <v>0.05734767025089606</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02666718431185799</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="H41" t="n">
-        <v>11.214111</v>
+        <v>11.219679</v>
       </c>
       <c r="I41" t="n">
         <v>0.03740740740740741</v>
@@ -2446,25 +2446,25 @@
         <v>41060</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02396457172338273</v>
+        <v>0.02396820183142179</v>
       </c>
       <c r="C42" t="n">
-        <v>11.387366</v>
+        <v>11.385258</v>
       </c>
       <c r="D42" t="n">
-        <v>0.02666718431185799</v>
+        <v>0.02667117796331997</v>
       </c>
       <c r="E42" t="n">
-        <v>11.387366</v>
+        <v>11.385258</v>
       </c>
       <c r="F42" t="n">
         <v>0.03740740740740741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02567053864410074</v>
+        <v>0.02566212408697499</v>
       </c>
       <c r="H42" t="n">
-        <v>11.328679</v>
+        <v>11.331351</v>
       </c>
       <c r="I42" t="n">
         <v>0.04157706093189965</v>
@@ -2499,25 +2499,25 @@
         <v>41090</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02380193425407562</v>
+        <v>0.02380079967544191</v>
       </c>
       <c r="C43" t="n">
-        <v>11.489078</v>
+        <v>11.485524</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02567053864410074</v>
+        <v>0.02566212408697499</v>
       </c>
       <c r="E43" t="n">
-        <v>11.489078</v>
+        <v>11.485524</v>
       </c>
       <c r="F43" t="n">
         <v>0.04157706093189965</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02396457172338273</v>
+        <v>0.02396820183142179</v>
       </c>
       <c r="H43" t="n">
-        <v>11.387366</v>
+        <v>11.385258</v>
       </c>
       <c r="I43" t="n">
         <v>0.06333333333333332</v>
@@ -2552,25 +2552,25 @@
         <v>41121</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02351032711130596</v>
+        <v>0.02351380399776559</v>
       </c>
       <c r="C44" t="n">
-        <v>11.555468</v>
+        <v>11.551602</v>
       </c>
       <c r="D44" t="n">
-        <v>0.02396457172338273</v>
+        <v>0.02396820183142179</v>
       </c>
       <c r="E44" t="n">
-        <v>11.555468</v>
+        <v>11.551602</v>
       </c>
       <c r="F44" t="n">
         <v>0.06333333333333332</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02380193425407562</v>
+        <v>0.02380079967544191</v>
       </c>
       <c r="H44" t="n">
-        <v>11.489078</v>
+        <v>11.485524</v>
       </c>
       <c r="I44" t="n">
         <v>0.06200716845878135</v>
@@ -2605,25 +2605,25 @@
         <v>41152</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02534545083332596</v>
+        <v>0.02533775836437613</v>
       </c>
       <c r="C45" t="n">
-        <v>11.598273</v>
+        <v>11.598515</v>
       </c>
       <c r="D45" t="n">
-        <v>0.02380193425407562</v>
+        <v>0.02380079967544191</v>
       </c>
       <c r="E45" t="n">
-        <v>11.598273</v>
+        <v>11.598515</v>
       </c>
       <c r="F45" t="n">
         <v>0.06200716845878135</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02351032711130596</v>
+        <v>0.02351380399776559</v>
       </c>
       <c r="H45" t="n">
-        <v>11.555468</v>
+        <v>11.551602</v>
       </c>
       <c r="I45" t="n">
         <v>0.08637992831541219</v>
@@ -2658,25 +2658,25 @@
         <v>41182</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02583782577395954</v>
+        <v>0.02584036734503936</v>
       </c>
       <c r="C46" t="n">
-        <v>11.713828</v>
+        <v>11.716201</v>
       </c>
       <c r="D46" t="n">
-        <v>0.02351032711130596</v>
+        <v>0.02351380399776559</v>
       </c>
       <c r="E46" t="n">
-        <v>11.713828</v>
+        <v>11.716201</v>
       </c>
       <c r="F46" t="n">
         <v>0.08637992831541219</v>
       </c>
       <c r="G46" t="n">
-        <v>0.02534545083332596</v>
+        <v>0.02533775836437613</v>
       </c>
       <c r="H46" t="n">
-        <v>11.598273</v>
+        <v>11.598515</v>
       </c>
       <c r="I46" t="n">
         <v>0.1040740740740741</v>
@@ -2711,25 +2711,25 @@
         <v>41213</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02478388547049803</v>
+        <v>0.02479330447270467</v>
       </c>
       <c r="C47" t="n">
-        <v>11.862486</v>
+        <v>11.864704</v>
       </c>
       <c r="D47" t="n">
-        <v>0.02534545083332596</v>
+        <v>0.02533775836437613</v>
       </c>
       <c r="E47" t="n">
-        <v>11.862486</v>
+        <v>11.864704</v>
       </c>
       <c r="F47" t="n">
         <v>0.1040740740740741</v>
       </c>
       <c r="G47" t="n">
-        <v>0.02583782577395954</v>
+        <v>0.02584036734503936</v>
       </c>
       <c r="H47" t="n">
-        <v>11.713828</v>
+        <v>11.716201</v>
       </c>
       <c r="I47" t="n">
         <v>0.153763440860215</v>
@@ -2764,25 +2764,25 @@
         <v>41243</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02191226861016826</v>
+        <v>0.02189941526666583</v>
       </c>
       <c r="C48" t="n">
-        <v>11.996823</v>
+        <v>11.997261</v>
       </c>
       <c r="D48" t="n">
-        <v>0.02583782577395954</v>
+        <v>0.02584036734503936</v>
       </c>
       <c r="E48" t="n">
-        <v>11.996823</v>
+        <v>11.997261</v>
       </c>
       <c r="F48" t="n">
         <v>0.153763440860215</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02478388547049803</v>
+        <v>0.02479330447270467</v>
       </c>
       <c r="H48" t="n">
-        <v>11.862486</v>
+        <v>11.864704</v>
       </c>
       <c r="I48" t="n">
         <v>0.1344444444444444</v>
@@ -2817,25 +2817,25 @@
         <v>41274</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02195133591094045</v>
+        <v>0.02194900906437969</v>
       </c>
       <c r="C49" t="n">
-        <v>12.02295</v>
+        <v>12.023223</v>
       </c>
       <c r="D49" t="n">
-        <v>0.02478388547049803</v>
+        <v>0.02479330447270467</v>
       </c>
       <c r="E49" t="n">
-        <v>12.02295</v>
+        <v>12.023223</v>
       </c>
       <c r="F49" t="n">
         <v>0.1344444444444444</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02191226861016826</v>
+        <v>0.02189941526666583</v>
       </c>
       <c r="H49" t="n">
-        <v>11.996823</v>
+        <v>11.997261</v>
       </c>
       <c r="I49" t="n">
         <v>0.04982078853046595</v>
@@ -2870,25 +2870,25 @@
         <v>41305</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01973232586390239</v>
+        <v>0.01973453887899002</v>
       </c>
       <c r="C50" t="n">
-        <v>12.222966</v>
+        <v>12.220265</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02191226861016826</v>
+        <v>0.02189941526666583</v>
       </c>
       <c r="E50" t="n">
-        <v>12.222966</v>
+        <v>12.220265</v>
       </c>
       <c r="F50" t="n">
         <v>0.04982078853046595</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02195133591094045</v>
+        <v>0.02194900906437969</v>
       </c>
       <c r="H50" t="n">
-        <v>12.02295</v>
+        <v>12.023223</v>
       </c>
       <c r="I50" t="n">
         <v>-0.006810035842293908</v>
@@ -2923,25 +2923,25 @@
         <v>41333</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01820378870334505</v>
+        <v>0.01820375824736153</v>
       </c>
       <c r="C51" t="n">
-        <v>12.227779</v>
+        <v>12.23301</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02195133591094045</v>
+        <v>0.02194900906437969</v>
       </c>
       <c r="E51" t="n">
-        <v>12.227779</v>
+        <v>12.23301</v>
       </c>
       <c r="F51" t="n">
         <v>-0.006810035842293908</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01973232586390239</v>
+        <v>0.01973453887899002</v>
       </c>
       <c r="H51" t="n">
-        <v>12.222966</v>
+        <v>12.220265</v>
       </c>
       <c r="I51" t="n">
         <v>0.02182539682539682</v>
@@ -2976,25 +2976,25 @@
         <v>41364</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01644976737589943</v>
+        <v>0.01645253365964106</v>
       </c>
       <c r="C52" t="n">
-        <v>12.228941</v>
+        <v>12.230952</v>
       </c>
       <c r="D52" t="n">
-        <v>0.01973232586390239</v>
+        <v>0.01973453887899002</v>
       </c>
       <c r="E52" t="n">
-        <v>12.228941</v>
+        <v>12.230952</v>
       </c>
       <c r="F52" t="n">
         <v>0.02182539682539682</v>
       </c>
       <c r="G52" t="n">
-        <v>0.01820378870334505</v>
+        <v>0.01820375824736153</v>
       </c>
       <c r="H52" t="n">
-        <v>12.227779</v>
+        <v>12.23301</v>
       </c>
       <c r="I52" t="n">
         <v>0.1161290322580645</v>
@@ -3029,25 +3029,25 @@
         <v>41394</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01291352898738829</v>
+        <v>0.012916240894147</v>
       </c>
       <c r="C53" t="n">
-        <v>12.24359</v>
+        <v>12.247116</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01820378870334505</v>
+        <v>0.01820375824736153</v>
       </c>
       <c r="E53" t="n">
-        <v>12.24359</v>
+        <v>12.247116</v>
       </c>
       <c r="F53" t="n">
         <v>0.1161290322580645</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01644976737589943</v>
+        <v>0.01645253365964106</v>
       </c>
       <c r="H53" t="n">
-        <v>12.228941</v>
+        <v>12.230952</v>
       </c>
       <c r="I53" t="n">
         <v>0.1759259259259259</v>
@@ -3082,25 +3082,25 @@
         <v>41425</v>
       </c>
       <c r="B54" t="n">
-        <v>0.01434661296767725</v>
+        <v>0.01434806479440365</v>
       </c>
       <c r="C54" t="n">
-        <v>12.221077</v>
+        <v>12.220363</v>
       </c>
       <c r="D54" t="n">
-        <v>0.01644976737589943</v>
+        <v>0.01645253365964106</v>
       </c>
       <c r="E54" t="n">
-        <v>12.221077</v>
+        <v>12.220363</v>
       </c>
       <c r="F54" t="n">
         <v>0.1759259259259259</v>
       </c>
       <c r="G54" t="n">
-        <v>0.01291352898738829</v>
+        <v>0.012916240894147</v>
       </c>
       <c r="H54" t="n">
-        <v>12.24359</v>
+        <v>12.247116</v>
       </c>
       <c r="I54" t="n">
         <v>0.2290322580645161</v>
@@ -3135,25 +3135,25 @@
         <v>41455</v>
       </c>
       <c r="B55" t="n">
-        <v>0.01581392767446044</v>
+        <v>0.01580840348259027</v>
       </c>
       <c r="C55" t="n">
-        <v>12.169476</v>
+        <v>12.165504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01291352898738829</v>
+        <v>0.012916240894147</v>
       </c>
       <c r="E55" t="n">
-        <v>12.169476</v>
+        <v>12.165504</v>
       </c>
       <c r="F55" t="n">
         <v>0.2290322580645161</v>
       </c>
       <c r="G55" t="n">
-        <v>0.01434661296767725</v>
+        <v>0.01434806479440365</v>
       </c>
       <c r="H55" t="n">
-        <v>12.221077</v>
+        <v>12.220363</v>
       </c>
       <c r="I55" t="n">
         <v>0.2018518518518518</v>
@@ -3188,25 +3188,25 @@
         <v>41486</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01542795435959032</v>
+        <v>0.01543410177521487</v>
       </c>
       <c r="C56" t="n">
-        <v>12.138822</v>
+        <v>12.132853</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01434661296767725</v>
+        <v>0.01434806479440365</v>
       </c>
       <c r="E56" t="n">
-        <v>12.138822</v>
+        <v>12.132853</v>
       </c>
       <c r="F56" t="n">
         <v>0.2018518518518518</v>
       </c>
       <c r="G56" t="n">
-        <v>0.01581392767446044</v>
+        <v>0.01580840348259027</v>
       </c>
       <c r="H56" t="n">
-        <v>12.169476</v>
+        <v>12.165504</v>
       </c>
       <c r="I56" t="n">
         <v>0.107168458781362</v>
@@ -3241,25 +3241,25 @@
         <v>41517</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01262377943974258</v>
+        <v>0.01262293782616464</v>
       </c>
       <c r="C57" t="n">
-        <v>12.104303</v>
+        <v>12.103993</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01581392767446044</v>
+        <v>0.01580840348259027</v>
       </c>
       <c r="E57" t="n">
-        <v>12.104303</v>
+        <v>12.103993</v>
       </c>
       <c r="F57" t="n">
         <v>0.107168458781362</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01542795435959032</v>
+        <v>0.01543410177521487</v>
       </c>
       <c r="H57" t="n">
-        <v>12.138822</v>
+        <v>12.132853</v>
       </c>
       <c r="I57" t="n">
         <v>0.05376344086021505</v>
@@ -3294,25 +3294,25 @@
         <v>41547</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01056842869058894</v>
+        <v>0.01057023580629846</v>
       </c>
       <c r="C58" t="n">
-        <v>12.138883</v>
+        <v>12.14133</v>
       </c>
       <c r="D58" t="n">
-        <v>0.01542795435959032</v>
+        <v>0.01543410177521487</v>
       </c>
       <c r="E58" t="n">
-        <v>12.138883</v>
+        <v>12.14133</v>
       </c>
       <c r="F58" t="n">
         <v>0.05376344086021505</v>
       </c>
       <c r="G58" t="n">
-        <v>0.01262377943974258</v>
+        <v>0.01262293782616464</v>
       </c>
       <c r="H58" t="n">
-        <v>12.104303</v>
+        <v>12.103993</v>
       </c>
       <c r="I58" t="n">
         <v>0.02777777777777778</v>
@@ -3347,25 +3347,25 @@
         <v>41578</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007359212730245979</v>
+        <v>0.007363174470198075</v>
       </c>
       <c r="C59" t="n">
-        <v>12.071479</v>
+        <v>12.073148</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01262377943974258</v>
+        <v>0.01262293782616464</v>
       </c>
       <c r="E59" t="n">
-        <v>12.071479</v>
+        <v>12.073148</v>
       </c>
       <c r="F59" t="n">
         <v>0.02777777777777778</v>
       </c>
       <c r="G59" t="n">
-        <v>0.01056842869058894</v>
+        <v>0.01057023580629846</v>
       </c>
       <c r="H59" t="n">
-        <v>12.138883</v>
+        <v>12.14133</v>
       </c>
       <c r="I59" t="n">
         <v>0.05878136200716846</v>
@@ -3400,25 +3400,25 @@
         <v>41608</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008249483160511772</v>
+        <v>0.008243008932533158</v>
       </c>
       <c r="C60" t="n">
-        <v>12.061815</v>
+        <v>12.06295</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01056842869058894</v>
+        <v>0.01057023580629846</v>
       </c>
       <c r="E60" t="n">
-        <v>12.061815</v>
+        <v>12.06295</v>
       </c>
       <c r="F60" t="n">
         <v>0.05878136200716846</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007359212730245979</v>
+        <v>0.007363174470198075</v>
       </c>
       <c r="H60" t="n">
-        <v>12.071479</v>
+        <v>12.073148</v>
       </c>
       <c r="I60" t="n">
         <v>0.05037037037037037</v>
@@ -3453,25 +3453,25 @@
         <v>41639</v>
       </c>
       <c r="B61" t="n">
-        <v>0.009208632916839044</v>
+        <v>0.009207020280740608</v>
       </c>
       <c r="C61" t="n">
-        <v>12.004283</v>
+        <v>12.00539</v>
       </c>
       <c r="D61" t="n">
-        <v>0.007359212730245979</v>
+        <v>0.007363174470198075</v>
       </c>
       <c r="E61" t="n">
-        <v>12.004283</v>
+        <v>12.00539</v>
       </c>
       <c r="F61" t="n">
         <v>0.05037037037037037</v>
       </c>
       <c r="G61" t="n">
-        <v>0.008249483160511772</v>
+        <v>0.008243008932533158</v>
       </c>
       <c r="H61" t="n">
-        <v>12.061815</v>
+        <v>12.06295</v>
       </c>
       <c r="I61" t="n">
         <v>0.06057347670250896</v>
@@ -3506,25 +3506,25 @@
         <v>41670</v>
       </c>
       <c r="B62" t="n">
-        <v>0.007655728312166765</v>
+        <v>0.007657630399398485</v>
       </c>
       <c r="C62" t="n">
-        <v>12.049587</v>
+        <v>12.051021</v>
       </c>
       <c r="D62" t="n">
-        <v>0.008249483160511772</v>
+        <v>0.008243008932533158</v>
       </c>
       <c r="E62" t="n">
-        <v>12.049587</v>
+        <v>12.051021</v>
       </c>
       <c r="F62" t="n">
         <v>0.06057347670250896</v>
       </c>
       <c r="G62" t="n">
-        <v>0.009208632916839044</v>
+        <v>0.009207020280740608</v>
       </c>
       <c r="H62" t="n">
-        <v>12.004283</v>
+        <v>12.00539</v>
       </c>
       <c r="I62" t="n">
         <v>0.05125448028673835</v>
@@ -3559,25 +3559,25 @@
         <v>41698</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007077096106172576</v>
+        <v>0.007072716690761816</v>
       </c>
       <c r="C63" t="n">
-        <v>12.012688</v>
+        <v>12.017042</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009208632916839044</v>
+        <v>0.009207020280740608</v>
       </c>
       <c r="E63" t="n">
-        <v>12.012688</v>
+        <v>12.017042</v>
       </c>
       <c r="F63" t="n">
         <v>0.05125448028673835</v>
       </c>
       <c r="G63" t="n">
-        <v>0.007655728312166765</v>
+        <v>0.007657630399398485</v>
       </c>
       <c r="H63" t="n">
-        <v>12.049587</v>
+        <v>12.051021</v>
       </c>
       <c r="I63" t="n">
         <v>0.0123015873015873</v>
@@ -3612,25 +3612,25 @@
         <v>41729</v>
       </c>
       <c r="B64" t="n">
-        <v>0.005395214748153521</v>
+        <v>0.005396217628601541</v>
       </c>
       <c r="C64" t="n">
-        <v>11.93722</v>
+        <v>11.941027</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007655728312166765</v>
+        <v>0.007657630399398485</v>
       </c>
       <c r="E64" t="n">
-        <v>11.93722</v>
+        <v>11.941027</v>
       </c>
       <c r="F64" t="n">
         <v>0.0123015873015873</v>
       </c>
       <c r="G64" t="n">
-        <v>0.007077096106172576</v>
+        <v>0.007072716690761816</v>
       </c>
       <c r="H64" t="n">
-        <v>12.012688</v>
+        <v>12.017042</v>
       </c>
       <c r="I64" t="n">
         <v>-0.02939068100358423</v>
@@ -3665,25 +3665,25 @@
         <v>41759</v>
       </c>
       <c r="B65" t="n">
-        <v>0.006572916470583223</v>
+        <v>0.006579306624479031</v>
       </c>
       <c r="C65" t="n">
-        <v>11.82438</v>
+        <v>11.829045</v>
       </c>
       <c r="D65" t="n">
-        <v>0.007077096106172576</v>
+        <v>0.007072716690761816</v>
       </c>
       <c r="E65" t="n">
-        <v>11.82438</v>
+        <v>11.829045</v>
       </c>
       <c r="F65" t="n">
         <v>-0.02939068100358423</v>
       </c>
       <c r="G65" t="n">
-        <v>0.005395214748153521</v>
+        <v>0.005396217628601541</v>
       </c>
       <c r="H65" t="n">
-        <v>11.93722</v>
+        <v>11.941027</v>
       </c>
       <c r="I65" t="n">
         <v>-0.02777777777777778</v>
@@ -3718,25 +3718,25 @@
         <v>41790</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005353759805035274</v>
+        <v>0.005353466586603517</v>
       </c>
       <c r="C66" t="n">
-        <v>11.757662</v>
+        <v>11.756512</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005395214748153521</v>
+        <v>0.005396217628601541</v>
       </c>
       <c r="E66" t="n">
-        <v>11.757662</v>
+        <v>11.756512</v>
       </c>
       <c r="F66" t="n">
         <v>-0.02777777777777778</v>
       </c>
       <c r="G66" t="n">
-        <v>0.006572916470583223</v>
+        <v>0.006579306624479031</v>
       </c>
       <c r="H66" t="n">
-        <v>11.82438</v>
+        <v>11.829045</v>
       </c>
       <c r="I66" t="n">
         <v>0.006810035842293906</v>
@@ -3771,25 +3771,25 @@
         <v>41820</v>
       </c>
       <c r="B67" t="n">
-        <v>0.004734826857082375</v>
+        <v>0.004733754473865481</v>
       </c>
       <c r="C67" t="n">
-        <v>11.604628</v>
+        <v>11.599535</v>
       </c>
       <c r="D67" t="n">
-        <v>0.006572916470583223</v>
+        <v>0.006579306624479031</v>
       </c>
       <c r="E67" t="n">
-        <v>11.604628</v>
+        <v>11.599535</v>
       </c>
       <c r="F67" t="n">
         <v>0.006810035842293906</v>
       </c>
       <c r="G67" t="n">
-        <v>0.005353759805035274</v>
+        <v>0.005353466586603517</v>
       </c>
       <c r="H67" t="n">
-        <v>11.757662</v>
+        <v>11.756512</v>
       </c>
       <c r="I67" t="n">
         <v>0.06111111111111111</v>
@@ -3824,25 +3824,25 @@
         <v>41851</v>
       </c>
       <c r="B68" t="n">
-        <v>0.003116473710662149</v>
+        <v>0.003114213771807428</v>
       </c>
       <c r="C68" t="n">
-        <v>11.68038</v>
+        <v>11.672253</v>
       </c>
       <c r="D68" t="n">
-        <v>0.005353759805035274</v>
+        <v>0.005353466586603517</v>
       </c>
       <c r="E68" t="n">
-        <v>11.68038</v>
+        <v>11.672253</v>
       </c>
       <c r="F68" t="n">
         <v>0.06111111111111111</v>
       </c>
       <c r="G68" t="n">
-        <v>0.004734826857082375</v>
+        <v>0.004733754473865481</v>
       </c>
       <c r="H68" t="n">
-        <v>11.604628</v>
+        <v>11.599535</v>
       </c>
       <c r="I68" t="n">
         <v>0.05842293906810036</v>
@@ -3877,25 +3877,25 @@
         <v>41882</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002951047388312311</v>
+        <v>0.002955846723354583</v>
       </c>
       <c r="C69" t="n">
-        <v>11.560279</v>
+        <v>11.552265</v>
       </c>
       <c r="D69" t="n">
-        <v>0.004734826857082375</v>
+        <v>0.004733754473865481</v>
       </c>
       <c r="E69" t="n">
-        <v>11.560279</v>
+        <v>11.552265</v>
       </c>
       <c r="F69" t="n">
         <v>0.05842293906810036</v>
       </c>
       <c r="G69" t="n">
-        <v>0.003116473710662149</v>
+        <v>0.003114213771807428</v>
       </c>
       <c r="H69" t="n">
-        <v>11.68038</v>
+        <v>11.672253</v>
       </c>
       <c r="I69" t="n">
         <v>0.03225806451612903</v>
@@ -3930,25 +3930,25 @@
         <v>41912</v>
       </c>
       <c r="B70" t="n">
-        <v>0.00327842738527373</v>
+        <v>0.003280053238480463</v>
       </c>
       <c r="C70" t="n">
-        <v>11.610955</v>
+        <v>11.609022</v>
       </c>
       <c r="D70" t="n">
-        <v>0.003116473710662149</v>
+        <v>0.003114213771807428</v>
       </c>
       <c r="E70" t="n">
-        <v>11.610955</v>
+        <v>11.609022</v>
       </c>
       <c r="F70" t="n">
         <v>0.03225806451612903</v>
       </c>
       <c r="G70" t="n">
-        <v>0.002951047388312311</v>
+        <v>0.002955846723354583</v>
       </c>
       <c r="H70" t="n">
-        <v>11.560279</v>
+        <v>11.552265</v>
       </c>
       <c r="I70" t="n">
         <v>0.01518518518518519</v>
@@ -3983,25 +3983,25 @@
         <v>41943</v>
       </c>
       <c r="B71" t="n">
-        <v>0.003900644238591155</v>
+        <v>0.003901345095368214</v>
       </c>
       <c r="C71" t="n">
-        <v>11.629404</v>
+        <v>11.627069</v>
       </c>
       <c r="D71" t="n">
-        <v>0.002951047388312311</v>
+        <v>0.002955846723354583</v>
       </c>
       <c r="E71" t="n">
-        <v>11.629404</v>
+        <v>11.627069</v>
       </c>
       <c r="F71" t="n">
         <v>0.01518518518518519</v>
       </c>
       <c r="G71" t="n">
-        <v>0.00327842738527373</v>
+        <v>0.003280053238480463</v>
       </c>
       <c r="H71" t="n">
-        <v>11.610955</v>
+        <v>11.609022</v>
       </c>
       <c r="I71" t="n">
         <v>0.05340501792114695</v>
@@ -4036,25 +4036,25 @@
         <v>41973</v>
       </c>
       <c r="B72" t="n">
-        <v>0.003109949832142966</v>
+        <v>0.003103240940426133</v>
       </c>
       <c r="C72" t="n">
-        <v>11.648729</v>
+        <v>11.650552</v>
       </c>
       <c r="D72" t="n">
-        <v>0.00327842738527373</v>
+        <v>0.003280053238480463</v>
       </c>
       <c r="E72" t="n">
-        <v>11.648729</v>
+        <v>11.650552</v>
       </c>
       <c r="F72" t="n">
         <v>0.05340501792114695</v>
       </c>
       <c r="G72" t="n">
-        <v>0.003900644238591155</v>
+        <v>0.003901345095368214</v>
       </c>
       <c r="H72" t="n">
-        <v>11.629404</v>
+        <v>11.627069</v>
       </c>
       <c r="I72" t="n">
         <v>0.04481481481481482</v>
@@ -4089,25 +4089,25 @@
         <v>42004</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.001644973917580117</v>
+        <v>-0.001643604522540087</v>
       </c>
       <c r="C73" t="n">
-        <v>11.47573</v>
+        <v>11.475558</v>
       </c>
       <c r="D73" t="n">
-        <v>0.003900644238591155</v>
+        <v>0.003901345095368214</v>
       </c>
       <c r="E73" t="n">
-        <v>11.47573</v>
+        <v>11.475558</v>
       </c>
       <c r="F73" t="n">
         <v>0.04481481481481482</v>
       </c>
       <c r="G73" t="n">
-        <v>0.003109949832142966</v>
+        <v>0.003103240940426133</v>
       </c>
       <c r="H73" t="n">
-        <v>11.648729</v>
+        <v>11.650552</v>
       </c>
       <c r="I73" t="n">
         <v>-0.006451612903225806</v>
@@ -4142,25 +4142,25 @@
         <v>42035</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.003951552313949946</v>
+        <v>-0.003946765190938173</v>
       </c>
       <c r="C74" t="n">
-        <v>11.380965</v>
+        <v>11.38841</v>
       </c>
       <c r="D74" t="n">
-        <v>0.003109949832142966</v>
+        <v>0.003103240940426133</v>
       </c>
       <c r="E74" t="n">
-        <v>11.380965</v>
+        <v>11.38841</v>
       </c>
       <c r="F74" t="n">
         <v>-0.006451612903225806</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.001644973917580117</v>
+        <v>-0.001643604522540087</v>
       </c>
       <c r="H74" t="n">
-        <v>11.47573</v>
+        <v>11.475558</v>
       </c>
       <c r="I74" t="n">
         <v>-0.06666666666666668</v>
@@ -4195,25 +4195,25 @@
         <v>42063</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.001009642597659344</v>
+        <v>-0.001011756544021303</v>
       </c>
       <c r="C75" t="n">
-        <v>11.322755</v>
+        <v>11.330594</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.001644973917580117</v>
+        <v>-0.001643604522540087</v>
       </c>
       <c r="E75" t="n">
-        <v>11.322755</v>
+        <v>11.330594</v>
       </c>
       <c r="F75" t="n">
         <v>-0.06666666666666668</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.003951552313949946</v>
+        <v>-0.003946765190938173</v>
       </c>
       <c r="H75" t="n">
-        <v>11.380965</v>
+        <v>11.38841</v>
       </c>
       <c r="I75" t="n">
         <v>-0.05436507936507936</v>
@@ -4248,25 +4248,25 @@
         <v>42094</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0011421110226566</v>
+        <v>0.001134983601997597</v>
       </c>
       <c r="C76" t="n">
-        <v>11.320633</v>
+        <v>11.3278</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.003951552313949946</v>
+        <v>-0.003946765190938173</v>
       </c>
       <c r="E76" t="n">
-        <v>11.320633</v>
+        <v>11.3278</v>
       </c>
       <c r="F76" t="n">
         <v>-0.05436507936507936</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.001009642597659344</v>
+        <v>-0.001011756544021303</v>
       </c>
       <c r="H76" t="n">
-        <v>11.322755</v>
+        <v>11.330594</v>
       </c>
       <c r="I76" t="n">
         <v>-0.02544802867383512</v>
@@ -4301,25 +4301,25 @@
         <v>42124</v>
       </c>
       <c r="B77" t="n">
-        <v>0.001770788622566855</v>
+        <v>0.001780397400437117</v>
       </c>
       <c r="C77" t="n">
-        <v>11.19181</v>
+        <v>11.191979</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.001009642597659344</v>
+        <v>-0.001011756544021303</v>
       </c>
       <c r="E77" t="n">
-        <v>11.19181</v>
+        <v>11.191979</v>
       </c>
       <c r="F77" t="n">
         <v>-0.02544802867383512</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0011421110226566</v>
+        <v>0.001134983601997597</v>
       </c>
       <c r="H77" t="n">
-        <v>11.320633</v>
+        <v>11.3278</v>
       </c>
       <c r="I77" t="n">
         <v>-0.05222222222222222</v>
@@ -4354,25 +4354,25 @@
         <v>42155</v>
       </c>
       <c r="B78" t="n">
-        <v>0.004574987025232069</v>
+        <v>0.004573098729952818</v>
       </c>
       <c r="C78" t="n">
-        <v>11.152024</v>
+        <v>11.150694</v>
       </c>
       <c r="D78" t="n">
-        <v>0.0011421110226566</v>
+        <v>0.001134983601997597</v>
       </c>
       <c r="E78" t="n">
-        <v>11.152024</v>
+        <v>11.150694</v>
       </c>
       <c r="F78" t="n">
         <v>-0.05222222222222222</v>
       </c>
       <c r="G78" t="n">
-        <v>0.001770788622566855</v>
+        <v>0.001780397400437117</v>
       </c>
       <c r="H78" t="n">
-        <v>11.19181</v>
+        <v>11.191979</v>
       </c>
       <c r="I78" t="n">
         <v>-0.09247311827956989</v>
@@ -4407,25 +4407,25 @@
         <v>42185</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004222082124011983</v>
+        <v>0.004217624308409995</v>
       </c>
       <c r="C79" t="n">
-        <v>11.080755</v>
+        <v>11.07288</v>
       </c>
       <c r="D79" t="n">
-        <v>0.001770788622566855</v>
+        <v>0.001780397400437117</v>
       </c>
       <c r="E79" t="n">
-        <v>11.080755</v>
+        <v>11.07288</v>
       </c>
       <c r="F79" t="n">
         <v>-0.09247311827956989</v>
       </c>
       <c r="G79" t="n">
-        <v>0.004574987025232069</v>
+        <v>0.004573098729952818</v>
       </c>
       <c r="H79" t="n">
-        <v>11.152024</v>
+        <v>11.150694</v>
       </c>
       <c r="I79" t="n">
         <v>-0.04962962962962963</v>
@@ -4460,25 +4460,25 @@
         <v>42216</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003305388123106212</v>
+        <v>0.003305535569338325</v>
       </c>
       <c r="C80" t="n">
-        <v>10.847217</v>
+        <v>10.841244</v>
       </c>
       <c r="D80" t="n">
-        <v>0.004574987025232069</v>
+        <v>0.004573098729952818</v>
       </c>
       <c r="E80" t="n">
-        <v>10.847217</v>
+        <v>10.841244</v>
       </c>
       <c r="F80" t="n">
         <v>-0.04962962962962963</v>
       </c>
       <c r="G80" t="n">
-        <v>0.004222082124011983</v>
+        <v>0.004217624308409995</v>
       </c>
       <c r="H80" t="n">
-        <v>11.080755</v>
+        <v>11.07288</v>
       </c>
       <c r="I80" t="n">
         <v>0.04551971326164875</v>
@@ -4513,25 +4513,25 @@
         <v>42247</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002113248098643439</v>
+        <v>0.002121725632023619</v>
       </c>
       <c r="C81" t="n">
-        <v>10.762351</v>
+        <v>10.754786</v>
       </c>
       <c r="D81" t="n">
-        <v>0.004222082124011983</v>
+        <v>0.004217624308409995</v>
       </c>
       <c r="E81" t="n">
-        <v>10.762351</v>
+        <v>10.754786</v>
       </c>
       <c r="F81" t="n">
         <v>0.04551971326164875</v>
       </c>
       <c r="G81" t="n">
-        <v>0.003305388123106212</v>
+        <v>0.003305535569338325</v>
       </c>
       <c r="H81" t="n">
-        <v>10.847217</v>
+        <v>10.841244</v>
       </c>
       <c r="I81" t="n">
         <v>0.1243727598566308</v>
@@ -4566,25 +4566,25 @@
         <v>42277</v>
       </c>
       <c r="B82" t="n">
-        <v>0.0004514614302895126</v>
+        <v>0.0004506644727344522</v>
       </c>
       <c r="C82" t="n">
-        <v>10.712201</v>
+        <v>10.712804</v>
       </c>
       <c r="D82" t="n">
-        <v>0.003305388123106212</v>
+        <v>0.003305535569338325</v>
       </c>
       <c r="E82" t="n">
-        <v>10.712201</v>
+        <v>10.712804</v>
       </c>
       <c r="F82" t="n">
         <v>0.1243727598566308</v>
       </c>
       <c r="G82" t="n">
-        <v>0.002113248098643439</v>
+        <v>0.002121725632023619</v>
       </c>
       <c r="H82" t="n">
-        <v>10.762351</v>
+        <v>10.754786</v>
       </c>
       <c r="I82" t="n">
         <v>0.1048148148148148</v>
@@ -4619,25 +4619,25 @@
         <v>42308</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002394600109921541</v>
+        <v>0.002388543453198722</v>
       </c>
       <c r="C83" t="n">
-        <v>10.721732</v>
+        <v>10.722773</v>
       </c>
       <c r="D83" t="n">
-        <v>0.002113248098643439</v>
+        <v>0.002121725632023619</v>
       </c>
       <c r="E83" t="n">
-        <v>10.721732</v>
+        <v>10.722773</v>
       </c>
       <c r="F83" t="n">
         <v>0.1048148148148148</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0004514614302895126</v>
+        <v>0.0004506644727344522</v>
       </c>
       <c r="H83" t="n">
-        <v>10.712201</v>
+        <v>10.712804</v>
       </c>
       <c r="I83" t="n">
         <v>0.06451612903225806</v>
@@ -4672,25 +4672,25 @@
         <v>42338</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003465029875681758</v>
+        <v>0.003463859728640273</v>
       </c>
       <c r="C84" t="n">
-        <v>10.60625</v>
+        <v>10.60606</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0004514614302895126</v>
+        <v>0.0004506644727344522</v>
       </c>
       <c r="E84" t="n">
-        <v>10.60625</v>
+        <v>10.60606</v>
       </c>
       <c r="F84" t="n">
         <v>0.06451612903225806</v>
       </c>
       <c r="G84" t="n">
-        <v>0.002394600109921541</v>
+        <v>0.002388543453198722</v>
       </c>
       <c r="H84" t="n">
-        <v>10.721732</v>
+        <v>10.722773</v>
       </c>
       <c r="I84" t="n">
         <v>-0.003703703703703704</v>
@@ -4725,25 +4725,25 @@
         <v>42369</v>
       </c>
       <c r="B85" t="n">
-        <v>0.004255108615013548</v>
+        <v>0.004256399701524138</v>
       </c>
       <c r="C85" t="n">
-        <v>10.574028</v>
+        <v>10.573706</v>
       </c>
       <c r="D85" t="n">
-        <v>0.002394600109921541</v>
+        <v>0.002388543453198722</v>
       </c>
       <c r="E85" t="n">
-        <v>10.574028</v>
+        <v>10.573706</v>
       </c>
       <c r="F85" t="n">
         <v>-0.003703703703703704</v>
       </c>
       <c r="G85" t="n">
-        <v>0.003465029875681758</v>
+        <v>0.003463859728640273</v>
       </c>
       <c r="H85" t="n">
-        <v>10.60625</v>
+        <v>10.60606</v>
       </c>
       <c r="I85" t="n">
         <v>-0.0007168458781362006</v>
@@ -4778,25 +4778,25 @@
         <v>42400</v>
       </c>
       <c r="B86" t="n">
-        <v>0.003251565225252051</v>
+        <v>0.003256500136454399</v>
       </c>
       <c r="C86" t="n">
-        <v>10.474343</v>
+        <v>10.480011</v>
       </c>
       <c r="D86" t="n">
-        <v>0.003465029875681758</v>
+        <v>0.003463859728640273</v>
       </c>
       <c r="E86" t="n">
-        <v>10.474343</v>
+        <v>10.480011</v>
       </c>
       <c r="F86" t="n">
         <v>-0.0007168458781362006</v>
       </c>
       <c r="G86" t="n">
-        <v>0.004255108615013548</v>
+        <v>0.004256399701524138</v>
       </c>
       <c r="H86" t="n">
-        <v>10.574028</v>
+        <v>10.573706</v>
       </c>
       <c r="I86" t="n">
         <v>-0.04408602150537635</v>
@@ -4831,25 +4831,25 @@
         <v>42429</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.0011484731727327</v>
+        <v>-0.001146979463412023</v>
       </c>
       <c r="C87" t="n">
-        <v>10.448239</v>
+        <v>10.453423</v>
       </c>
       <c r="D87" t="n">
-        <v>0.004255108615013548</v>
+        <v>0.004256399701524138</v>
       </c>
       <c r="E87" t="n">
-        <v>10.448239</v>
+        <v>10.453423</v>
       </c>
       <c r="F87" t="n">
         <v>-0.04408602150537635</v>
       </c>
       <c r="G87" t="n">
-        <v>0.003251565225252051</v>
+        <v>0.003256500136454399</v>
       </c>
       <c r="H87" t="n">
-        <v>10.474343</v>
+        <v>10.480011</v>
       </c>
       <c r="I87" t="n">
         <v>-0.01992337164750958</v>
@@ -4884,25 +4884,25 @@
         <v>42460</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.0007997213215356069</v>
+        <v>-0.0008050196576308011</v>
       </c>
       <c r="C88" t="n">
-        <v>10.357409</v>
+        <v>10.36228</v>
       </c>
       <c r="D88" t="n">
-        <v>0.003251565225252051</v>
+        <v>0.003256500136454399</v>
       </c>
       <c r="E88" t="n">
-        <v>10.357409</v>
+        <v>10.36228</v>
       </c>
       <c r="F88" t="n">
         <v>-0.01992337164750958</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.0011484731727327</v>
+        <v>-0.001146979463412023</v>
       </c>
       <c r="H88" t="n">
-        <v>10.448239</v>
+        <v>10.453423</v>
       </c>
       <c r="I88" t="n">
         <v>-0.02473118279569893</v>
@@ -4937,25 +4937,25 @@
         <v>42490</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.001851121356386543</v>
+        <v>-0.001848910597969322</v>
       </c>
       <c r="C89" t="n">
-        <v>10.323592</v>
+        <v>10.324572</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.0011484731727327</v>
+        <v>-0.001146979463412023</v>
       </c>
       <c r="E89" t="n">
-        <v>10.323592</v>
+        <v>10.324572</v>
       </c>
       <c r="F89" t="n">
         <v>-0.02473118279569893</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.0007997213215356069</v>
+        <v>-0.0008050196576308011</v>
       </c>
       <c r="H89" t="n">
-        <v>10.357409</v>
+        <v>10.36228</v>
       </c>
       <c r="I89" t="n">
         <v>0.0262962962962963</v>
@@ -4990,25 +4990,25 @@
         <v>42521</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.001219716620807887</v>
+        <v>-0.001216523721485174</v>
       </c>
       <c r="C90" t="n">
-        <v>10.218456</v>
+        <v>10.213928</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.0007997213215356069</v>
+        <v>-0.0008050196576308011</v>
       </c>
       <c r="E90" t="n">
-        <v>10.218456</v>
+        <v>10.213928</v>
       </c>
       <c r="F90" t="n">
         <v>0.0262962962962963</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.001851121356386543</v>
+        <v>-0.001848910597969322</v>
       </c>
       <c r="H90" t="n">
-        <v>10.323592</v>
+        <v>10.324572</v>
       </c>
       <c r="I90" t="n">
         <v>0.02043010752688172</v>
@@ -5043,25 +5043,25 @@
         <v>42551</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0003869405615839483</v>
+        <v>0.0003845521002787677</v>
       </c>
       <c r="C91" t="n">
-        <v>10.179387</v>
+        <v>10.172637</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.001851121356386543</v>
+        <v>-0.001848910597969322</v>
       </c>
       <c r="E91" t="n">
-        <v>10.179387</v>
+        <v>10.172637</v>
       </c>
       <c r="F91" t="n">
         <v>0.02043010752688172</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.001219716620807887</v>
+        <v>-0.001216523721485174</v>
       </c>
       <c r="H91" t="n">
-        <v>10.218456</v>
+        <v>10.213928</v>
       </c>
       <c r="I91" t="n">
         <v>-0.03481481481481482</v>
@@ -5096,25 +5096,25 @@
         <v>42582</v>
       </c>
       <c r="B92" t="n">
-        <v>0.001390867917245409</v>
+        <v>0.001385561748707076</v>
       </c>
       <c r="C92" t="n">
-        <v>10.035217</v>
+        <v>10.02943</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.001219716620807887</v>
+        <v>-0.001216523721485174</v>
       </c>
       <c r="E92" t="n">
-        <v>10.035217</v>
+        <v>10.02943</v>
       </c>
       <c r="F92" t="n">
         <v>-0.03481481481481482</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0003869405615839483</v>
+        <v>0.0003845521002787677</v>
       </c>
       <c r="H92" t="n">
-        <v>10.179387</v>
+        <v>10.172637</v>
       </c>
       <c r="I92" t="n">
         <v>-0.07849462365591399</v>
@@ -5149,25 +5149,25 @@
         <v>42613</v>
       </c>
       <c r="B93" t="n">
-        <v>0.00213670741938099</v>
+        <v>0.002150831108429507</v>
       </c>
       <c r="C93" t="n">
-        <v>9.983022999999999</v>
+        <v>9.980618</v>
       </c>
       <c r="D93" t="n">
-        <v>0.0003869405615839483</v>
+        <v>0.0003845521002787677</v>
       </c>
       <c r="E93" t="n">
-        <v>9.983022999999999</v>
+        <v>9.980618</v>
       </c>
       <c r="F93" t="n">
         <v>-0.07849462365591399</v>
       </c>
       <c r="G93" t="n">
-        <v>0.001390867917245409</v>
+        <v>0.001385561748707076</v>
       </c>
       <c r="H93" t="n">
-        <v>10.035217</v>
+        <v>10.02943</v>
       </c>
       <c r="I93" t="n">
         <v>-0.08637992831541219</v>
@@ -5202,25 +5202,25 @@
         <v>42643</v>
       </c>
       <c r="B94" t="n">
-        <v>0.004017068141258129</v>
+        <v>0.004011520327041218</v>
       </c>
       <c r="C94" t="n">
-        <v>9.932297</v>
+        <v>9.936771999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001390867917245409</v>
+        <v>0.001385561748707076</v>
       </c>
       <c r="E94" t="n">
-        <v>9.932297</v>
+        <v>9.936771999999999</v>
       </c>
       <c r="F94" t="n">
         <v>-0.08637992831541219</v>
       </c>
       <c r="G94" t="n">
-        <v>0.00213670741938099</v>
+        <v>0.002150831108429507</v>
       </c>
       <c r="H94" t="n">
-        <v>9.983022999999999</v>
+        <v>9.980618</v>
       </c>
       <c r="I94" t="n">
         <v>-0.02555555555555556</v>
@@ -5255,25 +5255,25 @@
         <v>42674</v>
       </c>
       <c r="B95" t="n">
-        <v>0.005279462939219215</v>
+        <v>0.00527478484431132</v>
       </c>
       <c r="C95" t="n">
-        <v>9.848820999999999</v>
+        <v>9.854221000000001</v>
       </c>
       <c r="D95" t="n">
-        <v>0.00213670741938099</v>
+        <v>0.002150831108429507</v>
       </c>
       <c r="E95" t="n">
-        <v>9.848820999999999</v>
+        <v>9.854221000000001</v>
       </c>
       <c r="F95" t="n">
         <v>-0.02555555555555556</v>
       </c>
       <c r="G95" t="n">
-        <v>0.004017068141258129</v>
+        <v>0.004011520327041218</v>
       </c>
       <c r="H95" t="n">
-        <v>9.932297</v>
+        <v>9.936771999999999</v>
       </c>
       <c r="I95" t="n">
         <v>0.04695340501792115</v>
@@ -5308,25 +5308,25 @@
         <v>42704</v>
       </c>
       <c r="B96" t="n">
-        <v>0.006038782977345392</v>
+        <v>0.006040724645777651</v>
       </c>
       <c r="C96" t="n">
-        <v>9.875275</v>
+        <v>9.879405999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>0.004017068141258129</v>
+        <v>0.004011520327041218</v>
       </c>
       <c r="E96" t="n">
-        <v>9.875275</v>
+        <v>9.879405999999999</v>
       </c>
       <c r="F96" t="n">
         <v>0.04695340501792115</v>
       </c>
       <c r="G96" t="n">
-        <v>0.005279462939219215</v>
+        <v>0.00527478484431132</v>
       </c>
       <c r="H96" t="n">
-        <v>9.848820999999999</v>
+        <v>9.854221000000001</v>
       </c>
       <c r="I96" t="n">
         <v>0.004444444444444444</v>
@@ -5361,25 +5361,25 @@
         <v>42735</v>
       </c>
       <c r="B97" t="n">
-        <v>0.01115626619809085</v>
+        <v>0.01115955543137304</v>
       </c>
       <c r="C97" t="n">
-        <v>9.749655000000001</v>
+        <v>9.755333</v>
       </c>
       <c r="D97" t="n">
-        <v>0.005279462939219215</v>
+        <v>0.00527478484431132</v>
       </c>
       <c r="E97" t="n">
-        <v>9.749655000000001</v>
+        <v>9.755333</v>
       </c>
       <c r="F97" t="n">
         <v>0.004444444444444444</v>
       </c>
       <c r="G97" t="n">
-        <v>0.006038782977345392</v>
+        <v>0.006040724645777651</v>
       </c>
       <c r="H97" t="n">
-        <v>9.875275</v>
+        <v>9.879405999999999</v>
       </c>
       <c r="I97" t="n">
         <v>-0.07025089605734766</v>
@@ -5414,25 +5414,25 @@
         <v>42766</v>
       </c>
       <c r="B98" t="n">
-        <v>0.01711249667221182</v>
+        <v>0.01711320732011945</v>
       </c>
       <c r="C98" t="n">
-        <v>9.646739999999999</v>
+        <v>9.650510000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.006038782977345392</v>
+        <v>0.006040724645777651</v>
       </c>
       <c r="E98" t="n">
-        <v>9.646739999999999</v>
+        <v>9.650510000000001</v>
       </c>
       <c r="F98" t="n">
         <v>-0.07025089605734766</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01115626619809085</v>
+        <v>0.01115955543137304</v>
       </c>
       <c r="H98" t="n">
-        <v>9.749655000000001</v>
+        <v>9.755333</v>
       </c>
       <c r="I98" t="n">
         <v>-0.1329749103942652</v>
@@ -5467,25 +5467,25 @@
         <v>42794</v>
       </c>
       <c r="B99" t="n">
-        <v>0.01948767661287398</v>
+        <v>0.01949188514549327</v>
       </c>
       <c r="C99" t="n">
-        <v>9.543462999999999</v>
+        <v>9.548285999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>0.01115626619809085</v>
+        <v>0.01115955543137304</v>
       </c>
       <c r="E99" t="n">
-        <v>9.543462999999999</v>
+        <v>9.548285999999999</v>
       </c>
       <c r="F99" t="n">
         <v>-0.1329749103942652</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01711249667221182</v>
+        <v>0.01711320732011945</v>
       </c>
       <c r="H99" t="n">
-        <v>9.646739999999999</v>
+        <v>9.650510000000001</v>
       </c>
       <c r="I99" t="n">
         <v>-0.01150793650793651</v>
@@ -5520,25 +5520,25 @@
         <v>42825</v>
       </c>
       <c r="B100" t="n">
-        <v>0.01633451196065305</v>
+        <v>0.01633094974643789</v>
       </c>
       <c r="C100" t="n">
-        <v>9.4786</v>
+        <v>9.478683</v>
       </c>
       <c r="D100" t="n">
-        <v>0.01711249667221182</v>
+        <v>0.01711320732011945</v>
       </c>
       <c r="E100" t="n">
-        <v>9.4786</v>
+        <v>9.478683</v>
       </c>
       <c r="F100" t="n">
         <v>-0.01150793650793651</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01948767661287398</v>
+        <v>0.01949188514549327</v>
       </c>
       <c r="H100" t="n">
-        <v>9.543462999999999</v>
+        <v>9.548285999999999</v>
       </c>
       <c r="I100" t="n">
         <v>0.01827956989247312</v>
@@ -5573,25 +5573,25 @@
         <v>42855</v>
       </c>
       <c r="B101" t="n">
-        <v>0.01802623104759959</v>
+        <v>0.01802277877143244</v>
       </c>
       <c r="C101" t="n">
-        <v>9.303618</v>
+        <v>9.30217</v>
       </c>
       <c r="D101" t="n">
-        <v>0.01948767661287398</v>
+        <v>0.01949188514549327</v>
       </c>
       <c r="E101" t="n">
-        <v>9.303618</v>
+        <v>9.30217</v>
       </c>
       <c r="F101" t="n">
         <v>0.01827956989247312</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01633451196065305</v>
+        <v>0.01633094974643789</v>
       </c>
       <c r="H101" t="n">
-        <v>9.4786</v>
+        <v>9.478683</v>
       </c>
       <c r="I101" t="n">
         <v>0.002592592592592593</v>
@@ -5626,25 +5626,25 @@
         <v>42886</v>
       </c>
       <c r="B102" t="n">
-        <v>0.01427577154244553</v>
+        <v>0.01428326308294636</v>
       </c>
       <c r="C102" t="n">
-        <v>9.276884000000001</v>
+        <v>9.271074</v>
       </c>
       <c r="D102" t="n">
-        <v>0.01633451196065305</v>
+        <v>0.01633094974643789</v>
       </c>
       <c r="E102" t="n">
-        <v>9.276884000000001</v>
+        <v>9.271074</v>
       </c>
       <c r="F102" t="n">
         <v>0.002592592592592593</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01802623104759959</v>
+        <v>0.01802277877143244</v>
       </c>
       <c r="H102" t="n">
-        <v>9.303618</v>
+        <v>9.30217</v>
       </c>
       <c r="I102" t="n">
         <v>-0.103584229390681</v>
@@ -5679,25 +5679,25 @@
         <v>42916</v>
       </c>
       <c r="B103" t="n">
-        <v>0.01200494086157633</v>
+        <v>0.01200225275849043</v>
       </c>
       <c r="C103" t="n">
-        <v>9.119872000000001</v>
+        <v>9.108027</v>
       </c>
       <c r="D103" t="n">
-        <v>0.01802623104759959</v>
+        <v>0.01802277877143244</v>
       </c>
       <c r="E103" t="n">
-        <v>9.119872000000001</v>
+        <v>9.108027</v>
       </c>
       <c r="F103" t="n">
         <v>-0.103584229390681</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01427577154244553</v>
+        <v>0.01428326308294636</v>
       </c>
       <c r="H103" t="n">
-        <v>9.276884000000001</v>
+        <v>9.271074</v>
       </c>
       <c r="I103" t="n">
         <v>-0.1003703703703704</v>
@@ -5732,25 +5732,25 @@
         <v>42947</v>
       </c>
       <c r="B104" t="n">
-        <v>0.01251777090522843</v>
+        <v>0.01251478292935104</v>
       </c>
       <c r="C104" t="n">
-        <v>9.094455999999999</v>
+        <v>9.085086</v>
       </c>
       <c r="D104" t="n">
-        <v>0.01427577154244553</v>
+        <v>0.01428326308294636</v>
       </c>
       <c r="E104" t="n">
-        <v>9.094455999999999</v>
+        <v>9.085086</v>
       </c>
       <c r="F104" t="n">
         <v>-0.1003703703703704</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01200494086157633</v>
+        <v>0.01200225275849043</v>
       </c>
       <c r="H104" t="n">
-        <v>9.119872000000001</v>
+        <v>9.108027</v>
       </c>
       <c r="I104" t="n">
         <v>-0.110752688172043</v>
@@ -5785,25 +5785,25 @@
         <v>42978</v>
       </c>
       <c r="B105" t="n">
-        <v>0.01439236359028495</v>
+        <v>0.01439783668521066</v>
       </c>
       <c r="C105" t="n">
-        <v>9.027207000000001</v>
+        <v>9.021819000000001</v>
       </c>
       <c r="D105" t="n">
-        <v>0.01200494086157633</v>
+        <v>0.01200225275849043</v>
       </c>
       <c r="E105" t="n">
-        <v>9.027207000000001</v>
+        <v>9.021819000000001</v>
       </c>
       <c r="F105" t="n">
         <v>-0.110752688172043</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01251777090522843</v>
+        <v>0.01251478292935104</v>
       </c>
       <c r="H105" t="n">
-        <v>9.094455999999999</v>
+        <v>9.085086</v>
       </c>
       <c r="I105" t="n">
         <v>-0.05340501792114695</v>
@@ -5838,25 +5838,25 @@
         <v>43008</v>
       </c>
       <c r="B106" t="n">
-        <v>0.01537342207657844</v>
+        <v>0.015366259670893</v>
       </c>
       <c r="C106" t="n">
-        <v>8.921080999999999</v>
+        <v>8.922584000000001</v>
       </c>
       <c r="D106" t="n">
-        <v>0.01251777090522843</v>
+        <v>0.01251478292935104</v>
       </c>
       <c r="E106" t="n">
-        <v>8.921080999999999</v>
+        <v>8.922584000000001</v>
       </c>
       <c r="F106" t="n">
         <v>-0.05340501792114695</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01439236359028495</v>
+        <v>0.01439783668521066</v>
       </c>
       <c r="H106" t="n">
-        <v>9.027207000000001</v>
+        <v>9.021819000000001</v>
       </c>
       <c r="I106" t="n">
         <v>-0.03592592592592592</v>
@@ -5891,25 +5891,25 @@
         <v>43039</v>
       </c>
       <c r="B107" t="n">
-        <v>0.01372306863190964</v>
+        <v>0.013715209762311</v>
       </c>
       <c r="C107" t="n">
-        <v>8.816445</v>
+        <v>8.818985</v>
       </c>
       <c r="D107" t="n">
-        <v>0.01439236359028495</v>
+        <v>0.01439783668521066</v>
       </c>
       <c r="E107" t="n">
-        <v>8.816445</v>
+        <v>8.818985</v>
       </c>
       <c r="F107" t="n">
         <v>-0.03592592592592592</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01537342207657844</v>
+        <v>0.015366259670893</v>
       </c>
       <c r="H107" t="n">
-        <v>8.921080999999999</v>
+        <v>8.922584000000001</v>
       </c>
       <c r="I107" t="n">
         <v>-0.07670250896057347</v>
@@ -5944,25 +5944,25 @@
         <v>43069</v>
       </c>
       <c r="B108" t="n">
-        <v>0.01556895479400033</v>
+        <v>0.01557541985044431</v>
       </c>
       <c r="C108" t="n">
-        <v>8.754446</v>
+        <v>8.759719</v>
       </c>
       <c r="D108" t="n">
-        <v>0.01537342207657844</v>
+        <v>0.015366259670893</v>
       </c>
       <c r="E108" t="n">
-        <v>8.754446</v>
+        <v>8.759719</v>
       </c>
       <c r="F108" t="n">
         <v>-0.07670250896057347</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01372306863190964</v>
+        <v>0.013715209762311</v>
       </c>
       <c r="H108" t="n">
-        <v>8.816445</v>
+        <v>8.818985</v>
       </c>
       <c r="I108" t="n">
         <v>-0.1874074074074074</v>
@@ -5997,25 +5997,25 @@
         <v>43100</v>
       </c>
       <c r="B109" t="n">
-        <v>0.01353133650411387</v>
+        <v>0.01353605142650238</v>
       </c>
       <c r="C109" t="n">
-        <v>8.717273</v>
+        <v>8.722681</v>
       </c>
       <c r="D109" t="n">
-        <v>0.01372306863190964</v>
+        <v>0.013715209762311</v>
       </c>
       <c r="E109" t="n">
-        <v>8.717273</v>
+        <v>8.722681</v>
       </c>
       <c r="F109" t="n">
         <v>-0.1874074074074074</v>
       </c>
       <c r="G109" t="n">
-        <v>0.01556895479400033</v>
+        <v>0.01557541985044431</v>
       </c>
       <c r="H109" t="n">
-        <v>8.754446</v>
+        <v>8.759719</v>
       </c>
       <c r="I109" t="n">
         <v>-0.2541218637992831</v>
@@ -6050,25 +6050,25 @@
         <v>43131</v>
       </c>
       <c r="B110" t="n">
-        <v>0.01298902191729479</v>
+        <v>0.0129906829072528</v>
       </c>
       <c r="C110" t="n">
-        <v>8.691851</v>
+        <v>8.697400999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.01556895479400033</v>
+        <v>0.01557541985044431</v>
       </c>
       <c r="E110" t="n">
-        <v>8.691851</v>
+        <v>8.697400999999999</v>
       </c>
       <c r="F110" t="n">
         <v>-0.2541218637992831</v>
       </c>
       <c r="G110" t="n">
-        <v>0.01353133650411387</v>
+        <v>0.01353605142650238</v>
       </c>
       <c r="H110" t="n">
-        <v>8.717273</v>
+        <v>8.722681</v>
       </c>
       <c r="I110" t="n">
         <v>-0.2258064516129032</v>
@@ -6103,25 +6103,25 @@
         <v>43159</v>
       </c>
       <c r="B111" t="n">
-        <v>0.01128488850162501</v>
+        <v>0.01129204710696907</v>
       </c>
       <c r="C111" t="n">
-        <v>8.601516999999999</v>
+        <v>8.608027999999999</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01353133650411387</v>
+        <v>0.01353605142650238</v>
       </c>
       <c r="E111" t="n">
-        <v>8.601516999999999</v>
+        <v>8.608027999999999</v>
       </c>
       <c r="F111" t="n">
         <v>-0.2258064516129032</v>
       </c>
       <c r="G111" t="n">
-        <v>0.01298902191729479</v>
+        <v>0.0129906829072528</v>
       </c>
       <c r="H111" t="n">
-        <v>8.691851</v>
+        <v>8.697400999999999</v>
       </c>
       <c r="I111" t="n">
         <v>-0.1976190476190476</v>
@@ -6156,25 +6156,25 @@
         <v>43190</v>
       </c>
       <c r="B112" t="n">
-        <v>0.01370087935758146</v>
+        <v>0.01369918017241112</v>
       </c>
       <c r="C112" t="n">
-        <v>8.543922</v>
+        <v>8.546536</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01298902191729479</v>
+        <v>0.0129906829072528</v>
       </c>
       <c r="E112" t="n">
-        <v>8.543922</v>
+        <v>8.546536</v>
       </c>
       <c r="F112" t="n">
         <v>-0.1976190476190476</v>
       </c>
       <c r="G112" t="n">
-        <v>0.01128488850162501</v>
+        <v>0.01129204710696907</v>
       </c>
       <c r="H112" t="n">
-        <v>8.601516999999999</v>
+        <v>8.608027999999999</v>
       </c>
       <c r="I112" t="n">
         <v>-0.1598566308243728</v>
@@ -6209,25 +6209,25 @@
         <v>43220</v>
       </c>
       <c r="B113" t="n">
-        <v>0.01320737561341012</v>
+        <v>0.01320112833862375</v>
       </c>
       <c r="C113" t="n">
-        <v>8.449683</v>
+        <v>8.450673</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01128488850162501</v>
+        <v>0.01129204710696907</v>
       </c>
       <c r="E113" t="n">
-        <v>8.449683</v>
+        <v>8.450673</v>
       </c>
       <c r="F113" t="n">
         <v>-0.1598566308243728</v>
       </c>
       <c r="G113" t="n">
-        <v>0.01370087935758146</v>
+        <v>0.01369918017241112</v>
       </c>
       <c r="H113" t="n">
-        <v>8.543922</v>
+        <v>8.546536</v>
       </c>
       <c r="I113" t="n">
         <v>-0.1362962962962963</v>
@@ -6262,25 +6262,25 @@
         <v>43251</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0186337325263608</v>
+        <v>0.01863514847486236</v>
       </c>
       <c r="C114" t="n">
-        <v>8.307713</v>
+        <v>8.301833999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01370087935758146</v>
+        <v>0.01369918017241112</v>
       </c>
       <c r="E114" t="n">
-        <v>8.307713</v>
+        <v>8.301833999999999</v>
       </c>
       <c r="F114" t="n">
         <v>-0.1362962962962963</v>
       </c>
       <c r="G114" t="n">
-        <v>0.01320737561341012</v>
+        <v>0.01320112833862375</v>
       </c>
       <c r="H114" t="n">
-        <v>8.449683</v>
+        <v>8.450673</v>
       </c>
       <c r="I114" t="n">
         <v>-0.1283154121863799</v>
@@ -6315,25 +6315,25 @@
         <v>43281</v>
       </c>
       <c r="B115" t="n">
-        <v>0.01994788804494974</v>
+        <v>0.01994561328141753</v>
       </c>
       <c r="C115" t="n">
-        <v>8.242457</v>
+        <v>8.233905</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01320737561341012</v>
+        <v>0.01320112833862375</v>
       </c>
       <c r="E115" t="n">
-        <v>8.242457</v>
+        <v>8.233905</v>
       </c>
       <c r="F115" t="n">
         <v>-0.1283154121863799</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0186337325263608</v>
+        <v>0.01863514847486236</v>
       </c>
       <c r="H115" t="n">
-        <v>8.307713</v>
+        <v>8.301833999999999</v>
       </c>
       <c r="I115" t="n">
         <v>-0.1188888888888889</v>
@@ -6368,25 +6368,25 @@
         <v>43312</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02094736368274219</v>
+        <v>0.02093881618421634</v>
       </c>
       <c r="C116" t="n">
-        <v>8.109772</v>
+        <v>8.103975999999999</v>
       </c>
       <c r="D116" t="n">
-        <v>0.0186337325263608</v>
+        <v>0.01863514847486236</v>
       </c>
       <c r="E116" t="n">
-        <v>8.109772</v>
+        <v>8.103975999999999</v>
       </c>
       <c r="F116" t="n">
         <v>-0.1188888888888889</v>
       </c>
       <c r="G116" t="n">
-        <v>0.01994788804494974</v>
+        <v>0.01994561328141753</v>
       </c>
       <c r="H116" t="n">
-        <v>8.242457</v>
+        <v>8.233905</v>
       </c>
       <c r="I116" t="n">
         <v>-0.1075268817204301</v>
@@ -6421,25 +6421,25 @@
         <v>43343</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02017544797872262</v>
+        <v>0.02017638448634251</v>
       </c>
       <c r="C117" t="n">
-        <v>8.041744</v>
+        <v>8.036504000000001</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01994788804494974</v>
+        <v>0.01994561328141753</v>
       </c>
       <c r="E117" t="n">
-        <v>8.041744</v>
+        <v>8.036504000000001</v>
       </c>
       <c r="F117" t="n">
         <v>-0.1075268817204301</v>
       </c>
       <c r="G117" t="n">
-        <v>0.02094736368274219</v>
+        <v>0.02093881618421634</v>
       </c>
       <c r="H117" t="n">
-        <v>8.109772</v>
+        <v>8.103975999999999</v>
       </c>
       <c r="I117" t="n">
         <v>-0.07598566308243727</v>
@@ -6474,25 +6474,25 @@
         <v>43373</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02077539722479038</v>
+        <v>0.02077599451767931</v>
       </c>
       <c r="C118" t="n">
-        <v>8.015822</v>
+        <v>8.017390000000001</v>
       </c>
       <c r="D118" t="n">
-        <v>0.02094736368274219</v>
+        <v>0.02093881618421634</v>
       </c>
       <c r="E118" t="n">
-        <v>8.015822</v>
+        <v>8.017390000000001</v>
       </c>
       <c r="F118" t="n">
         <v>-0.07598566308243727</v>
       </c>
       <c r="G118" t="n">
-        <v>0.02017544797872262</v>
+        <v>0.02017638448634251</v>
       </c>
       <c r="H118" t="n">
-        <v>8.041744</v>
+        <v>8.036504000000001</v>
       </c>
       <c r="I118" t="n">
         <v>-0.06481481481481481</v>
@@ -6527,25 +6527,25 @@
         <v>43404</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02254816371162871</v>
+        <v>0.02254635983784947</v>
       </c>
       <c r="C119" t="n">
-        <v>8.032821</v>
+        <v>8.033531</v>
       </c>
       <c r="D119" t="n">
-        <v>0.02017544797872262</v>
+        <v>0.02017638448634251</v>
       </c>
       <c r="E119" t="n">
-        <v>8.032821</v>
+        <v>8.033531</v>
       </c>
       <c r="F119" t="n">
         <v>-0.06481481481481481</v>
       </c>
       <c r="G119" t="n">
-        <v>0.02077539722479038</v>
+        <v>0.02077599451767931</v>
       </c>
       <c r="H119" t="n">
-        <v>8.015822</v>
+        <v>8.017390000000001</v>
       </c>
       <c r="I119" t="n">
         <v>-0.06021505376344086</v>
@@ -6580,25 +6580,25 @@
         <v>43434</v>
       </c>
       <c r="B120" t="n">
-        <v>0.01948549478446981</v>
+        <v>0.01948944081486026</v>
       </c>
       <c r="C120" t="n">
-        <v>7.943298</v>
+        <v>7.945635</v>
       </c>
       <c r="D120" t="n">
-        <v>0.02077539722479038</v>
+        <v>0.02077599451767931</v>
       </c>
       <c r="E120" t="n">
-        <v>7.943298</v>
+        <v>7.945635</v>
       </c>
       <c r="F120" t="n">
         <v>-0.06021505376344086</v>
       </c>
       <c r="G120" t="n">
-        <v>0.02254816371162871</v>
+        <v>0.02254635983784947</v>
       </c>
       <c r="H120" t="n">
-        <v>8.032821</v>
+        <v>8.033531</v>
       </c>
       <c r="I120" t="n">
         <v>-0.03555555555555556</v>
@@ -6633,25 +6633,25 @@
         <v>43465</v>
       </c>
       <c r="B121" t="n">
-        <v>0.01548528580343955</v>
+        <v>0.01548643141792727</v>
       </c>
       <c r="C121" t="n">
-        <v>7.873843</v>
+        <v>7.877681</v>
       </c>
       <c r="D121" t="n">
-        <v>0.02254816371162871</v>
+        <v>0.02254635983784947</v>
       </c>
       <c r="E121" t="n">
-        <v>7.873843</v>
+        <v>7.877681</v>
       </c>
       <c r="F121" t="n">
         <v>-0.03555555555555556</v>
       </c>
       <c r="G121" t="n">
-        <v>0.01948549478446981</v>
+        <v>0.01948944081486026</v>
       </c>
       <c r="H121" t="n">
-        <v>7.943298</v>
+        <v>7.945635</v>
       </c>
       <c r="I121" t="n">
         <v>-0.06164874551971326</v>
@@ -6686,25 +6686,25 @@
         <v>43496</v>
       </c>
       <c r="B122" t="n">
-        <v>0.01249464812804124</v>
+        <v>0.0125018427796828</v>
       </c>
       <c r="C122" t="n">
-        <v>7.86023</v>
+        <v>7.863578</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01948549478446981</v>
+        <v>0.01948944081486026</v>
       </c>
       <c r="E122" t="n">
-        <v>7.86023</v>
+        <v>7.863578</v>
       </c>
       <c r="F122" t="n">
         <v>-0.06164874551971326</v>
       </c>
       <c r="G122" t="n">
-        <v>0.01548528580343955</v>
+        <v>0.01548643141792727</v>
       </c>
       <c r="H122" t="n">
-        <v>7.873843</v>
+        <v>7.877681</v>
       </c>
       <c r="I122" t="n">
         <v>-0.05913978494623656</v>
@@ -6739,25 +6739,25 @@
         <v>43524</v>
       </c>
       <c r="B123" t="n">
-        <v>0.0137593137367924</v>
+        <v>0.01376456081564115</v>
       </c>
       <c r="C123" t="n">
-        <v>7.821937</v>
+        <v>7.828045</v>
       </c>
       <c r="D123" t="n">
-        <v>0.01548528580343955</v>
+        <v>0.01548643141792727</v>
       </c>
       <c r="E123" t="n">
-        <v>7.821937</v>
+        <v>7.828045</v>
       </c>
       <c r="F123" t="n">
         <v>-0.05913978494623656</v>
       </c>
       <c r="G123" t="n">
-        <v>0.01249464812804124</v>
+        <v>0.0125018427796828</v>
       </c>
       <c r="H123" t="n">
-        <v>7.86023</v>
+        <v>7.863578</v>
       </c>
       <c r="I123" t="n">
         <v>-0.08690476190476192</v>
@@ -6781,10 +6781,10 @@
         <v>-0.1075268817204301</v>
       </c>
       <c r="P123" t="n">
-        <v>7.848228619864061</v>
+        <v>7.851882379545598</v>
       </c>
       <c r="Q123" t="n">
-        <v>7.817867203856625</v>
+        <v>7.821544945247702</v>
       </c>
     </row>
     <row r="124">
@@ -6792,25 +6792,25 @@
         <v>43555</v>
       </c>
       <c r="B124" t="n">
-        <v>0.01430760530313258</v>
+        <v>0.01430892180474963</v>
       </c>
       <c r="C124" t="n">
-        <v>7.741132</v>
+        <v>7.744068</v>
       </c>
       <c r="D124" t="n">
-        <v>0.01249464812804124</v>
+        <v>0.0125018427796828</v>
       </c>
       <c r="E124" t="n">
-        <v>7.741132</v>
+        <v>7.744068</v>
       </c>
       <c r="F124" t="n">
         <v>-0.08690476190476192</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0137593137367924</v>
+        <v>0.01376456081564115</v>
       </c>
       <c r="H124" t="n">
-        <v>7.821937</v>
+        <v>7.828045</v>
       </c>
       <c r="I124" t="n">
         <v>-0.1132616487455197</v>
@@ -6834,10 +6834,10 @@
         <v>-0.07598566308243727</v>
       </c>
       <c r="P124" t="n">
-        <v>7.808655687327477</v>
+        <v>7.81519336716034</v>
       </c>
       <c r="Q124" t="n">
-        <v>7.76931994962762</v>
+        <v>7.775858023388309</v>
       </c>
     </row>
     <row r="125">
@@ -6845,25 +6845,25 @@
         <v>43585</v>
       </c>
       <c r="B125" t="n">
-        <v>0.01606006947105598</v>
+        <v>0.01605926836460636</v>
       </c>
       <c r="C125" t="n">
-        <v>7.72654</v>
+        <v>7.729608</v>
       </c>
       <c r="D125" t="n">
-        <v>0.0137593137367924</v>
+        <v>0.01376456081564115</v>
       </c>
       <c r="E125" t="n">
-        <v>7.72654</v>
+        <v>7.729608</v>
       </c>
       <c r="F125" t="n">
         <v>-0.1132616487455197</v>
       </c>
       <c r="G125" t="n">
-        <v>0.01430760530313258</v>
+        <v>0.01430892180474963</v>
       </c>
       <c r="H125" t="n">
-        <v>7.741132</v>
+        <v>7.744068</v>
       </c>
       <c r="I125" t="n">
         <v>-0.107037037037037</v>
@@ -6887,10 +6887,10 @@
         <v>-0.06481481481481481</v>
       </c>
       <c r="P125" t="n">
-        <v>7.724605206119145</v>
+        <v>7.727822143845401</v>
       </c>
       <c r="Q125" t="n">
-        <v>7.677070855120668</v>
+        <v>7.680217928025353</v>
       </c>
     </row>
     <row r="126">
@@ -6898,25 +6898,25 @@
         <v>43616</v>
       </c>
       <c r="B126" t="n">
-        <v>0.01269957209845796</v>
+        <v>0.01269765100505627</v>
       </c>
       <c r="C126" t="n">
-        <v>7.619759</v>
+        <v>7.617466</v>
       </c>
       <c r="D126" t="n">
-        <v>0.01430760530313258</v>
+        <v>0.01430892180474963</v>
       </c>
       <c r="E126" t="n">
-        <v>7.619759</v>
+        <v>7.617466</v>
       </c>
       <c r="F126" t="n">
         <v>-0.107037037037037</v>
       </c>
       <c r="G126" t="n">
-        <v>0.01606006947105598</v>
+        <v>0.01605926836460636</v>
       </c>
       <c r="H126" t="n">
-        <v>7.72654</v>
+        <v>7.729608</v>
       </c>
       <c r="I126" t="n">
         <v>-0.1315412186379928</v>
@@ -6940,10 +6940,10 @@
         <v>-0.06021505376344086</v>
       </c>
       <c r="P126" t="n">
-        <v>7.710033141741571</v>
+        <v>7.713377320805133</v>
       </c>
       <c r="Q126" t="n">
-        <v>7.667255086209536</v>
+        <v>7.670537748354791</v>
       </c>
     </row>
     <row r="127">
@@ -6951,25 +6951,25 @@
         <v>43646</v>
       </c>
       <c r="B127" t="n">
-        <v>0.01207565878850048</v>
+        <v>0.01207035423709879</v>
       </c>
       <c r="C127" t="n">
-        <v>7.530926</v>
+        <v>7.526409</v>
       </c>
       <c r="D127" t="n">
-        <v>0.01606006947105598</v>
+        <v>0.01605926836460636</v>
       </c>
       <c r="E127" t="n">
-        <v>7.530926</v>
+        <v>7.526409</v>
       </c>
       <c r="F127" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G127" t="n">
-        <v>0.01269957209845796</v>
+        <v>0.01269765100505627</v>
       </c>
       <c r="H127" t="n">
-        <v>7.619759</v>
+        <v>7.617466</v>
       </c>
       <c r="I127" t="n">
         <v>-0.04148148148148148</v>
@@ -6993,10 +6993,10 @@
         <v>-0.03555555555555556</v>
       </c>
       <c r="P127" t="n">
-        <v>7.598896309723944</v>
+        <v>7.59662344204867</v>
       </c>
       <c r="Q127" t="n">
-        <v>7.54893118678155</v>
+        <v>7.546556458376172</v>
       </c>
     </row>
     <row r="128">
@@ -7004,25 +7004,25 @@
         <v>43677</v>
       </c>
       <c r="B128" t="n">
-        <v>0.01106609778073508</v>
+        <v>0.01106200698904569</v>
       </c>
       <c r="C128" t="n">
-        <v>7.531724</v>
+        <v>7.527594</v>
       </c>
       <c r="D128" t="n">
-        <v>0.01269957209845796</v>
+        <v>0.01269765100505627</v>
       </c>
       <c r="E128" t="n">
-        <v>7.531724</v>
+        <v>7.527594</v>
       </c>
       <c r="F128" t="n">
         <v>-0.04148148148148148</v>
       </c>
       <c r="G128" t="n">
-        <v>0.01207565878850048</v>
+        <v>0.01207035423709879</v>
       </c>
       <c r="H128" t="n">
-        <v>7.530926</v>
+        <v>7.526409</v>
       </c>
       <c r="I128" t="n">
         <v>-0.05555555555555556</v>
@@ -7046,10 +7046,10 @@
         <v>-0.06164874551971326</v>
       </c>
       <c r="P128" t="n">
-        <v>7.506594538825405</v>
+        <v>7.501981856880992</v>
       </c>
       <c r="Q128" t="n">
-        <v>7.492824388173744</v>
+        <v>7.488247006057126</v>
       </c>
     </row>
     <row r="129">
@@ -7057,25 +7057,25 @@
         <v>43708</v>
       </c>
       <c r="B129" t="n">
-        <v>0.01088408534105501</v>
+        <v>0.0108693104359725</v>
       </c>
       <c r="C129" t="n">
-        <v>7.461469</v>
+        <v>7.460633</v>
       </c>
       <c r="D129" t="n">
-        <v>0.01207565878850048</v>
+        <v>0.01207035423709879</v>
       </c>
       <c r="E129" t="n">
-        <v>7.461469</v>
+        <v>7.460633</v>
       </c>
       <c r="F129" t="n">
         <v>-0.05555555555555556</v>
       </c>
       <c r="G129" t="n">
-        <v>0.01106609778073508</v>
+        <v>0.01106200698904569</v>
       </c>
       <c r="H129" t="n">
-        <v>7.531724</v>
+        <v>7.527594</v>
       </c>
       <c r="I129" t="n">
         <v>-0.08602150537634408</v>
@@ -7099,10 +7099,10 @@
         <v>-0.05913978494623656</v>
       </c>
       <c r="P129" t="n">
-        <v>7.508479525427925</v>
+        <v>7.504279880002199</v>
       </c>
       <c r="Q129" t="n">
-        <v>7.464692241907473</v>
+        <v>7.460678009205641</v>
       </c>
     </row>
     <row r="130">
@@ -7110,25 +7110,25 @@
         <v>43738</v>
       </c>
       <c r="B130" t="n">
-        <v>0.008992703697465743</v>
+        <v>0.008996586612025403</v>
       </c>
       <c r="C130" t="n">
-        <v>7.465112</v>
+        <v>7.469752</v>
       </c>
       <c r="D130" t="n">
-        <v>0.01106609778073508</v>
+        <v>0.01106200698904569</v>
       </c>
       <c r="E130" t="n">
-        <v>7.465112</v>
+        <v>7.469752</v>
       </c>
       <c r="F130" t="n">
         <v>-0.08602150537634408</v>
       </c>
       <c r="G130" t="n">
-        <v>0.01088408534105501</v>
+        <v>0.0108693104359725</v>
       </c>
       <c r="H130" t="n">
-        <v>7.461469</v>
+        <v>7.460633</v>
       </c>
       <c r="I130" t="n">
         <v>-0.1240740740740741</v>
@@ -7152,10 +7152,10 @@
         <v>-0.08690476190476192</v>
       </c>
       <c r="P130" t="n">
-        <v>7.435816077535367</v>
+        <v>7.435069130580113</v>
       </c>
       <c r="Q130" t="n">
-        <v>7.414026677984557</v>
+        <v>7.413632661123748</v>
       </c>
     </row>
     <row r="131">
@@ -7163,25 +7163,25 @@
         <v>43769</v>
       </c>
       <c r="B131" t="n">
-        <v>0.00793532315686285</v>
+        <v>0.007937747239839865</v>
       </c>
       <c r="C131" t="n">
-        <v>7.435742</v>
+        <v>7.436842</v>
       </c>
       <c r="D131" t="n">
-        <v>0.01088408534105501</v>
+        <v>0.0108693104359725</v>
       </c>
       <c r="E131" t="n">
-        <v>7.435742</v>
+        <v>7.436842</v>
       </c>
       <c r="F131" t="n">
         <v>-0.1240740740740741</v>
       </c>
       <c r="G131" t="n">
-        <v>0.008992703697465743</v>
+        <v>0.008996586612025403</v>
       </c>
       <c r="H131" t="n">
-        <v>7.465112</v>
+        <v>7.469752</v>
       </c>
       <c r="I131" t="n">
         <v>-0.07060931899641576</v>
@@ -7205,10 +7205,10 @@
         <v>-0.1132616487455197</v>
       </c>
       <c r="P131" t="n">
-        <v>7.440690370159365</v>
+        <v>7.445675726620194</v>
       </c>
       <c r="Q131" t="n">
-        <v>7.42768962264143</v>
+        <v>7.432247024745126</v>
       </c>
     </row>
     <row r="132">
@@ -7216,25 +7216,25 @@
         <v>43799</v>
       </c>
       <c r="B132" t="n">
-        <v>0.008997304167578157</v>
+        <v>0.009005254332639545</v>
       </c>
       <c r="C132" t="n">
-        <v>7.481122</v>
+        <v>7.484284</v>
       </c>
       <c r="D132" t="n">
-        <v>0.008992703697465743</v>
+        <v>0.008996586612025403</v>
       </c>
       <c r="E132" t="n">
-        <v>7.481122</v>
+        <v>7.484284</v>
       </c>
       <c r="F132" t="n">
         <v>-0.07060931899641576</v>
       </c>
       <c r="G132" t="n">
-        <v>0.00793532315686285</v>
+        <v>0.007937747239839865</v>
       </c>
       <c r="H132" t="n">
-        <v>7.435742</v>
+        <v>7.436842</v>
       </c>
       <c r="I132" t="n">
         <v>0.02962962962962963</v>
@@ -7258,10 +7258,10 @@
         <v>-0.107037037037037</v>
       </c>
       <c r="P132" t="n">
-        <v>7.41093762850978</v>
+        <v>7.412209496650496</v>
       </c>
       <c r="Q132" t="n">
-        <v>7.415478378266476</v>
+        <v>7.417452003586352</v>
       </c>
     </row>
     <row r="133">
@@ -7269,25 +7269,25 @@
         <v>43830</v>
       </c>
       <c r="B133" t="n">
-        <v>0.01334823644486871</v>
+        <v>0.0133504668876272</v>
       </c>
       <c r="C133" t="n">
-        <v>7.489195</v>
+        <v>7.488893</v>
       </c>
       <c r="D133" t="n">
-        <v>0.00793532315686285</v>
+        <v>0.007937747239839865</v>
       </c>
       <c r="E133" t="n">
-        <v>7.489195</v>
+        <v>7.488893</v>
       </c>
       <c r="F133" t="n">
         <v>0.02962962962962963</v>
       </c>
       <c r="G133" t="n">
-        <v>0.008997304167578157</v>
+        <v>0.009005254332639545</v>
       </c>
       <c r="H133" t="n">
-        <v>7.481122</v>
+        <v>7.484284</v>
       </c>
       <c r="I133" t="n">
         <v>0.01505376344086022</v>
@@ -7311,10 +7311,10 @@
         <v>-0.1315412186379928</v>
       </c>
       <c r="P133" t="n">
-        <v>7.459284192409145</v>
+        <v>7.462697291950721</v>
       </c>
       <c r="Q133" t="n">
-        <v>7.484708377195207</v>
+        <v>7.488389571627968</v>
       </c>
     </row>
     <row r="134">
@@ -7322,25 +7322,25 @@
         <v>43861</v>
       </c>
       <c r="B134" t="n">
-        <v>0.01343882531179563</v>
+        <v>0.01344943038445301</v>
       </c>
       <c r="C134" t="n">
-        <v>7.491136</v>
+        <v>7.485425</v>
       </c>
       <c r="D134" t="n">
-        <v>0.008997304167578157</v>
+        <v>0.009005254332639545</v>
       </c>
       <c r="E134" t="n">
-        <v>7.491136</v>
+        <v>7.485425</v>
       </c>
       <c r="F134" t="n">
         <v>0.01505376344086022</v>
       </c>
       <c r="G134" t="n">
-        <v>0.01334823644486871</v>
+        <v>0.0133504668876272</v>
       </c>
       <c r="H134" t="n">
-        <v>7.489195</v>
+        <v>7.488893</v>
       </c>
       <c r="I134" t="n">
         <v>-0.01146953405017921</v>
@@ -7364,10 +7364,10 @@
         <v>-0.04148148148148148</v>
       </c>
       <c r="P134" t="n">
-        <v>7.468484774412283</v>
+        <v>7.468278974674417</v>
       </c>
       <c r="Q134" t="n">
-        <v>7.49198420410664</v>
+        <v>7.484751772447382</v>
       </c>
     </row>
     <row r="135">
@@ -7375,25 +7375,25 @@
         <v>43890</v>
       </c>
       <c r="B135" t="n">
-        <v>0.01211985218791778</v>
+        <v>0.01212791666430757</v>
       </c>
       <c r="C135" t="n">
-        <v>7.346877</v>
+        <v>7.337184</v>
       </c>
       <c r="D135" t="n">
-        <v>0.01334823644486871</v>
+        <v>0.0133504668876272</v>
       </c>
       <c r="E135" t="n">
-        <v>7.346877</v>
+        <v>7.337184</v>
       </c>
       <c r="F135" t="n">
         <v>-0.01146953405017921</v>
       </c>
       <c r="G135" t="n">
-        <v>0.01343882531179563</v>
+        <v>0.01344943038445301</v>
       </c>
       <c r="H135" t="n">
-        <v>7.491136</v>
+        <v>7.485425</v>
       </c>
       <c r="I135" t="n">
         <v>-0.05708812260536398</v>
@@ -7417,10 +7417,10 @@
         <v>-0.05555555555555556</v>
       </c>
       <c r="P135" t="n">
-        <v>7.471224878153185</v>
+        <v>7.465391074101915</v>
       </c>
       <c r="Q135" t="n">
-        <v>7.443780755023678</v>
+        <v>7.437822684086848</v>
       </c>
     </row>
     <row r="136">
@@ -7428,25 +7428,25 @@
         <v>43921</v>
       </c>
       <c r="B136" t="n">
-        <v>0.007849489005206323</v>
+        <v>0.00785098602100387</v>
       </c>
       <c r="C136" t="n">
-        <v>7.202631</v>
+        <v>7.192669</v>
       </c>
       <c r="D136" t="n">
-        <v>0.01343882531179563</v>
+        <v>0.01344943038445301</v>
       </c>
       <c r="E136" t="n">
-        <v>7.202631</v>
+        <v>7.192669</v>
       </c>
       <c r="F136" t="n">
         <v>-0.05708812260536398</v>
       </c>
       <c r="G136" t="n">
-        <v>0.01211985218791778</v>
+        <v>0.01212791666430757</v>
       </c>
       <c r="H136" t="n">
-        <v>7.346877</v>
+        <v>7.337184</v>
       </c>
       <c r="I136" t="n">
         <v>-0.01254480286738351</v>
@@ -7470,10 +7470,10 @@
         <v>-0.08602150537634408</v>
       </c>
       <c r="P136" t="n">
-        <v>7.321879764636471</v>
+        <v>7.31188530826716</v>
       </c>
       <c r="Q136" t="n">
-        <v>7.28889091066135</v>
+        <v>7.278504242077033</v>
       </c>
     </row>
     <row r="137">
@@ -7481,25 +7481,25 @@
         <v>43951</v>
       </c>
       <c r="B137" t="n">
-        <v>0.003144320706068626</v>
+        <v>0.003149573149438645</v>
       </c>
       <c r="C137" t="n">
-        <v>7.403408</v>
+        <v>7.401565</v>
       </c>
       <c r="D137" t="n">
-        <v>0.01211985218791778</v>
+        <v>0.01212791666430757</v>
       </c>
       <c r="E137" t="n">
-        <v>7.403408</v>
+        <v>7.401565</v>
       </c>
       <c r="F137" t="n">
         <v>-0.01254480286738351</v>
       </c>
       <c r="G137" t="n">
-        <v>0.007849489005206323</v>
+        <v>0.00785098602100387</v>
       </c>
       <c r="H137" t="n">
-        <v>7.202631</v>
+        <v>7.192669</v>
       </c>
       <c r="I137" t="n">
         <v>0.1051851851851852</v>
@@ -7523,10 +7523,10 @@
         <v>-0.1240740740740741</v>
       </c>
       <c r="P137" t="n">
-        <v>7.172347651774718</v>
+        <v>7.16205114642602</v>
       </c>
       <c r="Q137" t="n">
-        <v>7.206351200024891</v>
+        <v>7.196970648664137</v>
       </c>
     </row>
     <row r="138">
@@ -7534,25 +7534,25 @@
         <v>43982</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0006327966860641965</v>
+        <v>0.0006227755491536868</v>
       </c>
       <c r="C138" t="n">
-        <v>7.649445</v>
+        <v>7.654919</v>
       </c>
       <c r="D138" t="n">
-        <v>0.007849489005206323</v>
+        <v>0.00785098602100387</v>
       </c>
       <c r="E138" t="n">
-        <v>7.649445</v>
+        <v>7.654919</v>
       </c>
       <c r="F138" t="n">
         <v>0.1051851851851852</v>
       </c>
       <c r="G138" t="n">
-        <v>0.003144320706068626</v>
+        <v>0.003149573149438645</v>
       </c>
       <c r="H138" t="n">
-        <v>7.403408</v>
+        <v>7.401565</v>
       </c>
       <c r="I138" t="n">
         <v>0.2519713261648746</v>
@@ -7576,10 +7576,10 @@
         <v>-0.07060931899641576</v>
       </c>
       <c r="P138" t="n">
-        <v>7.382669370160462</v>
+        <v>7.380884512518319</v>
       </c>
       <c r="Q138" t="n">
-        <v>7.471006349699798</v>
+        <v>7.468090853745196</v>
       </c>
     </row>
     <row r="139">
@@ -7587,25 +7587,25 @@
         <v>44012</v>
       </c>
       <c r="B139" t="n">
-        <v>0.002506882801180943</v>
+        <v>0.002496855214543459</v>
       </c>
       <c r="C139" t="n">
-        <v>8.098506</v>
+        <v>8.102632</v>
       </c>
       <c r="D139" t="n">
-        <v>0.003144320706068626</v>
+        <v>0.003149573149438645</v>
       </c>
       <c r="E139" t="n">
-        <v>8.098506</v>
+        <v>8.102632</v>
       </c>
       <c r="F139" t="n">
         <v>0.2519713261648746</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0006327966860641965</v>
+        <v>0.0006227755491536868</v>
       </c>
       <c r="H139" t="n">
-        <v>7.649445</v>
+        <v>7.654919</v>
       </c>
       <c r="I139" t="n">
         <v>0.3466666666666667</v>
@@ -7629,10 +7629,10 @@
         <v>0.02962962962962963</v>
       </c>
       <c r="P139" t="n">
-        <v>7.637852712804315</v>
+        <v>7.643617067767176</v>
       </c>
       <c r="Q139" t="n">
-        <v>7.78246627391721</v>
+        <v>7.789318689986717</v>
       </c>
     </row>
     <row r="140">
@@ -7640,25 +7640,25 @@
         <v>44043</v>
       </c>
       <c r="B140" t="n">
-        <v>0.003138686925554524</v>
+        <v>0.003128436132104007</v>
       </c>
       <c r="C140" t="n">
-        <v>8.505535</v>
+        <v>8.51051</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0006327966860641965</v>
+        <v>0.0006227755491536868</v>
       </c>
       <c r="E140" t="n">
-        <v>8.505535</v>
+        <v>8.51051</v>
       </c>
       <c r="F140" t="n">
         <v>0.3466666666666667</v>
       </c>
       <c r="G140" t="n">
-        <v>0.002506882801180943</v>
+        <v>0.002496855214543459</v>
       </c>
       <c r="H140" t="n">
-        <v>8.098506</v>
+        <v>8.102632</v>
       </c>
       <c r="I140" t="n">
         <v>0.2268817204301075</v>
@@ -7682,10 +7682,10 @@
         <v>0.01505376344086022</v>
       </c>
       <c r="P140" t="n">
-        <v>8.098747044254688</v>
+        <v>8.103045011568431</v>
       </c>
       <c r="Q140" t="n">
-        <v>8.357475793774535</v>
+        <v>8.362479404134794</v>
       </c>
     </row>
     <row r="141">
@@ -7693,25 +7693,25 @@
         <v>44074</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.002190599346955757</v>
+        <v>-0.002213275947337223</v>
       </c>
       <c r="C141" t="n">
-        <v>8.638667</v>
+        <v>8.646803</v>
       </c>
       <c r="D141" t="n">
-        <v>0.002506882801180943</v>
+        <v>0.002496855214543459</v>
       </c>
       <c r="E141" t="n">
-        <v>8.638667</v>
+        <v>8.646803</v>
       </c>
       <c r="F141" t="n">
         <v>0.2268817204301075</v>
       </c>
       <c r="G141" t="n">
-        <v>0.003138686925554524</v>
+        <v>0.003128436132104007</v>
       </c>
       <c r="H141" t="n">
-        <v>8.505535</v>
+        <v>8.51051</v>
       </c>
       <c r="I141" t="n">
         <v>0.1200716845878136</v>
@@ -7735,10 +7735,10 @@
         <v>-0.01146953405017921</v>
       </c>
       <c r="P141" t="n">
-        <v>8.512275489624983</v>
+        <v>8.517381843631679</v>
       </c>
       <c r="Q141" t="n">
-        <v>8.632901173749758</v>
+        <v>8.638270309562161</v>
       </c>
     </row>
     <row r="142">
@@ -7746,25 +7746,25 @@
         <v>44104</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.003065088291824836</v>
+        <v>-0.003060552632248026</v>
       </c>
       <c r="C142" t="n">
-        <v>8.581725</v>
+        <v>8.593196000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.003138686925554524</v>
+        <v>0.003128436132104007</v>
       </c>
       <c r="E142" t="n">
-        <v>8.581725</v>
+        <v>8.593196000000001</v>
       </c>
       <c r="F142" t="n">
         <v>0.1200716845878136</v>
       </c>
       <c r="G142" t="n">
-        <v>-0.002190599346955757</v>
+        <v>-0.002213275947337223</v>
       </c>
       <c r="H142" t="n">
-        <v>8.638667</v>
+        <v>8.646803</v>
       </c>
       <c r="I142" t="n">
         <v>0.03888888888888889</v>
@@ -7788,10 +7788,10 @@
         <v>-0.05708812260536398</v>
       </c>
       <c r="P142" t="n">
-        <v>8.646690670604606</v>
+        <v>8.654971395921327</v>
       </c>
       <c r="Q142" t="n">
-        <v>8.656678736891811</v>
+        <v>8.664869039830773</v>
       </c>
     </row>
     <row r="143">
@@ -7799,25 +7799,25 @@
         <v>44135</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.002635575414069891</v>
+        <v>-0.002631359013951062</v>
       </c>
       <c r="C143" t="n">
-        <v>8.390981999999999</v>
+        <v>8.399939</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.002190599346955757</v>
+        <v>-0.002213275947337223</v>
       </c>
       <c r="E143" t="n">
-        <v>8.390981999999999</v>
+        <v>8.399939</v>
       </c>
       <c r="F143" t="n">
         <v>0.03888888888888889</v>
       </c>
       <c r="G143" t="n">
-        <v>-0.003065088291824836</v>
+        <v>-0.003060552632248026</v>
       </c>
       <c r="H143" t="n">
-        <v>8.581725</v>
+        <v>8.593196000000001</v>
       </c>
       <c r="I143" t="n">
         <v>0.1161290322580645</v>
@@ -7841,10 +7841,10 @@
         <v>-0.01254480286738351</v>
       </c>
       <c r="P143" t="n">
-        <v>8.589116939123478</v>
+        <v>8.600771173553545</v>
       </c>
       <c r="Q143" t="n">
-        <v>8.624387087337228</v>
+        <v>8.636137401797335</v>
       </c>
     </row>
     <row r="144">
@@ -7852,25 +7852,25 @@
         <v>44165</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.002467101783488523</v>
+        <v>-0.002454697864066269</v>
       </c>
       <c r="C144" t="n">
-        <v>8.210466</v>
+        <v>8.215394</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.003065088291824836</v>
+        <v>-0.003060552632248026</v>
       </c>
       <c r="E144" t="n">
-        <v>8.210466</v>
+        <v>8.215394</v>
       </c>
       <c r="F144" t="n">
         <v>0.1161290322580645</v>
       </c>
       <c r="G144" t="n">
-        <v>-0.002635575414069891</v>
+        <v>-0.002631359013951062</v>
       </c>
       <c r="H144" t="n">
-        <v>8.390981999999999</v>
+        <v>8.399939</v>
       </c>
       <c r="I144" t="n">
         <v>0.1214814814814815</v>
@@ -7894,10 +7894,10 @@
         <v>0.1051851851851852</v>
       </c>
       <c r="P144" t="n">
-        <v>8.396273700926022</v>
+        <v>8.405423803236038</v>
       </c>
       <c r="Q144" t="n">
-        <v>8.446367344604969</v>
+        <v>8.455465551160254</v>
       </c>
     </row>
     <row r="145">
@@ -7905,25 +7905,25 @@
         <v>44196</v>
       </c>
       <c r="B145" t="n">
-        <v>-0.002568067166149213</v>
+        <v>-0.002560482849930601</v>
       </c>
       <c r="C145" t="n">
-        <v>8.217079</v>
+        <v>8.215255000000001</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.002635575414069891</v>
+        <v>-0.002631359013951062</v>
       </c>
       <c r="E145" t="n">
-        <v>8.217079</v>
+        <v>8.215255000000001</v>
       </c>
       <c r="F145" t="n">
         <v>0.1214814814814815</v>
       </c>
       <c r="G145" t="n">
-        <v>-0.002467101783488523</v>
+        <v>-0.002454697864066269</v>
       </c>
       <c r="H145" t="n">
-        <v>8.210466</v>
+        <v>8.215394</v>
       </c>
       <c r="I145" t="n">
         <v>0.09677419354838709</v>
@@ -7947,10 +7947,10 @@
         <v>0.2519713261648746</v>
       </c>
       <c r="P145" t="n">
-        <v>8.213309331634068</v>
+        <v>8.218405574724082</v>
       </c>
       <c r="Q145" t="n">
-        <v>8.222222713954574</v>
+        <v>8.208563988060522</v>
       </c>
     </row>
     <row r="146">
@@ -7958,25 +7958,25 @@
         <v>44227</v>
       </c>
       <c r="B146" t="n">
-        <v>0.007291443887150528</v>
+        <v>0.00730316874373127</v>
       </c>
       <c r="C146" t="n">
-        <v>8.267657</v>
+        <v>8.261570000000001</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.002467101783488523</v>
+        <v>-0.002454697864066269</v>
       </c>
       <c r="E146" t="n">
-        <v>8.267657</v>
+        <v>8.261570000000001</v>
       </c>
       <c r="F146" t="n">
         <v>0.09677419354838709</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.002568067166149213</v>
+        <v>-0.002560482849930601</v>
       </c>
       <c r="H146" t="n">
-        <v>8.217079</v>
+        <v>8.215255000000001</v>
       </c>
       <c r="I146" t="n">
         <v>0.02939068100358423</v>
@@ -8000,10 +8000,10 @@
         <v>0.3466666666666667</v>
       </c>
       <c r="P146" t="n">
-        <v>8.219971720815659</v>
+        <v>8.21821342716834</v>
       </c>
       <c r="Q146" t="n">
-        <v>8.264255928170616</v>
+        <v>8.26295981936952</v>
       </c>
     </row>
     <row r="147">
@@ -8011,25 +8011,25 @@
         <v>44255</v>
       </c>
       <c r="B147" t="n">
-        <v>0.007846236367272219</v>
+        <v>0.007847901347667552</v>
       </c>
       <c r="C147" t="n">
-        <v>8.265941</v>
+        <v>8.255186</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.002568067166149213</v>
+        <v>-0.002560482849930601</v>
       </c>
       <c r="E147" t="n">
-        <v>8.265941</v>
+        <v>8.255186</v>
       </c>
       <c r="F147" t="n">
         <v>0.02939068100358423</v>
       </c>
       <c r="G147" t="n">
-        <v>0.007291443887150528</v>
+        <v>0.00730316874373127</v>
       </c>
       <c r="H147" t="n">
-        <v>8.267657</v>
+        <v>8.261570000000001</v>
       </c>
       <c r="I147" t="n">
         <v>0.04920634920634921</v>
@@ -8053,10 +8053,10 @@
         <v>0.2268817204301075</v>
       </c>
       <c r="P147" t="n">
-        <v>8.271217863692071</v>
+        <v>8.265135617484157</v>
       </c>
       <c r="Q147" t="n">
-        <v>8.269096312194884</v>
+        <v>8.255536946583119</v>
       </c>
     </row>
     <row r="148">
@@ -8064,25 +8064,25 @@
         <v>44286</v>
       </c>
       <c r="B148" t="n">
-        <v>0.01260652450605981</v>
+        <v>0.01261144248361568</v>
       </c>
       <c r="C148" t="n">
-        <v>8.226264</v>
+        <v>8.217962999999999</v>
       </c>
       <c r="D148" t="n">
-        <v>0.007291443887150528</v>
+        <v>0.00730316874373127</v>
       </c>
       <c r="E148" t="n">
-        <v>8.226264</v>
+        <v>8.217962999999999</v>
       </c>
       <c r="F148" t="n">
         <v>0.04920634920634921</v>
       </c>
       <c r="G148" t="n">
-        <v>0.007846236367272219</v>
+        <v>0.007847901347667552</v>
       </c>
       <c r="H148" t="n">
-        <v>8.265941</v>
+        <v>8.255186</v>
       </c>
       <c r="I148" t="n">
         <v>0.07025089605734768</v>
@@ -8106,10 +8106,10 @@
         <v>0.1200716845878136</v>
       </c>
       <c r="P148" t="n">
-        <v>8.269422457598347</v>
+        <v>8.258608929318459</v>
       </c>
       <c r="Q148" t="n">
-        <v>8.298198358001191</v>
+        <v>8.28723575580104</v>
       </c>
     </row>
     <row r="149">
@@ -8117,25 +8117,25 @@
         <v>44316</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0158805418122423</v>
+        <v>0.01588343580094342</v>
       </c>
       <c r="C149" t="n">
-        <v>8.276883</v>
+        <v>8.276724</v>
       </c>
       <c r="D149" t="n">
-        <v>0.007846236367272219</v>
+        <v>0.007847901347667552</v>
       </c>
       <c r="E149" t="n">
-        <v>8.276883</v>
+        <v>8.276724</v>
       </c>
       <c r="F149" t="n">
         <v>0.07025089605734768</v>
       </c>
       <c r="G149" t="n">
-        <v>0.01260652450605981</v>
+        <v>0.01261144248361568</v>
       </c>
       <c r="H149" t="n">
-        <v>8.226264</v>
+        <v>8.217962999999999</v>
       </c>
       <c r="I149" t="n">
         <v>0.1148148148148148</v>
@@ -8159,10 +8159,10 @@
         <v>0.03888888888888889</v>
       </c>
       <c r="P149" t="n">
-        <v>8.229160335275083</v>
+        <v>8.22082983553031</v>
       </c>
       <c r="Q149" t="n">
-        <v>8.277201461302704</v>
+        <v>8.279829739626344</v>
       </c>
     </row>
     <row r="150">
@@ -8170,25 +8170,25 @@
         <v>44347</v>
       </c>
       <c r="B150" t="n">
-        <v>0.01934704529113951</v>
+        <v>0.01932783503590763</v>
       </c>
       <c r="C150" t="n">
-        <v>8.094704</v>
+        <v>8.097521</v>
       </c>
       <c r="D150" t="n">
-        <v>0.01260652450605981</v>
+        <v>0.01261144248361568</v>
       </c>
       <c r="E150" t="n">
-        <v>8.094704</v>
+        <v>8.097521</v>
       </c>
       <c r="F150" t="n">
         <v>0.1148148148148148</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0158805418122423</v>
+        <v>0.01588343580094342</v>
       </c>
       <c r="H150" t="n">
-        <v>8.276883</v>
+        <v>8.276724</v>
       </c>
       <c r="I150" t="n">
         <v>0.1240143369175627</v>
@@ -8212,10 +8212,10 @@
         <v>0.1161290322580645</v>
       </c>
       <c r="P150" t="n">
-        <v>8.280406451392466</v>
+        <v>8.28032902735162</v>
       </c>
       <c r="Q150" t="n">
-        <v>8.304559354001647</v>
+        <v>8.304493177837433</v>
       </c>
     </row>
     <row r="151">
@@ -8223,25 +8223,25 @@
         <v>44377</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0199224871374879</v>
+        <v>0.0199048798221515</v>
       </c>
       <c r="C151" t="n">
-        <v>7.884398</v>
+        <v>7.886033</v>
       </c>
       <c r="D151" t="n">
-        <v>0.0158805418122423</v>
+        <v>0.01588343580094342</v>
       </c>
       <c r="E151" t="n">
-        <v>7.884398</v>
+        <v>7.886033</v>
       </c>
       <c r="F151" t="n">
         <v>0.1240143369175627</v>
       </c>
       <c r="G151" t="n">
-        <v>0.01934704529113951</v>
+        <v>0.01932783503590763</v>
       </c>
       <c r="H151" t="n">
-        <v>8.094704</v>
+        <v>8.097521</v>
       </c>
       <c r="I151" t="n">
         <v>0.05481481481481481</v>
@@ -8265,10 +8265,10 @@
         <v>0.1214814814814815</v>
       </c>
       <c r="P151" t="n">
-        <v>8.095719513280761</v>
+        <v>8.09866711195148</v>
       </c>
       <c r="Q151" t="n">
-        <v>8.102558065019711</v>
+        <v>8.105497021057449</v>
       </c>
     </row>
     <row r="152">
@@ -8276,25 +8276,25 @@
         <v>44408</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02358522923783113</v>
+        <v>0.02356915035479279</v>
       </c>
       <c r="C152" t="n">
-        <v>7.685049</v>
+        <v>7.683798</v>
       </c>
       <c r="D152" t="n">
-        <v>0.01934704529113951</v>
+        <v>0.01932783503590763</v>
       </c>
       <c r="E152" t="n">
-        <v>7.685049</v>
+        <v>7.683798</v>
       </c>
       <c r="F152" t="n">
         <v>0.05481481481481481</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0199224871374879</v>
+        <v>0.0199048798221515</v>
       </c>
       <c r="H152" t="n">
-        <v>7.884398</v>
+        <v>7.886033</v>
       </c>
       <c r="I152" t="n">
         <v>0.01971326164874552</v>
@@ -8318,10 +8318,10 @@
         <v>0.09677419354838709</v>
       </c>
       <c r="P152" t="n">
-        <v>7.881965890605679</v>
+        <v>7.883727874858789</v>
       </c>
       <c r="Q152" t="n">
-        <v>7.820323623461871</v>
+        <v>7.821975458471058</v>
       </c>
     </row>
     <row r="153">
@@ -8329,25 +8329,25 @@
         <v>44439</v>
       </c>
       <c r="B153" t="n">
-        <v>0.03119082850725174</v>
+        <v>0.0311538539496814</v>
       </c>
       <c r="C153" t="n">
-        <v>7.579334</v>
+        <v>7.583078</v>
       </c>
       <c r="D153" t="n">
-        <v>0.0199224871374879</v>
+        <v>0.0199048798221515</v>
       </c>
       <c r="E153" t="n">
-        <v>7.579334</v>
+        <v>7.583078</v>
       </c>
       <c r="F153" t="n">
         <v>0.01971326164874552</v>
       </c>
       <c r="G153" t="n">
-        <v>0.02358522923783113</v>
+        <v>0.02356915035479279</v>
       </c>
       <c r="H153" t="n">
-        <v>7.685049</v>
+        <v>7.683798</v>
       </c>
       <c r="I153" t="n">
         <v>-0.02544802867383512</v>
@@ -8371,10 +8371,10 @@
         <v>0.02939068100358423</v>
       </c>
       <c r="P153" t="n">
-        <v>7.678752950065049</v>
+        <v>7.677581218064945</v>
       </c>
       <c r="Q153" t="n">
-        <v>7.656556104888003</v>
+        <v>7.655349366440129</v>
       </c>
     </row>
     <row r="154">
@@ -8382,25 +8382,25 @@
         <v>44469</v>
       </c>
       <c r="B154" t="n">
-        <v>0.03414890734514753</v>
+        <v>0.03415424841865189</v>
       </c>
       <c r="C154" t="n">
-        <v>7.425482</v>
+        <v>7.428245</v>
       </c>
       <c r="D154" t="n">
-        <v>0.02358522923783113</v>
+        <v>0.02356915035479279</v>
       </c>
       <c r="E154" t="n">
-        <v>7.425482</v>
+        <v>7.428245</v>
       </c>
       <c r="F154" t="n">
         <v>-0.02544802867383512</v>
       </c>
       <c r="G154" t="n">
-        <v>0.03119082850725174</v>
+        <v>0.0311538539496814</v>
       </c>
       <c r="H154" t="n">
-        <v>7.579334</v>
+        <v>7.583078</v>
       </c>
       <c r="I154" t="n">
         <v>-0.02925925925925926</v>
@@ -8424,10 +8424,10 @@
         <v>0.04920634920634921</v>
       </c>
       <c r="P154" t="n">
-        <v>7.570806359211348</v>
+        <v>7.574745002294159</v>
       </c>
       <c r="Q154" t="n">
-        <v>7.528753413875444</v>
+        <v>7.532598240566935</v>
       </c>
     </row>
     <row r="155">
@@ -8435,25 +8435,25 @@
         <v>44500</v>
       </c>
       <c r="B155" t="n">
-        <v>0.04052084984599258</v>
+        <v>0.04052638766422767</v>
       </c>
       <c r="C155" t="n">
-        <v>7.299897</v>
+        <v>7.300957</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03119082850725174</v>
+        <v>0.0311538539496814</v>
       </c>
       <c r="E155" t="n">
-        <v>7.299897</v>
+        <v>7.300957</v>
       </c>
       <c r="F155" t="n">
         <v>-0.02925925925925926</v>
       </c>
       <c r="G155" t="n">
-        <v>0.03414890734514753</v>
+        <v>0.03415424841865189</v>
       </c>
       <c r="H155" t="n">
-        <v>7.425482</v>
+        <v>7.428245</v>
       </c>
       <c r="I155" t="n">
         <v>-0.103584229390681</v>
@@ -8477,10 +8477,10 @@
         <v>0.07025089605734768</v>
       </c>
       <c r="P155" t="n">
-        <v>7.413408964968168</v>
+        <v>7.416355468067567</v>
       </c>
       <c r="Q155" t="n">
-        <v>7.354966650275395</v>
+        <v>7.357870247733623</v>
       </c>
     </row>
     <row r="156">
@@ -8488,25 +8488,25 @@
         <v>44530</v>
       </c>
       <c r="B156" t="n">
-        <v>0.04671230678382532</v>
+        <v>0.04672314050770598</v>
       </c>
       <c r="C156" t="n">
-        <v>7.175353</v>
+        <v>7.172107</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03414890734514753</v>
+        <v>0.03415424841865189</v>
       </c>
       <c r="E156" t="n">
-        <v>7.175353</v>
+        <v>7.172107</v>
       </c>
       <c r="F156" t="n">
         <v>-0.103584229390681</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04052084984599258</v>
+        <v>0.04052638766422767</v>
       </c>
       <c r="H156" t="n">
-        <v>7.299897</v>
+        <v>7.300957</v>
       </c>
       <c r="I156" t="n">
         <v>-0.1522222222222222</v>
@@ -8530,10 +8530,10 @@
         <v>0.1148148148148148</v>
       </c>
       <c r="P156" t="n">
-        <v>7.284763943498307</v>
+        <v>7.285968509774341</v>
       </c>
       <c r="Q156" t="n">
-        <v>7.204160480969248</v>
+        <v>7.205121100426686</v>
       </c>
     </row>
     <row r="157">
@@ -8541,25 +8541,25 @@
         <v>44561</v>
       </c>
       <c r="B157" t="n">
-        <v>0.04883498248357121</v>
+        <v>0.04885368530538692</v>
       </c>
       <c r="C157" t="n">
-        <v>7.077813</v>
+        <v>7.077308</v>
       </c>
       <c r="D157" t="n">
-        <v>0.04052084984599258</v>
+        <v>0.04052638766422767</v>
       </c>
       <c r="E157" t="n">
-        <v>7.077813</v>
+        <v>7.077308</v>
       </c>
       <c r="F157" t="n">
         <v>-0.1522222222222222</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04671230678382532</v>
+        <v>0.04672314050770598</v>
       </c>
       <c r="H157" t="n">
-        <v>7.175353</v>
+        <v>7.172107</v>
       </c>
       <c r="I157" t="n">
         <v>-0.1437275985663083</v>
@@ -8583,10 +8583,10 @@
         <v>0.1240143369175627</v>
       </c>
       <c r="P157" t="n">
-        <v>7.157032623095349</v>
+        <v>7.153808541613347</v>
       </c>
       <c r="Q157" t="n">
-        <v>7.076545083420623</v>
+        <v>7.07730696241788</v>
       </c>
     </row>
     <row r="158">
@@ -8594,25 +8594,25 @@
         <v>44592</v>
       </c>
       <c r="B158" t="n">
-        <v>0.04961706330289406</v>
+        <v>0.04963645193474875</v>
       </c>
       <c r="C158" t="n">
-        <v>6.963018</v>
+        <v>6.960585</v>
       </c>
       <c r="D158" t="n">
-        <v>0.04671230678382532</v>
+        <v>0.04672314050770598</v>
       </c>
       <c r="E158" t="n">
-        <v>6.963018</v>
+        <v>6.960585</v>
       </c>
       <c r="F158" t="n">
         <v>-0.1437275985663083</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04883498248357121</v>
+        <v>0.04885368530538692</v>
       </c>
       <c r="H158" t="n">
-        <v>7.077813</v>
+        <v>7.077308</v>
       </c>
       <c r="I158" t="n">
         <v>-0.1315412186379928</v>
@@ -8636,10 +8636,10 @@
         <v>0.05481481481481481</v>
       </c>
       <c r="P158" t="n">
-        <v>7.057007808131537</v>
+        <v>7.05660716194778</v>
       </c>
       <c r="Q158" t="n">
-        <v>6.985224911869349</v>
+        <v>6.984679052057515</v>
       </c>
     </row>
     <row r="159">
@@ -8647,25 +8647,25 @@
         <v>44620</v>
       </c>
       <c r="B159" t="n">
-        <v>0.05660500122175716</v>
+        <v>0.0566179158041491</v>
       </c>
       <c r="C159" t="n">
-        <v>6.88644</v>
+        <v>6.885158</v>
       </c>
       <c r="D159" t="n">
-        <v>0.04883498248357121</v>
+        <v>0.04885368530538692</v>
       </c>
       <c r="E159" t="n">
-        <v>6.88644</v>
+        <v>6.885158</v>
       </c>
       <c r="F159" t="n">
         <v>-0.1315412186379928</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04961706330289406</v>
+        <v>0.04963645193474875</v>
       </c>
       <c r="H159" t="n">
-        <v>6.963018</v>
+        <v>6.960585</v>
       </c>
       <c r="I159" t="n">
         <v>-0.1571428571428572</v>
@@ -8689,10 +8689,10 @@
         <v>0.01971326164874552</v>
       </c>
       <c r="P159" t="n">
-        <v>6.939120143488274</v>
+        <v>6.936729506348104</v>
       </c>
       <c r="Q159" t="n">
-        <v>6.886708972333413</v>
+        <v>6.885377295461118</v>
       </c>
     </row>
     <row r="160">
@@ -8700,25 +8700,25 @@
         <v>44651</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0720494046585296</v>
+        <v>0.07205599519962291</v>
       </c>
       <c r="C160" t="n">
-        <v>6.862808</v>
+        <v>6.859428</v>
       </c>
       <c r="D160" t="n">
-        <v>0.04961706330289406</v>
+        <v>0.04963645193474875</v>
       </c>
       <c r="E160" t="n">
-        <v>6.862808</v>
+        <v>6.859428</v>
       </c>
       <c r="F160" t="n">
         <v>-0.1571428571428572</v>
       </c>
       <c r="G160" t="n">
-        <v>0.05660500122175716</v>
+        <v>0.0566179158041491</v>
       </c>
       <c r="H160" t="n">
-        <v>6.88644</v>
+        <v>6.885158</v>
       </c>
       <c r="I160" t="n">
         <v>-0.1301075268817204</v>
@@ -8742,10 +8742,10 @@
         <v>-0.02544802867383512</v>
       </c>
       <c r="P160" t="n">
-        <v>6.860663382621047</v>
+        <v>6.859461151511306</v>
       </c>
       <c r="Q160" t="n">
-        <v>6.838667080058705</v>
+        <v>6.837413345963137</v>
       </c>
     </row>
     <row r="161">
@@ -8753,25 +8753,25 @@
         <v>44681</v>
       </c>
       <c r="B161" t="n">
-        <v>0.07202535709213631</v>
+        <v>0.07203216841411297</v>
       </c>
       <c r="C161" t="n">
-        <v>6.808802</v>
+        <v>6.809765</v>
       </c>
       <c r="D161" t="n">
-        <v>0.05660500122175716</v>
+        <v>0.0566179158041491</v>
       </c>
       <c r="E161" t="n">
-        <v>6.808802</v>
+        <v>6.809765</v>
       </c>
       <c r="F161" t="n">
         <v>-0.1301075268817204</v>
       </c>
       <c r="G161" t="n">
-        <v>0.0720494046585296</v>
+        <v>0.07205599519962291</v>
       </c>
       <c r="H161" t="n">
-        <v>6.862808</v>
+        <v>6.859428</v>
       </c>
       <c r="I161" t="n">
         <v>-0.09555555555555556</v>
@@ -8795,10 +8795,10 @@
         <v>-0.02925925925925926</v>
       </c>
       <c r="P161" t="n">
-        <v>6.836957268127987</v>
+        <v>6.83358497029197</v>
       </c>
       <c r="Q161" t="n">
-        <v>6.812323585173463</v>
+        <v>6.810019576642317</v>
       </c>
     </row>
     <row r="162">
@@ -8806,25 +8806,25 @@
         <v>44712</v>
       </c>
       <c r="B162" t="n">
-        <v>0.07783343333241888</v>
+        <v>0.07782223046300096</v>
       </c>
       <c r="C162" t="n">
-        <v>6.773719</v>
+        <v>6.773958</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0720494046585296</v>
+        <v>0.07205599519962291</v>
       </c>
       <c r="E162" t="n">
-        <v>6.773719</v>
+        <v>6.773958</v>
       </c>
       <c r="F162" t="n">
         <v>-0.09555555555555556</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07202535709213631</v>
+        <v>0.07203216841411297</v>
       </c>
       <c r="H162" t="n">
-        <v>6.808802</v>
+        <v>6.809765</v>
       </c>
       <c r="I162" t="n">
         <v>-0.06487455197132616</v>
@@ -8848,10 +8848,10 @@
         <v>-0.103584229390681</v>
       </c>
       <c r="P162" t="n">
-        <v>6.781863970568685</v>
+        <v>6.782979930249626</v>
       </c>
       <c r="Q162" t="n">
-        <v>6.773983634028118</v>
+        <v>6.773828033712593</v>
       </c>
     </row>
     <row r="163">
@@ -8859,25 +8859,25 @@
         <v>44742</v>
       </c>
       <c r="B163" t="n">
-        <v>0.08276488442850827</v>
+        <v>0.08271516535876255</v>
       </c>
       <c r="C163" t="n">
-        <v>6.779945</v>
+        <v>6.778878</v>
       </c>
       <c r="D163" t="n">
-        <v>0.07202535709213631</v>
+        <v>0.07203216841411297</v>
       </c>
       <c r="E163" t="n">
-        <v>6.779945</v>
+        <v>6.778878</v>
       </c>
       <c r="F163" t="n">
         <v>-0.06487455197132616</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07783343333241888</v>
+        <v>0.07782223046300096</v>
       </c>
       <c r="H163" t="n">
-        <v>6.773719</v>
+        <v>6.773958</v>
       </c>
       <c r="I163" t="n">
         <v>-0.102962962962963</v>
@@ -8901,10 +8901,10 @@
         <v>-0.1522222222222222</v>
       </c>
       <c r="P163" t="n">
-        <v>6.746350008878137</v>
+        <v>6.746715169878962</v>
       </c>
       <c r="Q163" t="n">
-        <v>6.727499192667151</v>
+        <v>6.727835503783424</v>
       </c>
     </row>
     <row r="164">
@@ -8912,25 +8912,25 @@
         <v>44773</v>
       </c>
       <c r="B164" t="n">
-        <v>0.08408021963901469</v>
+        <v>0.08406089110313353</v>
       </c>
       <c r="C164" t="n">
-        <v>6.721006</v>
+        <v>6.718393</v>
       </c>
       <c r="D164" t="n">
-        <v>0.07783343333241888</v>
+        <v>0.07782223046300096</v>
       </c>
       <c r="E164" t="n">
-        <v>6.721006</v>
+        <v>6.718393</v>
       </c>
       <c r="F164" t="n">
         <v>-0.102962962962963</v>
       </c>
       <c r="G164" t="n">
-        <v>0.08276488442850827</v>
+        <v>0.08271516535876255</v>
       </c>
       <c r="H164" t="n">
-        <v>6.779945</v>
+        <v>6.778878</v>
       </c>
       <c r="I164" t="n">
         <v>-0.1064516129032258</v>
@@ -8954,10 +8954,10 @@
         <v>-0.1437275985663083</v>
       </c>
       <c r="P164" t="n">
-        <v>6.753523584044225</v>
+        <v>6.752536025186077</v>
       </c>
       <c r="Q164" t="n">
-        <v>6.716460309986873</v>
+        <v>6.715566813256004</v>
       </c>
     </row>
     <row r="165">
@@ -8965,25 +8965,25 @@
         <v>44804</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0869984515237423</v>
+        <v>0.08697060102636023</v>
       </c>
       <c r="C165" t="n">
-        <v>6.759684</v>
+        <v>6.761464</v>
       </c>
       <c r="D165" t="n">
-        <v>0.08276488442850827</v>
+        <v>0.08271516535876255</v>
       </c>
       <c r="E165" t="n">
-        <v>6.759684</v>
+        <v>6.761464</v>
       </c>
       <c r="F165" t="n">
         <v>-0.1064516129032258</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08408021963901469</v>
+        <v>0.08406089110313353</v>
       </c>
       <c r="H165" t="n">
-        <v>6.721006</v>
+        <v>6.718393</v>
       </c>
       <c r="I165" t="n">
         <v>-0.09426523297491039</v>
@@ -9007,10 +9007,10 @@
         <v>-0.1315412186379928</v>
       </c>
       <c r="P165" t="n">
-        <v>6.693379455159</v>
+        <v>6.690794559771569</v>
       </c>
       <c r="Q165" t="n">
-        <v>6.692974425716997</v>
+        <v>6.69039398428557</v>
       </c>
     </row>
     <row r="166">
@@ -9018,25 +9018,25 @@
         <v>44834</v>
       </c>
       <c r="B166" t="n">
-        <v>0.09471895883142878</v>
+        <v>0.09472430995756387</v>
       </c>
       <c r="C166" t="n">
-        <v>6.751289</v>
+        <v>6.749558</v>
       </c>
       <c r="D166" t="n">
-        <v>0.08408021963901469</v>
+        <v>0.08406089110313353</v>
       </c>
       <c r="E166" t="n">
-        <v>6.751289</v>
+        <v>6.749558</v>
       </c>
       <c r="F166" t="n">
         <v>-0.09426523297491039</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0869984515237423</v>
+        <v>0.08697060102636023</v>
       </c>
       <c r="H166" t="n">
-        <v>6.759684</v>
+        <v>6.761464</v>
       </c>
       <c r="I166" t="n">
         <v>-0.09185185185185185</v>
@@ -9060,10 +9060,10 @@
         <v>-0.1571428571428572</v>
       </c>
       <c r="P166" t="n">
-        <v>6.734022662445636</v>
+        <v>6.735970327729806</v>
       </c>
       <c r="Q166" t="n">
-        <v>6.71564417629248</v>
+        <v>6.717548662999117</v>
       </c>
     </row>
     <row r="167">
@@ -9071,25 +9071,25 @@
         <v>44865</v>
       </c>
       <c r="B167" t="n">
-        <v>0.1009654501718789</v>
+        <v>0.1009927433972244</v>
       </c>
       <c r="C167" t="n">
-        <v>6.708636</v>
+        <v>6.703065</v>
       </c>
       <c r="D167" t="n">
-        <v>0.0869984515237423</v>
+        <v>0.08697060102636023</v>
       </c>
       <c r="E167" t="n">
-        <v>6.708636</v>
+        <v>6.703065</v>
       </c>
       <c r="F167" t="n">
         <v>-0.09185185185185185</v>
       </c>
       <c r="G167" t="n">
-        <v>0.09471895883142878</v>
+        <v>0.09472430995756387</v>
       </c>
       <c r="H167" t="n">
-        <v>6.751289</v>
+        <v>6.749558</v>
       </c>
       <c r="I167" t="n">
         <v>-0.1362007168458781</v>
@@ -9113,10 +9113,10 @@
         <v>-0.1301075268817204</v>
       </c>
       <c r="P167" t="n">
-        <v>6.726019238663105</v>
+        <v>6.724344063191857</v>
       </c>
       <c r="Q167" t="n">
-        <v>6.708048878291244</v>
+        <v>6.702531105446027</v>
       </c>
     </row>
     <row r="168">
@@ -9124,25 +9124,25 @@
         <v>44895</v>
       </c>
       <c r="B168" t="n">
-        <v>0.09598315818005165</v>
+        <v>0.09600049386822906</v>
       </c>
       <c r="C168" t="n">
-        <v>6.734657</v>
+        <v>6.727672</v>
       </c>
       <c r="D168" t="n">
-        <v>0.09471895883142878</v>
+        <v>0.09472430995756387</v>
       </c>
       <c r="E168" t="n">
-        <v>6.734657</v>
+        <v>6.727672</v>
       </c>
       <c r="F168" t="n">
         <v>-0.1362007168458781</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1009654501718789</v>
+        <v>0.1009927433972244</v>
       </c>
       <c r="H168" t="n">
-        <v>6.708636</v>
+        <v>6.703065</v>
       </c>
       <c r="I168" t="n">
         <v>-0.1259259259259259</v>
@@ -9166,10 +9166,10 @@
         <v>-0.09555555555555556</v>
       </c>
       <c r="P168" t="n">
-        <v>6.682703455870289</v>
+        <v>6.677070375633769</v>
       </c>
       <c r="Q168" t="n">
-        <v>6.665636474239319</v>
+        <v>6.659946815859763</v>
       </c>
     </row>
     <row r="169">
@@ -9177,25 +9177,25 @@
         <v>44926</v>
       </c>
       <c r="B169" t="n">
-        <v>0.08825947452935079</v>
+        <v>0.08827879025663155</v>
       </c>
       <c r="C169" t="n">
-        <v>6.75</v>
+        <v>6.749138</v>
       </c>
       <c r="D169" t="n">
-        <v>0.1009654501718789</v>
+        <v>0.1009927433972244</v>
       </c>
       <c r="E169" t="n">
-        <v>6.75</v>
+        <v>6.749138</v>
       </c>
       <c r="F169" t="n">
         <v>-0.1259259259259259</v>
       </c>
       <c r="G169" t="n">
-        <v>0.09598315818005165</v>
+        <v>0.09600049386822906</v>
       </c>
       <c r="H169" t="n">
-        <v>6.734657</v>
+        <v>6.727672</v>
       </c>
       <c r="I169" t="n">
         <v>-0.1387096774193548</v>
@@ -9219,10 +9219,10 @@
         <v>-0.06487455197132616</v>
       </c>
       <c r="P169" t="n">
-        <v>6.710140285452701</v>
+        <v>6.703056151611066</v>
       </c>
       <c r="Q169" t="n">
-        <v>6.69408571487662</v>
+        <v>6.686934707166076</v>
       </c>
     </row>
     <row r="170">
@@ -9230,25 +9230,25 @@
         <v>44957</v>
       </c>
       <c r="B170" t="n">
-        <v>0.08365335749222869</v>
+        <v>0.08367183332394923</v>
       </c>
       <c r="C170" t="n">
-        <v>6.68913</v>
+        <v>6.691511</v>
       </c>
       <c r="D170" t="n">
-        <v>0.09598315818005165</v>
+        <v>0.09600049386822906</v>
       </c>
       <c r="E170" t="n">
-        <v>6.68913</v>
+        <v>6.691511</v>
       </c>
       <c r="F170" t="n">
         <v>-0.1387096774193548</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08825947452935079</v>
+        <v>0.08827879025663155</v>
       </c>
       <c r="H170" t="n">
-        <v>6.75</v>
+        <v>6.749138</v>
       </c>
       <c r="I170" t="n">
         <v>-0.08888888888888889</v>
@@ -9272,10 +9272,10 @@
         <v>-0.102962962962963</v>
       </c>
       <c r="P170" t="n">
-        <v>6.726505730327162</v>
+        <v>6.725725362591863</v>
       </c>
       <c r="Q170" t="n">
-        <v>6.689583443821309</v>
+        <v>6.692416439074299</v>
       </c>
     </row>
     <row r="171">
@@ -9283,25 +9283,25 @@
         <v>44985</v>
       </c>
       <c r="B171" t="n">
-        <v>0.08181270668248253</v>
+        <v>0.08182728628267011</v>
       </c>
       <c r="C171" t="n">
-        <v>6.628843</v>
+        <v>6.632973</v>
       </c>
       <c r="D171" t="n">
-        <v>0.08825947452935079</v>
+        <v>0.08827879025663155</v>
       </c>
       <c r="E171" t="n">
-        <v>6.628843</v>
+        <v>6.632973</v>
       </c>
       <c r="F171" t="n">
         <v>-0.08888888888888889</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08365335749222869</v>
+        <v>0.08367183332394923</v>
       </c>
       <c r="H171" t="n">
-        <v>6.68913</v>
+        <v>6.691511</v>
       </c>
       <c r="I171" t="n">
         <v>-0.07063492063492063</v>
@@ -9325,10 +9325,10 @@
         <v>-0.1064516129032258</v>
       </c>
       <c r="P171" t="n">
-        <v>6.664464428827848</v>
+        <v>6.667019046364905</v>
       </c>
       <c r="Q171" t="n">
-        <v>6.63194063820362</v>
+        <v>6.634399197428033</v>
       </c>
     </row>
     <row r="172">
@@ -9336,25 +9336,25 @@
         <v>45016</v>
       </c>
       <c r="B172" t="n">
-        <v>0.06684618426497213</v>
+        <v>0.06685601067239233</v>
       </c>
       <c r="C172" t="n">
-        <v>6.579824</v>
+        <v>6.582903</v>
       </c>
       <c r="D172" t="n">
-        <v>0.08365335749222869</v>
+        <v>0.08367183332394923</v>
       </c>
       <c r="E172" t="n">
-        <v>6.579824</v>
+        <v>6.582903</v>
       </c>
       <c r="F172" t="n">
         <v>-0.07063492063492063</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08181270668248253</v>
+        <v>0.08182728628267011</v>
       </c>
       <c r="H172" t="n">
-        <v>6.628843</v>
+        <v>6.632973</v>
       </c>
       <c r="I172" t="n">
         <v>-0.05842293906810036</v>
@@ -9378,10 +9378,10 @@
         <v>-0.09426523297491039</v>
       </c>
       <c r="P172" t="n">
-        <v>6.603029758383578</v>
+        <v>6.607383803462822</v>
       </c>
       <c r="Q172" t="n">
-        <v>6.579162854678824</v>
+        <v>6.582824697370107</v>
       </c>
     </row>
     <row r="173">
@@ -9389,25 +9389,25 @@
         <v>45046</v>
       </c>
       <c r="B173" t="n">
-        <v>0.06743934661774187</v>
+        <v>0.06744518702387481</v>
       </c>
       <c r="C173" t="n">
-        <v>6.542188</v>
+        <v>6.54392</v>
       </c>
       <c r="D173" t="n">
-        <v>0.08181270668248253</v>
+        <v>0.08182728628267011</v>
       </c>
       <c r="E173" t="n">
-        <v>6.542188</v>
+        <v>6.54392</v>
       </c>
       <c r="F173" t="n">
         <v>-0.05842293906810036</v>
       </c>
       <c r="G173" t="n">
-        <v>0.06684618426497213</v>
+        <v>0.06685601067239233</v>
       </c>
       <c r="H173" t="n">
-        <v>6.579824</v>
+        <v>6.582903</v>
       </c>
       <c r="I173" t="n">
         <v>-0.05</v>
@@ -9431,10 +9431,10 @@
         <v>-0.09185185185185185</v>
       </c>
       <c r="P173" t="n">
-        <v>6.55320050120845</v>
+        <v>6.556471799172852</v>
       </c>
       <c r="Q173" t="n">
-        <v>6.540709965424933</v>
+        <v>6.543926491992592</v>
       </c>
     </row>
     <row r="174">
@@ -9442,25 +9442,25 @@
         <v>45077</v>
       </c>
       <c r="B174" t="n">
-        <v>0.05934288172263535</v>
+        <v>0.05934132397504754</v>
       </c>
       <c r="C174" t="n">
-        <v>6.513704</v>
+        <v>6.513321</v>
       </c>
       <c r="D174" t="n">
-        <v>0.06684618426497213</v>
+        <v>0.06685601067239233</v>
       </c>
       <c r="E174" t="n">
-        <v>6.513704</v>
+        <v>6.513321</v>
       </c>
       <c r="F174" t="n">
         <v>-0.05</v>
       </c>
       <c r="G174" t="n">
-        <v>0.06743934661774187</v>
+        <v>0.06744518702387481</v>
       </c>
       <c r="H174" t="n">
-        <v>6.542188</v>
+        <v>6.54392</v>
       </c>
       <c r="I174" t="n">
         <v>-0.04301075268817204</v>
@@ -9484,10 +9484,10 @@
         <v>-0.1362007168458781</v>
       </c>
       <c r="P174" t="n">
-        <v>6.51509885603652</v>
+        <v>6.516981730058967</v>
       </c>
       <c r="Q174" t="n">
-        <v>6.514246446253887</v>
+        <v>6.513528772112111</v>
       </c>
     </row>
     <row r="175">
@@ -9495,25 +9495,25 @@
         <v>45107</v>
       </c>
       <c r="B175" t="n">
-        <v>0.05371118342005765</v>
+        <v>0.05365683642689145</v>
       </c>
       <c r="C175" t="n">
-        <v>6.479064</v>
+        <v>6.475999</v>
       </c>
       <c r="D175" t="n">
-        <v>0.06743934661774187</v>
+        <v>0.06744518702387481</v>
       </c>
       <c r="E175" t="n">
-        <v>6.479064</v>
+        <v>6.475999</v>
       </c>
       <c r="F175" t="n">
         <v>-0.04301075268817204</v>
       </c>
       <c r="G175" t="n">
-        <v>0.05934288172263535</v>
+        <v>0.05934132397504754</v>
       </c>
       <c r="H175" t="n">
-        <v>6.513704</v>
+        <v>6.513321</v>
       </c>
       <c r="I175" t="n">
         <v>-0.02444444444444444</v>
@@ -9537,10 +9537,10 @@
         <v>-0.1259259259259259</v>
       </c>
       <c r="P175" t="n">
-        <v>6.486425024928821</v>
+        <v>6.486129248866036</v>
       </c>
       <c r="Q175" t="n">
-        <v>6.479576502957237</v>
+        <v>6.477508115371998</v>
       </c>
     </row>
     <row r="176">
@@ -9548,25 +9548,25 @@
         <v>45138</v>
       </c>
       <c r="B176" t="n">
-        <v>0.05011585127239826</v>
+        <v>0.05010825832465926</v>
       </c>
       <c r="C176" t="n">
-        <v>6.591712</v>
+        <v>6.588905</v>
       </c>
       <c r="D176" t="n">
-        <v>0.05934288172263535</v>
+        <v>0.05934132397504754</v>
       </c>
       <c r="E176" t="n">
-        <v>6.591712</v>
+        <v>6.588905</v>
       </c>
       <c r="F176" t="n">
         <v>-0.02444444444444444</v>
       </c>
       <c r="G176" t="n">
-        <v>0.05371118342005765</v>
+        <v>0.05365683642689145</v>
       </c>
       <c r="H176" t="n">
-        <v>6.479064</v>
+        <v>6.475999</v>
       </c>
       <c r="I176" t="n">
         <v>-0.03046594982078853</v>
@@ -9590,10 +9590,10 @@
         <v>-0.1387096774193548</v>
       </c>
       <c r="P176" t="n">
-        <v>6.451422035170424</v>
+        <v>6.448365685401071</v>
       </c>
       <c r="Q176" t="n">
-        <v>6.463629113278619</v>
+        <v>6.460624346342806</v>
       </c>
     </row>
     <row r="177">
@@ -9601,25 +9601,25 @@
         <v>45169</v>
       </c>
       <c r="B177" t="n">
-        <v>0.04949698989823936</v>
+        <v>0.04943365617696482</v>
       </c>
       <c r="C177" t="n">
-        <v>6.570877</v>
+        <v>6.570263</v>
       </c>
       <c r="D177" t="n">
-        <v>0.05371118342005765</v>
+        <v>0.05365683642689145</v>
       </c>
       <c r="E177" t="n">
-        <v>6.570877</v>
+        <v>6.570263</v>
       </c>
       <c r="F177" t="n">
         <v>-0.03046594982078853</v>
       </c>
       <c r="G177" t="n">
-        <v>0.05011585127239826</v>
+        <v>0.05010825832465926</v>
       </c>
       <c r="H177" t="n">
-        <v>6.591712</v>
+        <v>6.588905</v>
       </c>
       <c r="I177" t="n">
         <v>-0.04372759856630824</v>
@@ -9643,10 +9643,10 @@
         <v>-0.08888888888888889</v>
       </c>
       <c r="P177" t="n">
-        <v>6.5678312783759</v>
+        <v>6.565042658040496</v>
       </c>
       <c r="Q177" t="n">
-        <v>6.570321759862047</v>
+        <v>6.569942136576027</v>
       </c>
     </row>
     <row r="178">
@@ -9654,25 +9654,25 @@
         <v>45199</v>
       </c>
       <c r="B178" t="n">
-        <v>0.04181480875543109</v>
+        <v>0.04181971838741738</v>
       </c>
       <c r="C178" t="n">
-        <v>6.618531</v>
+        <v>6.609952</v>
       </c>
       <c r="D178" t="n">
-        <v>0.05011585127239826</v>
+        <v>0.05010825832465926</v>
       </c>
       <c r="E178" t="n">
-        <v>6.618531</v>
+        <v>6.609952</v>
       </c>
       <c r="F178" t="n">
         <v>-0.04372759856630824</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04949698989823936</v>
+        <v>0.04943365617696482</v>
       </c>
       <c r="H178" t="n">
-        <v>6.570877</v>
+        <v>6.570263</v>
       </c>
       <c r="I178" t="n">
         <v>-0.04703703703703704</v>
@@ -9696,10 +9696,10 @@
         <v>-0.07063492063492063</v>
       </c>
       <c r="P178" t="n">
-        <v>6.54696225356418</v>
+        <v>6.546423833254196</v>
       </c>
       <c r="Q178" t="n">
-        <v>6.55109221383069</v>
+        <v>6.550689371759561</v>
       </c>
     </row>
     <row r="179">
@@ -9707,25 +9707,25 @@
         <v>45230</v>
       </c>
       <c r="B179" t="n">
-        <v>0.02800847702203058</v>
+        <v>0.02803851695561654</v>
       </c>
       <c r="C179" t="n">
-        <v>6.635965</v>
+        <v>6.621056</v>
       </c>
       <c r="D179" t="n">
-        <v>0.04949698989823936</v>
+        <v>0.04943365617696482</v>
       </c>
       <c r="E179" t="n">
-        <v>6.635965</v>
+        <v>6.621056</v>
       </c>
       <c r="F179" t="n">
         <v>-0.04703703703703704</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04181480875543109</v>
+        <v>0.04181971838741738</v>
       </c>
       <c r="H179" t="n">
-        <v>6.618531</v>
+        <v>6.609952</v>
       </c>
       <c r="I179" t="n">
         <v>-0.04372759856630824</v>
@@ -9749,10 +9749,10 @@
         <v>-0.05842293906810036</v>
       </c>
       <c r="P179" t="n">
-        <v>6.596329102833841</v>
+        <v>6.587622676321858</v>
       </c>
       <c r="Q179" t="n">
-        <v>6.596531938590124</v>
+        <v>6.587981963091129</v>
       </c>
     </row>
     <row r="180">
@@ -9760,25 +9760,25 @@
         <v>45260</v>
       </c>
       <c r="B180" t="n">
-        <v>0.02432744988160085</v>
+        <v>0.02434562435987875</v>
       </c>
       <c r="C180" t="n">
-        <v>6.56937</v>
+        <v>6.556463</v>
       </c>
       <c r="D180" t="n">
-        <v>0.04181480875543109</v>
+        <v>0.04181971838741738</v>
       </c>
       <c r="E180" t="n">
-        <v>6.56937</v>
+        <v>6.556463</v>
       </c>
       <c r="F180" t="n">
         <v>-0.04372759856630824</v>
       </c>
       <c r="G180" t="n">
-        <v>0.02800847702203058</v>
+        <v>0.02803851695561654</v>
       </c>
       <c r="H180" t="n">
-        <v>6.635965</v>
+        <v>6.621056</v>
       </c>
       <c r="I180" t="n">
         <v>-0.03703703703703704</v>
@@ -9802,10 +9802,10 @@
         <v>-0.05</v>
       </c>
       <c r="P180" t="n">
-        <v>6.614632711775068</v>
+        <v>6.599448525594517</v>
       </c>
       <c r="Q180" t="n">
-        <v>6.599689249659741</v>
+        <v>6.584442231518775</v>
       </c>
     </row>
     <row r="181">
@@ -9813,25 +9813,25 @@
         <v>45291</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0289411000246842</v>
+        <v>0.02896460735392647</v>
       </c>
       <c r="C181" t="n">
-        <v>6.52785</v>
+        <v>6.525083</v>
       </c>
       <c r="D181" t="n">
-        <v>0.02800847702203058</v>
+        <v>0.02803851695561654</v>
       </c>
       <c r="E181" t="n">
-        <v>6.52785</v>
+        <v>6.525083</v>
       </c>
       <c r="F181" t="n">
         <v>-0.03703703703703704</v>
       </c>
       <c r="G181" t="n">
-        <v>0.02432744988160085</v>
+        <v>0.02434562435987875</v>
       </c>
       <c r="H181" t="n">
-        <v>6.56937</v>
+        <v>6.556463</v>
       </c>
       <c r="I181" t="n">
         <v>-0.05878136200716846</v>
@@ -9855,10 +9855,10 @@
         <v>-0.04301075268817204</v>
       </c>
       <c r="P181" t="n">
-        <v>6.546861353354478</v>
+        <v>6.53372382395243</v>
       </c>
       <c r="Q181" t="n">
-        <v>6.528159307930572</v>
+        <v>6.522915961589858</v>
       </c>
     </row>
     <row r="182">
@@ -9866,25 +9866,25 @@
         <v>45322</v>
       </c>
       <c r="B182" t="n">
-        <v>0.02714323358125181</v>
+        <v>0.02716056330787975</v>
       </c>
       <c r="C182" t="n">
-        <v>6.549942</v>
+        <v>6.557794</v>
       </c>
       <c r="D182" t="n">
-        <v>0.02432744988160085</v>
+        <v>0.02434562435987875</v>
       </c>
       <c r="E182" t="n">
-        <v>6.549942</v>
+        <v>6.557794</v>
       </c>
       <c r="F182" t="n">
         <v>-0.05878136200716846</v>
       </c>
       <c r="G182" t="n">
-        <v>0.0289411000246842</v>
+        <v>0.02896460735392647</v>
       </c>
       <c r="H182" t="n">
-        <v>6.52785</v>
+        <v>6.525083</v>
       </c>
       <c r="I182" t="n">
         <v>-0.06272401433691756</v>
@@ -9908,10 +9908,10 @@
         <v>-0.02444444444444444</v>
       </c>
       <c r="P182" t="n">
-        <v>6.504778678142083</v>
+        <v>6.502031447854813</v>
       </c>
       <c r="Q182" t="n">
-        <v>6.503941126109815</v>
+        <v>6.5012307964599</v>
       </c>
     </row>
     <row r="183">
@@ -9919,25 +9919,25 @@
         <v>45351</v>
       </c>
       <c r="B183" t="n">
-        <v>0.02525809793594647</v>
+        <v>0.0252820651153387</v>
       </c>
       <c r="C183" t="n">
-        <v>6.54624</v>
+        <v>6.55981</v>
       </c>
       <c r="D183" t="n">
-        <v>0.0289411000246842</v>
+        <v>0.02896460735392647</v>
       </c>
       <c r="E183" t="n">
-        <v>6.54624</v>
+        <v>6.55981</v>
       </c>
       <c r="F183" t="n">
         <v>-0.06272401433691756</v>
       </c>
       <c r="G183" t="n">
-        <v>0.02714323358125181</v>
+        <v>0.02716056330787975</v>
       </c>
       <c r="H183" t="n">
-        <v>6.549942</v>
+        <v>6.557794</v>
       </c>
       <c r="I183" t="n">
         <v>-0.08237547892720307</v>
@@ -9961,10 +9961,10 @@
         <v>-0.03046594982078853</v>
       </c>
       <c r="P183" t="n">
-        <v>6.527860628237198</v>
+        <v>6.535986529417886</v>
       </c>
       <c r="Q183" t="n">
-        <v>6.533769242854896</v>
+        <v>6.541871882215589</v>
       </c>
     </row>
     <row r="184">
@@ -9972,25 +9972,25 @@
         <v>45382</v>
       </c>
       <c r="B184" t="n">
-        <v>0.02402944823209463</v>
+        <v>0.0240377659904718</v>
       </c>
       <c r="C184" t="n">
-        <v>6.460073</v>
+        <v>6.471937</v>
       </c>
       <c r="D184" t="n">
-        <v>0.02714323358125181</v>
+        <v>0.02716056330787975</v>
       </c>
       <c r="E184" t="n">
-        <v>6.460073</v>
+        <v>6.471937</v>
       </c>
       <c r="F184" t="n">
         <v>-0.08237547892720307</v>
       </c>
       <c r="G184" t="n">
-        <v>0.02525809793594647</v>
+        <v>0.0252820651153387</v>
       </c>
       <c r="H184" t="n">
-        <v>6.54624</v>
+        <v>6.55981</v>
       </c>
       <c r="I184" t="n">
         <v>-0.06236559139784946</v>
@@ -10014,10 +10014,10 @@
         <v>-0.04372759856630824</v>
       </c>
       <c r="P184" t="n">
-        <v>6.524496886438821</v>
+        <v>6.538467077923191</v>
       </c>
       <c r="Q184" t="n">
-        <v>6.496722875178818</v>
+        <v>6.510519421787296</v>
       </c>
     </row>
     <row r="185">
@@ -10025,25 +10025,25 @@
         <v>45412</v>
       </c>
       <c r="B185" t="n">
-        <v>0.02349666007117168</v>
+        <v>0.02350217501273111</v>
       </c>
       <c r="C185" t="n">
-        <v>6.429943</v>
+        <v>6.438749</v>
       </c>
       <c r="D185" t="n">
-        <v>0.02525809793594647</v>
+        <v>0.0252820651153387</v>
       </c>
       <c r="E185" t="n">
-        <v>6.429943</v>
+        <v>6.438749</v>
       </c>
       <c r="F185" t="n">
         <v>-0.06236559139784946</v>
       </c>
       <c r="G185" t="n">
-        <v>0.02402944823209463</v>
+        <v>0.0240377659904718</v>
       </c>
       <c r="H185" t="n">
-        <v>6.460073</v>
+        <v>6.471937</v>
       </c>
       <c r="I185" t="n">
         <v>-0.07962962962962963</v>
@@ -10067,10 +10067,10 @@
         <v>-0.04703703703703704</v>
       </c>
       <c r="P185" t="n">
-        <v>6.436726296121282</v>
+        <v>6.448959463583462</v>
       </c>
       <c r="Q185" t="n">
-        <v>6.429914037452186</v>
+        <v>6.438621622330949</v>
       </c>
     </row>
     <row r="186">
@@ -10078,25 +10078,25 @@
         <v>45443</v>
       </c>
       <c r="B186" t="n">
-        <v>0.02549795980241853</v>
+        <v>0.02549861258839403</v>
       </c>
       <c r="C186" t="n">
-        <v>6.406699</v>
+        <v>6.409699</v>
       </c>
       <c r="D186" t="n">
-        <v>0.02402944823209463</v>
+        <v>0.0240377659904718</v>
       </c>
       <c r="E186" t="n">
-        <v>6.406699</v>
+        <v>6.409699</v>
       </c>
       <c r="F186" t="n">
         <v>-0.07962962962962963</v>
       </c>
       <c r="G186" t="n">
-        <v>0.02349666007117168</v>
+        <v>0.02350217501273111</v>
       </c>
       <c r="H186" t="n">
-        <v>6.429943</v>
+        <v>6.438749</v>
       </c>
       <c r="I186" t="n">
         <v>-0.08888888888888889</v>
@@ -10120,10 +10120,10 @@
         <v>-0.04372759856630824</v>
       </c>
       <c r="P186" t="n">
-        <v>6.406329260457229</v>
+        <v>6.415427718252474</v>
       </c>
       <c r="Q186" t="n">
-        <v>6.400285179454328</v>
+        <v>6.40928422732554</v>
       </c>
     </row>
     <row r="187">
@@ -10131,25 +10131,25 @@
         <v>45473</v>
       </c>
       <c r="B187" t="n">
-        <v>0.02478831214225696</v>
+        <v>0.02473106388386004</v>
       </c>
       <c r="C187" t="n">
-        <v>6.399597</v>
+        <v>6.401681</v>
       </c>
       <c r="D187" t="n">
-        <v>0.02349666007117168</v>
+        <v>0.02350217501273111</v>
       </c>
       <c r="E187" t="n">
-        <v>6.399597</v>
+        <v>6.401681</v>
       </c>
       <c r="F187" t="n">
         <v>-0.08888888888888889</v>
       </c>
       <c r="G187" t="n">
-        <v>0.02549795980241853</v>
+        <v>0.02549861258839403</v>
       </c>
       <c r="H187" t="n">
-        <v>6.406699</v>
+        <v>6.409699</v>
       </c>
       <c r="I187" t="n">
         <v>-0.06259259259259259</v>
@@ -10173,10 +10173,10 @@
         <v>-0.03703703703703704</v>
       </c>
       <c r="P187" t="n">
-        <v>6.382987787080918</v>
+        <v>6.386138109348318</v>
       </c>
       <c r="Q187" t="n">
-        <v>6.372222295461173</v>
+        <v>6.375328145930913</v>
       </c>
     </row>
     <row r="188">
@@ -10184,25 +10184,25 @@
         <v>45504</v>
       </c>
       <c r="B188" t="n">
-        <v>0.02474399201726207</v>
+        <v>0.02474462269323752</v>
       </c>
       <c r="C188" t="n">
-        <v>6.39693</v>
+        <v>6.394798</v>
       </c>
       <c r="D188" t="n">
-        <v>0.02549795980241853</v>
+        <v>0.02549861258839403</v>
       </c>
       <c r="E188" t="n">
-        <v>6.39693</v>
+        <v>6.394798</v>
       </c>
       <c r="F188" t="n">
         <v>-0.06259259259259259</v>
       </c>
       <c r="G188" t="n">
-        <v>0.02478831214225696</v>
+        <v>0.02473106388386004</v>
       </c>
       <c r="H188" t="n">
-        <v>6.399597</v>
+        <v>6.401681</v>
       </c>
       <c r="I188" t="n">
         <v>-0.04336917562724014</v>
@@ -10226,10 +10226,10 @@
         <v>-0.05878136200716846</v>
       </c>
       <c r="P188" t="n">
-        <v>6.37617219768113</v>
+        <v>6.378381833317599</v>
       </c>
       <c r="Q188" t="n">
-        <v>6.401211405918655</v>
+        <v>6.391426309230918</v>
       </c>
     </row>
     <row r="189">
@@ -10237,25 +10237,25 @@
         <v>45535</v>
       </c>
       <c r="B189" t="n">
-        <v>0.0206293957257877</v>
+        <v>0.02057232086757388</v>
       </c>
       <c r="C189" t="n">
-        <v>6.331176</v>
+        <v>6.332492</v>
       </c>
       <c r="D189" t="n">
-        <v>0.02478831214225696</v>
+        <v>0.02473106388386004</v>
       </c>
       <c r="E189" t="n">
-        <v>6.331176</v>
+        <v>6.332492</v>
       </c>
       <c r="F189" t="n">
         <v>-0.04336917562724014</v>
       </c>
       <c r="G189" t="n">
-        <v>0.02474399201726207</v>
+        <v>0.02474462269323752</v>
       </c>
       <c r="H189" t="n">
-        <v>6.39693</v>
+        <v>6.394798</v>
       </c>
       <c r="I189" t="n">
         <v>-0.01612903225806452</v>
@@ -10279,10 +10279,10 @@
         <v>-0.06272401433691756</v>
       </c>
       <c r="P189" t="n">
-        <v>6.373884748785501</v>
+        <v>6.371778072640396</v>
       </c>
       <c r="Q189" t="n">
-        <v>6.360058600086548</v>
+        <v>6.357909707445494</v>
       </c>
     </row>
     <row r="190">
@@ -10290,25 +10290,25 @@
         <v>45565</v>
       </c>
       <c r="B190" t="n">
-        <v>0.01709736358990366</v>
+        <v>0.01710693309986322</v>
       </c>
       <c r="C190" t="n">
-        <v>6.320052</v>
+        <v>6.304264</v>
       </c>
       <c r="D190" t="n">
-        <v>0.02474399201726207</v>
+        <v>0.02474462269323752</v>
       </c>
       <c r="E190" t="n">
-        <v>6.320052</v>
+        <v>6.304264</v>
       </c>
       <c r="F190" t="n">
         <v>-0.01612903225806452</v>
       </c>
       <c r="G190" t="n">
-        <v>0.0206293957257877</v>
+        <v>0.02057232086757388</v>
       </c>
       <c r="H190" t="n">
-        <v>6.331176</v>
+        <v>6.332492</v>
       </c>
       <c r="I190" t="n">
         <v>-0.05222222222222222</v>
@@ -10332,10 +10332,10 @@
         <v>-0.08237547892720307</v>
       </c>
       <c r="P190" t="n">
-        <v>6.307042723262012</v>
+        <v>6.308464077825563</v>
       </c>
       <c r="Q190" t="n">
-        <v>6.325323199855599</v>
+        <v>6.304534639292089</v>
       </c>
     </row>
     <row r="191">
@@ -10343,25 +10343,25 @@
         <v>45596</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0198189209894073</v>
+        <v>0.01983944428648243</v>
       </c>
       <c r="C191" t="n">
-        <v>6.260785</v>
+        <v>6.245635</v>
       </c>
       <c r="D191" t="n">
-        <v>0.0206293957257877</v>
+        <v>0.02057232086757388</v>
       </c>
       <c r="E191" t="n">
-        <v>6.260785</v>
+        <v>6.245635</v>
       </c>
       <c r="F191" t="n">
         <v>-0.05222222222222222</v>
       </c>
       <c r="G191" t="n">
-        <v>0.01709736358990366</v>
+        <v>0.01710693309986322</v>
       </c>
       <c r="H191" t="n">
-        <v>6.320052</v>
+        <v>6.304264</v>
       </c>
       <c r="I191" t="n">
         <v>-0.07204301075268818</v>
@@ -10385,10 +10385,10 @@
         <v>-0.06236559139784946</v>
       </c>
       <c r="P191" t="n">
-        <v>6.296113249598712</v>
+        <v>6.280029951068687</v>
       </c>
       <c r="Q191" t="n">
-        <v>6.282157005516861</v>
+        <v>6.266104084018287</v>
       </c>
     </row>
     <row r="192">
@@ -10396,25 +10396,25 @@
         <v>45626</v>
       </c>
       <c r="B192" t="n">
-        <v>0.02243158738712658</v>
+        <v>0.02244839316090452</v>
       </c>
       <c r="C192" t="n">
-        <v>6.218895</v>
+        <v>6.20562</v>
       </c>
       <c r="D192" t="n">
-        <v>0.01709736358990366</v>
+        <v>0.01710693309986322</v>
       </c>
       <c r="E192" t="n">
-        <v>6.218895</v>
+        <v>6.20562</v>
       </c>
       <c r="F192" t="n">
         <v>-0.07204301075268818</v>
       </c>
       <c r="G192" t="n">
-        <v>0.0198189209894073</v>
+        <v>0.01983944428648243</v>
       </c>
       <c r="H192" t="n">
-        <v>6.260785</v>
+        <v>6.245635</v>
       </c>
       <c r="I192" t="n">
         <v>-0.07111111111111111</v>
@@ -10438,10 +10438,10 @@
         <v>-0.07962962962962963</v>
       </c>
       <c r="P192" t="n">
-        <v>6.235918113247399</v>
+        <v>6.220485474619822</v>
       </c>
       <c r="Q192" t="n">
-        <v>6.222418749856771</v>
+        <v>6.207050537354466</v>
       </c>
     </row>
     <row r="193">
@@ -10449,25 +10449,25 @@
         <v>45657</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0242948180476299</v>
+        <v>0.02431395875073861</v>
       </c>
       <c r="C193" t="n">
-        <v>6.264913</v>
+        <v>6.259514</v>
       </c>
       <c r="D193" t="n">
-        <v>0.0198189209894073</v>
+        <v>0.01983944428648243</v>
       </c>
       <c r="E193" t="n">
-        <v>6.264913</v>
+        <v>6.259514</v>
       </c>
       <c r="F193" t="n">
         <v>-0.07111111111111111</v>
       </c>
       <c r="G193" t="n">
-        <v>0.02243158738712658</v>
+        <v>0.02244839316090452</v>
       </c>
       <c r="H193" t="n">
-        <v>6.218895</v>
+        <v>6.20562</v>
       </c>
       <c r="I193" t="n">
         <v>-0.07491039426523298</v>
@@ -10491,10 +10491,10 @@
         <v>-0.08888888888888889</v>
       </c>
       <c r="P193" t="n">
-        <v>6.193512874251249</v>
+        <v>6.180000928949414</v>
       </c>
       <c r="Q193" t="n">
-        <v>6.19917177029484</v>
+        <v>6.18576307024205</v>
       </c>
     </row>
     <row r="194">
@@ -10502,25 +10502,25 @@
         <v>45688</v>
       </c>
       <c r="B194" t="n">
-        <v>0.02466817192499793</v>
+        <v>0.02468164807018436</v>
       </c>
       <c r="C194" t="n">
-        <v>6.314188</v>
+        <v>6.317167</v>
       </c>
       <c r="D194" t="n">
-        <v>0.02243158738712658</v>
+        <v>0.02244839316090452</v>
       </c>
       <c r="E194" t="n">
-        <v>6.314188</v>
+        <v>6.317167</v>
       </c>
       <c r="F194" t="n">
         <v>-0.07491039426523298</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0242948180476299</v>
+        <v>0.02431395875073861</v>
       </c>
       <c r="H194" t="n">
-        <v>6.264913</v>
+        <v>6.259514</v>
       </c>
       <c r="I194" t="n">
         <v>-0.0910394265232975</v>
@@ -10544,10 +10544,10 @@
         <v>-0.06259259259259259</v>
       </c>
       <c r="P194" t="n">
-        <v>6.24106967904414</v>
+        <v>6.235628947710188</v>
       </c>
       <c r="Q194" t="n">
-        <v>6.239448974201944</v>
+        <v>6.234104571518798</v>
       </c>
     </row>
     <row r="195">
@@ -10555,25 +10555,25 @@
         <v>45716</v>
       </c>
       <c r="B195" t="n">
-        <v>0.02273024587889072</v>
+        <v>0.02274509877111086</v>
       </c>
       <c r="C195" t="n">
-        <v>6.310802</v>
+        <v>6.321476</v>
       </c>
       <c r="D195" t="n">
-        <v>0.0242948180476299</v>
+        <v>0.02431395875073861</v>
       </c>
       <c r="E195" t="n">
-        <v>6.310802</v>
+        <v>6.321476</v>
       </c>
       <c r="F195" t="n">
         <v>-0.0910394265232975</v>
       </c>
       <c r="G195" t="n">
-        <v>0.02466817192499793</v>
+        <v>0.02468164807018436</v>
       </c>
       <c r="H195" t="n">
-        <v>6.314188</v>
+        <v>6.317167</v>
       </c>
       <c r="I195" t="n">
         <v>-0.07738095238095237</v>
@@ -10597,10 +10597,10 @@
         <v>-0.04336917562724014</v>
       </c>
       <c r="P195" t="n">
-        <v>6.291859917224985</v>
+        <v>6.29498353418535</v>
       </c>
       <c r="Q195" t="n">
-        <v>6.285621033255934</v>
+        <v>6.288690173214534</v>
       </c>
     </row>
     <row r="196">
@@ -10608,25 +10608,25 @@
         <v>45747</v>
       </c>
       <c r="B196" t="n">
-        <v>0.02156473579725304</v>
+        <v>0.02157579193697678</v>
       </c>
       <c r="C196" t="n">
-        <v>6.386192</v>
+        <v>6.395683</v>
       </c>
       <c r="D196" t="n">
-        <v>0.02466817192499793</v>
+        <v>0.02468164807018436</v>
       </c>
       <c r="E196" t="n">
-        <v>6.386192</v>
+        <v>6.395683</v>
       </c>
       <c r="F196" t="n">
         <v>-0.07738095238095237</v>
       </c>
       <c r="G196" t="n">
-        <v>0.02273024587889072</v>
+        <v>0.02274509877111086</v>
       </c>
       <c r="H196" t="n">
-        <v>6.310802</v>
+        <v>6.321476</v>
       </c>
       <c r="I196" t="n">
         <v>-0.0827956989247312</v>
@@ -10650,10 +10650,10 @@
         <v>-0.01612903225806452</v>
       </c>
       <c r="P196" t="n">
-        <v>6.288787389501814</v>
+        <v>6.299765715690907</v>
       </c>
       <c r="Q196" t="n">
-        <v>6.303371439920266</v>
+        <v>6.314308447371143</v>
       </c>
     </row>
     <row r="197">
@@ -10661,25 +10661,25 @@
         <v>45777</v>
       </c>
       <c r="B197" t="n">
-        <v>0.02113664843687157</v>
+        <v>0.02113658191538903</v>
       </c>
       <c r="C197" t="n">
-        <v>6.318358</v>
+        <v>6.325752</v>
       </c>
       <c r="D197" t="n">
-        <v>0.02273024587889072</v>
+        <v>0.02274509877111086</v>
       </c>
       <c r="E197" t="n">
-        <v>6.318358</v>
+        <v>6.325752</v>
       </c>
       <c r="F197" t="n">
         <v>-0.0827956989247312</v>
       </c>
       <c r="G197" t="n">
-        <v>0.02156473579725304</v>
+        <v>0.02157579193697678</v>
       </c>
       <c r="H197" t="n">
-        <v>6.386192</v>
+        <v>6.395683</v>
       </c>
       <c r="I197" t="n">
         <v>-0.04185185185185185</v>
@@ -10703,10 +10703,10 @@
         <v>-0.05222222222222222</v>
       </c>
       <c r="P197" t="n">
-        <v>6.36610198720235</v>
+        <v>6.375854137111276</v>
       </c>
       <c r="Q197" t="n">
-        <v>6.346041192715973</v>
+        <v>6.355678089563946</v>
       </c>
     </row>
     <row r="198">
@@ -10714,25 +10714,25 @@
         <v>45808</v>
       </c>
       <c r="B198" t="n">
-        <v>0.01870583309510199</v>
+        <v>0.01870639908526339</v>
       </c>
       <c r="C198" t="n">
-        <v>6.366002</v>
+        <v>6.3765</v>
       </c>
       <c r="D198" t="n">
-        <v>0.02156473579725304</v>
+        <v>0.02157579193697678</v>
       </c>
       <c r="E198" t="n">
-        <v>6.366002</v>
+        <v>6.3765</v>
       </c>
       <c r="F198" t="n">
         <v>-0.04185185185185185</v>
       </c>
       <c r="G198" t="n">
-        <v>0.02113664843687157</v>
+        <v>0.02113658191538903</v>
       </c>
       <c r="H198" t="n">
-        <v>6.318358</v>
+        <v>6.325752</v>
       </c>
       <c r="I198" t="n">
         <v>-0.06344086021505375</v>
@@ -10756,10 +10756,10 @@
         <v>-0.07204301075268818</v>
       </c>
       <c r="P198" t="n">
-        <v>6.297243553281449</v>
+        <v>6.30486049481359</v>
       </c>
       <c r="Q198" t="n">
-        <v>6.31108017770256</v>
+        <v>6.318675832760141</v>
       </c>
     </row>
     <row r="199">
@@ -10767,25 +10767,25 @@
         <v>45838</v>
       </c>
       <c r="B199" t="n">
-        <v>0.01979564770349462</v>
+        <v>0.01977499232792201</v>
       </c>
       <c r="C199" t="n">
-        <v>6.33645</v>
+        <v>6.365037</v>
       </c>
       <c r="D199" t="n">
-        <v>0.02113664843687157</v>
+        <v>0.02113658191538903</v>
       </c>
       <c r="E199" t="n">
-        <v>6.33645</v>
+        <v>6.365037</v>
       </c>
       <c r="F199" t="n">
         <v>-0.06344086021505375</v>
       </c>
       <c r="G199" t="n">
-        <v>0.01870583309510199</v>
+        <v>0.01870639908526339</v>
       </c>
       <c r="H199" t="n">
-        <v>6.366002</v>
+        <v>6.3765</v>
       </c>
       <c r="I199" t="n">
         <v>-0.06333333333333332</v>
@@ -10809,10 +10809,10 @@
         <v>-0.07111111111111111</v>
       </c>
       <c r="P199" t="n">
-        <v>6.346180308767696</v>
+        <v>6.356951531853406</v>
       </c>
       <c r="Q199" t="n">
-        <v>6.336767450543245</v>
+        <v>6.360429096493251</v>
       </c>
     </row>
     <row r="200">
@@ -10820,25 +10820,25 @@
         <v>45869</v>
       </c>
       <c r="B200" t="n">
-        <v>0.02035859126065098</v>
+        <v>0.02036557217017076</v>
       </c>
       <c r="C200" t="n">
-        <v>6.248858</v>
+        <v>6.298628</v>
       </c>
       <c r="D200" t="n">
-        <v>0.01870583309510199</v>
+        <v>0.01870639908526339</v>
       </c>
       <c r="E200" t="n">
-        <v>6.248858</v>
+        <v>6.298628</v>
       </c>
       <c r="F200" t="n">
         <v>-0.06333333333333332</v>
       </c>
       <c r="G200" t="n">
-        <v>0.01979564770349462</v>
+        <v>0.01977499232792201</v>
       </c>
       <c r="H200" t="n">
-        <v>6.33645</v>
+        <v>6.365037</v>
       </c>
       <c r="I200" t="n">
         <v>-0.06021505376344086</v>
@@ -10862,10 +10862,10 @@
         <v>-0.07491039426523298</v>
       </c>
       <c r="P200" t="n">
-        <v>6.316370881302427</v>
+        <v>6.34557635210634</v>
       </c>
       <c r="Q200" t="n">
-        <v>6.296843339421272</v>
+        <v>6.325798520303646</v>
       </c>
     </row>
     <row r="201">
@@ -10873,25 +10873,25 @@
         <v>45900</v>
       </c>
       <c r="B201" t="n">
-        <v>0.02066013950474943</v>
+        <v>0.02068371537155933</v>
       </c>
       <c r="C201" t="n">
-        <v>6.25288</v>
+        <v>6.31279</v>
       </c>
       <c r="D201" t="n">
-        <v>0.01979564770349462</v>
+        <v>0.01977499232792201</v>
       </c>
       <c r="E201" t="n">
-        <v>6.25288</v>
+        <v>6.31279</v>
       </c>
       <c r="F201" t="n">
         <v>-0.06021505376344086</v>
       </c>
       <c r="G201" t="n">
-        <v>0.02035859126065098</v>
+        <v>0.02036557217017076</v>
       </c>
       <c r="H201" t="n">
-        <v>6.248858</v>
+        <v>6.298628</v>
       </c>
       <c r="I201" t="n">
         <v>-0.03154121863799283</v>
@@ -10915,10 +10915,10 @@
         <v>-0.0910394265232975</v>
       </c>
       <c r="P201" t="n">
-        <v>6.22738517536982</v>
+        <v>6.278201780510534</v>
       </c>
       <c r="Q201" t="n">
-        <v>6.247092324654383</v>
+        <v>6.297744778984549</v>
       </c>
     </row>
     <row r="202">
@@ -10926,24 +10926,28 @@
         <v>45930</v>
       </c>
       <c r="B202" t="n">
-        <v>0.02225768709807419</v>
-      </c>
-      <c r="C202" t="inlineStr"/>
+        <v>0.02233288730608685</v>
+      </c>
+      <c r="C202" t="n">
+        <v>6.340489</v>
+      </c>
       <c r="D202" t="n">
-        <v>0.02035859126065098</v>
-      </c>
-      <c r="E202" t="inlineStr"/>
+        <v>0.02036557217017076</v>
+      </c>
+      <c r="E202" t="n">
+        <v>6.340489</v>
+      </c>
       <c r="F202" t="n">
         <v>-0.03154121863799283</v>
       </c>
       <c r="G202" t="n">
-        <v>0.02066013950474943</v>
+        <v>0.02068371537155933</v>
       </c>
       <c r="H202" t="n">
-        <v>6.25288</v>
+        <v>6.31279</v>
       </c>
       <c r="I202" t="n">
-        <v>0.03111111111111111</v>
+        <v>0.0162962962962963</v>
       </c>
       <c r="J202" t="n">
         <v>-0.06021505376344086</v>
@@ -10964,30 +10968,36 @@
         <v>-0.07738095238095237</v>
       </c>
       <c r="P202" t="n">
-        <v>6.231833877569863</v>
+        <v>6.292958118582644</v>
       </c>
       <c r="Q202" t="n">
-        <v>6.243272600590083</v>
+        <v>6.316765078808671</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
         <v>45961</v>
       </c>
-      <c r="B203" t="inlineStr"/>
+      <c r="B203" t="n">
+        <v>0.02089663200417213</v>
+      </c>
       <c r="C203" t="inlineStr"/>
       <c r="D203" t="n">
-        <v>0.02066013950474943</v>
+        <v>0.02068371537155933</v>
       </c>
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="n">
-        <v>0.03111111111111111</v>
+        <v>0.0162962962962963</v>
       </c>
       <c r="G203" t="n">
-        <v>0.02225768709807419</v>
-      </c>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
+        <v>0.02233288730608685</v>
+      </c>
+      <c r="H203" t="n">
+        <v>6.340489</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0.01505376344086022</v>
+      </c>
       <c r="J203" t="n">
         <v>-0.03154121863799283</v>
       </c>
@@ -11006,8 +11016,51 @@
       <c r="O203" t="n">
         <v>-0.0827956989247312</v>
       </c>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
+      <c r="P203" t="n">
+        <v>6.321480553721934</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>6.334292423597253</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>45991</v>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="n">
+        <v>0.02233288730608685</v>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="n">
+        <v>0.01505376344086022</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.02089663200417213</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0.0162962962962963</v>
+      </c>
+      <c r="K204" t="n">
+        <v>-0.03154121863799283</v>
+      </c>
+      <c r="L204" t="n">
+        <v>-0.06021505376344086</v>
+      </c>
+      <c r="M204" t="n">
+        <v>-0.06333333333333332</v>
+      </c>
+      <c r="N204" t="n">
+        <v>-0.06344086021505375</v>
+      </c>
+      <c r="O204" t="n">
+        <v>-0.04185185185185185</v>
+      </c>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
